--- a/概要/AGS作品概要.xlsx
+++ b/概要/AGS作品概要.xlsx
@@ -5,11 +5,11 @@
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Users\2316032\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Users\2316032\Desktop\Over Poured\概要\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12210"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="15480" windowHeight="11070"/>
   </bookViews>
   <sheets>
     <sheet name="配布用" sheetId="3" r:id="rId1"/>
@@ -17,7 +17,7 @@
   </sheets>
   <definedNames>
     <definedName name="ＮＰＣ">選択!$D$52:$D$61</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">配布用!$A$1:$AO$158</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">配布用!$A$1:$AO$130</definedName>
     <definedName name="グラフィック">選択!$D$25:$D$39</definedName>
     <definedName name="サウンド">選択!$D$68:$D$71</definedName>
     <definedName name="ジャンル">選択!$F$15:$F$23</definedName>
@@ -170,16 +170,10 @@
     <t>ゲームクリア</t>
   </si>
   <si>
-    <t>ゲームオーバー</t>
-  </si>
-  <si>
     <t>シーン遷移</t>
   </si>
   <si>
     <t>ＮＰＣ</t>
-  </si>
-  <si>
-    <t>３種類以上の敵</t>
   </si>
   <si>
     <t>コース名</t>
@@ -518,10 +512,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>３種類以上の敵</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>５種類以上の敵</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -622,10 +612,6 @@
     <rPh sb="1" eb="2">
       <t>チャ</t>
     </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>Over Poured</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
@@ -636,6 +622,20 @@
     <rPh sb="2" eb="4">
       <t>ケイコ</t>
     </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>2種類のNPC</t>
+  </si>
+  <si>
+    <t>2種類のNPC</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>外部データ読込</t>
+  </si>
+  <si>
+    <t>BARISTA BLITZ</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -952,9 +952,9 @@
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
     <mruColors>
+      <color rgb="FFFF6600"/>
       <color rgb="FFFF99CC"/>
       <color rgb="FFFF5050"/>
-      <color rgb="FFFF6600"/>
     </mruColors>
   </colors>
   <extLst>
@@ -1651,363 +1651,6 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>1</xdr:col>
-      <xdr:colOff>164526</xdr:colOff>
-      <xdr:row>9</xdr:row>
-      <xdr:rowOff>76201</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>39</xdr:col>
-      <xdr:colOff>57151</xdr:colOff>
-      <xdr:row>20</xdr:row>
-      <xdr:rowOff>847209</xdr:rowOff>
-    </xdr:to>
-    <xdr:grpSp>
-      <xdr:nvGrpSpPr>
-        <xdr:cNvPr id="16" name="グループ化 15">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6340748B-76E1-4ADB-9A34-24B7C4CCABE9}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvGrpSpPr>
-          <a:grpSpLocks noChangeAspect="1"/>
-        </xdr:cNvGrpSpPr>
-      </xdr:nvGrpSpPr>
-      <xdr:grpSpPr>
-        <a:xfrm>
-          <a:off x="231761" y="1667436"/>
-          <a:ext cx="6717008" cy="4099155"/>
-          <a:chOff x="720969" y="1134432"/>
-          <a:chExt cx="5416062" cy="2969256"/>
-        </a:xfrm>
-      </xdr:grpSpPr>
-      <xdr:pic>
-        <xdr:nvPicPr>
-          <xdr:cNvPr id="17" name="図 16">
-            <a:extLst>
-              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E01CDB32-5FDF-4276-9A20-000D94672E09}"/>
-              </a:ext>
-            </a:extLst>
-          </xdr:cNvPr>
-          <xdr:cNvPicPr>
-            <a:picLocks noChangeAspect="1"/>
-          </xdr:cNvPicPr>
-        </xdr:nvPicPr>
-        <xdr:blipFill>
-          <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
-          <a:stretch>
-            <a:fillRect/>
-          </a:stretch>
-        </xdr:blipFill>
-        <xdr:spPr>
-          <a:xfrm>
-            <a:off x="720969" y="1136269"/>
-            <a:ext cx="5416062" cy="2966304"/>
-          </a:xfrm>
-          <a:prstGeom prst="rect">
-            <a:avLst/>
-          </a:prstGeom>
-          <a:ln w="19050">
-            <a:solidFill>
-              <a:schemeClr val="bg2">
-                <a:lumMod val="50000"/>
-              </a:schemeClr>
-            </a:solidFill>
-          </a:ln>
-        </xdr:spPr>
-      </xdr:pic>
-      <xdr:pic>
-        <xdr:nvPicPr>
-          <xdr:cNvPr id="18" name="図 17">
-            <a:extLst>
-              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A29629D5-97C8-4D01-9E9C-7518BF607040}"/>
-              </a:ext>
-            </a:extLst>
-          </xdr:cNvPr>
-          <xdr:cNvPicPr>
-            <a:picLocks noChangeAspect="1"/>
-          </xdr:cNvPicPr>
-        </xdr:nvPicPr>
-        <xdr:blipFill>
-          <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3"/>
-          <a:stretch>
-            <a:fillRect/>
-          </a:stretch>
-        </xdr:blipFill>
-        <xdr:spPr>
-          <a:xfrm>
-            <a:off x="4935415" y="3373328"/>
-            <a:ext cx="1201616" cy="730360"/>
-          </a:xfrm>
-          <a:prstGeom prst="rect">
-            <a:avLst/>
-          </a:prstGeom>
-          <a:ln w="19050">
-            <a:solidFill>
-              <a:schemeClr val="bg2">
-                <a:lumMod val="50000"/>
-              </a:schemeClr>
-            </a:solidFill>
-          </a:ln>
-        </xdr:spPr>
-      </xdr:pic>
-      <xdr:pic>
-        <xdr:nvPicPr>
-          <xdr:cNvPr id="19" name="図 18">
-            <a:extLst>
-              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{25335DD0-9DCD-4D8C-AA71-2E0DD53494CD}"/>
-              </a:ext>
-            </a:extLst>
-          </xdr:cNvPr>
-          <xdr:cNvPicPr>
-            <a:picLocks noChangeAspect="1"/>
-          </xdr:cNvPicPr>
-        </xdr:nvPicPr>
-        <xdr:blipFill>
-          <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4"/>
-          <a:stretch>
-            <a:fillRect/>
-          </a:stretch>
-        </xdr:blipFill>
-        <xdr:spPr>
-          <a:xfrm>
-            <a:off x="3118339" y="3010522"/>
-            <a:ext cx="1817076" cy="1093166"/>
-          </a:xfrm>
-          <a:prstGeom prst="rect">
-            <a:avLst/>
-          </a:prstGeom>
-          <a:ln w="19050">
-            <a:solidFill>
-              <a:schemeClr val="bg2">
-                <a:lumMod val="50000"/>
-              </a:schemeClr>
-            </a:solidFill>
-          </a:ln>
-        </xdr:spPr>
-      </xdr:pic>
-      <xdr:pic>
-        <xdr:nvPicPr>
-          <xdr:cNvPr id="20" name="図 19">
-            <a:extLst>
-              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7CEED112-4440-4CF7-8851-4F7F72EA5F56}"/>
-              </a:ext>
-            </a:extLst>
-          </xdr:cNvPr>
-          <xdr:cNvPicPr>
-            <a:picLocks noChangeAspect="1"/>
-          </xdr:cNvPicPr>
-        </xdr:nvPicPr>
-        <xdr:blipFill>
-          <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId5"/>
-          <a:stretch>
-            <a:fillRect/>
-          </a:stretch>
-        </xdr:blipFill>
-        <xdr:spPr>
-          <a:xfrm>
-            <a:off x="720969" y="1134432"/>
-            <a:ext cx="1379871" cy="1125620"/>
-          </a:xfrm>
-          <a:prstGeom prst="rect">
-            <a:avLst/>
-          </a:prstGeom>
-          <a:ln w="19050">
-            <a:solidFill>
-              <a:schemeClr val="bg2">
-                <a:lumMod val="50000"/>
-              </a:schemeClr>
-            </a:solidFill>
-          </a:ln>
-        </xdr:spPr>
-      </xdr:pic>
-    </xdr:grpSp>
-    <xdr:clientData fLocksWithSheet="0"/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>13</xdr:col>
-      <xdr:colOff>162535</xdr:colOff>
-      <xdr:row>10</xdr:row>
-      <xdr:rowOff>49097</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>33</xdr:col>
-      <xdr:colOff>54096</xdr:colOff>
-      <xdr:row>12</xdr:row>
-      <xdr:rowOff>70042</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="21" name="正方形/長方形 20">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C6CBF212-5467-472E-9CCE-64207E14AD23}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="2334235" y="1877897"/>
-          <a:ext cx="3511061" cy="630545"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:schemeClr val="accent1">
-            <a:lumMod val="40000"/>
-            <a:lumOff val="60000"/>
-            <a:alpha val="80000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst>
-          <a:softEdge rad="31750"/>
-        </a:effectLst>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="50000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr wrap="square" rtlCol="0" anchor="ctr"/>
-        <a:lstStyle>
-          <a:defPPr>
-            <a:defRPr lang="en-US"/>
-          </a:defPPr>
-          <a:lvl1pPr marL="0" algn="l" defTabSz="457200" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
-            <a:defRPr sz="1800" kern="1200">
-              <a:solidFill>
-                <a:schemeClr val="lt1"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:lvl1pPr>
-          <a:lvl2pPr marL="457200" algn="l" defTabSz="457200" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
-            <a:defRPr sz="1800" kern="1200">
-              <a:solidFill>
-                <a:schemeClr val="lt1"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:lvl2pPr>
-          <a:lvl3pPr marL="914400" algn="l" defTabSz="457200" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
-            <a:defRPr sz="1800" kern="1200">
-              <a:solidFill>
-                <a:schemeClr val="lt1"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:lvl3pPr>
-          <a:lvl4pPr marL="1371600" algn="l" defTabSz="457200" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
-            <a:defRPr sz="1800" kern="1200">
-              <a:solidFill>
-                <a:schemeClr val="lt1"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:lvl4pPr>
-          <a:lvl5pPr marL="1828800" algn="l" defTabSz="457200" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
-            <a:defRPr sz="1800" kern="1200">
-              <a:solidFill>
-                <a:schemeClr val="lt1"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:lvl5pPr>
-          <a:lvl6pPr marL="2286000" algn="l" defTabSz="457200" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
-            <a:defRPr sz="1800" kern="1200">
-              <a:solidFill>
-                <a:schemeClr val="lt1"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:lvl6pPr>
-          <a:lvl7pPr marL="2743200" algn="l" defTabSz="457200" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
-            <a:defRPr sz="1800" kern="1200">
-              <a:solidFill>
-                <a:schemeClr val="lt1"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:lvl7pPr>
-          <a:lvl8pPr marL="3200400" algn="l" defTabSz="457200" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
-            <a:defRPr sz="1800" kern="1200">
-              <a:solidFill>
-                <a:schemeClr val="lt1"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:lvl8pPr>
-          <a:lvl9pPr marL="3657600" algn="l" defTabSz="457200" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
-            <a:defRPr sz="1800" kern="1200">
-              <a:solidFill>
-                <a:schemeClr val="lt1"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:lvl9pPr>
-        </a:lstStyle>
-        <a:p>
-          <a:pPr algn="ctr"/>
-          <a:r>
-            <a:rPr lang="ja-JP" altLang="en-US" sz="1600" b="1">
-              <a:solidFill>
-                <a:schemeClr val="tx1"/>
-              </a:solidFill>
-              <a:latin typeface="Kゴシック" panose="02000609000000000000" pitchFamily="1" charset="-128"/>
-              <a:ea typeface="Kゴシック" panose="02000609000000000000" pitchFamily="1" charset="-128"/>
-            </a:rPr>
-            <a:t>ゲーム画面のスクリーンショット</a:t>
-          </a:r>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData fLocksWithSheet="0"/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>1</xdr:col>
       <xdr:colOff>112058</xdr:colOff>
       <xdr:row>82</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
@@ -2101,7 +1744,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId6" cstate="print">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2" cstate="print">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
               <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
@@ -2114,8 +1757,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="1893793" y="27334411"/>
-          <a:ext cx="3429000" cy="2050542"/>
+          <a:off x="1922404" y="26843975"/>
+          <a:ext cx="3487890" cy="1997135"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2154,7 +1797,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId7">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
               <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
@@ -2186,6 +1829,1336 @@
         </a:extLst>
       </xdr:spPr>
     </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>149087</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>267228</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>39</xdr:col>
+      <xdr:colOff>140805</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>21924</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="10" name="図 9"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="215348" y="1567598"/>
+          <a:ext cx="6924261" cy="4409522"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>31</xdr:col>
+      <xdr:colOff>71710</xdr:colOff>
+      <xdr:row>106</xdr:row>
+      <xdr:rowOff>109125</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>36</xdr:col>
+      <xdr:colOff>35075</xdr:colOff>
+      <xdr:row>109</xdr:row>
+      <xdr:rowOff>13875</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="11" name="角丸四角形 10"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5608370" y="25725295"/>
+          <a:ext cx="875333" cy="330335"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="38100" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="accent2"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:round/>
+          <a:headEnd type="none" w="med" len="med"/>
+          <a:tailEnd type="none" w="med" len="med"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="accent2"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1600" b="1">
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+            <a:latin typeface="Kゴシック" panose="02000609000000000000" pitchFamily="1" charset="-128"/>
+            <a:ea typeface="Kゴシック" panose="02000609000000000000" pitchFamily="1" charset="-128"/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>32</xdr:col>
+      <xdr:colOff>149968</xdr:colOff>
+      <xdr:row>104</xdr:row>
+      <xdr:rowOff>42653</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>34</xdr:col>
+      <xdr:colOff>106412</xdr:colOff>
+      <xdr:row>106</xdr:row>
+      <xdr:rowOff>89265</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="23" name="角丸四角形 22"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5869021" y="25375100"/>
+          <a:ext cx="321231" cy="330335"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="38100" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="accent2"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:round/>
+          <a:headEnd type="none" w="med" len="med"/>
+          <a:tailEnd type="none" w="med" len="med"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="accent2"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1600" b="1">
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+            <a:latin typeface="Kゴシック" panose="02000609000000000000" pitchFamily="1" charset="-128"/>
+            <a:ea typeface="Kゴシック" panose="02000609000000000000" pitchFamily="1" charset="-128"/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>42774</xdr:colOff>
+      <xdr:row>114</xdr:row>
+      <xdr:rowOff>21692</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>110166</xdr:colOff>
+      <xdr:row>118</xdr:row>
+      <xdr:rowOff>33221</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="28" name="斜め縞 27"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="1550775">
+          <a:off x="2661136" y="26772756"/>
+          <a:ext cx="614573" cy="578976"/>
+        </a:xfrm>
+        <a:prstGeom prst="diagStripe">
+          <a:avLst>
+            <a:gd name="adj" fmla="val 56353"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="38100" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:srgbClr val="00B0F0"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:round/>
+          <a:headEnd type="none" w="med" len="med"/>
+          <a:tailEnd type="none" w="med" len="med"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="accent2"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1600" b="1">
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+            <a:latin typeface="Kゴシック" panose="02000609000000000000" pitchFamily="1" charset="-128"/>
+            <a:ea typeface="Kゴシック" panose="02000609000000000000" pitchFamily="1" charset="-128"/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>77010</xdr:colOff>
+      <xdr:row>117</xdr:row>
+      <xdr:rowOff>44584</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>4053</xdr:colOff>
+      <xdr:row>120</xdr:row>
+      <xdr:rowOff>72956</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="29" name="楕円 28"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2695372" y="27221233"/>
+          <a:ext cx="474224" cy="453957"/>
+        </a:xfrm>
+        <a:prstGeom prst="ellipse">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="38100" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="accent2"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:round/>
+          <a:headEnd type="none" w="med" len="med"/>
+          <a:tailEnd type="none" w="med" len="med"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="accent2"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1600" b="1">
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+            <a:latin typeface="Kゴシック" panose="02000609000000000000" pitchFamily="1" charset="-128"/>
+            <a:ea typeface="Kゴシック" panose="02000609000000000000" pitchFamily="1" charset="-128"/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>99708</xdr:colOff>
+      <xdr:row>120</xdr:row>
+      <xdr:rowOff>81564</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>40532</xdr:colOff>
+      <xdr:row>123</xdr:row>
+      <xdr:rowOff>125649</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="31" name="角丸四角形 30"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3082857" y="27683798"/>
+          <a:ext cx="488005" cy="469670"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="38100" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="accent2"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:round/>
+          <a:headEnd type="none" w="med" len="med"/>
+          <a:tailEnd type="none" w="med" len="med"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="accent2"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1600" b="1">
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+            <a:latin typeface="Kゴシック" panose="02000609000000000000" pitchFamily="1" charset="-128"/>
+            <a:ea typeface="Kゴシック" panose="02000609000000000000" pitchFamily="1" charset="-128"/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>166926</xdr:colOff>
+      <xdr:row>124</xdr:row>
+      <xdr:rowOff>1</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>166926</xdr:colOff>
+      <xdr:row>126</xdr:row>
+      <xdr:rowOff>59531</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="44" name="直線コネクタ 43"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="3268504" y="28205907"/>
+          <a:ext cx="0" cy="345280"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="28575"/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent2"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent2"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent2"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>142722</xdr:colOff>
+      <xdr:row>126</xdr:row>
+      <xdr:rowOff>49479</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>31</xdr:col>
+      <xdr:colOff>61723</xdr:colOff>
+      <xdr:row>126</xdr:row>
+      <xdr:rowOff>51195</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="48" name="直線コネクタ 47"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="2956260" y="28814979"/>
+          <a:ext cx="2666598" cy="1716"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="28575"/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent2"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent2"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent2"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>137338</xdr:colOff>
+      <xdr:row>120</xdr:row>
+      <xdr:rowOff>80210</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>137338</xdr:colOff>
+      <xdr:row>126</xdr:row>
+      <xdr:rowOff>71438</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="50" name="直線コネクタ 49"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="2881729" y="27714616"/>
+          <a:ext cx="0" cy="848478"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="28575"/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent2"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent2"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent2"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>31</xdr:col>
+      <xdr:colOff>39316</xdr:colOff>
+      <xdr:row>124</xdr:row>
+      <xdr:rowOff>98101</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>36</xdr:col>
+      <xdr:colOff>69796</xdr:colOff>
+      <xdr:row>127</xdr:row>
+      <xdr:rowOff>140904</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="55" name="テキスト ボックス 54"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5600451" y="28570524"/>
+          <a:ext cx="946345" cy="482418"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr lvl="0" algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="2400" b="1">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>移動</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100" b="1">
+            <a:solidFill>
+              <a:schemeClr val="accent2"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>33</xdr:col>
+      <xdr:colOff>144979</xdr:colOff>
+      <xdr:row>109</xdr:row>
+      <xdr:rowOff>13875</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>33</xdr:col>
+      <xdr:colOff>146143</xdr:colOff>
+      <xdr:row>124</xdr:row>
+      <xdr:rowOff>98101</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="57" name="直線コネクタ 56"/>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="11" idx="2"/>
+          <a:endCxn id="55" idx="0"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6072460" y="26288221"/>
+          <a:ext cx="1164" cy="2282303"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="38100"/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent2"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent2"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent2"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>46553</xdr:colOff>
+      <xdr:row>106</xdr:row>
+      <xdr:rowOff>102525</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>2998</xdr:colOff>
+      <xdr:row>109</xdr:row>
+      <xdr:rowOff>7622</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="63" name="角丸四角形 62"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1009939" y="25771039"/>
+          <a:ext cx="315673" cy="329640"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="38100" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:srgbClr val="00B0F0"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:round/>
+          <a:headEnd type="none" w="med" len="med"/>
+          <a:tailEnd type="none" w="med" len="med"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="accent2"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1600" b="1">
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:latin typeface="Kゴシック" panose="02000609000000000000" pitchFamily="1" charset="-128"/>
+            <a:ea typeface="Kゴシック" panose="02000609000000000000" pitchFamily="1" charset="-128"/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>31295</xdr:colOff>
+      <xdr:row>110</xdr:row>
+      <xdr:rowOff>70961</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>45117</xdr:colOff>
+      <xdr:row>113</xdr:row>
+      <xdr:rowOff>113763</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="66" name="テキスト ボックス 65"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="998834" y="26375000"/>
+          <a:ext cx="1096665" cy="478947"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr lvl="0" algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1600" b="1">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>ダッシュ</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="900" b="1">
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>135355</xdr:colOff>
+      <xdr:row>116</xdr:row>
+      <xdr:rowOff>45118</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>375</xdr:colOff>
+      <xdr:row>116</xdr:row>
+      <xdr:rowOff>45135</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="68" name="直線コネクタ 67"/>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="28" idx="1"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1" flipV="1">
+          <a:off x="1283368" y="27221447"/>
+          <a:ext cx="1308810" cy="17"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="38100">
+          <a:solidFill>
+            <a:srgbClr val="00B0F0"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>140369</xdr:colOff>
+      <xdr:row>113</xdr:row>
+      <xdr:rowOff>115303</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>140369</xdr:colOff>
+      <xdr:row>116</xdr:row>
+      <xdr:rowOff>55145</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="70" name="直線コネクタ 69"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="1288382" y="26855487"/>
+          <a:ext cx="0" cy="375987"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="38100">
+          <a:solidFill>
+            <a:srgbClr val="00B0F0"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>24775</xdr:colOff>
+      <xdr:row>109</xdr:row>
+      <xdr:rowOff>7622</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>27878</xdr:colOff>
+      <xdr:row>110</xdr:row>
+      <xdr:rowOff>65049</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="72" name="直線コネクタ 71"/>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="63" idx="2"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1177068" y="26194402"/>
+          <a:ext cx="3103" cy="201464"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="38100">
+          <a:solidFill>
+            <a:srgbClr val="00B0F0"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>53662</xdr:colOff>
+      <xdr:row>106</xdr:row>
+      <xdr:rowOff>106117</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>22</xdr:col>
+      <xdr:colOff>45119</xdr:colOff>
+      <xdr:row>109</xdr:row>
+      <xdr:rowOff>10867</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="73" name="角丸四角形 72"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2645465" y="25828630"/>
+          <a:ext cx="1254772" cy="340895"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="38100" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:srgbClr val="00B050"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:round/>
+          <a:headEnd type="none" w="med" len="med"/>
+          <a:tailEnd type="none" w="med" len="med"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="accent2"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1600" b="1">
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+            <a:latin typeface="Kゴシック" panose="02000609000000000000" pitchFamily="1" charset="-128"/>
+            <a:ea typeface="Kゴシック" panose="02000609000000000000" pitchFamily="1" charset="-128"/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>25</xdr:col>
+      <xdr:colOff>125328</xdr:colOff>
+      <xdr:row>118</xdr:row>
+      <xdr:rowOff>5013</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>27</xdr:col>
+      <xdr:colOff>51175</xdr:colOff>
+      <xdr:row>119</xdr:row>
+      <xdr:rowOff>130106</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="74" name="楕円 73"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4521867" y="27472105"/>
+          <a:ext cx="286795" cy="270475"/>
+        </a:xfrm>
+        <a:prstGeom prst="ellipse">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="38100" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:srgbClr val="00B050"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:round/>
+          <a:headEnd type="none" w="med" len="med"/>
+          <a:tailEnd type="none" w="med" len="med"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="accent2"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1600" b="1">
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+            <a:latin typeface="Kゴシック" panose="02000609000000000000" pitchFamily="1" charset="-128"/>
+            <a:ea typeface="Kゴシック" panose="02000609000000000000" pitchFamily="1" charset="-128"/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>147323</xdr:colOff>
+      <xdr:row>109</xdr:row>
+      <xdr:rowOff>12031</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>147323</xdr:colOff>
+      <xdr:row>111</xdr:row>
+      <xdr:rowOff>30079</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="78" name="直線コネクタ 77"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="3280547" y="26170689"/>
+          <a:ext cx="0" cy="308811"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="28575">
+          <a:solidFill>
+            <a:srgbClr val="00B050"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent2"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent2"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent2"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>150394</xdr:colOff>
+      <xdr:row>111</xdr:row>
+      <xdr:rowOff>35092</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>23</xdr:col>
+      <xdr:colOff>115303</xdr:colOff>
+      <xdr:row>111</xdr:row>
+      <xdr:rowOff>35092</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="83" name="直線コネクタ 82"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3283618" y="26484513"/>
+          <a:ext cx="867277" cy="0"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="38100">
+          <a:solidFill>
+            <a:srgbClr val="00B050"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>26</xdr:col>
+      <xdr:colOff>85223</xdr:colOff>
+      <xdr:row>115</xdr:row>
+      <xdr:rowOff>85396</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>26</xdr:col>
+      <xdr:colOff>88251</xdr:colOff>
+      <xdr:row>118</xdr:row>
+      <xdr:rowOff>5013</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="84" name="直線コネクタ 83"/>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="74" idx="0"/>
+          <a:endCxn id="87" idx="2"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1" flipV="1">
+          <a:off x="4749189" y="27156103"/>
+          <a:ext cx="3028" cy="353169"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="28575">
+          <a:solidFill>
+            <a:srgbClr val="00B050"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent2"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent2"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent2"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>22</xdr:col>
+      <xdr:colOff>145382</xdr:colOff>
+      <xdr:row>109</xdr:row>
+      <xdr:rowOff>5789</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>30</xdr:col>
+      <xdr:colOff>25065</xdr:colOff>
+      <xdr:row>115</xdr:row>
+      <xdr:rowOff>85396</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="87" name="テキスト ボックス 86"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4073623" y="26209392"/>
+          <a:ext cx="1351132" cy="946711"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr lvl="0" algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1200" b="1">
+              <a:solidFill>
+                <a:srgbClr val="00B050"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>インタラクト</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1200" b="1">
+            <a:solidFill>
+              <a:srgbClr val="00B050"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr lvl="0" algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1200" b="1">
+              <a:solidFill>
+                <a:srgbClr val="00B050"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>＆</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1200" b="1">
+              <a:solidFill>
+                <a:srgbClr val="00B050"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t/>
+          </a:r>
+          <a:br>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1200" b="1">
+              <a:solidFill>
+                <a:srgbClr val="00B050"/>
+              </a:solidFill>
+            </a:rPr>
+          </a:br>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1200" b="1">
+              <a:solidFill>
+                <a:srgbClr val="00B050"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>決定</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
@@ -2442,7 +3415,53 @@
       </a:bgFillStyleLst>
     </a:fmtScheme>
   </a:themeElements>
-  <a:objectDefaults/>
+  <a:objectDefaults>
+    <a:spDef>
+      <a:spPr>
+        <a:solidFill>
+          <a:schemeClr val="accent1">
+            <a:lumMod val="40000"/>
+            <a:lumOff val="60000"/>
+            <a:alpha val="80000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst>
+          <a:softEdge rad="31750"/>
+        </a:effectLst>
+      </a:spPr>
+      <a:bodyPr wrap="square" rtlCol="0" anchor="ctr"/>
+      <a:lstStyle>
+        <a:defPPr algn="ctr">
+          <a:defRPr sz="1600" b="1">
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+            <a:latin typeface="Kゴシック" panose="02000609000000000000" pitchFamily="1" charset="-128"/>
+            <a:ea typeface="Kゴシック" panose="02000609000000000000" pitchFamily="1" charset="-128"/>
+          </a:defRPr>
+        </a:defPPr>
+      </a:lstStyle>
+      <a:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </a:style>
+    </a:spDef>
+  </a:objectDefaults>
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
@@ -2457,8 +3476,8 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:AX79"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="B121" zoomScale="85" zoomScaleNormal="85" zoomScaleSheetLayoutView="85" workbookViewId="0">
-      <selection activeCell="BK44" sqref="BK44"/>
+    <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="A81" zoomScale="85" zoomScaleNormal="85" zoomScaleSheetLayoutView="85" workbookViewId="0">
+      <selection activeCell="U53" sqref="U53:AM53"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="2.375" defaultRowHeight="11.25" customHeight="1"/>
@@ -2817,7 +3836,7 @@
         <v>3</v>
       </c>
       <c r="O24" s="24" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="P24" s="24"/>
       <c r="Q24" s="24"/>
@@ -2840,7 +3859,7 @@
         <v>3</v>
       </c>
       <c r="O25" s="24" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="P25" s="24"/>
       <c r="Q25" s="24"/>
@@ -2905,7 +3924,7 @@
     </row>
     <row r="31" spans="6:36" s="1" customFormat="1" ht="19.5" customHeight="1">
       <c r="G31" s="24" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="H31" s="24"/>
       <c r="I31" s="24"/>
@@ -2916,7 +3935,7 @@
       <c r="N31" s="24"/>
       <c r="O31" s="24"/>
       <c r="P31" s="24" t="s">
-        <v>114</v>
+        <v>110</v>
       </c>
       <c r="Q31" s="24"/>
       <c r="R31" s="24"/>
@@ -3428,7 +4447,7 @@
       <c r="H53" s="14"/>
       <c r="I53" s="14"/>
       <c r="J53" s="14" t="s">
-        <v>22</v>
+        <v>113</v>
       </c>
       <c r="K53" s="14"/>
       <c r="L53" s="14"/>
@@ -3470,7 +4489,7 @@
       <c r="H54" s="14"/>
       <c r="I54" s="14"/>
       <c r="J54" s="14" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="K54" s="14"/>
       <c r="L54" s="14"/>
@@ -3504,7 +4523,7 @@
     </row>
     <row r="55" spans="4:39" ht="27.75" customHeight="1">
       <c r="D55" s="14" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E55" s="14"/>
       <c r="F55" s="14"/>
@@ -3512,7 +4531,7 @@
       <c r="H55" s="14"/>
       <c r="I55" s="14"/>
       <c r="J55" s="14" t="s">
-        <v>25</v>
+        <v>111</v>
       </c>
       <c r="K55" s="14"/>
       <c r="L55" s="14"/>
@@ -4660,8 +5679,8 @@
   <sheetPr codeName="Sheet3"/>
   <dimension ref="B2:H77"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="H10" sqref="H10"/>
+    <sheetView topLeftCell="A46" workbookViewId="0">
+      <selection activeCell="F62" sqref="F62"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="2.375" defaultRowHeight="18.75"/>
@@ -4674,25 +5693,25 @@
   <sheetData>
     <row r="2" spans="2:8">
       <c r="B2" s="10" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="D2" s="10" t="s">
         <v>7</v>
       </c>
       <c r="F2" s="10" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="H2" s="10" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
     </row>
     <row r="3" spans="2:8">
       <c r="B3" s="3"/>
       <c r="D3" s="3" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="F3" s="3" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="H3" s="3"/>
     </row>
@@ -4701,43 +5720,43 @@
         <v>10</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="F4" s="3" t="s">
         <v>1</v>
       </c>
       <c r="H4" s="3" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
     </row>
     <row r="5" spans="2:8">
       <c r="B5" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="D5" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="F5" s="3" t="s">
         <v>33</v>
-      </c>
-      <c r="D5" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="F5" s="3" t="s">
-        <v>35</v>
       </c>
     </row>
     <row r="6" spans="2:8">
       <c r="B6" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="D6" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="F6" s="3" t="s">
         <v>36</v>
-      </c>
-      <c r="D6" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="F6" s="3" t="s">
-        <v>38</v>
       </c>
     </row>
     <row r="7" spans="2:8">
       <c r="B7" s="3" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="D7" s="3" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
     </row>
     <row r="8" spans="2:8">
@@ -4745,20 +5764,20 @@
         <v>11</v>
       </c>
       <c r="D8" s="3" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
     </row>
     <row r="9" spans="2:8">
       <c r="B9" s="3" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="D9" s="3" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
     </row>
     <row r="10" spans="2:8">
       <c r="B10" s="3" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
     </row>
     <row r="13" spans="2:8">
@@ -4784,7 +5803,7 @@
       </c>
       <c r="C15" s="7"/>
       <c r="D15" s="8" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="F15" s="7" t="s">
         <v>15</v>
@@ -4796,10 +5815,10 @@
       </c>
       <c r="C16" s="7"/>
       <c r="D16" s="8" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
     </row>
     <row r="17" spans="2:6" ht="19.5" customHeight="1">
@@ -4808,10 +5827,10 @@
       </c>
       <c r="C17" s="7"/>
       <c r="D17" s="8" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
     </row>
     <row r="18" spans="2:6">
@@ -4820,10 +5839,10 @@
       </c>
       <c r="C18" s="7"/>
       <c r="D18" s="8" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
     </row>
     <row r="19" spans="2:6" ht="18.75" customHeight="1">
@@ -4832,7 +5851,7 @@
       </c>
       <c r="C19" s="7"/>
       <c r="D19" s="8" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="F19" s="7" t="s">
         <v>20</v>
@@ -4844,10 +5863,10 @@
       </c>
       <c r="C20" s="7"/>
       <c r="D20" s="8" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
     </row>
     <row r="21" spans="2:6" ht="19.5" customHeight="1">
@@ -4856,10 +5875,10 @@
       </c>
       <c r="C21" s="7"/>
       <c r="D21" s="8" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
     </row>
     <row r="22" spans="2:6" ht="18.75" customHeight="1">
@@ -4868,166 +5887,166 @@
       </c>
       <c r="C22" s="7"/>
       <c r="D22" s="7" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
     </row>
     <row r="23" spans="2:6" ht="18.75" customHeight="1">
       <c r="B23" s="7" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="C23" s="7"/>
       <c r="D23" s="7" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
     </row>
     <row r="24" spans="2:6" ht="19.5" customHeight="1">
       <c r="B24" s="7" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="C24" s="7"/>
       <c r="D24" s="7" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
     </row>
     <row r="25" spans="2:6" ht="18.75" customHeight="1">
       <c r="B25" s="7" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="C25" s="7"/>
       <c r="D25" s="7" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
     </row>
     <row r="26" spans="2:6" ht="18.75" customHeight="1">
       <c r="B26" s="7" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="C26" s="7"/>
       <c r="D26" s="7" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
     </row>
     <row r="27" spans="2:6" ht="19.5" customHeight="1">
       <c r="B27" s="7" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="C27" s="7"/>
       <c r="D27" s="7" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
     </row>
     <row r="28" spans="2:6" ht="18.75" customHeight="1">
       <c r="B28" s="7" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="C28" s="7"/>
       <c r="D28" s="7" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
     </row>
     <row r="29" spans="2:6" ht="18.75" customHeight="1">
       <c r="B29" s="7" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="C29" s="7"/>
       <c r="D29" s="7" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
     </row>
     <row r="30" spans="2:6" ht="19.5" customHeight="1">
       <c r="B30" s="7" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="C30" s="7"/>
       <c r="D30" s="7" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
     </row>
     <row r="31" spans="2:6" ht="18.75" customHeight="1">
       <c r="B31" s="7" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="C31" s="7"/>
       <c r="D31" s="7" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
     </row>
     <row r="32" spans="2:6" ht="18.75" customHeight="1">
       <c r="B32" s="7" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="C32" s="7"/>
       <c r="D32" s="7" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
     </row>
     <row r="33" spans="2:4" ht="19.5" customHeight="1">
       <c r="B33" s="7" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="C33" s="7"/>
       <c r="D33" s="7" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
     </row>
     <row r="34" spans="2:4" ht="18.75" customHeight="1">
       <c r="B34" s="7" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="C34" s="7"/>
       <c r="D34" s="7" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
     </row>
     <row r="35" spans="2:4" ht="18.75" customHeight="1">
       <c r="B35" s="7" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="C35" s="7"/>
       <c r="D35" s="7" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
     </row>
     <row r="36" spans="2:4" ht="19.5" customHeight="1">
       <c r="B36" s="7" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="C36" s="7"/>
       <c r="D36" s="7" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
     </row>
     <row r="37" spans="2:4" ht="18.75" customHeight="1">
       <c r="B37" s="7" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="C37" s="7"/>
       <c r="D37" s="7" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
     </row>
     <row r="38" spans="2:4" ht="18.75" customHeight="1">
       <c r="B38" s="7" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="C38" s="7"/>
       <c r="D38" s="7" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
     </row>
     <row r="39" spans="2:4" ht="19.5" customHeight="1">
       <c r="B39" s="7" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="C39" s="7"/>
       <c r="D39" s="7" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
     </row>
     <row r="40" spans="2:4" ht="18.75" customHeight="1">
@@ -5036,7 +6055,7 @@
       </c>
       <c r="C40" s="7"/>
       <c r="D40" s="7" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
     </row>
     <row r="41" spans="2:4" ht="18.75" customHeight="1">
@@ -5045,7 +6064,7 @@
       </c>
       <c r="C41" s="7"/>
       <c r="D41" s="7" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
     </row>
     <row r="42" spans="2:4" ht="19.5" customHeight="1">
@@ -5054,7 +6073,7 @@
       </c>
       <c r="C42" s="7"/>
       <c r="D42" s="7" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
     </row>
     <row r="43" spans="2:4" ht="18.75" customHeight="1">
@@ -5063,7 +6082,7 @@
       </c>
       <c r="C43" s="7"/>
       <c r="D43" s="7" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
     </row>
     <row r="44" spans="2:4" ht="18.75" customHeight="1">
@@ -5072,7 +6091,7 @@
       </c>
       <c r="C44" s="7"/>
       <c r="D44" s="7" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
     </row>
     <row r="45" spans="2:4" ht="19.5" customHeight="1">
@@ -5081,295 +6100,295 @@
       </c>
       <c r="C45" s="7"/>
       <c r="D45" s="7" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
     </row>
     <row r="46" spans="2:4" ht="18.75" customHeight="1">
       <c r="B46" s="7" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="C46" s="7"/>
       <c r="D46" s="7" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
     </row>
     <row r="47" spans="2:4" ht="18.75" customHeight="1">
       <c r="B47" s="7" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="C47" s="7"/>
       <c r="D47" s="7" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
     </row>
     <row r="48" spans="2:4" ht="19.5" customHeight="1">
       <c r="B48" s="7" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="C48" s="7"/>
       <c r="D48" s="7" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
     </row>
     <row r="49" spans="2:4" ht="18.75" customHeight="1">
       <c r="B49" s="7" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="C49" s="7"/>
       <c r="D49" s="7" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
     </row>
     <row r="50" spans="2:4" ht="18.75" customHeight="1">
       <c r="B50" s="7" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="C50" s="7"/>
       <c r="D50" s="7" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
     </row>
     <row r="51" spans="2:4" ht="18.75" customHeight="1">
       <c r="B51" s="7" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="C51" s="7"/>
       <c r="D51" s="7" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
     </row>
     <row r="52" spans="2:4" ht="18.75" customHeight="1">
       <c r="B52" s="7" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="C52" s="7"/>
       <c r="D52" s="7" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
     </row>
     <row r="53" spans="2:4" ht="19.5" customHeight="1">
       <c r="B53" s="7" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="C53" s="7"/>
       <c r="D53" s="7" t="s">
-        <v>87</v>
+        <v>112</v>
       </c>
     </row>
     <row r="54" spans="2:4" ht="18.75" customHeight="1">
       <c r="B54" s="7" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="C54" s="7"/>
       <c r="D54" s="7" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
     </row>
     <row r="55" spans="2:4" ht="18.75" customHeight="1">
       <c r="B55" s="7" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="C55" s="7"/>
       <c r="D55" s="7" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
     </row>
     <row r="56" spans="2:4" ht="18.75" customHeight="1">
       <c r="B56" s="7" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="C56" s="7"/>
       <c r="D56" s="7" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
     </row>
     <row r="57" spans="2:4" ht="18.75" customHeight="1">
       <c r="B57" s="7" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="C57" s="7"/>
       <c r="D57" s="7" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
     </row>
     <row r="58" spans="2:4" ht="18.75" customHeight="1">
       <c r="B58" s="7" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="C58" s="7"/>
       <c r="D58" s="7" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
     </row>
     <row r="59" spans="2:4" ht="18.75" customHeight="1">
       <c r="B59" s="7" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="C59" s="7"/>
       <c r="D59" s="7" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
     </row>
     <row r="60" spans="2:4" ht="18.75" customHeight="1">
       <c r="B60" s="7" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="C60" s="7"/>
       <c r="D60" s="7" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
     </row>
     <row r="61" spans="2:4" ht="18.75" customHeight="1">
       <c r="B61" s="7" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="C61" s="7"/>
       <c r="D61" s="7" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
     </row>
     <row r="62" spans="2:4" ht="19.5" customHeight="1">
       <c r="B62" s="7" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="C62" s="7"/>
       <c r="D62" s="7" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
     </row>
     <row r="63" spans="2:4">
       <c r="B63" s="7" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="C63" s="7"/>
       <c r="D63" s="7" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
     </row>
     <row r="64" spans="2:4">
       <c r="B64" s="7" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="C64" s="7"/>
       <c r="D64" s="7" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
     </row>
     <row r="65" spans="2:4">
       <c r="B65" s="7" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="C65" s="7"/>
       <c r="D65" s="7" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
     </row>
     <row r="66" spans="2:4">
       <c r="B66" s="7" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="C66" s="7"/>
       <c r="D66" s="7" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
     </row>
     <row r="67" spans="2:4">
       <c r="B67" s="7" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="C67" s="7"/>
       <c r="D67" s="7" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
     </row>
     <row r="68" spans="2:4">
       <c r="B68" s="7" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="C68" s="7"/>
       <c r="D68" s="7" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
     </row>
     <row r="69" spans="2:4">
       <c r="B69" s="7" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="C69" s="7"/>
       <c r="D69" s="7" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
     </row>
     <row r="70" spans="2:4">
       <c r="B70" s="7" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="C70" s="7"/>
       <c r="D70" s="7" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
     </row>
     <row r="71" spans="2:4">
       <c r="B71" s="7" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="C71" s="7"/>
       <c r="D71" s="7" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
     </row>
     <row r="72" spans="2:4">
       <c r="B72" s="7" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="C72" s="7"/>
       <c r="D72" s="7" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
     </row>
     <row r="73" spans="2:4">
       <c r="B73" s="7" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="C73" s="7"/>
       <c r="D73" s="7" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
     </row>
     <row r="74" spans="2:4">
       <c r="B74" s="7" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="C74" s="7"/>
       <c r="D74" s="7" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
     </row>
     <row r="75" spans="2:4">
       <c r="B75" s="7" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="C75" s="7"/>
       <c r="D75" s="7" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
     </row>
     <row r="76" spans="2:4">
       <c r="B76" s="7" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="C76" s="7"/>
       <c r="D76" s="7" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
     </row>
     <row r="77" spans="2:4">
       <c r="B77" s="7" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="C77" s="7"/>
       <c r="D77" s="7" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
     </row>
   </sheetData>
@@ -5380,6 +6399,17 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="02709b60-37ec-424b-b681-c6612ac7fe32">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+    <TaxCatchAll xmlns="f9048785-d070-4c78-8f2f-ed2b48eb345c" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
 <FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
   <Display>DocumentLibraryForm</Display>
@@ -5388,7 +6418,7 @@
 </FormTemplates>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="ドキュメント" ma:contentTypeID="0x010100C2961D859B1A8B4697EC07BF3C3DAD3B" ma:contentTypeVersion="15" ma:contentTypeDescription="新しいドキュメントを作成します。" ma:contentTypeScope="" ma:versionID="61fb881009e02d846dde605853ec8855">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="02709b60-37ec-424b-b681-c6612ac7fe32" xmlns:ns3="f9048785-d070-4c78-8f2f-ed2b48eb345c" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="ee8e5857d1e7c61daa458c0ee5ad5d78" ns2:_="" ns3:_="">
     <xsd:import namespace="02709b60-37ec-424b-b681-c6612ac7fe32"/>
@@ -5623,18 +6653,24 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="02709b60-37ec-424b-b681-c6612ac7fe32">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-    <TaxCatchAll xmlns="f9048785-d070-4c78-8f2f-ed2b48eb345c" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{99A05471-9381-45FA-B698-ECE997466ADA}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="f9048785-d070-4c78-8f2f-ed2b48eb345c"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="02709b60-37ec-424b-b681-c6612ac7fe32"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{2137EFEA-05C5-4541-B472-718FEE202DA3}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
@@ -5642,7 +6678,7 @@
 </ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{8B673FAB-ED83-4048-83DC-E118FF73CE8D}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -5659,21 +6695,4 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{99A05471-9381-45FA-B698-ECE997466ADA}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="02709b60-37ec-424b-b681-c6612ac7fe32"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="f9048785-d070-4c78-8f2f-ed2b48eb345c"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>
--- a/概要/AGS作品概要.xlsx
+++ b/概要/AGS作品概要.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28925"/>
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Users\2316032\Desktop\Over Poured\概要\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kakik\Desktop\Over Poured\概要\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E4796B72-9A15-43F4-9244-2D6FF4AF1866}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="15480" windowHeight="11070"/>
+    <workbookView xWindow="7935" yWindow="825" windowWidth="19665" windowHeight="13770" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="配布用" sheetId="3" r:id="rId1"/>
@@ -33,17 +34,6 @@
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
   </extLst>
 </workbook>
 </file>
@@ -642,7 +632,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="8">
     <font>
       <sz val="11"/>
@@ -857,12 +847,6 @@
     <xf numFmtId="0" fontId="7" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -901,6 +885,12 @@
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1410,27 +1400,10 @@
         </a:lstStyle>
         <a:p>
           <a:pPr algn="ctr"/>
-          <a:r>
-            <a:rPr lang="ja-JP" altLang="en-US" sz="1100" b="1">
-              <a:latin typeface="Yu Gothic Medium" panose="020B0500000000000000" pitchFamily="50" charset="-128"/>
-              <a:ea typeface="Yu Gothic Medium" panose="020B0500000000000000" pitchFamily="50" charset="-128"/>
-            </a:rPr>
-            <a:t>ＱＲコード</a:t>
-          </a:r>
-          <a:endParaRPr lang="en-US" altLang="ja-JP" sz="1100" b="1">
+          <a:endParaRPr lang="ja-JP" altLang="en-US" sz="1100" b="1">
             <a:latin typeface="Yu Gothic Medium" panose="020B0500000000000000" pitchFamily="50" charset="-128"/>
             <a:ea typeface="Yu Gothic Medium" panose="020B0500000000000000" pitchFamily="50" charset="-128"/>
           </a:endParaRPr>
-        </a:p>
-        <a:p>
-          <a:pPr algn="ctr"/>
-          <a:r>
-            <a:rPr lang="ja-JP" altLang="en-US" sz="1100" b="1">
-              <a:latin typeface="Yu Gothic Medium" panose="020B0500000000000000" pitchFamily="50" charset="-128"/>
-              <a:ea typeface="Yu Gothic Medium" panose="020B0500000000000000" pitchFamily="50" charset="-128"/>
-            </a:rPr>
-            <a:t>添付位置</a:t>
-          </a:r>
         </a:p>
       </xdr:txBody>
     </xdr:sp>
@@ -1846,7 +1819,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="10" name="図 9"/>
+        <xdr:cNvPr id="10" name="図 9">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00000A000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -1890,7 +1869,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="11" name="角丸四角形 10"/>
+        <xdr:cNvPr id="11" name="角丸四角形 10">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00000B000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -1958,7 +1943,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="23" name="角丸四角形 22"/>
+        <xdr:cNvPr id="23" name="角丸四角形 22">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000017000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -2026,7 +2017,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="28" name="斜め縞 27"/>
+        <xdr:cNvPr id="28" name="斜め縞 27">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00001C000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -2096,7 +2093,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="29" name="楕円 28"/>
+        <xdr:cNvPr id="29" name="楕円 28">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00001D000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -2164,7 +2167,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="31" name="角丸四角形 30"/>
+        <xdr:cNvPr id="31" name="角丸四角形 30">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00001F000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -2232,7 +2241,13 @@
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="44" name="直線コネクタ 43"/>
+        <xdr:cNvPr id="44" name="直線コネクタ 43">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00002C000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvCxnSpPr/>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
@@ -2277,7 +2292,13 @@
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="48" name="直線コネクタ 47"/>
+        <xdr:cNvPr id="48" name="直線コネクタ 47">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000030000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvCxnSpPr/>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
@@ -2322,7 +2343,13 @@
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="50" name="直線コネクタ 49"/>
+        <xdr:cNvPr id="50" name="直線コネクタ 49">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000032000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvCxnSpPr/>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
@@ -2367,7 +2394,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="55" name="テキスト ボックス 54"/>
+        <xdr:cNvPr id="55" name="テキスト ボックス 54">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000037000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr txBox="1"/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -2441,7 +2474,13 @@
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="57" name="直線コネクタ 56"/>
+        <xdr:cNvPr id="57" name="直線コネクタ 56">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000039000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvCxnSpPr>
           <a:stCxn id="11" idx="2"/>
           <a:endCxn id="55" idx="0"/>
@@ -2489,7 +2528,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="63" name="角丸四角形 62"/>
+        <xdr:cNvPr id="63" name="角丸四角形 62">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00003F000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -2557,7 +2602,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="66" name="テキスト ボックス 65"/>
+        <xdr:cNvPr id="66" name="テキスト ボックス 65">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000042000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr txBox="1"/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -2631,7 +2682,13 @@
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="68" name="直線コネクタ 67"/>
+        <xdr:cNvPr id="68" name="直線コネクタ 67">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000044000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvCxnSpPr>
           <a:stCxn id="28" idx="1"/>
         </xdr:cNvCxnSpPr>
@@ -2682,7 +2739,13 @@
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="70" name="直線コネクタ 69"/>
+        <xdr:cNvPr id="70" name="直線コネクタ 69">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000046000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvCxnSpPr/>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
@@ -2731,7 +2794,13 @@
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="72" name="直線コネクタ 71"/>
+        <xdr:cNvPr id="72" name="直線コネクタ 71">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000048000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvCxnSpPr>
           <a:stCxn id="63" idx="2"/>
         </xdr:cNvCxnSpPr>
@@ -2782,7 +2851,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="73" name="角丸四角形 72"/>
+        <xdr:cNvPr id="73" name="角丸四角形 72">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000049000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -2850,7 +2925,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="74" name="楕円 73"/>
+        <xdr:cNvPr id="74" name="楕円 73">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00004A000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -2918,7 +2999,13 @@
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="78" name="直線コネクタ 77"/>
+        <xdr:cNvPr id="78" name="直線コネクタ 77">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00004E000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvCxnSpPr/>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
@@ -2967,7 +3054,13 @@
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="83" name="直線コネクタ 82"/>
+        <xdr:cNvPr id="83" name="直線コネクタ 82">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000053000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvCxnSpPr/>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
@@ -3016,7 +3109,13 @@
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="84" name="直線コネクタ 83"/>
+        <xdr:cNvPr id="84" name="直線コネクタ 83">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000054000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvCxnSpPr>
           <a:stCxn id="74" idx="0"/>
           <a:endCxn id="87" idx="2"/>
@@ -3068,7 +3167,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="87" name="テキスト ボックス 86"/>
+        <xdr:cNvPr id="87" name="テキスト ボックス 86">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000057000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr txBox="1"/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -3133,14 +3238,6 @@
             </a:rPr>
             <a:t>＆</a:t>
           </a:r>
-          <a:r>
-            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1200" b="1">
-              <a:solidFill>
-                <a:srgbClr val="00B050"/>
-              </a:solidFill>
-            </a:rPr>
-            <a:t/>
-          </a:r>
           <a:br>
             <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1200" b="1">
               <a:solidFill>
@@ -3159,6 +3256,56 @@
         </a:p>
       </xdr:txBody>
     </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>29</xdr:col>
+      <xdr:colOff>156880</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>44824</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>35</xdr:col>
+      <xdr:colOff>56027</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>33617</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="16" name="図 15">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{653345DE-E60E-11CB-81D4-89DBD1CE65C2}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId5" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5244351" y="6499412"/>
+          <a:ext cx="974911" cy="974911"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
@@ -3472,12 +3619,12 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:AX79"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="A81" zoomScale="85" zoomScaleNormal="85" zoomScaleSheetLayoutView="85" workbookViewId="0">
-      <selection activeCell="U53" sqref="U53:AM53"/>
+    <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="A11" zoomScale="85" zoomScaleNormal="85" zoomScaleSheetLayoutView="85" workbookViewId="0">
+      <selection activeCell="AT24" sqref="AT24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="2.375" defaultRowHeight="11.25" customHeight="1"/>
@@ -3602,29 +3749,29 @@
       <c r="G3" s="2"/>
       <c r="H3" s="2"/>
       <c r="I3" s="2"/>
-      <c r="M3" s="26" t="s">
+      <c r="M3" s="24" t="s">
         <v>0</v>
       </c>
-      <c r="N3" s="26"/>
-      <c r="O3" s="26"/>
-      <c r="P3" s="26"/>
-      <c r="Q3" s="26"/>
-      <c r="R3" s="26"/>
-      <c r="S3" s="26"/>
-      <c r="T3" s="26"/>
-      <c r="U3" s="26"/>
-      <c r="V3" s="26"/>
-      <c r="W3" s="26"/>
-      <c r="X3" s="26"/>
-      <c r="Y3" s="26"/>
-      <c r="Z3" s="26"/>
-      <c r="AA3" s="26"/>
-      <c r="AB3" s="26"/>
-      <c r="AC3" s="26"/>
-      <c r="AD3" s="26"/>
-      <c r="AE3" s="26"/>
-      <c r="AF3" s="26"/>
-      <c r="AG3" s="26"/>
+      <c r="N3" s="24"/>
+      <c r="O3" s="24"/>
+      <c r="P3" s="24"/>
+      <c r="Q3" s="24"/>
+      <c r="R3" s="24"/>
+      <c r="S3" s="24"/>
+      <c r="T3" s="24"/>
+      <c r="U3" s="24"/>
+      <c r="V3" s="24"/>
+      <c r="W3" s="24"/>
+      <c r="X3" s="24"/>
+      <c r="Y3" s="24"/>
+      <c r="Z3" s="24"/>
+      <c r="AA3" s="24"/>
+      <c r="AB3" s="24"/>
+      <c r="AC3" s="24"/>
+      <c r="AD3" s="24"/>
+      <c r="AE3" s="24"/>
+      <c r="AF3" s="24"/>
+      <c r="AG3" s="24"/>
       <c r="AO3" s="2"/>
       <c r="AP3" s="2"/>
       <c r="AQ3" s="2"/>
@@ -3645,36 +3792,36 @@
       <c r="G4" s="2"/>
       <c r="H4" s="2"/>
       <c r="I4" s="2"/>
-      <c r="M4" s="26"/>
-      <c r="N4" s="26"/>
-      <c r="O4" s="26"/>
-      <c r="P4" s="26"/>
-      <c r="Q4" s="26"/>
-      <c r="R4" s="26"/>
-      <c r="S4" s="26"/>
-      <c r="T4" s="26"/>
-      <c r="U4" s="26"/>
-      <c r="V4" s="26"/>
-      <c r="W4" s="26"/>
-      <c r="X4" s="26"/>
-      <c r="Y4" s="26"/>
-      <c r="Z4" s="26"/>
-      <c r="AA4" s="26"/>
-      <c r="AB4" s="26"/>
-      <c r="AC4" s="26"/>
-      <c r="AD4" s="26"/>
-      <c r="AE4" s="26"/>
-      <c r="AF4" s="26"/>
-      <c r="AG4" s="26"/>
-      <c r="AH4" s="15" t="s">
+      <c r="M4" s="24"/>
+      <c r="N4" s="24"/>
+      <c r="O4" s="24"/>
+      <c r="P4" s="24"/>
+      <c r="Q4" s="24"/>
+      <c r="R4" s="24"/>
+      <c r="S4" s="24"/>
+      <c r="T4" s="24"/>
+      <c r="U4" s="24"/>
+      <c r="V4" s="24"/>
+      <c r="W4" s="24"/>
+      <c r="X4" s="24"/>
+      <c r="Y4" s="24"/>
+      <c r="Z4" s="24"/>
+      <c r="AA4" s="24"/>
+      <c r="AB4" s="24"/>
+      <c r="AC4" s="24"/>
+      <c r="AD4" s="24"/>
+      <c r="AE4" s="24"/>
+      <c r="AF4" s="24"/>
+      <c r="AG4" s="24"/>
+      <c r="AH4" s="13" t="s">
         <v>1</v>
       </c>
-      <c r="AI4" s="16"/>
-      <c r="AJ4" s="16"/>
-      <c r="AK4" s="16"/>
-      <c r="AL4" s="16"/>
-      <c r="AM4" s="16"/>
-      <c r="AN4" s="17"/>
+      <c r="AI4" s="14"/>
+      <c r="AJ4" s="14"/>
+      <c r="AK4" s="14"/>
+      <c r="AL4" s="14"/>
+      <c r="AM4" s="14"/>
+      <c r="AN4" s="15"/>
       <c r="AO4" s="2"/>
       <c r="AP4" s="2"/>
       <c r="AQ4" s="2"/>
@@ -3690,34 +3837,34 @@
       <c r="G5" s="2"/>
       <c r="H5" s="2"/>
       <c r="I5" s="2"/>
-      <c r="M5" s="26"/>
-      <c r="N5" s="26"/>
-      <c r="O5" s="26"/>
-      <c r="P5" s="26"/>
-      <c r="Q5" s="26"/>
-      <c r="R5" s="26"/>
-      <c r="S5" s="26"/>
-      <c r="T5" s="26"/>
-      <c r="U5" s="26"/>
-      <c r="V5" s="26"/>
-      <c r="W5" s="26"/>
-      <c r="X5" s="26"/>
-      <c r="Y5" s="26"/>
-      <c r="Z5" s="26"/>
-      <c r="AA5" s="26"/>
-      <c r="AB5" s="26"/>
-      <c r="AC5" s="26"/>
-      <c r="AD5" s="26"/>
-      <c r="AE5" s="26"/>
-      <c r="AF5" s="26"/>
-      <c r="AG5" s="26"/>
-      <c r="AH5" s="18"/>
-      <c r="AI5" s="19"/>
-      <c r="AJ5" s="19"/>
-      <c r="AK5" s="19"/>
-      <c r="AL5" s="19"/>
-      <c r="AM5" s="19"/>
-      <c r="AN5" s="20"/>
+      <c r="M5" s="24"/>
+      <c r="N5" s="24"/>
+      <c r="O5" s="24"/>
+      <c r="P5" s="24"/>
+      <c r="Q5" s="24"/>
+      <c r="R5" s="24"/>
+      <c r="S5" s="24"/>
+      <c r="T5" s="24"/>
+      <c r="U5" s="24"/>
+      <c r="V5" s="24"/>
+      <c r="W5" s="24"/>
+      <c r="X5" s="24"/>
+      <c r="Y5" s="24"/>
+      <c r="Z5" s="24"/>
+      <c r="AA5" s="24"/>
+      <c r="AB5" s="24"/>
+      <c r="AC5" s="24"/>
+      <c r="AD5" s="24"/>
+      <c r="AE5" s="24"/>
+      <c r="AF5" s="24"/>
+      <c r="AG5" s="24"/>
+      <c r="AH5" s="16"/>
+      <c r="AI5" s="17"/>
+      <c r="AJ5" s="17"/>
+      <c r="AK5" s="17"/>
+      <c r="AL5" s="17"/>
+      <c r="AM5" s="17"/>
+      <c r="AN5" s="18"/>
       <c r="AO5" s="2"/>
       <c r="AP5" s="2"/>
       <c r="AQ5" s="2"/>
@@ -3733,85 +3880,85 @@
       <c r="G6" s="2"/>
       <c r="H6" s="2"/>
       <c r="I6" s="2"/>
-      <c r="M6" s="26"/>
-      <c r="N6" s="26"/>
-      <c r="O6" s="26"/>
-      <c r="P6" s="26"/>
-      <c r="Q6" s="26"/>
-      <c r="R6" s="26"/>
-      <c r="S6" s="26"/>
-      <c r="T6" s="26"/>
-      <c r="U6" s="26"/>
-      <c r="V6" s="26"/>
-      <c r="W6" s="26"/>
-      <c r="X6" s="26"/>
-      <c r="Y6" s="26"/>
-      <c r="Z6" s="26"/>
-      <c r="AA6" s="26"/>
-      <c r="AB6" s="26"/>
-      <c r="AC6" s="26"/>
-      <c r="AD6" s="26"/>
-      <c r="AE6" s="26"/>
-      <c r="AF6" s="26"/>
-      <c r="AG6" s="26"/>
-      <c r="AH6" s="21"/>
-      <c r="AI6" s="22"/>
-      <c r="AJ6" s="22"/>
-      <c r="AK6" s="22"/>
-      <c r="AL6" s="22"/>
-      <c r="AM6" s="22"/>
-      <c r="AN6" s="23"/>
+      <c r="M6" s="24"/>
+      <c r="N6" s="24"/>
+      <c r="O6" s="24"/>
+      <c r="P6" s="24"/>
+      <c r="Q6" s="24"/>
+      <c r="R6" s="24"/>
+      <c r="S6" s="24"/>
+      <c r="T6" s="24"/>
+      <c r="U6" s="24"/>
+      <c r="V6" s="24"/>
+      <c r="W6" s="24"/>
+      <c r="X6" s="24"/>
+      <c r="Y6" s="24"/>
+      <c r="Z6" s="24"/>
+      <c r="AA6" s="24"/>
+      <c r="AB6" s="24"/>
+      <c r="AC6" s="24"/>
+      <c r="AD6" s="24"/>
+      <c r="AE6" s="24"/>
+      <c r="AF6" s="24"/>
+      <c r="AG6" s="24"/>
+      <c r="AH6" s="19"/>
+      <c r="AI6" s="20"/>
+      <c r="AJ6" s="20"/>
+      <c r="AK6" s="20"/>
+      <c r="AL6" s="20"/>
+      <c r="AM6" s="20"/>
+      <c r="AN6" s="21"/>
       <c r="AO6" s="2"/>
       <c r="AP6" s="2"/>
       <c r="AQ6" s="2"/>
       <c r="AR6" s="2"/>
     </row>
     <row r="7" spans="1:50" ht="15" customHeight="1">
-      <c r="M7" s="26"/>
-      <c r="N7" s="26"/>
-      <c r="O7" s="26"/>
-      <c r="P7" s="26"/>
-      <c r="Q7" s="26"/>
-      <c r="R7" s="26"/>
-      <c r="S7" s="26"/>
-      <c r="T7" s="26"/>
-      <c r="U7" s="26"/>
-      <c r="V7" s="26"/>
-      <c r="W7" s="26"/>
-      <c r="X7" s="26"/>
-      <c r="Y7" s="26"/>
-      <c r="Z7" s="26"/>
-      <c r="AA7" s="26"/>
-      <c r="AB7" s="26"/>
-      <c r="AC7" s="26"/>
-      <c r="AD7" s="26"/>
-      <c r="AE7" s="26"/>
-      <c r="AF7" s="26"/>
-      <c r="AG7" s="26"/>
+      <c r="M7" s="24"/>
+      <c r="N7" s="24"/>
+      <c r="O7" s="24"/>
+      <c r="P7" s="24"/>
+      <c r="Q7" s="24"/>
+      <c r="R7" s="24"/>
+      <c r="S7" s="24"/>
+      <c r="T7" s="24"/>
+      <c r="U7" s="24"/>
+      <c r="V7" s="24"/>
+      <c r="W7" s="24"/>
+      <c r="X7" s="24"/>
+      <c r="Y7" s="24"/>
+      <c r="Z7" s="24"/>
+      <c r="AA7" s="24"/>
+      <c r="AB7" s="24"/>
+      <c r="AC7" s="24"/>
+      <c r="AD7" s="24"/>
+      <c r="AE7" s="24"/>
+      <c r="AF7" s="24"/>
+      <c r="AG7" s="24"/>
     </row>
     <row r="8" spans="1:50" ht="9" customHeight="1">
       <c r="D8" s="5"/>
-      <c r="M8" s="26"/>
-      <c r="N8" s="26"/>
-      <c r="O8" s="26"/>
-      <c r="P8" s="26"/>
-      <c r="Q8" s="26"/>
-      <c r="R8" s="26"/>
-      <c r="S8" s="26"/>
-      <c r="T8" s="26"/>
-      <c r="U8" s="26"/>
-      <c r="V8" s="26"/>
-      <c r="W8" s="26"/>
-      <c r="X8" s="26"/>
-      <c r="Y8" s="26"/>
-      <c r="Z8" s="26"/>
-      <c r="AA8" s="26"/>
-      <c r="AB8" s="26"/>
-      <c r="AC8" s="26"/>
-      <c r="AD8" s="26"/>
-      <c r="AE8" s="26"/>
-      <c r="AF8" s="26"/>
-      <c r="AG8" s="26"/>
+      <c r="M8" s="24"/>
+      <c r="N8" s="24"/>
+      <c r="O8" s="24"/>
+      <c r="P8" s="24"/>
+      <c r="Q8" s="24"/>
+      <c r="R8" s="24"/>
+      <c r="S8" s="24"/>
+      <c r="T8" s="24"/>
+      <c r="U8" s="24"/>
+      <c r="V8" s="24"/>
+      <c r="W8" s="24"/>
+      <c r="X8" s="24"/>
+      <c r="Y8" s="24"/>
+      <c r="Z8" s="24"/>
+      <c r="AA8" s="24"/>
+      <c r="AB8" s="24"/>
+      <c r="AC8" s="24"/>
+      <c r="AD8" s="24"/>
+      <c r="AE8" s="24"/>
+      <c r="AF8" s="24"/>
+      <c r="AG8" s="24"/>
     </row>
     <row r="9" spans="1:50" ht="24" customHeight="1"/>
     <row r="10" spans="1:50" ht="24" customHeight="1"/>
@@ -3835,21 +3982,21 @@
       <c r="M24" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="O24" s="24" t="s">
+      <c r="O24" s="22" t="s">
         <v>109</v>
       </c>
-      <c r="P24" s="24"/>
-      <c r="Q24" s="24"/>
-      <c r="R24" s="24"/>
-      <c r="S24" s="24"/>
-      <c r="T24" s="24"/>
-      <c r="U24" s="24"/>
-      <c r="V24" s="24"/>
-      <c r="W24" s="24"/>
-      <c r="X24" s="24"/>
-      <c r="Y24" s="24"/>
-      <c r="Z24" s="24"/>
-      <c r="AA24" s="24"/>
+      <c r="P24" s="22"/>
+      <c r="Q24" s="22"/>
+      <c r="R24" s="22"/>
+      <c r="S24" s="22"/>
+      <c r="T24" s="22"/>
+      <c r="U24" s="22"/>
+      <c r="V24" s="22"/>
+      <c r="W24" s="22"/>
+      <c r="X24" s="22"/>
+      <c r="Y24" s="22"/>
+      <c r="Z24" s="22"/>
+      <c r="AA24" s="22"/>
     </row>
     <row r="25" spans="6:36" s="1" customFormat="1" ht="19.5" customHeight="1">
       <c r="F25" s="1" t="s">
@@ -3858,21 +4005,21 @@
       <c r="M25" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="O25" s="24" t="s">
+      <c r="O25" s="22" t="s">
         <v>114</v>
       </c>
-      <c r="P25" s="24"/>
-      <c r="Q25" s="24"/>
-      <c r="R25" s="24"/>
-      <c r="S25" s="24"/>
-      <c r="T25" s="24"/>
-      <c r="U25" s="24"/>
-      <c r="V25" s="24"/>
-      <c r="W25" s="24"/>
-      <c r="X25" s="24"/>
-      <c r="Y25" s="24"/>
-      <c r="Z25" s="24"/>
-      <c r="AA25" s="24"/>
+      <c r="P25" s="22"/>
+      <c r="Q25" s="22"/>
+      <c r="R25" s="22"/>
+      <c r="S25" s="22"/>
+      <c r="T25" s="22"/>
+      <c r="U25" s="22"/>
+      <c r="V25" s="22"/>
+      <c r="W25" s="22"/>
+      <c r="X25" s="22"/>
+      <c r="Y25" s="22"/>
+      <c r="Z25" s="22"/>
+      <c r="AA25" s="22"/>
     </row>
     <row r="26" spans="6:36" s="1" customFormat="1" ht="19.5" customHeight="1">
       <c r="F26" s="1" t="s">
@@ -3881,21 +4028,21 @@
       <c r="M26" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="O26" s="24" t="s">
+      <c r="O26" s="22" t="s">
         <v>6</v>
       </c>
-      <c r="P26" s="24"/>
-      <c r="Q26" s="24"/>
-      <c r="R26" s="24"/>
-      <c r="S26" s="24"/>
-      <c r="T26" s="24"/>
-      <c r="U26" s="24"/>
-      <c r="V26" s="24"/>
-      <c r="W26" s="24"/>
-      <c r="X26" s="24"/>
-      <c r="Y26" s="24"/>
-      <c r="Z26" s="24"/>
-      <c r="AA26" s="24"/>
+      <c r="P26" s="22"/>
+      <c r="Q26" s="22"/>
+      <c r="R26" s="22"/>
+      <c r="S26" s="22"/>
+      <c r="T26" s="22"/>
+      <c r="U26" s="22"/>
+      <c r="V26" s="22"/>
+      <c r="W26" s="22"/>
+      <c r="X26" s="22"/>
+      <c r="Y26" s="22"/>
+      <c r="Z26" s="22"/>
+      <c r="AA26" s="22"/>
     </row>
     <row r="27" spans="6:36" s="1" customFormat="1" ht="19.5" customHeight="1">
       <c r="F27" s="1" t="s">
@@ -3904,16 +4051,16 @@
       <c r="M27" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="O27" s="24" t="s">
+      <c r="O27" s="22" t="s">
         <v>8</v>
       </c>
-      <c r="P27" s="24"/>
-      <c r="Q27" s="24"/>
-      <c r="R27" s="24"/>
-      <c r="S27" s="24"/>
-      <c r="T27" s="24"/>
-      <c r="U27" s="24"/>
-      <c r="V27" s="24"/>
+      <c r="P27" s="22"/>
+      <c r="Q27" s="22"/>
+      <c r="R27" s="22"/>
+      <c r="S27" s="22"/>
+      <c r="T27" s="22"/>
+      <c r="U27" s="22"/>
+      <c r="V27" s="22"/>
     </row>
     <row r="28" spans="6:36" s="1" customFormat="1" ht="15" customHeight="1"/>
     <row r="29" spans="6:36" s="1" customFormat="1" ht="7.5" customHeight="1"/>
@@ -3923,40 +4070,40 @@
       </c>
     </row>
     <row r="31" spans="6:36" s="1" customFormat="1" ht="19.5" customHeight="1">
-      <c r="G31" s="24" t="s">
+      <c r="G31" s="22" t="s">
         <v>40</v>
       </c>
-      <c r="H31" s="24"/>
-      <c r="I31" s="24"/>
-      <c r="J31" s="24"/>
-      <c r="K31" s="24"/>
-      <c r="L31" s="24"/>
-      <c r="M31" s="24"/>
-      <c r="N31" s="24"/>
-      <c r="O31" s="24"/>
-      <c r="P31" s="24" t="s">
+      <c r="H31" s="22"/>
+      <c r="I31" s="22"/>
+      <c r="J31" s="22"/>
+      <c r="K31" s="22"/>
+      <c r="L31" s="22"/>
+      <c r="M31" s="22"/>
+      <c r="N31" s="22"/>
+      <c r="O31" s="22"/>
+      <c r="P31" s="22" t="s">
         <v>110</v>
       </c>
-      <c r="Q31" s="24"/>
-      <c r="R31" s="24"/>
-      <c r="S31" s="24"/>
-      <c r="T31" s="24"/>
-      <c r="U31" s="24"/>
-      <c r="V31" s="24"/>
-      <c r="W31" s="24"/>
-      <c r="X31" s="24"/>
-      <c r="Y31" s="24"/>
-      <c r="Z31" s="24"/>
-      <c r="AA31" s="24"/>
-      <c r="AB31" s="24"/>
-      <c r="AC31" s="24"/>
-      <c r="AD31" s="24"/>
-      <c r="AE31" s="24"/>
-      <c r="AF31" s="24"/>
-      <c r="AG31" s="24"/>
-      <c r="AH31" s="24"/>
-      <c r="AI31" s="24"/>
-      <c r="AJ31" s="24"/>
+      <c r="Q31" s="22"/>
+      <c r="R31" s="22"/>
+      <c r="S31" s="22"/>
+      <c r="T31" s="22"/>
+      <c r="U31" s="22"/>
+      <c r="V31" s="22"/>
+      <c r="W31" s="22"/>
+      <c r="X31" s="22"/>
+      <c r="Y31" s="22"/>
+      <c r="Z31" s="22"/>
+      <c r="AA31" s="22"/>
+      <c r="AB31" s="22"/>
+      <c r="AC31" s="22"/>
+      <c r="AD31" s="22"/>
+      <c r="AE31" s="22"/>
+      <c r="AF31" s="22"/>
+      <c r="AG31" s="22"/>
+      <c r="AH31" s="22"/>
+      <c r="AI31" s="22"/>
+      <c r="AJ31" s="22"/>
     </row>
     <row r="32" spans="6:36" s="1" customFormat="1" ht="14.25" customHeight="1"/>
     <row r="33" spans="3:40" s="1" customFormat="1" ht="7.5" customHeight="1"/>
@@ -3992,162 +4139,162 @@
       <c r="AJ34" s="4"/>
     </row>
     <row r="35" spans="3:40" s="1" customFormat="1" ht="60.75" customHeight="1">
-      <c r="G35" s="25"/>
-      <c r="H35" s="25"/>
-      <c r="I35" s="25"/>
-      <c r="J35" s="25"/>
-      <c r="K35" s="25"/>
-      <c r="L35" s="25"/>
-      <c r="M35" s="25"/>
-      <c r="N35" s="25"/>
-      <c r="O35" s="25"/>
-      <c r="P35" s="25"/>
-      <c r="Q35" s="25"/>
-      <c r="R35" s="25"/>
-      <c r="S35" s="25"/>
-      <c r="T35" s="25"/>
-      <c r="U35" s="25"/>
-      <c r="V35" s="25"/>
-      <c r="W35" s="25"/>
-      <c r="X35" s="25"/>
-      <c r="Y35" s="25"/>
-      <c r="Z35" s="25"/>
-      <c r="AA35" s="25"/>
-      <c r="AB35" s="25"/>
-      <c r="AC35" s="25"/>
-      <c r="AD35" s="25"/>
-      <c r="AE35" s="25"/>
-      <c r="AF35" s="25"/>
-      <c r="AG35" s="25"/>
-      <c r="AH35" s="25"/>
-      <c r="AI35" s="25"/>
-      <c r="AJ35" s="25"/>
+      <c r="G35" s="23"/>
+      <c r="H35" s="23"/>
+      <c r="I35" s="23"/>
+      <c r="J35" s="23"/>
+      <c r="K35" s="23"/>
+      <c r="L35" s="23"/>
+      <c r="M35" s="23"/>
+      <c r="N35" s="23"/>
+      <c r="O35" s="23"/>
+      <c r="P35" s="23"/>
+      <c r="Q35" s="23"/>
+      <c r="R35" s="23"/>
+      <c r="S35" s="23"/>
+      <c r="T35" s="23"/>
+      <c r="U35" s="23"/>
+      <c r="V35" s="23"/>
+      <c r="W35" s="23"/>
+      <c r="X35" s="23"/>
+      <c r="Y35" s="23"/>
+      <c r="Z35" s="23"/>
+      <c r="AA35" s="23"/>
+      <c r="AB35" s="23"/>
+      <c r="AC35" s="23"/>
+      <c r="AD35" s="23"/>
+      <c r="AE35" s="23"/>
+      <c r="AF35" s="23"/>
+      <c r="AG35" s="23"/>
+      <c r="AH35" s="23"/>
+      <c r="AI35" s="23"/>
+      <c r="AJ35" s="23"/>
     </row>
     <row r="36" spans="3:40" ht="12.75" customHeight="1"/>
     <row r="37" spans="3:40" ht="7.5" customHeight="1"/>
     <row r="38" spans="3:40" ht="24" customHeight="1"/>
     <row r="39" spans="3:40" ht="24" customHeight="1"/>
     <row r="43" spans="3:40" ht="11.25" customHeight="1">
-      <c r="C43" s="12" t="s">
+      <c r="C43" s="25" t="s">
         <v>13</v>
       </c>
-      <c r="D43" s="12"/>
-      <c r="E43" s="12"/>
-      <c r="F43" s="12"/>
-      <c r="G43" s="12"/>
-      <c r="H43" s="12"/>
-      <c r="I43" s="12"/>
-      <c r="J43" s="12"/>
-      <c r="K43" s="12"/>
-      <c r="L43" s="12"/>
-      <c r="M43" s="12"/>
-      <c r="N43" s="12"/>
-      <c r="O43" s="12"/>
-      <c r="P43" s="12"/>
-      <c r="Q43" s="12"/>
-      <c r="R43" s="12"/>
-      <c r="S43" s="12"/>
-      <c r="T43" s="12"/>
-      <c r="U43" s="12"/>
-      <c r="V43" s="12"/>
-      <c r="W43" s="12"/>
-      <c r="X43" s="12"/>
-      <c r="Y43" s="12"/>
-      <c r="Z43" s="12"/>
-      <c r="AA43" s="12"/>
-      <c r="AB43" s="12"/>
-      <c r="AC43" s="12"/>
-      <c r="AD43" s="12"/>
-      <c r="AE43" s="12"/>
-      <c r="AF43" s="12"/>
-      <c r="AG43" s="12"/>
-      <c r="AH43" s="12"/>
-      <c r="AI43" s="12"/>
-      <c r="AJ43" s="12"/>
-      <c r="AK43" s="12"/>
-      <c r="AL43" s="12"/>
-      <c r="AM43" s="12"/>
-      <c r="AN43" s="12"/>
+      <c r="D43" s="25"/>
+      <c r="E43" s="25"/>
+      <c r="F43" s="25"/>
+      <c r="G43" s="25"/>
+      <c r="H43" s="25"/>
+      <c r="I43" s="25"/>
+      <c r="J43" s="25"/>
+      <c r="K43" s="25"/>
+      <c r="L43" s="25"/>
+      <c r="M43" s="25"/>
+      <c r="N43" s="25"/>
+      <c r="O43" s="25"/>
+      <c r="P43" s="25"/>
+      <c r="Q43" s="25"/>
+      <c r="R43" s="25"/>
+      <c r="S43" s="25"/>
+      <c r="T43" s="25"/>
+      <c r="U43" s="25"/>
+      <c r="V43" s="25"/>
+      <c r="W43" s="25"/>
+      <c r="X43" s="25"/>
+      <c r="Y43" s="25"/>
+      <c r="Z43" s="25"/>
+      <c r="AA43" s="25"/>
+      <c r="AB43" s="25"/>
+      <c r="AC43" s="25"/>
+      <c r="AD43" s="25"/>
+      <c r="AE43" s="25"/>
+      <c r="AF43" s="25"/>
+      <c r="AG43" s="25"/>
+      <c r="AH43" s="25"/>
+      <c r="AI43" s="25"/>
+      <c r="AJ43" s="25"/>
+      <c r="AK43" s="25"/>
+      <c r="AL43" s="25"/>
+      <c r="AM43" s="25"/>
+      <c r="AN43" s="25"/>
     </row>
     <row r="44" spans="3:40" ht="11.25" customHeight="1">
-      <c r="C44" s="12"/>
-      <c r="D44" s="12"/>
-      <c r="E44" s="12"/>
-      <c r="F44" s="12"/>
-      <c r="G44" s="12"/>
-      <c r="H44" s="12"/>
-      <c r="I44" s="12"/>
-      <c r="J44" s="12"/>
-      <c r="K44" s="12"/>
-      <c r="L44" s="12"/>
-      <c r="M44" s="12"/>
-      <c r="N44" s="12"/>
-      <c r="O44" s="12"/>
-      <c r="P44" s="12"/>
-      <c r="Q44" s="12"/>
-      <c r="R44" s="12"/>
-      <c r="S44" s="12"/>
-      <c r="T44" s="12"/>
-      <c r="U44" s="12"/>
-      <c r="V44" s="12"/>
-      <c r="W44" s="12"/>
-      <c r="X44" s="12"/>
-      <c r="Y44" s="12"/>
-      <c r="Z44" s="12"/>
-      <c r="AA44" s="12"/>
-      <c r="AB44" s="12"/>
-      <c r="AC44" s="12"/>
-      <c r="AD44" s="12"/>
-      <c r="AE44" s="12"/>
-      <c r="AF44" s="12"/>
-      <c r="AG44" s="12"/>
-      <c r="AH44" s="12"/>
-      <c r="AI44" s="12"/>
-      <c r="AJ44" s="12"/>
-      <c r="AK44" s="12"/>
-      <c r="AL44" s="12"/>
-      <c r="AM44" s="12"/>
-      <c r="AN44" s="12"/>
+      <c r="C44" s="25"/>
+      <c r="D44" s="25"/>
+      <c r="E44" s="25"/>
+      <c r="F44" s="25"/>
+      <c r="G44" s="25"/>
+      <c r="H44" s="25"/>
+      <c r="I44" s="25"/>
+      <c r="J44" s="25"/>
+      <c r="K44" s="25"/>
+      <c r="L44" s="25"/>
+      <c r="M44" s="25"/>
+      <c r="N44" s="25"/>
+      <c r="O44" s="25"/>
+      <c r="P44" s="25"/>
+      <c r="Q44" s="25"/>
+      <c r="R44" s="25"/>
+      <c r="S44" s="25"/>
+      <c r="T44" s="25"/>
+      <c r="U44" s="25"/>
+      <c r="V44" s="25"/>
+      <c r="W44" s="25"/>
+      <c r="X44" s="25"/>
+      <c r="Y44" s="25"/>
+      <c r="Z44" s="25"/>
+      <c r="AA44" s="25"/>
+      <c r="AB44" s="25"/>
+      <c r="AC44" s="25"/>
+      <c r="AD44" s="25"/>
+      <c r="AE44" s="25"/>
+      <c r="AF44" s="25"/>
+      <c r="AG44" s="25"/>
+      <c r="AH44" s="25"/>
+      <c r="AI44" s="25"/>
+      <c r="AJ44" s="25"/>
+      <c r="AK44" s="25"/>
+      <c r="AL44" s="25"/>
+      <c r="AM44" s="25"/>
+      <c r="AN44" s="25"/>
     </row>
     <row r="45" spans="3:40" ht="11.25" customHeight="1">
-      <c r="C45" s="12"/>
-      <c r="D45" s="12"/>
-      <c r="E45" s="12"/>
-      <c r="F45" s="12"/>
-      <c r="G45" s="12"/>
-      <c r="H45" s="12"/>
-      <c r="I45" s="12"/>
-      <c r="J45" s="12"/>
-      <c r="K45" s="12"/>
-      <c r="L45" s="12"/>
-      <c r="M45" s="12"/>
-      <c r="N45" s="12"/>
-      <c r="O45" s="12"/>
-      <c r="P45" s="12"/>
-      <c r="Q45" s="12"/>
-      <c r="R45" s="12"/>
-      <c r="S45" s="12"/>
-      <c r="T45" s="12"/>
-      <c r="U45" s="12"/>
-      <c r="V45" s="12"/>
-      <c r="W45" s="12"/>
-      <c r="X45" s="12"/>
-      <c r="Y45" s="12"/>
-      <c r="Z45" s="12"/>
-      <c r="AA45" s="12"/>
-      <c r="AB45" s="12"/>
-      <c r="AC45" s="12"/>
-      <c r="AD45" s="12"/>
-      <c r="AE45" s="12"/>
-      <c r="AF45" s="12"/>
-      <c r="AG45" s="12"/>
-      <c r="AH45" s="12"/>
-      <c r="AI45" s="12"/>
-      <c r="AJ45" s="12"/>
-      <c r="AK45" s="12"/>
-      <c r="AL45" s="12"/>
-      <c r="AM45" s="12"/>
-      <c r="AN45" s="12"/>
+      <c r="C45" s="25"/>
+      <c r="D45" s="25"/>
+      <c r="E45" s="25"/>
+      <c r="F45" s="25"/>
+      <c r="G45" s="25"/>
+      <c r="H45" s="25"/>
+      <c r="I45" s="25"/>
+      <c r="J45" s="25"/>
+      <c r="K45" s="25"/>
+      <c r="L45" s="25"/>
+      <c r="M45" s="25"/>
+      <c r="N45" s="25"/>
+      <c r="O45" s="25"/>
+      <c r="P45" s="25"/>
+      <c r="Q45" s="25"/>
+      <c r="R45" s="25"/>
+      <c r="S45" s="25"/>
+      <c r="T45" s="25"/>
+      <c r="U45" s="25"/>
+      <c r="V45" s="25"/>
+      <c r="W45" s="25"/>
+      <c r="X45" s="25"/>
+      <c r="Y45" s="25"/>
+      <c r="Z45" s="25"/>
+      <c r="AA45" s="25"/>
+      <c r="AB45" s="25"/>
+      <c r="AC45" s="25"/>
+      <c r="AD45" s="25"/>
+      <c r="AE45" s="25"/>
+      <c r="AF45" s="25"/>
+      <c r="AG45" s="25"/>
+      <c r="AH45" s="25"/>
+      <c r="AI45" s="25"/>
+      <c r="AJ45" s="25"/>
+      <c r="AK45" s="25"/>
+      <c r="AL45" s="25"/>
+      <c r="AM45" s="25"/>
+      <c r="AN45" s="25"/>
     </row>
     <row r="46" spans="3:40" ht="11.25" customHeight="1">
       <c r="D46" s="9"/>
@@ -4226,1064 +4373,1064 @@
       <c r="AM47" s="9"/>
     </row>
     <row r="48" spans="3:40" ht="28.5" customHeight="1">
-      <c r="D48" s="13" t="s">
+      <c r="D48" s="26" t="s">
         <v>5</v>
       </c>
-      <c r="E48" s="13"/>
-      <c r="F48" s="13"/>
-      <c r="G48" s="13"/>
-      <c r="H48" s="13"/>
-      <c r="I48" s="13"/>
-      <c r="J48" s="13" t="s">
+      <c r="E48" s="26"/>
+      <c r="F48" s="26"/>
+      <c r="G48" s="26"/>
+      <c r="H48" s="26"/>
+      <c r="I48" s="26"/>
+      <c r="J48" s="26" t="s">
         <v>14</v>
       </c>
-      <c r="K48" s="13"/>
-      <c r="L48" s="13"/>
-      <c r="M48" s="13"/>
-      <c r="N48" s="13"/>
-      <c r="O48" s="13"/>
-      <c r="P48" s="13"/>
-      <c r="Q48" s="13"/>
-      <c r="R48" s="13"/>
-      <c r="S48" s="13"/>
-      <c r="T48" s="13"/>
-      <c r="U48" s="13" t="s">
+      <c r="K48" s="26"/>
+      <c r="L48" s="26"/>
+      <c r="M48" s="26"/>
+      <c r="N48" s="26"/>
+      <c r="O48" s="26"/>
+      <c r="P48" s="26"/>
+      <c r="Q48" s="26"/>
+      <c r="R48" s="26"/>
+      <c r="S48" s="26"/>
+      <c r="T48" s="26"/>
+      <c r="U48" s="26" t="s">
         <v>12</v>
       </c>
-      <c r="V48" s="13"/>
-      <c r="W48" s="13"/>
-      <c r="X48" s="13"/>
-      <c r="Y48" s="13"/>
-      <c r="Z48" s="13"/>
-      <c r="AA48" s="13"/>
-      <c r="AB48" s="13"/>
-      <c r="AC48" s="13"/>
-      <c r="AD48" s="13"/>
-      <c r="AE48" s="13"/>
-      <c r="AF48" s="13"/>
-      <c r="AG48" s="13"/>
-      <c r="AH48" s="13"/>
-      <c r="AI48" s="13"/>
-      <c r="AJ48" s="13"/>
-      <c r="AK48" s="13"/>
-      <c r="AL48" s="13"/>
-      <c r="AM48" s="13"/>
+      <c r="V48" s="26"/>
+      <c r="W48" s="26"/>
+      <c r="X48" s="26"/>
+      <c r="Y48" s="26"/>
+      <c r="Z48" s="26"/>
+      <c r="AA48" s="26"/>
+      <c r="AB48" s="26"/>
+      <c r="AC48" s="26"/>
+      <c r="AD48" s="26"/>
+      <c r="AE48" s="26"/>
+      <c r="AF48" s="26"/>
+      <c r="AG48" s="26"/>
+      <c r="AH48" s="26"/>
+      <c r="AI48" s="26"/>
+      <c r="AJ48" s="26"/>
+      <c r="AK48" s="26"/>
+      <c r="AL48" s="26"/>
+      <c r="AM48" s="26"/>
     </row>
     <row r="49" spans="4:39" ht="27.75" customHeight="1">
-      <c r="D49" s="14" t="s">
+      <c r="D49" s="12" t="s">
         <v>15</v>
       </c>
-      <c r="E49" s="14"/>
-      <c r="F49" s="14"/>
-      <c r="G49" s="14"/>
-      <c r="H49" s="14"/>
-      <c r="I49" s="14"/>
-      <c r="J49" s="14" t="s">
+      <c r="E49" s="12"/>
+      <c r="F49" s="12"/>
+      <c r="G49" s="12"/>
+      <c r="H49" s="12"/>
+      <c r="I49" s="12"/>
+      <c r="J49" s="12" t="s">
         <v>8</v>
       </c>
-      <c r="K49" s="14"/>
-      <c r="L49" s="14"/>
-      <c r="M49" s="14"/>
-      <c r="N49" s="14"/>
-      <c r="O49" s="14"/>
-      <c r="P49" s="14"/>
-      <c r="Q49" s="14"/>
-      <c r="R49" s="14"/>
-      <c r="S49" s="14"/>
-      <c r="T49" s="14"/>
-      <c r="U49" s="14"/>
-      <c r="V49" s="14"/>
-      <c r="W49" s="14"/>
-      <c r="X49" s="14"/>
-      <c r="Y49" s="14"/>
-      <c r="Z49" s="14"/>
-      <c r="AA49" s="14"/>
-      <c r="AB49" s="14"/>
-      <c r="AC49" s="14"/>
-      <c r="AD49" s="14"/>
-      <c r="AE49" s="14"/>
-      <c r="AF49" s="14"/>
-      <c r="AG49" s="14"/>
-      <c r="AH49" s="14"/>
-      <c r="AI49" s="14"/>
-      <c r="AJ49" s="14"/>
-      <c r="AK49" s="14"/>
-      <c r="AL49" s="14"/>
-      <c r="AM49" s="14"/>
+      <c r="K49" s="12"/>
+      <c r="L49" s="12"/>
+      <c r="M49" s="12"/>
+      <c r="N49" s="12"/>
+      <c r="O49" s="12"/>
+      <c r="P49" s="12"/>
+      <c r="Q49" s="12"/>
+      <c r="R49" s="12"/>
+      <c r="S49" s="12"/>
+      <c r="T49" s="12"/>
+      <c r="U49" s="12"/>
+      <c r="V49" s="12"/>
+      <c r="W49" s="12"/>
+      <c r="X49" s="12"/>
+      <c r="Y49" s="12"/>
+      <c r="Z49" s="12"/>
+      <c r="AA49" s="12"/>
+      <c r="AB49" s="12"/>
+      <c r="AC49" s="12"/>
+      <c r="AD49" s="12"/>
+      <c r="AE49" s="12"/>
+      <c r="AF49" s="12"/>
+      <c r="AG49" s="12"/>
+      <c r="AH49" s="12"/>
+      <c r="AI49" s="12"/>
+      <c r="AJ49" s="12"/>
+      <c r="AK49" s="12"/>
+      <c r="AL49" s="12"/>
+      <c r="AM49" s="12"/>
     </row>
     <row r="50" spans="4:39" ht="27.75" customHeight="1">
-      <c r="D50" s="14" t="s">
+      <c r="D50" s="12" t="s">
         <v>16</v>
       </c>
-      <c r="E50" s="14"/>
-      <c r="F50" s="14"/>
-      <c r="G50" s="14"/>
-      <c r="H50" s="14"/>
-      <c r="I50" s="14"/>
-      <c r="J50" s="14" t="s">
+      <c r="E50" s="12"/>
+      <c r="F50" s="12"/>
+      <c r="G50" s="12"/>
+      <c r="H50" s="12"/>
+      <c r="I50" s="12"/>
+      <c r="J50" s="12" t="s">
         <v>17</v>
       </c>
-      <c r="K50" s="14"/>
-      <c r="L50" s="14"/>
-      <c r="M50" s="14"/>
-      <c r="N50" s="14"/>
-      <c r="O50" s="14"/>
-      <c r="P50" s="14"/>
-      <c r="Q50" s="14"/>
-      <c r="R50" s="14"/>
-      <c r="S50" s="14"/>
-      <c r="T50" s="14"/>
-      <c r="U50" s="14"/>
-      <c r="V50" s="14"/>
-      <c r="W50" s="14"/>
-      <c r="X50" s="14"/>
-      <c r="Y50" s="14"/>
-      <c r="Z50" s="14"/>
-      <c r="AA50" s="14"/>
-      <c r="AB50" s="14"/>
-      <c r="AC50" s="14"/>
-      <c r="AD50" s="14"/>
-      <c r="AE50" s="14"/>
-      <c r="AF50" s="14"/>
-      <c r="AG50" s="14"/>
-      <c r="AH50" s="14"/>
-      <c r="AI50" s="14"/>
-      <c r="AJ50" s="14"/>
-      <c r="AK50" s="14"/>
-      <c r="AL50" s="14"/>
-      <c r="AM50" s="14"/>
+      <c r="K50" s="12"/>
+      <c r="L50" s="12"/>
+      <c r="M50" s="12"/>
+      <c r="N50" s="12"/>
+      <c r="O50" s="12"/>
+      <c r="P50" s="12"/>
+      <c r="Q50" s="12"/>
+      <c r="R50" s="12"/>
+      <c r="S50" s="12"/>
+      <c r="T50" s="12"/>
+      <c r="U50" s="12"/>
+      <c r="V50" s="12"/>
+      <c r="W50" s="12"/>
+      <c r="X50" s="12"/>
+      <c r="Y50" s="12"/>
+      <c r="Z50" s="12"/>
+      <c r="AA50" s="12"/>
+      <c r="AB50" s="12"/>
+      <c r="AC50" s="12"/>
+      <c r="AD50" s="12"/>
+      <c r="AE50" s="12"/>
+      <c r="AF50" s="12"/>
+      <c r="AG50" s="12"/>
+      <c r="AH50" s="12"/>
+      <c r="AI50" s="12"/>
+      <c r="AJ50" s="12"/>
+      <c r="AK50" s="12"/>
+      <c r="AL50" s="12"/>
+      <c r="AM50" s="12"/>
     </row>
     <row r="51" spans="4:39" ht="27.75" customHeight="1">
-      <c r="D51" s="14" t="s">
+      <c r="D51" s="12" t="s">
         <v>18</v>
       </c>
-      <c r="E51" s="14"/>
-      <c r="F51" s="14"/>
-      <c r="G51" s="14"/>
-      <c r="H51" s="14"/>
-      <c r="I51" s="14"/>
-      <c r="J51" s="14" t="s">
+      <c r="E51" s="12"/>
+      <c r="F51" s="12"/>
+      <c r="G51" s="12"/>
+      <c r="H51" s="12"/>
+      <c r="I51" s="12"/>
+      <c r="J51" s="12" t="s">
         <v>19</v>
       </c>
-      <c r="K51" s="14"/>
-      <c r="L51" s="14"/>
-      <c r="M51" s="14"/>
-      <c r="N51" s="14"/>
-      <c r="O51" s="14"/>
-      <c r="P51" s="14"/>
-      <c r="Q51" s="14"/>
-      <c r="R51" s="14"/>
-      <c r="S51" s="14"/>
-      <c r="T51" s="14"/>
-      <c r="U51" s="14"/>
-      <c r="V51" s="14"/>
-      <c r="W51" s="14"/>
-      <c r="X51" s="14"/>
-      <c r="Y51" s="14"/>
-      <c r="Z51" s="14"/>
-      <c r="AA51" s="14"/>
-      <c r="AB51" s="14"/>
-      <c r="AC51" s="14"/>
-      <c r="AD51" s="14"/>
-      <c r="AE51" s="14"/>
-      <c r="AF51" s="14"/>
-      <c r="AG51" s="14"/>
-      <c r="AH51" s="14"/>
-      <c r="AI51" s="14"/>
-      <c r="AJ51" s="14"/>
-      <c r="AK51" s="14"/>
-      <c r="AL51" s="14"/>
-      <c r="AM51" s="14"/>
+      <c r="K51" s="12"/>
+      <c r="L51" s="12"/>
+      <c r="M51" s="12"/>
+      <c r="N51" s="12"/>
+      <c r="O51" s="12"/>
+      <c r="P51" s="12"/>
+      <c r="Q51" s="12"/>
+      <c r="R51" s="12"/>
+      <c r="S51" s="12"/>
+      <c r="T51" s="12"/>
+      <c r="U51" s="12"/>
+      <c r="V51" s="12"/>
+      <c r="W51" s="12"/>
+      <c r="X51" s="12"/>
+      <c r="Y51" s="12"/>
+      <c r="Z51" s="12"/>
+      <c r="AA51" s="12"/>
+      <c r="AB51" s="12"/>
+      <c r="AC51" s="12"/>
+      <c r="AD51" s="12"/>
+      <c r="AE51" s="12"/>
+      <c r="AF51" s="12"/>
+      <c r="AG51" s="12"/>
+      <c r="AH51" s="12"/>
+      <c r="AI51" s="12"/>
+      <c r="AJ51" s="12"/>
+      <c r="AK51" s="12"/>
+      <c r="AL51" s="12"/>
+      <c r="AM51" s="12"/>
     </row>
     <row r="52" spans="4:39" ht="27.75" customHeight="1">
-      <c r="D52" s="14" t="s">
+      <c r="D52" s="12" t="s">
         <v>20</v>
       </c>
-      <c r="E52" s="14"/>
-      <c r="F52" s="14"/>
-      <c r="G52" s="14"/>
-      <c r="H52" s="14"/>
-      <c r="I52" s="14"/>
-      <c r="J52" s="14" t="s">
+      <c r="E52" s="12"/>
+      <c r="F52" s="12"/>
+      <c r="G52" s="12"/>
+      <c r="H52" s="12"/>
+      <c r="I52" s="12"/>
+      <c r="J52" s="12" t="s">
         <v>21</v>
       </c>
-      <c r="K52" s="14"/>
-      <c r="L52" s="14"/>
-      <c r="M52" s="14"/>
-      <c r="N52" s="14"/>
-      <c r="O52" s="14"/>
-      <c r="P52" s="14"/>
-      <c r="Q52" s="14"/>
-      <c r="R52" s="14"/>
-      <c r="S52" s="14"/>
-      <c r="T52" s="14"/>
-      <c r="U52" s="14"/>
-      <c r="V52" s="14"/>
-      <c r="W52" s="14"/>
-      <c r="X52" s="14"/>
-      <c r="Y52" s="14"/>
-      <c r="Z52" s="14"/>
-      <c r="AA52" s="14"/>
-      <c r="AB52" s="14"/>
-      <c r="AC52" s="14"/>
-      <c r="AD52" s="14"/>
-      <c r="AE52" s="14"/>
-      <c r="AF52" s="14"/>
-      <c r="AG52" s="14"/>
-      <c r="AH52" s="14"/>
-      <c r="AI52" s="14"/>
-      <c r="AJ52" s="14"/>
-      <c r="AK52" s="14"/>
-      <c r="AL52" s="14"/>
-      <c r="AM52" s="14"/>
+      <c r="K52" s="12"/>
+      <c r="L52" s="12"/>
+      <c r="M52" s="12"/>
+      <c r="N52" s="12"/>
+      <c r="O52" s="12"/>
+      <c r="P52" s="12"/>
+      <c r="Q52" s="12"/>
+      <c r="R52" s="12"/>
+      <c r="S52" s="12"/>
+      <c r="T52" s="12"/>
+      <c r="U52" s="12"/>
+      <c r="V52" s="12"/>
+      <c r="W52" s="12"/>
+      <c r="X52" s="12"/>
+      <c r="Y52" s="12"/>
+      <c r="Z52" s="12"/>
+      <c r="AA52" s="12"/>
+      <c r="AB52" s="12"/>
+      <c r="AC52" s="12"/>
+      <c r="AD52" s="12"/>
+      <c r="AE52" s="12"/>
+      <c r="AF52" s="12"/>
+      <c r="AG52" s="12"/>
+      <c r="AH52" s="12"/>
+      <c r="AI52" s="12"/>
+      <c r="AJ52" s="12"/>
+      <c r="AK52" s="12"/>
+      <c r="AL52" s="12"/>
+      <c r="AM52" s="12"/>
     </row>
     <row r="53" spans="4:39" ht="27.75" customHeight="1">
-      <c r="D53" s="14" t="s">
+      <c r="D53" s="12" t="s">
         <v>20</v>
       </c>
-      <c r="E53" s="14"/>
-      <c r="F53" s="14"/>
-      <c r="G53" s="14"/>
-      <c r="H53" s="14"/>
-      <c r="I53" s="14"/>
-      <c r="J53" s="14" t="s">
+      <c r="E53" s="12"/>
+      <c r="F53" s="12"/>
+      <c r="G53" s="12"/>
+      <c r="H53" s="12"/>
+      <c r="I53" s="12"/>
+      <c r="J53" s="12" t="s">
         <v>113</v>
       </c>
-      <c r="K53" s="14"/>
-      <c r="L53" s="14"/>
-      <c r="M53" s="14"/>
-      <c r="N53" s="14"/>
-      <c r="O53" s="14"/>
-      <c r="P53" s="14"/>
-      <c r="Q53" s="14"/>
-      <c r="R53" s="14"/>
-      <c r="S53" s="14"/>
-      <c r="T53" s="14"/>
-      <c r="U53" s="14"/>
-      <c r="V53" s="14"/>
-      <c r="W53" s="14"/>
-      <c r="X53" s="14"/>
-      <c r="Y53" s="14"/>
-      <c r="Z53" s="14"/>
-      <c r="AA53" s="14"/>
-      <c r="AB53" s="14"/>
-      <c r="AC53" s="14"/>
-      <c r="AD53" s="14"/>
-      <c r="AE53" s="14"/>
-      <c r="AF53" s="14"/>
-      <c r="AG53" s="14"/>
-      <c r="AH53" s="14"/>
-      <c r="AI53" s="14"/>
-      <c r="AJ53" s="14"/>
-      <c r="AK53" s="14"/>
-      <c r="AL53" s="14"/>
-      <c r="AM53" s="14"/>
+      <c r="K53" s="12"/>
+      <c r="L53" s="12"/>
+      <c r="M53" s="12"/>
+      <c r="N53" s="12"/>
+      <c r="O53" s="12"/>
+      <c r="P53" s="12"/>
+      <c r="Q53" s="12"/>
+      <c r="R53" s="12"/>
+      <c r="S53" s="12"/>
+      <c r="T53" s="12"/>
+      <c r="U53" s="12"/>
+      <c r="V53" s="12"/>
+      <c r="W53" s="12"/>
+      <c r="X53" s="12"/>
+      <c r="Y53" s="12"/>
+      <c r="Z53" s="12"/>
+      <c r="AA53" s="12"/>
+      <c r="AB53" s="12"/>
+      <c r="AC53" s="12"/>
+      <c r="AD53" s="12"/>
+      <c r="AE53" s="12"/>
+      <c r="AF53" s="12"/>
+      <c r="AG53" s="12"/>
+      <c r="AH53" s="12"/>
+      <c r="AI53" s="12"/>
+      <c r="AJ53" s="12"/>
+      <c r="AK53" s="12"/>
+      <c r="AL53" s="12"/>
+      <c r="AM53" s="12"/>
     </row>
     <row r="54" spans="4:39" ht="27.75" customHeight="1">
-      <c r="D54" s="14" t="s">
+      <c r="D54" s="12" t="s">
         <v>20</v>
       </c>
-      <c r="E54" s="14"/>
-      <c r="F54" s="14"/>
-      <c r="G54" s="14"/>
-      <c r="H54" s="14"/>
-      <c r="I54" s="14"/>
-      <c r="J54" s="14" t="s">
+      <c r="E54" s="12"/>
+      <c r="F54" s="12"/>
+      <c r="G54" s="12"/>
+      <c r="H54" s="12"/>
+      <c r="I54" s="12"/>
+      <c r="J54" s="12" t="s">
         <v>22</v>
       </c>
-      <c r="K54" s="14"/>
-      <c r="L54" s="14"/>
-      <c r="M54" s="14"/>
-      <c r="N54" s="14"/>
-      <c r="O54" s="14"/>
-      <c r="P54" s="14"/>
-      <c r="Q54" s="14"/>
-      <c r="R54" s="14"/>
-      <c r="S54" s="14"/>
-      <c r="T54" s="14"/>
-      <c r="U54" s="14"/>
-      <c r="V54" s="14"/>
-      <c r="W54" s="14"/>
-      <c r="X54" s="14"/>
-      <c r="Y54" s="14"/>
-      <c r="Z54" s="14"/>
-      <c r="AA54" s="14"/>
-      <c r="AB54" s="14"/>
-      <c r="AC54" s="14"/>
-      <c r="AD54" s="14"/>
-      <c r="AE54" s="14"/>
-      <c r="AF54" s="14"/>
-      <c r="AG54" s="14"/>
-      <c r="AH54" s="14"/>
-      <c r="AI54" s="14"/>
-      <c r="AJ54" s="14"/>
-      <c r="AK54" s="14"/>
-      <c r="AL54" s="14"/>
-      <c r="AM54" s="14"/>
+      <c r="K54" s="12"/>
+      <c r="L54" s="12"/>
+      <c r="M54" s="12"/>
+      <c r="N54" s="12"/>
+      <c r="O54" s="12"/>
+      <c r="P54" s="12"/>
+      <c r="Q54" s="12"/>
+      <c r="R54" s="12"/>
+      <c r="S54" s="12"/>
+      <c r="T54" s="12"/>
+      <c r="U54" s="12"/>
+      <c r="V54" s="12"/>
+      <c r="W54" s="12"/>
+      <c r="X54" s="12"/>
+      <c r="Y54" s="12"/>
+      <c r="Z54" s="12"/>
+      <c r="AA54" s="12"/>
+      <c r="AB54" s="12"/>
+      <c r="AC54" s="12"/>
+      <c r="AD54" s="12"/>
+      <c r="AE54" s="12"/>
+      <c r="AF54" s="12"/>
+      <c r="AG54" s="12"/>
+      <c r="AH54" s="12"/>
+      <c r="AI54" s="12"/>
+      <c r="AJ54" s="12"/>
+      <c r="AK54" s="12"/>
+      <c r="AL54" s="12"/>
+      <c r="AM54" s="12"/>
     </row>
     <row r="55" spans="4:39" ht="27.75" customHeight="1">
-      <c r="D55" s="14" t="s">
+      <c r="D55" s="12" t="s">
         <v>23</v>
       </c>
-      <c r="E55" s="14"/>
-      <c r="F55" s="14"/>
-      <c r="G55" s="14"/>
-      <c r="H55" s="14"/>
-      <c r="I55" s="14"/>
-      <c r="J55" s="14" t="s">
+      <c r="E55" s="12"/>
+      <c r="F55" s="12"/>
+      <c r="G55" s="12"/>
+      <c r="H55" s="12"/>
+      <c r="I55" s="12"/>
+      <c r="J55" s="12" t="s">
         <v>111</v>
       </c>
-      <c r="K55" s="14"/>
-      <c r="L55" s="14"/>
-      <c r="M55" s="14"/>
-      <c r="N55" s="14"/>
-      <c r="O55" s="14"/>
-      <c r="P55" s="14"/>
-      <c r="Q55" s="14"/>
-      <c r="R55" s="14"/>
-      <c r="S55" s="14"/>
-      <c r="T55" s="14"/>
-      <c r="U55" s="14"/>
-      <c r="V55" s="14"/>
-      <c r="W55" s="14"/>
-      <c r="X55" s="14"/>
-      <c r="Y55" s="14"/>
-      <c r="Z55" s="14"/>
-      <c r="AA55" s="14"/>
-      <c r="AB55" s="14"/>
-      <c r="AC55" s="14"/>
-      <c r="AD55" s="14"/>
-      <c r="AE55" s="14"/>
-      <c r="AF55" s="14"/>
-      <c r="AG55" s="14"/>
-      <c r="AH55" s="14"/>
-      <c r="AI55" s="14"/>
-      <c r="AJ55" s="14"/>
-      <c r="AK55" s="14"/>
-      <c r="AL55" s="14"/>
-      <c r="AM55" s="14"/>
+      <c r="K55" s="12"/>
+      <c r="L55" s="12"/>
+      <c r="M55" s="12"/>
+      <c r="N55" s="12"/>
+      <c r="O55" s="12"/>
+      <c r="P55" s="12"/>
+      <c r="Q55" s="12"/>
+      <c r="R55" s="12"/>
+      <c r="S55" s="12"/>
+      <c r="T55" s="12"/>
+      <c r="U55" s="12"/>
+      <c r="V55" s="12"/>
+      <c r="W55" s="12"/>
+      <c r="X55" s="12"/>
+      <c r="Y55" s="12"/>
+      <c r="Z55" s="12"/>
+      <c r="AA55" s="12"/>
+      <c r="AB55" s="12"/>
+      <c r="AC55" s="12"/>
+      <c r="AD55" s="12"/>
+      <c r="AE55" s="12"/>
+      <c r="AF55" s="12"/>
+      <c r="AG55" s="12"/>
+      <c r="AH55" s="12"/>
+      <c r="AI55" s="12"/>
+      <c r="AJ55" s="12"/>
+      <c r="AK55" s="12"/>
+      <c r="AL55" s="12"/>
+      <c r="AM55" s="12"/>
     </row>
     <row r="56" spans="4:39" ht="27.75" customHeight="1">
-      <c r="D56" s="14"/>
-      <c r="E56" s="14"/>
-      <c r="F56" s="14"/>
-      <c r="G56" s="14"/>
-      <c r="H56" s="14"/>
-      <c r="I56" s="14"/>
-      <c r="J56" s="14"/>
-      <c r="K56" s="14"/>
-      <c r="L56" s="14"/>
-      <c r="M56" s="14"/>
-      <c r="N56" s="14"/>
-      <c r="O56" s="14"/>
-      <c r="P56" s="14"/>
-      <c r="Q56" s="14"/>
-      <c r="R56" s="14"/>
-      <c r="S56" s="14"/>
-      <c r="T56" s="14"/>
-      <c r="U56" s="14"/>
-      <c r="V56" s="14"/>
-      <c r="W56" s="14"/>
-      <c r="X56" s="14"/>
-      <c r="Y56" s="14"/>
-      <c r="Z56" s="14"/>
-      <c r="AA56" s="14"/>
-      <c r="AB56" s="14"/>
-      <c r="AC56" s="14"/>
-      <c r="AD56" s="14"/>
-      <c r="AE56" s="14"/>
-      <c r="AF56" s="14"/>
-      <c r="AG56" s="14"/>
-      <c r="AH56" s="14"/>
-      <c r="AI56" s="14"/>
-      <c r="AJ56" s="14"/>
-      <c r="AK56" s="14"/>
-      <c r="AL56" s="14"/>
-      <c r="AM56" s="14"/>
+      <c r="D56" s="12"/>
+      <c r="E56" s="12"/>
+      <c r="F56" s="12"/>
+      <c r="G56" s="12"/>
+      <c r="H56" s="12"/>
+      <c r="I56" s="12"/>
+      <c r="J56" s="12"/>
+      <c r="K56" s="12"/>
+      <c r="L56" s="12"/>
+      <c r="M56" s="12"/>
+      <c r="N56" s="12"/>
+      <c r="O56" s="12"/>
+      <c r="P56" s="12"/>
+      <c r="Q56" s="12"/>
+      <c r="R56" s="12"/>
+      <c r="S56" s="12"/>
+      <c r="T56" s="12"/>
+      <c r="U56" s="12"/>
+      <c r="V56" s="12"/>
+      <c r="W56" s="12"/>
+      <c r="X56" s="12"/>
+      <c r="Y56" s="12"/>
+      <c r="Z56" s="12"/>
+      <c r="AA56" s="12"/>
+      <c r="AB56" s="12"/>
+      <c r="AC56" s="12"/>
+      <c r="AD56" s="12"/>
+      <c r="AE56" s="12"/>
+      <c r="AF56" s="12"/>
+      <c r="AG56" s="12"/>
+      <c r="AH56" s="12"/>
+      <c r="AI56" s="12"/>
+      <c r="AJ56" s="12"/>
+      <c r="AK56" s="12"/>
+      <c r="AL56" s="12"/>
+      <c r="AM56" s="12"/>
     </row>
     <row r="57" spans="4:39" ht="27.75" customHeight="1">
-      <c r="D57" s="14"/>
-      <c r="E57" s="14"/>
-      <c r="F57" s="14"/>
-      <c r="G57" s="14"/>
-      <c r="H57" s="14"/>
-      <c r="I57" s="14"/>
-      <c r="J57" s="14"/>
-      <c r="K57" s="14"/>
-      <c r="L57" s="14"/>
-      <c r="M57" s="14"/>
-      <c r="N57" s="14"/>
-      <c r="O57" s="14"/>
-      <c r="P57" s="14"/>
-      <c r="Q57" s="14"/>
-      <c r="R57" s="14"/>
-      <c r="S57" s="14"/>
-      <c r="T57" s="14"/>
-      <c r="U57" s="14"/>
-      <c r="V57" s="14"/>
-      <c r="W57" s="14"/>
-      <c r="X57" s="14"/>
-      <c r="Y57" s="14"/>
-      <c r="Z57" s="14"/>
-      <c r="AA57" s="14"/>
-      <c r="AB57" s="14"/>
-      <c r="AC57" s="14"/>
-      <c r="AD57" s="14"/>
-      <c r="AE57" s="14"/>
-      <c r="AF57" s="14"/>
-      <c r="AG57" s="14"/>
-      <c r="AH57" s="14"/>
-      <c r="AI57" s="14"/>
-      <c r="AJ57" s="14"/>
-      <c r="AK57" s="14"/>
-      <c r="AL57" s="14"/>
-      <c r="AM57" s="14"/>
+      <c r="D57" s="12"/>
+      <c r="E57" s="12"/>
+      <c r="F57" s="12"/>
+      <c r="G57" s="12"/>
+      <c r="H57" s="12"/>
+      <c r="I57" s="12"/>
+      <c r="J57" s="12"/>
+      <c r="K57" s="12"/>
+      <c r="L57" s="12"/>
+      <c r="M57" s="12"/>
+      <c r="N57" s="12"/>
+      <c r="O57" s="12"/>
+      <c r="P57" s="12"/>
+      <c r="Q57" s="12"/>
+      <c r="R57" s="12"/>
+      <c r="S57" s="12"/>
+      <c r="T57" s="12"/>
+      <c r="U57" s="12"/>
+      <c r="V57" s="12"/>
+      <c r="W57" s="12"/>
+      <c r="X57" s="12"/>
+      <c r="Y57" s="12"/>
+      <c r="Z57" s="12"/>
+      <c r="AA57" s="12"/>
+      <c r="AB57" s="12"/>
+      <c r="AC57" s="12"/>
+      <c r="AD57" s="12"/>
+      <c r="AE57" s="12"/>
+      <c r="AF57" s="12"/>
+      <c r="AG57" s="12"/>
+      <c r="AH57" s="12"/>
+      <c r="AI57" s="12"/>
+      <c r="AJ57" s="12"/>
+      <c r="AK57" s="12"/>
+      <c r="AL57" s="12"/>
+      <c r="AM57" s="12"/>
     </row>
     <row r="58" spans="4:39" ht="27.75" customHeight="1">
-      <c r="D58" s="14"/>
-      <c r="E58" s="14"/>
-      <c r="F58" s="14"/>
-      <c r="G58" s="14"/>
-      <c r="H58" s="14"/>
-      <c r="I58" s="14"/>
-      <c r="J58" s="14"/>
-      <c r="K58" s="14"/>
-      <c r="L58" s="14"/>
-      <c r="M58" s="14"/>
-      <c r="N58" s="14"/>
-      <c r="O58" s="14"/>
-      <c r="P58" s="14"/>
-      <c r="Q58" s="14"/>
-      <c r="R58" s="14"/>
-      <c r="S58" s="14"/>
-      <c r="T58" s="14"/>
-      <c r="U58" s="14"/>
-      <c r="V58" s="14"/>
-      <c r="W58" s="14"/>
-      <c r="X58" s="14"/>
-      <c r="Y58" s="14"/>
-      <c r="Z58" s="14"/>
-      <c r="AA58" s="14"/>
-      <c r="AB58" s="14"/>
-      <c r="AC58" s="14"/>
-      <c r="AD58" s="14"/>
-      <c r="AE58" s="14"/>
-      <c r="AF58" s="14"/>
-      <c r="AG58" s="14"/>
-      <c r="AH58" s="14"/>
-      <c r="AI58" s="14"/>
-      <c r="AJ58" s="14"/>
-      <c r="AK58" s="14"/>
-      <c r="AL58" s="14"/>
-      <c r="AM58" s="14"/>
+      <c r="D58" s="12"/>
+      <c r="E58" s="12"/>
+      <c r="F58" s="12"/>
+      <c r="G58" s="12"/>
+      <c r="H58" s="12"/>
+      <c r="I58" s="12"/>
+      <c r="J58" s="12"/>
+      <c r="K58" s="12"/>
+      <c r="L58" s="12"/>
+      <c r="M58" s="12"/>
+      <c r="N58" s="12"/>
+      <c r="O58" s="12"/>
+      <c r="P58" s="12"/>
+      <c r="Q58" s="12"/>
+      <c r="R58" s="12"/>
+      <c r="S58" s="12"/>
+      <c r="T58" s="12"/>
+      <c r="U58" s="12"/>
+      <c r="V58" s="12"/>
+      <c r="W58" s="12"/>
+      <c r="X58" s="12"/>
+      <c r="Y58" s="12"/>
+      <c r="Z58" s="12"/>
+      <c r="AA58" s="12"/>
+      <c r="AB58" s="12"/>
+      <c r="AC58" s="12"/>
+      <c r="AD58" s="12"/>
+      <c r="AE58" s="12"/>
+      <c r="AF58" s="12"/>
+      <c r="AG58" s="12"/>
+      <c r="AH58" s="12"/>
+      <c r="AI58" s="12"/>
+      <c r="AJ58" s="12"/>
+      <c r="AK58" s="12"/>
+      <c r="AL58" s="12"/>
+      <c r="AM58" s="12"/>
     </row>
     <row r="59" spans="4:39" ht="27.75" customHeight="1">
-      <c r="D59" s="14"/>
-      <c r="E59" s="14"/>
-      <c r="F59" s="14"/>
-      <c r="G59" s="14"/>
-      <c r="H59" s="14"/>
-      <c r="I59" s="14"/>
-      <c r="J59" s="14"/>
-      <c r="K59" s="14"/>
-      <c r="L59" s="14"/>
-      <c r="M59" s="14"/>
-      <c r="N59" s="14"/>
-      <c r="O59" s="14"/>
-      <c r="P59" s="14"/>
-      <c r="Q59" s="14"/>
-      <c r="R59" s="14"/>
-      <c r="S59" s="14"/>
-      <c r="T59" s="14"/>
-      <c r="U59" s="14"/>
-      <c r="V59" s="14"/>
-      <c r="W59" s="14"/>
-      <c r="X59" s="14"/>
-      <c r="Y59" s="14"/>
-      <c r="Z59" s="14"/>
-      <c r="AA59" s="14"/>
-      <c r="AB59" s="14"/>
-      <c r="AC59" s="14"/>
-      <c r="AD59" s="14"/>
-      <c r="AE59" s="14"/>
-      <c r="AF59" s="14"/>
-      <c r="AG59" s="14"/>
-      <c r="AH59" s="14"/>
-      <c r="AI59" s="14"/>
-      <c r="AJ59" s="14"/>
-      <c r="AK59" s="14"/>
-      <c r="AL59" s="14"/>
-      <c r="AM59" s="14"/>
+      <c r="D59" s="12"/>
+      <c r="E59" s="12"/>
+      <c r="F59" s="12"/>
+      <c r="G59" s="12"/>
+      <c r="H59" s="12"/>
+      <c r="I59" s="12"/>
+      <c r="J59" s="12"/>
+      <c r="K59" s="12"/>
+      <c r="L59" s="12"/>
+      <c r="M59" s="12"/>
+      <c r="N59" s="12"/>
+      <c r="O59" s="12"/>
+      <c r="P59" s="12"/>
+      <c r="Q59" s="12"/>
+      <c r="R59" s="12"/>
+      <c r="S59" s="12"/>
+      <c r="T59" s="12"/>
+      <c r="U59" s="12"/>
+      <c r="V59" s="12"/>
+      <c r="W59" s="12"/>
+      <c r="X59" s="12"/>
+      <c r="Y59" s="12"/>
+      <c r="Z59" s="12"/>
+      <c r="AA59" s="12"/>
+      <c r="AB59" s="12"/>
+      <c r="AC59" s="12"/>
+      <c r="AD59" s="12"/>
+      <c r="AE59" s="12"/>
+      <c r="AF59" s="12"/>
+      <c r="AG59" s="12"/>
+      <c r="AH59" s="12"/>
+      <c r="AI59" s="12"/>
+      <c r="AJ59" s="12"/>
+      <c r="AK59" s="12"/>
+      <c r="AL59" s="12"/>
+      <c r="AM59" s="12"/>
     </row>
     <row r="60" spans="4:39" ht="27.75" customHeight="1">
-      <c r="D60" s="14"/>
-      <c r="E60" s="14"/>
-      <c r="F60" s="14"/>
-      <c r="G60" s="14"/>
-      <c r="H60" s="14"/>
-      <c r="I60" s="14"/>
-      <c r="J60" s="14"/>
-      <c r="K60" s="14"/>
-      <c r="L60" s="14"/>
-      <c r="M60" s="14"/>
-      <c r="N60" s="14"/>
-      <c r="O60" s="14"/>
-      <c r="P60" s="14"/>
-      <c r="Q60" s="14"/>
-      <c r="R60" s="14"/>
-      <c r="S60" s="14"/>
-      <c r="T60" s="14"/>
-      <c r="U60" s="14"/>
-      <c r="V60" s="14"/>
-      <c r="W60" s="14"/>
-      <c r="X60" s="14"/>
-      <c r="Y60" s="14"/>
-      <c r="Z60" s="14"/>
-      <c r="AA60" s="14"/>
-      <c r="AB60" s="14"/>
-      <c r="AC60" s="14"/>
-      <c r="AD60" s="14"/>
-      <c r="AE60" s="14"/>
-      <c r="AF60" s="14"/>
-      <c r="AG60" s="14"/>
-      <c r="AH60" s="14"/>
-      <c r="AI60" s="14"/>
-      <c r="AJ60" s="14"/>
-      <c r="AK60" s="14"/>
-      <c r="AL60" s="14"/>
-      <c r="AM60" s="14"/>
+      <c r="D60" s="12"/>
+      <c r="E60" s="12"/>
+      <c r="F60" s="12"/>
+      <c r="G60" s="12"/>
+      <c r="H60" s="12"/>
+      <c r="I60" s="12"/>
+      <c r="J60" s="12"/>
+      <c r="K60" s="12"/>
+      <c r="L60" s="12"/>
+      <c r="M60" s="12"/>
+      <c r="N60" s="12"/>
+      <c r="O60" s="12"/>
+      <c r="P60" s="12"/>
+      <c r="Q60" s="12"/>
+      <c r="R60" s="12"/>
+      <c r="S60" s="12"/>
+      <c r="T60" s="12"/>
+      <c r="U60" s="12"/>
+      <c r="V60" s="12"/>
+      <c r="W60" s="12"/>
+      <c r="X60" s="12"/>
+      <c r="Y60" s="12"/>
+      <c r="Z60" s="12"/>
+      <c r="AA60" s="12"/>
+      <c r="AB60" s="12"/>
+      <c r="AC60" s="12"/>
+      <c r="AD60" s="12"/>
+      <c r="AE60" s="12"/>
+      <c r="AF60" s="12"/>
+      <c r="AG60" s="12"/>
+      <c r="AH60" s="12"/>
+      <c r="AI60" s="12"/>
+      <c r="AJ60" s="12"/>
+      <c r="AK60" s="12"/>
+      <c r="AL60" s="12"/>
+      <c r="AM60" s="12"/>
     </row>
     <row r="61" spans="4:39" ht="27.75" customHeight="1">
-      <c r="D61" s="14"/>
-      <c r="E61" s="14"/>
-      <c r="F61" s="14"/>
-      <c r="G61" s="14"/>
-      <c r="H61" s="14"/>
-      <c r="I61" s="14"/>
-      <c r="J61" s="14"/>
-      <c r="K61" s="14"/>
-      <c r="L61" s="14"/>
-      <c r="M61" s="14"/>
-      <c r="N61" s="14"/>
-      <c r="O61" s="14"/>
-      <c r="P61" s="14"/>
-      <c r="Q61" s="14"/>
-      <c r="R61" s="14"/>
-      <c r="S61" s="14"/>
-      <c r="T61" s="14"/>
-      <c r="U61" s="14"/>
-      <c r="V61" s="14"/>
-      <c r="W61" s="14"/>
-      <c r="X61" s="14"/>
-      <c r="Y61" s="14"/>
-      <c r="Z61" s="14"/>
-      <c r="AA61" s="14"/>
-      <c r="AB61" s="14"/>
-      <c r="AC61" s="14"/>
-      <c r="AD61" s="14"/>
-      <c r="AE61" s="14"/>
-      <c r="AF61" s="14"/>
-      <c r="AG61" s="14"/>
-      <c r="AH61" s="14"/>
-      <c r="AI61" s="14"/>
-      <c r="AJ61" s="14"/>
-      <c r="AK61" s="14"/>
-      <c r="AL61" s="14"/>
-      <c r="AM61" s="14"/>
+      <c r="D61" s="12"/>
+      <c r="E61" s="12"/>
+      <c r="F61" s="12"/>
+      <c r="G61" s="12"/>
+      <c r="H61" s="12"/>
+      <c r="I61" s="12"/>
+      <c r="J61" s="12"/>
+      <c r="K61" s="12"/>
+      <c r="L61" s="12"/>
+      <c r="M61" s="12"/>
+      <c r="N61" s="12"/>
+      <c r="O61" s="12"/>
+      <c r="P61" s="12"/>
+      <c r="Q61" s="12"/>
+      <c r="R61" s="12"/>
+      <c r="S61" s="12"/>
+      <c r="T61" s="12"/>
+      <c r="U61" s="12"/>
+      <c r="V61" s="12"/>
+      <c r="W61" s="12"/>
+      <c r="X61" s="12"/>
+      <c r="Y61" s="12"/>
+      <c r="Z61" s="12"/>
+      <c r="AA61" s="12"/>
+      <c r="AB61" s="12"/>
+      <c r="AC61" s="12"/>
+      <c r="AD61" s="12"/>
+      <c r="AE61" s="12"/>
+      <c r="AF61" s="12"/>
+      <c r="AG61" s="12"/>
+      <c r="AH61" s="12"/>
+      <c r="AI61" s="12"/>
+      <c r="AJ61" s="12"/>
+      <c r="AK61" s="12"/>
+      <c r="AL61" s="12"/>
+      <c r="AM61" s="12"/>
     </row>
     <row r="62" spans="4:39" ht="27.75" customHeight="1">
-      <c r="D62" s="14"/>
-      <c r="E62" s="14"/>
-      <c r="F62" s="14"/>
-      <c r="G62" s="14"/>
-      <c r="H62" s="14"/>
-      <c r="I62" s="14"/>
-      <c r="J62" s="14"/>
-      <c r="K62" s="14"/>
-      <c r="L62" s="14"/>
-      <c r="M62" s="14"/>
-      <c r="N62" s="14"/>
-      <c r="O62" s="14"/>
-      <c r="P62" s="14"/>
-      <c r="Q62" s="14"/>
-      <c r="R62" s="14"/>
-      <c r="S62" s="14"/>
-      <c r="T62" s="14"/>
-      <c r="U62" s="14"/>
-      <c r="V62" s="14"/>
-      <c r="W62" s="14"/>
-      <c r="X62" s="14"/>
-      <c r="Y62" s="14"/>
-      <c r="Z62" s="14"/>
-      <c r="AA62" s="14"/>
-      <c r="AB62" s="14"/>
-      <c r="AC62" s="14"/>
-      <c r="AD62" s="14"/>
-      <c r="AE62" s="14"/>
-      <c r="AF62" s="14"/>
-      <c r="AG62" s="14"/>
-      <c r="AH62" s="14"/>
-      <c r="AI62" s="14"/>
-      <c r="AJ62" s="14"/>
-      <c r="AK62" s="14"/>
-      <c r="AL62" s="14"/>
-      <c r="AM62" s="14"/>
+      <c r="D62" s="12"/>
+      <c r="E62" s="12"/>
+      <c r="F62" s="12"/>
+      <c r="G62" s="12"/>
+      <c r="H62" s="12"/>
+      <c r="I62" s="12"/>
+      <c r="J62" s="12"/>
+      <c r="K62" s="12"/>
+      <c r="L62" s="12"/>
+      <c r="M62" s="12"/>
+      <c r="N62" s="12"/>
+      <c r="O62" s="12"/>
+      <c r="P62" s="12"/>
+      <c r="Q62" s="12"/>
+      <c r="R62" s="12"/>
+      <c r="S62" s="12"/>
+      <c r="T62" s="12"/>
+      <c r="U62" s="12"/>
+      <c r="V62" s="12"/>
+      <c r="W62" s="12"/>
+      <c r="X62" s="12"/>
+      <c r="Y62" s="12"/>
+      <c r="Z62" s="12"/>
+      <c r="AA62" s="12"/>
+      <c r="AB62" s="12"/>
+      <c r="AC62" s="12"/>
+      <c r="AD62" s="12"/>
+      <c r="AE62" s="12"/>
+      <c r="AF62" s="12"/>
+      <c r="AG62" s="12"/>
+      <c r="AH62" s="12"/>
+      <c r="AI62" s="12"/>
+      <c r="AJ62" s="12"/>
+      <c r="AK62" s="12"/>
+      <c r="AL62" s="12"/>
+      <c r="AM62" s="12"/>
     </row>
     <row r="63" spans="4:39" ht="27.75" customHeight="1">
-      <c r="D63" s="14"/>
-      <c r="E63" s="14"/>
-      <c r="F63" s="14"/>
-      <c r="G63" s="14"/>
-      <c r="H63" s="14"/>
-      <c r="I63" s="14"/>
-      <c r="J63" s="14"/>
-      <c r="K63" s="14"/>
-      <c r="L63" s="14"/>
-      <c r="M63" s="14"/>
-      <c r="N63" s="14"/>
-      <c r="O63" s="14"/>
-      <c r="P63" s="14"/>
-      <c r="Q63" s="14"/>
-      <c r="R63" s="14"/>
-      <c r="S63" s="14"/>
-      <c r="T63" s="14"/>
-      <c r="U63" s="14"/>
-      <c r="V63" s="14"/>
-      <c r="W63" s="14"/>
-      <c r="X63" s="14"/>
-      <c r="Y63" s="14"/>
-      <c r="Z63" s="14"/>
-      <c r="AA63" s="14"/>
-      <c r="AB63" s="14"/>
-      <c r="AC63" s="14"/>
-      <c r="AD63" s="14"/>
-      <c r="AE63" s="14"/>
-      <c r="AF63" s="14"/>
-      <c r="AG63" s="14"/>
-      <c r="AH63" s="14"/>
-      <c r="AI63" s="14"/>
-      <c r="AJ63" s="14"/>
-      <c r="AK63" s="14"/>
-      <c r="AL63" s="14"/>
-      <c r="AM63" s="14"/>
+      <c r="D63" s="12"/>
+      <c r="E63" s="12"/>
+      <c r="F63" s="12"/>
+      <c r="G63" s="12"/>
+      <c r="H63" s="12"/>
+      <c r="I63" s="12"/>
+      <c r="J63" s="12"/>
+      <c r="K63" s="12"/>
+      <c r="L63" s="12"/>
+      <c r="M63" s="12"/>
+      <c r="N63" s="12"/>
+      <c r="O63" s="12"/>
+      <c r="P63" s="12"/>
+      <c r="Q63" s="12"/>
+      <c r="R63" s="12"/>
+      <c r="S63" s="12"/>
+      <c r="T63" s="12"/>
+      <c r="U63" s="12"/>
+      <c r="V63" s="12"/>
+      <c r="W63" s="12"/>
+      <c r="X63" s="12"/>
+      <c r="Y63" s="12"/>
+      <c r="Z63" s="12"/>
+      <c r="AA63" s="12"/>
+      <c r="AB63" s="12"/>
+      <c r="AC63" s="12"/>
+      <c r="AD63" s="12"/>
+      <c r="AE63" s="12"/>
+      <c r="AF63" s="12"/>
+      <c r="AG63" s="12"/>
+      <c r="AH63" s="12"/>
+      <c r="AI63" s="12"/>
+      <c r="AJ63" s="12"/>
+      <c r="AK63" s="12"/>
+      <c r="AL63" s="12"/>
+      <c r="AM63" s="12"/>
     </row>
     <row r="64" spans="4:39" ht="27.75" customHeight="1">
-      <c r="D64" s="14"/>
-      <c r="E64" s="14"/>
-      <c r="F64" s="14"/>
-      <c r="G64" s="14"/>
-      <c r="H64" s="14"/>
-      <c r="I64" s="14"/>
-      <c r="J64" s="14"/>
-      <c r="K64" s="14"/>
-      <c r="L64" s="14"/>
-      <c r="M64" s="14"/>
-      <c r="N64" s="14"/>
-      <c r="O64" s="14"/>
-      <c r="P64" s="14"/>
-      <c r="Q64" s="14"/>
-      <c r="R64" s="14"/>
-      <c r="S64" s="14"/>
-      <c r="T64" s="14"/>
-      <c r="U64" s="14"/>
-      <c r="V64" s="14"/>
-      <c r="W64" s="14"/>
-      <c r="X64" s="14"/>
-      <c r="Y64" s="14"/>
-      <c r="Z64" s="14"/>
-      <c r="AA64" s="14"/>
-      <c r="AB64" s="14"/>
-      <c r="AC64" s="14"/>
-      <c r="AD64" s="14"/>
-      <c r="AE64" s="14"/>
-      <c r="AF64" s="14"/>
-      <c r="AG64" s="14"/>
-      <c r="AH64" s="14"/>
-      <c r="AI64" s="14"/>
-      <c r="AJ64" s="14"/>
-      <c r="AK64" s="14"/>
-      <c r="AL64" s="14"/>
-      <c r="AM64" s="14"/>
+      <c r="D64" s="12"/>
+      <c r="E64" s="12"/>
+      <c r="F64" s="12"/>
+      <c r="G64" s="12"/>
+      <c r="H64" s="12"/>
+      <c r="I64" s="12"/>
+      <c r="J64" s="12"/>
+      <c r="K64" s="12"/>
+      <c r="L64" s="12"/>
+      <c r="M64" s="12"/>
+      <c r="N64" s="12"/>
+      <c r="O64" s="12"/>
+      <c r="P64" s="12"/>
+      <c r="Q64" s="12"/>
+      <c r="R64" s="12"/>
+      <c r="S64" s="12"/>
+      <c r="T64" s="12"/>
+      <c r="U64" s="12"/>
+      <c r="V64" s="12"/>
+      <c r="W64" s="12"/>
+      <c r="X64" s="12"/>
+      <c r="Y64" s="12"/>
+      <c r="Z64" s="12"/>
+      <c r="AA64" s="12"/>
+      <c r="AB64" s="12"/>
+      <c r="AC64" s="12"/>
+      <c r="AD64" s="12"/>
+      <c r="AE64" s="12"/>
+      <c r="AF64" s="12"/>
+      <c r="AG64" s="12"/>
+      <c r="AH64" s="12"/>
+      <c r="AI64" s="12"/>
+      <c r="AJ64" s="12"/>
+      <c r="AK64" s="12"/>
+      <c r="AL64" s="12"/>
+      <c r="AM64" s="12"/>
     </row>
     <row r="65" spans="4:39" ht="27.75" customHeight="1">
-      <c r="D65" s="14"/>
-      <c r="E65" s="14"/>
-      <c r="F65" s="14"/>
-      <c r="G65" s="14"/>
-      <c r="H65" s="14"/>
-      <c r="I65" s="14"/>
-      <c r="J65" s="14"/>
-      <c r="K65" s="14"/>
-      <c r="L65" s="14"/>
-      <c r="M65" s="14"/>
-      <c r="N65" s="14"/>
-      <c r="O65" s="14"/>
-      <c r="P65" s="14"/>
-      <c r="Q65" s="14"/>
-      <c r="R65" s="14"/>
-      <c r="S65" s="14"/>
-      <c r="T65" s="14"/>
-      <c r="U65" s="14"/>
-      <c r="V65" s="14"/>
-      <c r="W65" s="14"/>
-      <c r="X65" s="14"/>
-      <c r="Y65" s="14"/>
-      <c r="Z65" s="14"/>
-      <c r="AA65" s="14"/>
-      <c r="AB65" s="14"/>
-      <c r="AC65" s="14"/>
-      <c r="AD65" s="14"/>
-      <c r="AE65" s="14"/>
-      <c r="AF65" s="14"/>
-      <c r="AG65" s="14"/>
-      <c r="AH65" s="14"/>
-      <c r="AI65" s="14"/>
-      <c r="AJ65" s="14"/>
-      <c r="AK65" s="14"/>
-      <c r="AL65" s="14"/>
-      <c r="AM65" s="14"/>
+      <c r="D65" s="12"/>
+      <c r="E65" s="12"/>
+      <c r="F65" s="12"/>
+      <c r="G65" s="12"/>
+      <c r="H65" s="12"/>
+      <c r="I65" s="12"/>
+      <c r="J65" s="12"/>
+      <c r="K65" s="12"/>
+      <c r="L65" s="12"/>
+      <c r="M65" s="12"/>
+      <c r="N65" s="12"/>
+      <c r="O65" s="12"/>
+      <c r="P65" s="12"/>
+      <c r="Q65" s="12"/>
+      <c r="R65" s="12"/>
+      <c r="S65" s="12"/>
+      <c r="T65" s="12"/>
+      <c r="U65" s="12"/>
+      <c r="V65" s="12"/>
+      <c r="W65" s="12"/>
+      <c r="X65" s="12"/>
+      <c r="Y65" s="12"/>
+      <c r="Z65" s="12"/>
+      <c r="AA65" s="12"/>
+      <c r="AB65" s="12"/>
+      <c r="AC65" s="12"/>
+      <c r="AD65" s="12"/>
+      <c r="AE65" s="12"/>
+      <c r="AF65" s="12"/>
+      <c r="AG65" s="12"/>
+      <c r="AH65" s="12"/>
+      <c r="AI65" s="12"/>
+      <c r="AJ65" s="12"/>
+      <c r="AK65" s="12"/>
+      <c r="AL65" s="12"/>
+      <c r="AM65" s="12"/>
     </row>
     <row r="66" spans="4:39" ht="27.75" customHeight="1">
-      <c r="D66" s="14"/>
-      <c r="E66" s="14"/>
-      <c r="F66" s="14"/>
-      <c r="G66" s="14"/>
-      <c r="H66" s="14"/>
-      <c r="I66" s="14"/>
-      <c r="J66" s="14"/>
-      <c r="K66" s="14"/>
-      <c r="L66" s="14"/>
-      <c r="M66" s="14"/>
-      <c r="N66" s="14"/>
-      <c r="O66" s="14"/>
-      <c r="P66" s="14"/>
-      <c r="Q66" s="14"/>
-      <c r="R66" s="14"/>
-      <c r="S66" s="14"/>
-      <c r="T66" s="14"/>
-      <c r="U66" s="14"/>
-      <c r="V66" s="14"/>
-      <c r="W66" s="14"/>
-      <c r="X66" s="14"/>
-      <c r="Y66" s="14"/>
-      <c r="Z66" s="14"/>
-      <c r="AA66" s="14"/>
-      <c r="AB66" s="14"/>
-      <c r="AC66" s="14"/>
-      <c r="AD66" s="14"/>
-      <c r="AE66" s="14"/>
-      <c r="AF66" s="14"/>
-      <c r="AG66" s="14"/>
-      <c r="AH66" s="14"/>
-      <c r="AI66" s="14"/>
-      <c r="AJ66" s="14"/>
-      <c r="AK66" s="14"/>
-      <c r="AL66" s="14"/>
-      <c r="AM66" s="14"/>
+      <c r="D66" s="12"/>
+      <c r="E66" s="12"/>
+      <c r="F66" s="12"/>
+      <c r="G66" s="12"/>
+      <c r="H66" s="12"/>
+      <c r="I66" s="12"/>
+      <c r="J66" s="12"/>
+      <c r="K66" s="12"/>
+      <c r="L66" s="12"/>
+      <c r="M66" s="12"/>
+      <c r="N66" s="12"/>
+      <c r="O66" s="12"/>
+      <c r="P66" s="12"/>
+      <c r="Q66" s="12"/>
+      <c r="R66" s="12"/>
+      <c r="S66" s="12"/>
+      <c r="T66" s="12"/>
+      <c r="U66" s="12"/>
+      <c r="V66" s="12"/>
+      <c r="W66" s="12"/>
+      <c r="X66" s="12"/>
+      <c r="Y66" s="12"/>
+      <c r="Z66" s="12"/>
+      <c r="AA66" s="12"/>
+      <c r="AB66" s="12"/>
+      <c r="AC66" s="12"/>
+      <c r="AD66" s="12"/>
+      <c r="AE66" s="12"/>
+      <c r="AF66" s="12"/>
+      <c r="AG66" s="12"/>
+      <c r="AH66" s="12"/>
+      <c r="AI66" s="12"/>
+      <c r="AJ66" s="12"/>
+      <c r="AK66" s="12"/>
+      <c r="AL66" s="12"/>
+      <c r="AM66" s="12"/>
     </row>
     <row r="67" spans="4:39" ht="27.75" customHeight="1">
-      <c r="D67" s="14"/>
-      <c r="E67" s="14"/>
-      <c r="F67" s="14"/>
-      <c r="G67" s="14"/>
-      <c r="H67" s="14"/>
-      <c r="I67" s="14"/>
-      <c r="J67" s="14"/>
-      <c r="K67" s="14"/>
-      <c r="L67" s="14"/>
-      <c r="M67" s="14"/>
-      <c r="N67" s="14"/>
-      <c r="O67" s="14"/>
-      <c r="P67" s="14"/>
-      <c r="Q67" s="14"/>
-      <c r="R67" s="14"/>
-      <c r="S67" s="14"/>
-      <c r="T67" s="14"/>
-      <c r="U67" s="14"/>
-      <c r="V67" s="14"/>
-      <c r="W67" s="14"/>
-      <c r="X67" s="14"/>
-      <c r="Y67" s="14"/>
-      <c r="Z67" s="14"/>
-      <c r="AA67" s="14"/>
-      <c r="AB67" s="14"/>
-      <c r="AC67" s="14"/>
-      <c r="AD67" s="14"/>
-      <c r="AE67" s="14"/>
-      <c r="AF67" s="14"/>
-      <c r="AG67" s="14"/>
-      <c r="AH67" s="14"/>
-      <c r="AI67" s="14"/>
-      <c r="AJ67" s="14"/>
-      <c r="AK67" s="14"/>
-      <c r="AL67" s="14"/>
-      <c r="AM67" s="14"/>
+      <c r="D67" s="12"/>
+      <c r="E67" s="12"/>
+      <c r="F67" s="12"/>
+      <c r="G67" s="12"/>
+      <c r="H67" s="12"/>
+      <c r="I67" s="12"/>
+      <c r="J67" s="12"/>
+      <c r="K67" s="12"/>
+      <c r="L67" s="12"/>
+      <c r="M67" s="12"/>
+      <c r="N67" s="12"/>
+      <c r="O67" s="12"/>
+      <c r="P67" s="12"/>
+      <c r="Q67" s="12"/>
+      <c r="R67" s="12"/>
+      <c r="S67" s="12"/>
+      <c r="T67" s="12"/>
+      <c r="U67" s="12"/>
+      <c r="V67" s="12"/>
+      <c r="W67" s="12"/>
+      <c r="X67" s="12"/>
+      <c r="Y67" s="12"/>
+      <c r="Z67" s="12"/>
+      <c r="AA67" s="12"/>
+      <c r="AB67" s="12"/>
+      <c r="AC67" s="12"/>
+      <c r="AD67" s="12"/>
+      <c r="AE67" s="12"/>
+      <c r="AF67" s="12"/>
+      <c r="AG67" s="12"/>
+      <c r="AH67" s="12"/>
+      <c r="AI67" s="12"/>
+      <c r="AJ67" s="12"/>
+      <c r="AK67" s="12"/>
+      <c r="AL67" s="12"/>
+      <c r="AM67" s="12"/>
     </row>
     <row r="68" spans="4:39" ht="27.75" customHeight="1">
-      <c r="D68" s="14"/>
-      <c r="E68" s="14"/>
-      <c r="F68" s="14"/>
-      <c r="G68" s="14"/>
-      <c r="H68" s="14"/>
-      <c r="I68" s="14"/>
-      <c r="J68" s="14"/>
-      <c r="K68" s="14"/>
-      <c r="L68" s="14"/>
-      <c r="M68" s="14"/>
-      <c r="N68" s="14"/>
-      <c r="O68" s="14"/>
-      <c r="P68" s="14"/>
-      <c r="Q68" s="14"/>
-      <c r="R68" s="14"/>
-      <c r="S68" s="14"/>
-      <c r="T68" s="14"/>
-      <c r="U68" s="14"/>
-      <c r="V68" s="14"/>
-      <c r="W68" s="14"/>
-      <c r="X68" s="14"/>
-      <c r="Y68" s="14"/>
-      <c r="Z68" s="14"/>
-      <c r="AA68" s="14"/>
-      <c r="AB68" s="14"/>
-      <c r="AC68" s="14"/>
-      <c r="AD68" s="14"/>
-      <c r="AE68" s="14"/>
-      <c r="AF68" s="14"/>
-      <c r="AG68" s="14"/>
-      <c r="AH68" s="14"/>
-      <c r="AI68" s="14"/>
-      <c r="AJ68" s="14"/>
-      <c r="AK68" s="14"/>
-      <c r="AL68" s="14"/>
-      <c r="AM68" s="14"/>
+      <c r="D68" s="12"/>
+      <c r="E68" s="12"/>
+      <c r="F68" s="12"/>
+      <c r="G68" s="12"/>
+      <c r="H68" s="12"/>
+      <c r="I68" s="12"/>
+      <c r="J68" s="12"/>
+      <c r="K68" s="12"/>
+      <c r="L68" s="12"/>
+      <c r="M68" s="12"/>
+      <c r="N68" s="12"/>
+      <c r="O68" s="12"/>
+      <c r="P68" s="12"/>
+      <c r="Q68" s="12"/>
+      <c r="R68" s="12"/>
+      <c r="S68" s="12"/>
+      <c r="T68" s="12"/>
+      <c r="U68" s="12"/>
+      <c r="V68" s="12"/>
+      <c r="W68" s="12"/>
+      <c r="X68" s="12"/>
+      <c r="Y68" s="12"/>
+      <c r="Z68" s="12"/>
+      <c r="AA68" s="12"/>
+      <c r="AB68" s="12"/>
+      <c r="AC68" s="12"/>
+      <c r="AD68" s="12"/>
+      <c r="AE68" s="12"/>
+      <c r="AF68" s="12"/>
+      <c r="AG68" s="12"/>
+      <c r="AH68" s="12"/>
+      <c r="AI68" s="12"/>
+      <c r="AJ68" s="12"/>
+      <c r="AK68" s="12"/>
+      <c r="AL68" s="12"/>
+      <c r="AM68" s="12"/>
     </row>
     <row r="69" spans="4:39" ht="27.75" customHeight="1">
-      <c r="D69" s="14"/>
-      <c r="E69" s="14"/>
-      <c r="F69" s="14"/>
-      <c r="G69" s="14"/>
-      <c r="H69" s="14"/>
-      <c r="I69" s="14"/>
-      <c r="J69" s="14"/>
-      <c r="K69" s="14"/>
-      <c r="L69" s="14"/>
-      <c r="M69" s="14"/>
-      <c r="N69" s="14"/>
-      <c r="O69" s="14"/>
-      <c r="P69" s="14"/>
-      <c r="Q69" s="14"/>
-      <c r="R69" s="14"/>
-      <c r="S69" s="14"/>
-      <c r="T69" s="14"/>
-      <c r="U69" s="14"/>
-      <c r="V69" s="14"/>
-      <c r="W69" s="14"/>
-      <c r="X69" s="14"/>
-      <c r="Y69" s="14"/>
-      <c r="Z69" s="14"/>
-      <c r="AA69" s="14"/>
-      <c r="AB69" s="14"/>
-      <c r="AC69" s="14"/>
-      <c r="AD69" s="14"/>
-      <c r="AE69" s="14"/>
-      <c r="AF69" s="14"/>
-      <c r="AG69" s="14"/>
-      <c r="AH69" s="14"/>
-      <c r="AI69" s="14"/>
-      <c r="AJ69" s="14"/>
-      <c r="AK69" s="14"/>
-      <c r="AL69" s="14"/>
-      <c r="AM69" s="14"/>
+      <c r="D69" s="12"/>
+      <c r="E69" s="12"/>
+      <c r="F69" s="12"/>
+      <c r="G69" s="12"/>
+      <c r="H69" s="12"/>
+      <c r="I69" s="12"/>
+      <c r="J69" s="12"/>
+      <c r="K69" s="12"/>
+      <c r="L69" s="12"/>
+      <c r="M69" s="12"/>
+      <c r="N69" s="12"/>
+      <c r="O69" s="12"/>
+      <c r="P69" s="12"/>
+      <c r="Q69" s="12"/>
+      <c r="R69" s="12"/>
+      <c r="S69" s="12"/>
+      <c r="T69" s="12"/>
+      <c r="U69" s="12"/>
+      <c r="V69" s="12"/>
+      <c r="W69" s="12"/>
+      <c r="X69" s="12"/>
+      <c r="Y69" s="12"/>
+      <c r="Z69" s="12"/>
+      <c r="AA69" s="12"/>
+      <c r="AB69" s="12"/>
+      <c r="AC69" s="12"/>
+      <c r="AD69" s="12"/>
+      <c r="AE69" s="12"/>
+      <c r="AF69" s="12"/>
+      <c r="AG69" s="12"/>
+      <c r="AH69" s="12"/>
+      <c r="AI69" s="12"/>
+      <c r="AJ69" s="12"/>
+      <c r="AK69" s="12"/>
+      <c r="AL69" s="12"/>
+      <c r="AM69" s="12"/>
     </row>
     <row r="70" spans="4:39" ht="27.75" customHeight="1">
-      <c r="D70" s="14"/>
-      <c r="E70" s="14"/>
-      <c r="F70" s="14"/>
-      <c r="G70" s="14"/>
-      <c r="H70" s="14"/>
-      <c r="I70" s="14"/>
-      <c r="J70" s="14"/>
-      <c r="K70" s="14"/>
-      <c r="L70" s="14"/>
-      <c r="M70" s="14"/>
-      <c r="N70" s="14"/>
-      <c r="O70" s="14"/>
-      <c r="P70" s="14"/>
-      <c r="Q70" s="14"/>
-      <c r="R70" s="14"/>
-      <c r="S70" s="14"/>
-      <c r="T70" s="14"/>
-      <c r="U70" s="14"/>
-      <c r="V70" s="14"/>
-      <c r="W70" s="14"/>
-      <c r="X70" s="14"/>
-      <c r="Y70" s="14"/>
-      <c r="Z70" s="14"/>
-      <c r="AA70" s="14"/>
-      <c r="AB70" s="14"/>
-      <c r="AC70" s="14"/>
-      <c r="AD70" s="14"/>
-      <c r="AE70" s="14"/>
-      <c r="AF70" s="14"/>
-      <c r="AG70" s="14"/>
-      <c r="AH70" s="14"/>
-      <c r="AI70" s="14"/>
-      <c r="AJ70" s="14"/>
-      <c r="AK70" s="14"/>
-      <c r="AL70" s="14"/>
-      <c r="AM70" s="14"/>
+      <c r="D70" s="12"/>
+      <c r="E70" s="12"/>
+      <c r="F70" s="12"/>
+      <c r="G70" s="12"/>
+      <c r="H70" s="12"/>
+      <c r="I70" s="12"/>
+      <c r="J70" s="12"/>
+      <c r="K70" s="12"/>
+      <c r="L70" s="12"/>
+      <c r="M70" s="12"/>
+      <c r="N70" s="12"/>
+      <c r="O70" s="12"/>
+      <c r="P70" s="12"/>
+      <c r="Q70" s="12"/>
+      <c r="R70" s="12"/>
+      <c r="S70" s="12"/>
+      <c r="T70" s="12"/>
+      <c r="U70" s="12"/>
+      <c r="V70" s="12"/>
+      <c r="W70" s="12"/>
+      <c r="X70" s="12"/>
+      <c r="Y70" s="12"/>
+      <c r="Z70" s="12"/>
+      <c r="AA70" s="12"/>
+      <c r="AB70" s="12"/>
+      <c r="AC70" s="12"/>
+      <c r="AD70" s="12"/>
+      <c r="AE70" s="12"/>
+      <c r="AF70" s="12"/>
+      <c r="AG70" s="12"/>
+      <c r="AH70" s="12"/>
+      <c r="AI70" s="12"/>
+      <c r="AJ70" s="12"/>
+      <c r="AK70" s="12"/>
+      <c r="AL70" s="12"/>
+      <c r="AM70" s="12"/>
     </row>
     <row r="71" spans="4:39" ht="27.75" customHeight="1">
-      <c r="D71" s="14"/>
-      <c r="E71" s="14"/>
-      <c r="F71" s="14"/>
-      <c r="G71" s="14"/>
-      <c r="H71" s="14"/>
-      <c r="I71" s="14"/>
-      <c r="J71" s="14"/>
-      <c r="K71" s="14"/>
-      <c r="L71" s="14"/>
-      <c r="M71" s="14"/>
-      <c r="N71" s="14"/>
-      <c r="O71" s="14"/>
-      <c r="P71" s="14"/>
-      <c r="Q71" s="14"/>
-      <c r="R71" s="14"/>
-      <c r="S71" s="14"/>
-      <c r="T71" s="14"/>
-      <c r="U71" s="14"/>
-      <c r="V71" s="14"/>
-      <c r="W71" s="14"/>
-      <c r="X71" s="14"/>
-      <c r="Y71" s="14"/>
-      <c r="Z71" s="14"/>
-      <c r="AA71" s="14"/>
-      <c r="AB71" s="14"/>
-      <c r="AC71" s="14"/>
-      <c r="AD71" s="14"/>
-      <c r="AE71" s="14"/>
-      <c r="AF71" s="14"/>
-      <c r="AG71" s="14"/>
-      <c r="AH71" s="14"/>
-      <c r="AI71" s="14"/>
-      <c r="AJ71" s="14"/>
-      <c r="AK71" s="14"/>
-      <c r="AL71" s="14"/>
-      <c r="AM71" s="14"/>
+      <c r="D71" s="12"/>
+      <c r="E71" s="12"/>
+      <c r="F71" s="12"/>
+      <c r="G71" s="12"/>
+      <c r="H71" s="12"/>
+      <c r="I71" s="12"/>
+      <c r="J71" s="12"/>
+      <c r="K71" s="12"/>
+      <c r="L71" s="12"/>
+      <c r="M71" s="12"/>
+      <c r="N71" s="12"/>
+      <c r="O71" s="12"/>
+      <c r="P71" s="12"/>
+      <c r="Q71" s="12"/>
+      <c r="R71" s="12"/>
+      <c r="S71" s="12"/>
+      <c r="T71" s="12"/>
+      <c r="U71" s="12"/>
+      <c r="V71" s="12"/>
+      <c r="W71" s="12"/>
+      <c r="X71" s="12"/>
+      <c r="Y71" s="12"/>
+      <c r="Z71" s="12"/>
+      <c r="AA71" s="12"/>
+      <c r="AB71" s="12"/>
+      <c r="AC71" s="12"/>
+      <c r="AD71" s="12"/>
+      <c r="AE71" s="12"/>
+      <c r="AF71" s="12"/>
+      <c r="AG71" s="12"/>
+      <c r="AH71" s="12"/>
+      <c r="AI71" s="12"/>
+      <c r="AJ71" s="12"/>
+      <c r="AK71" s="12"/>
+      <c r="AL71" s="12"/>
+      <c r="AM71" s="12"/>
     </row>
     <row r="72" spans="4:39" ht="27.75" customHeight="1">
-      <c r="D72" s="14"/>
-      <c r="E72" s="14"/>
-      <c r="F72" s="14"/>
-      <c r="G72" s="14"/>
-      <c r="H72" s="14"/>
-      <c r="I72" s="14"/>
-      <c r="J72" s="14"/>
-      <c r="K72" s="14"/>
-      <c r="L72" s="14"/>
-      <c r="M72" s="14"/>
-      <c r="N72" s="14"/>
-      <c r="O72" s="14"/>
-      <c r="P72" s="14"/>
-      <c r="Q72" s="14"/>
-      <c r="R72" s="14"/>
-      <c r="S72" s="14"/>
-      <c r="T72" s="14"/>
-      <c r="U72" s="14"/>
-      <c r="V72" s="14"/>
-      <c r="W72" s="14"/>
-      <c r="X72" s="14"/>
-      <c r="Y72" s="14"/>
-      <c r="Z72" s="14"/>
-      <c r="AA72" s="14"/>
-      <c r="AB72" s="14"/>
-      <c r="AC72" s="14"/>
-      <c r="AD72" s="14"/>
-      <c r="AE72" s="14"/>
-      <c r="AF72" s="14"/>
-      <c r="AG72" s="14"/>
-      <c r="AH72" s="14"/>
-      <c r="AI72" s="14"/>
-      <c r="AJ72" s="14"/>
-      <c r="AK72" s="14"/>
-      <c r="AL72" s="14"/>
-      <c r="AM72" s="14"/>
+      <c r="D72" s="12"/>
+      <c r="E72" s="12"/>
+      <c r="F72" s="12"/>
+      <c r="G72" s="12"/>
+      <c r="H72" s="12"/>
+      <c r="I72" s="12"/>
+      <c r="J72" s="12"/>
+      <c r="K72" s="12"/>
+      <c r="L72" s="12"/>
+      <c r="M72" s="12"/>
+      <c r="N72" s="12"/>
+      <c r="O72" s="12"/>
+      <c r="P72" s="12"/>
+      <c r="Q72" s="12"/>
+      <c r="R72" s="12"/>
+      <c r="S72" s="12"/>
+      <c r="T72" s="12"/>
+      <c r="U72" s="12"/>
+      <c r="V72" s="12"/>
+      <c r="W72" s="12"/>
+      <c r="X72" s="12"/>
+      <c r="Y72" s="12"/>
+      <c r="Z72" s="12"/>
+      <c r="AA72" s="12"/>
+      <c r="AB72" s="12"/>
+      <c r="AC72" s="12"/>
+      <c r="AD72" s="12"/>
+      <c r="AE72" s="12"/>
+      <c r="AF72" s="12"/>
+      <c r="AG72" s="12"/>
+      <c r="AH72" s="12"/>
+      <c r="AI72" s="12"/>
+      <c r="AJ72" s="12"/>
+      <c r="AK72" s="12"/>
+      <c r="AL72" s="12"/>
+      <c r="AM72" s="12"/>
     </row>
     <row r="73" spans="4:39" ht="27.75" customHeight="1">
-      <c r="D73" s="14"/>
-      <c r="E73" s="14"/>
-      <c r="F73" s="14"/>
-      <c r="G73" s="14"/>
-      <c r="H73" s="14"/>
-      <c r="I73" s="14"/>
-      <c r="J73" s="14"/>
-      <c r="K73" s="14"/>
-      <c r="L73" s="14"/>
-      <c r="M73" s="14"/>
-      <c r="N73" s="14"/>
-      <c r="O73" s="14"/>
-      <c r="P73" s="14"/>
-      <c r="Q73" s="14"/>
-      <c r="R73" s="14"/>
-      <c r="S73" s="14"/>
-      <c r="T73" s="14"/>
-      <c r="U73" s="14"/>
-      <c r="V73" s="14"/>
-      <c r="W73" s="14"/>
-      <c r="X73" s="14"/>
-      <c r="Y73" s="14"/>
-      <c r="Z73" s="14"/>
-      <c r="AA73" s="14"/>
-      <c r="AB73" s="14"/>
-      <c r="AC73" s="14"/>
-      <c r="AD73" s="14"/>
-      <c r="AE73" s="14"/>
-      <c r="AF73" s="14"/>
-      <c r="AG73" s="14"/>
-      <c r="AH73" s="14"/>
-      <c r="AI73" s="14"/>
-      <c r="AJ73" s="14"/>
-      <c r="AK73" s="14"/>
-      <c r="AL73" s="14"/>
-      <c r="AM73" s="14"/>
+      <c r="D73" s="12"/>
+      <c r="E73" s="12"/>
+      <c r="F73" s="12"/>
+      <c r="G73" s="12"/>
+      <c r="H73" s="12"/>
+      <c r="I73" s="12"/>
+      <c r="J73" s="12"/>
+      <c r="K73" s="12"/>
+      <c r="L73" s="12"/>
+      <c r="M73" s="12"/>
+      <c r="N73" s="12"/>
+      <c r="O73" s="12"/>
+      <c r="P73" s="12"/>
+      <c r="Q73" s="12"/>
+      <c r="R73" s="12"/>
+      <c r="S73" s="12"/>
+      <c r="T73" s="12"/>
+      <c r="U73" s="12"/>
+      <c r="V73" s="12"/>
+      <c r="W73" s="12"/>
+      <c r="X73" s="12"/>
+      <c r="Y73" s="12"/>
+      <c r="Z73" s="12"/>
+      <c r="AA73" s="12"/>
+      <c r="AB73" s="12"/>
+      <c r="AC73" s="12"/>
+      <c r="AD73" s="12"/>
+      <c r="AE73" s="12"/>
+      <c r="AF73" s="12"/>
+      <c r="AG73" s="12"/>
+      <c r="AH73" s="12"/>
+      <c r="AI73" s="12"/>
+      <c r="AJ73" s="12"/>
+      <c r="AK73" s="12"/>
+      <c r="AL73" s="12"/>
+      <c r="AM73" s="12"/>
     </row>
     <row r="74" spans="4:39" ht="27.75" customHeight="1">
-      <c r="D74" s="14"/>
-      <c r="E74" s="14"/>
-      <c r="F74" s="14"/>
-      <c r="G74" s="14"/>
-      <c r="H74" s="14"/>
-      <c r="I74" s="14"/>
-      <c r="J74" s="14"/>
-      <c r="K74" s="14"/>
-      <c r="L74" s="14"/>
-      <c r="M74" s="14"/>
-      <c r="N74" s="14"/>
-      <c r="O74" s="14"/>
-      <c r="P74" s="14"/>
-      <c r="Q74" s="14"/>
-      <c r="R74" s="14"/>
-      <c r="S74" s="14"/>
-      <c r="T74" s="14"/>
-      <c r="U74" s="14"/>
-      <c r="V74" s="14"/>
-      <c r="W74" s="14"/>
-      <c r="X74" s="14"/>
-      <c r="Y74" s="14"/>
-      <c r="Z74" s="14"/>
-      <c r="AA74" s="14"/>
-      <c r="AB74" s="14"/>
-      <c r="AC74" s="14"/>
-      <c r="AD74" s="14"/>
-      <c r="AE74" s="14"/>
-      <c r="AF74" s="14"/>
-      <c r="AG74" s="14"/>
-      <c r="AH74" s="14"/>
-      <c r="AI74" s="14"/>
-      <c r="AJ74" s="14"/>
-      <c r="AK74" s="14"/>
-      <c r="AL74" s="14"/>
-      <c r="AM74" s="14"/>
+      <c r="D74" s="12"/>
+      <c r="E74" s="12"/>
+      <c r="F74" s="12"/>
+      <c r="G74" s="12"/>
+      <c r="H74" s="12"/>
+      <c r="I74" s="12"/>
+      <c r="J74" s="12"/>
+      <c r="K74" s="12"/>
+      <c r="L74" s="12"/>
+      <c r="M74" s="12"/>
+      <c r="N74" s="12"/>
+      <c r="O74" s="12"/>
+      <c r="P74" s="12"/>
+      <c r="Q74" s="12"/>
+      <c r="R74" s="12"/>
+      <c r="S74" s="12"/>
+      <c r="T74" s="12"/>
+      <c r="U74" s="12"/>
+      <c r="V74" s="12"/>
+      <c r="W74" s="12"/>
+      <c r="X74" s="12"/>
+      <c r="Y74" s="12"/>
+      <c r="Z74" s="12"/>
+      <c r="AA74" s="12"/>
+      <c r="AB74" s="12"/>
+      <c r="AC74" s="12"/>
+      <c r="AD74" s="12"/>
+      <c r="AE74" s="12"/>
+      <c r="AF74" s="12"/>
+      <c r="AG74" s="12"/>
+      <c r="AH74" s="12"/>
+      <c r="AI74" s="12"/>
+      <c r="AJ74" s="12"/>
+      <c r="AK74" s="12"/>
+      <c r="AL74" s="12"/>
+      <c r="AM74" s="12"/>
     </row>
     <row r="75" spans="4:39" ht="11.25" customHeight="1">
       <c r="D75" s="9"/>
@@ -5480,81 +5627,6 @@
     <protectedRange sqref="O24:O27 G35 G31 P31" name="入力項目"/>
   </protectedRanges>
   <mergeCells count="91">
-    <mergeCell ref="D71:I71"/>
-    <mergeCell ref="J71:T71"/>
-    <mergeCell ref="U71:AM71"/>
-    <mergeCell ref="D74:I74"/>
-    <mergeCell ref="J74:T74"/>
-    <mergeCell ref="U74:AM74"/>
-    <mergeCell ref="D72:I72"/>
-    <mergeCell ref="J72:T72"/>
-    <mergeCell ref="U72:AM72"/>
-    <mergeCell ref="D73:I73"/>
-    <mergeCell ref="J73:T73"/>
-    <mergeCell ref="U73:AM73"/>
-    <mergeCell ref="D69:I69"/>
-    <mergeCell ref="J69:T69"/>
-    <mergeCell ref="U69:AM69"/>
-    <mergeCell ref="D70:I70"/>
-    <mergeCell ref="J70:T70"/>
-    <mergeCell ref="U70:AM70"/>
-    <mergeCell ref="D67:I67"/>
-    <mergeCell ref="J67:T67"/>
-    <mergeCell ref="U67:AM67"/>
-    <mergeCell ref="D68:I68"/>
-    <mergeCell ref="J68:T68"/>
-    <mergeCell ref="U68:AM68"/>
-    <mergeCell ref="D65:I65"/>
-    <mergeCell ref="J65:T65"/>
-    <mergeCell ref="U65:AM65"/>
-    <mergeCell ref="D66:I66"/>
-    <mergeCell ref="J66:T66"/>
-    <mergeCell ref="U66:AM66"/>
-    <mergeCell ref="D63:I63"/>
-    <mergeCell ref="J63:T63"/>
-    <mergeCell ref="U63:AM63"/>
-    <mergeCell ref="D64:I64"/>
-    <mergeCell ref="J64:T64"/>
-    <mergeCell ref="U64:AM64"/>
-    <mergeCell ref="D61:I61"/>
-    <mergeCell ref="J61:T61"/>
-    <mergeCell ref="U61:AM61"/>
-    <mergeCell ref="D62:I62"/>
-    <mergeCell ref="J62:T62"/>
-    <mergeCell ref="U62:AM62"/>
-    <mergeCell ref="D59:I59"/>
-    <mergeCell ref="J59:T59"/>
-    <mergeCell ref="U59:AM59"/>
-    <mergeCell ref="D60:I60"/>
-    <mergeCell ref="J60:T60"/>
-    <mergeCell ref="U60:AM60"/>
-    <mergeCell ref="D57:I57"/>
-    <mergeCell ref="J57:T57"/>
-    <mergeCell ref="U57:AM57"/>
-    <mergeCell ref="D58:I58"/>
-    <mergeCell ref="J58:T58"/>
-    <mergeCell ref="U58:AM58"/>
-    <mergeCell ref="D55:I55"/>
-    <mergeCell ref="J55:T55"/>
-    <mergeCell ref="U55:AM55"/>
-    <mergeCell ref="D56:I56"/>
-    <mergeCell ref="J56:T56"/>
-    <mergeCell ref="U56:AM56"/>
-    <mergeCell ref="U49:AM49"/>
-    <mergeCell ref="J50:T50"/>
-    <mergeCell ref="U50:AM50"/>
-    <mergeCell ref="D54:I54"/>
-    <mergeCell ref="J54:T54"/>
-    <mergeCell ref="U54:AM54"/>
-    <mergeCell ref="AH4:AN6"/>
-    <mergeCell ref="P31:AJ31"/>
-    <mergeCell ref="G35:AJ35"/>
-    <mergeCell ref="G31:O31"/>
-    <mergeCell ref="O27:V27"/>
-    <mergeCell ref="O24:AA24"/>
-    <mergeCell ref="O25:AA25"/>
-    <mergeCell ref="O26:AA26"/>
-    <mergeCell ref="M3:AG8"/>
     <mergeCell ref="C43:AN45"/>
     <mergeCell ref="D48:I48"/>
     <mergeCell ref="D49:I49"/>
@@ -5571,13 +5643,88 @@
     <mergeCell ref="J48:T48"/>
     <mergeCell ref="J49:T49"/>
     <mergeCell ref="U48:AM48"/>
+    <mergeCell ref="AH4:AN6"/>
+    <mergeCell ref="P31:AJ31"/>
+    <mergeCell ref="G35:AJ35"/>
+    <mergeCell ref="G31:O31"/>
+    <mergeCell ref="O27:V27"/>
+    <mergeCell ref="O24:AA24"/>
+    <mergeCell ref="O25:AA25"/>
+    <mergeCell ref="O26:AA26"/>
+    <mergeCell ref="M3:AG8"/>
+    <mergeCell ref="U49:AM49"/>
+    <mergeCell ref="J50:T50"/>
+    <mergeCell ref="U50:AM50"/>
+    <mergeCell ref="D54:I54"/>
+    <mergeCell ref="J54:T54"/>
+    <mergeCell ref="U54:AM54"/>
+    <mergeCell ref="D55:I55"/>
+    <mergeCell ref="J55:T55"/>
+    <mergeCell ref="U55:AM55"/>
+    <mergeCell ref="D56:I56"/>
+    <mergeCell ref="J56:T56"/>
+    <mergeCell ref="U56:AM56"/>
+    <mergeCell ref="D57:I57"/>
+    <mergeCell ref="J57:T57"/>
+    <mergeCell ref="U57:AM57"/>
+    <mergeCell ref="D58:I58"/>
+    <mergeCell ref="J58:T58"/>
+    <mergeCell ref="U58:AM58"/>
+    <mergeCell ref="D59:I59"/>
+    <mergeCell ref="J59:T59"/>
+    <mergeCell ref="U59:AM59"/>
+    <mergeCell ref="D60:I60"/>
+    <mergeCell ref="J60:T60"/>
+    <mergeCell ref="U60:AM60"/>
+    <mergeCell ref="D61:I61"/>
+    <mergeCell ref="J61:T61"/>
+    <mergeCell ref="U61:AM61"/>
+    <mergeCell ref="D62:I62"/>
+    <mergeCell ref="J62:T62"/>
+    <mergeCell ref="U62:AM62"/>
+    <mergeCell ref="D63:I63"/>
+    <mergeCell ref="J63:T63"/>
+    <mergeCell ref="U63:AM63"/>
+    <mergeCell ref="D64:I64"/>
+    <mergeCell ref="J64:T64"/>
+    <mergeCell ref="U64:AM64"/>
+    <mergeCell ref="D65:I65"/>
+    <mergeCell ref="J65:T65"/>
+    <mergeCell ref="U65:AM65"/>
+    <mergeCell ref="D66:I66"/>
+    <mergeCell ref="J66:T66"/>
+    <mergeCell ref="U66:AM66"/>
+    <mergeCell ref="D67:I67"/>
+    <mergeCell ref="J67:T67"/>
+    <mergeCell ref="U67:AM67"/>
+    <mergeCell ref="D68:I68"/>
+    <mergeCell ref="J68:T68"/>
+    <mergeCell ref="U68:AM68"/>
+    <mergeCell ref="D69:I69"/>
+    <mergeCell ref="J69:T69"/>
+    <mergeCell ref="U69:AM69"/>
+    <mergeCell ref="D70:I70"/>
+    <mergeCell ref="J70:T70"/>
+    <mergeCell ref="U70:AM70"/>
+    <mergeCell ref="D71:I71"/>
+    <mergeCell ref="J71:T71"/>
+    <mergeCell ref="U71:AM71"/>
+    <mergeCell ref="D74:I74"/>
+    <mergeCell ref="J74:T74"/>
+    <mergeCell ref="U74:AM74"/>
+    <mergeCell ref="D72:I72"/>
+    <mergeCell ref="J72:T72"/>
+    <mergeCell ref="U72:AM72"/>
+    <mergeCell ref="D73:I73"/>
+    <mergeCell ref="J73:T73"/>
+    <mergeCell ref="U73:AM73"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <dataValidations count="2">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D49:I71">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D49:I71" xr:uid="{00000000-0002-0000-0000-000000000000}">
       <formula1>ジャンル</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="J49:S71">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="J49:S71" xr:uid="{00000000-0002-0000-0000-000001000000}">
       <formula1>INDIRECT(D49)</formula1>
     </dataValidation>
   </dataValidations>
@@ -5650,19 +5797,19 @@
     </ext>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
       <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="3">
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0000-000002000000}">
           <x14:formula1>
             <xm:f>選択!$D$3:$D$9</xm:f>
           </x14:formula1>
           <xm:sqref>O27</xm:sqref>
         </x14:dataValidation>
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0000-000003000000}">
           <x14:formula1>
             <xm:f>選択!$F$3:$F$6</xm:f>
           </x14:formula1>
           <xm:sqref>AH4</xm:sqref>
         </x14:dataValidation>
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0000-000004000000}">
           <x14:formula1>
             <xm:f>選択!$B$3:$B$10</xm:f>
           </x14:formula1>
@@ -5675,7 +5822,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <sheetPr codeName="Sheet3"/>
   <dimension ref="B2:H77"/>
   <sheetViews>
@@ -6399,6 +6546,15 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
   <documentManagement>
     <lcf76f155ced4ddcb4097134ff3c332f xmlns="02709b60-37ec-424b-b681-c6612ac7fe32">
@@ -6407,15 +6563,6 @@
     <TaxCatchAll xmlns="f9048785-d070-4c78-8f2f-ed2b48eb345c" xsi:nil="true"/>
   </documentManagement>
 </p:properties>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
@@ -6654,6 +6801,14 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{2137EFEA-05C5-4541-B472-718FEE202DA3}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{99A05471-9381-45FA-B698-ECE997466ADA}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="f9048785-d070-4c78-8f2f-ed2b48eb345c"/>
@@ -6666,14 +6821,6 @@
     <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
     <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
     <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{2137EFEA-05C5-4541-B472-718FEE202DA3}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>

--- a/概要/AGS作品概要.xlsx
+++ b/概要/AGS作品概要.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28925"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kakik\Desktop\Over Poured\概要\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Users\2316032\Desktop\Over Poured\概要\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E4796B72-9A15-43F4-9244-2D6FF4AF1866}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="7935" yWindow="825" windowWidth="19665" windowHeight="13770" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="7935" yWindow="825" windowWidth="19665" windowHeight="13770"/>
   </bookViews>
   <sheets>
     <sheet name="配布用" sheetId="3" r:id="rId1"/>
@@ -20,14 +19,14 @@
     <definedName name="ＮＰＣ">選択!$D$52:$D$61</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="0">配布用!$A$1:$AO$130</definedName>
     <definedName name="グラフィック">選択!$D$25:$D$39</definedName>
-    <definedName name="サウンド">選択!$D$68:$D$71</definedName>
+    <definedName name="サウンド">選択!$D$70:$D$73</definedName>
     <definedName name="ジャンル">選択!$F$15:$F$23</definedName>
     <definedName name="ネットワーク">選択!$D$46:$D$51</definedName>
-    <definedName name="演出">選択!$D$62:$D$67</definedName>
+    <definedName name="演出">選択!$D$62:$D$69</definedName>
     <definedName name="開発環境">選択!$D$15:$D$22</definedName>
     <definedName name="開発言語">選択!$D$23:$D$24</definedName>
     <definedName name="基本機能">選択!$D$40:$D$45</definedName>
-    <definedName name="設計">選択!$D$72:$D$77</definedName>
+    <definedName name="設計">選択!$D$74:$D$79</definedName>
   </definedNames>
   <calcPr calcId="162913"/>
   <extLst>
@@ -39,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="198" uniqueCount="115">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="221" uniqueCount="132">
   <si>
     <t>ASO GAME SHOW
 作品概要</t>
@@ -155,9 +154,6 @@
       <t>キノウ</t>
     </rPh>
     <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>ゲームクリア</t>
   </si>
   <si>
     <t>シーン遷移</t>
@@ -546,14 +542,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>ミニマップ</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>カットイン</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>カメラワーク</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -628,11 +616,148 @@
     <t>BARISTA BLITZ</t>
     <phoneticPr fontId="1"/>
   </si>
+  <si>
+    <t>個人制作にて初めて3Dゲームに挑戦した作品になります。実は2024年の夏に個人で制作した2Dゲームをなんとか3Dで作れないかと試行錯誤してできたゲームです。</t>
+    <rPh sb="33" eb="34">
+      <t>ネン</t>
+    </rPh>
+    <rPh sb="40" eb="42">
+      <t>セイサク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ステージオブジェクトのパラメータをJSONで読み込み</t>
+    <rPh sb="22" eb="23">
+      <t>ヨ</t>
+    </rPh>
+    <rPh sb="24" eb="25">
+      <t>コ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>頂点シェーダ</t>
+  </si>
+  <si>
+    <t>演出</t>
+  </si>
+  <si>
+    <t>サウンド</t>
+  </si>
+  <si>
+    <t>BGM・SE再生</t>
+  </si>
+  <si>
+    <t>持ち運べるものが目の前にある時アイコンを表示</t>
+    <rPh sb="0" eb="1">
+      <t>モ</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>ハコ</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>メ</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>マエ</t>
+    </rPh>
+    <rPh sb="14" eb="15">
+      <t>トキ</t>
+    </rPh>
+    <rPh sb="20" eb="22">
+      <t>ヒョウジ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>アイコンUI</t>
+  </si>
+  <si>
+    <t>アイコンUI</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>進捗バー</t>
+    <rPh sb="0" eb="2">
+      <t>シンチョク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>オブジェクトの進捗をバーで表示(メッシュ）</t>
+    <rPh sb="7" eb="9">
+      <t>シンチョク</t>
+    </rPh>
+    <rPh sb="13" eb="15">
+      <t>ヒョウジ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>設計</t>
+  </si>
+  <si>
+    <t>シングルトン</t>
+  </si>
+  <si>
+    <t>イージング</t>
+  </si>
+  <si>
+    <t>イージング</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>イージングを使って移動や拡大縮小を滑らかに</t>
+    <rPh sb="6" eb="7">
+      <t>ツカ</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>イドウ</t>
+    </rPh>
+    <rPh sb="12" eb="16">
+      <t>カクダイシュクショウ</t>
+    </rPh>
+    <rPh sb="17" eb="18">
+      <t>ナメ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>タイマーUI</t>
+  </si>
+  <si>
+    <t>タイマーUI</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>お客の注文タイマーを円のゲージで表示</t>
+    <rPh sb="1" eb="2">
+      <t>キャク</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>チュウモン</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>エン</t>
+    </rPh>
+    <rPh sb="16" eb="18">
+      <t>ヒョウジ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>タイトルとゲームシーンの床のテクスチャをタイリング</t>
+    <rPh sb="12" eb="13">
+      <t>ユカ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="8">
     <font>
       <sz val="11"/>
@@ -822,7 +947,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="27">
+  <cellXfs count="28">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -846,6 +971,12 @@
     </xf>
     <xf numFmtId="0" fontId="7" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -886,10 +1017,7 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -3238,6 +3366,14 @@
             </a:rPr>
             <a:t>＆</a:t>
           </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1200" b="1">
+              <a:solidFill>
+                <a:srgbClr val="00B050"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t/>
+          </a:r>
           <a:br>
             <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1200" b="1">
               <a:solidFill>
@@ -3619,12 +3755,12 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:AX79"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="A11" zoomScale="85" zoomScaleNormal="85" zoomScaleSheetLayoutView="85" workbookViewId="0">
-      <selection activeCell="AT24" sqref="AT24"/>
+    <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="A48" zoomScale="85" zoomScaleNormal="85" zoomScaleSheetLayoutView="85" workbookViewId="0">
+      <selection activeCell="AG75" sqref="AG75"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="2.375" defaultRowHeight="11.25" customHeight="1"/>
@@ -3749,29 +3885,29 @@
       <c r="G3" s="2"/>
       <c r="H3" s="2"/>
       <c r="I3" s="2"/>
-      <c r="M3" s="24" t="s">
+      <c r="M3" s="26" t="s">
         <v>0</v>
       </c>
-      <c r="N3" s="24"/>
-      <c r="O3" s="24"/>
-      <c r="P3" s="24"/>
-      <c r="Q3" s="24"/>
-      <c r="R3" s="24"/>
-      <c r="S3" s="24"/>
-      <c r="T3" s="24"/>
-      <c r="U3" s="24"/>
-      <c r="V3" s="24"/>
-      <c r="W3" s="24"/>
-      <c r="X3" s="24"/>
-      <c r="Y3" s="24"/>
-      <c r="Z3" s="24"/>
-      <c r="AA3" s="24"/>
-      <c r="AB3" s="24"/>
-      <c r="AC3" s="24"/>
-      <c r="AD3" s="24"/>
-      <c r="AE3" s="24"/>
-      <c r="AF3" s="24"/>
-      <c r="AG3" s="24"/>
+      <c r="N3" s="26"/>
+      <c r="O3" s="26"/>
+      <c r="P3" s="26"/>
+      <c r="Q3" s="26"/>
+      <c r="R3" s="26"/>
+      <c r="S3" s="26"/>
+      <c r="T3" s="26"/>
+      <c r="U3" s="26"/>
+      <c r="V3" s="26"/>
+      <c r="W3" s="26"/>
+      <c r="X3" s="26"/>
+      <c r="Y3" s="26"/>
+      <c r="Z3" s="26"/>
+      <c r="AA3" s="26"/>
+      <c r="AB3" s="26"/>
+      <c r="AC3" s="26"/>
+      <c r="AD3" s="26"/>
+      <c r="AE3" s="26"/>
+      <c r="AF3" s="26"/>
+      <c r="AG3" s="26"/>
       <c r="AO3" s="2"/>
       <c r="AP3" s="2"/>
       <c r="AQ3" s="2"/>
@@ -3792,36 +3928,36 @@
       <c r="G4" s="2"/>
       <c r="H4" s="2"/>
       <c r="I4" s="2"/>
-      <c r="M4" s="24"/>
-      <c r="N4" s="24"/>
-      <c r="O4" s="24"/>
-      <c r="P4" s="24"/>
-      <c r="Q4" s="24"/>
-      <c r="R4" s="24"/>
-      <c r="S4" s="24"/>
-      <c r="T4" s="24"/>
-      <c r="U4" s="24"/>
-      <c r="V4" s="24"/>
-      <c r="W4" s="24"/>
-      <c r="X4" s="24"/>
-      <c r="Y4" s="24"/>
-      <c r="Z4" s="24"/>
-      <c r="AA4" s="24"/>
-      <c r="AB4" s="24"/>
-      <c r="AC4" s="24"/>
-      <c r="AD4" s="24"/>
-      <c r="AE4" s="24"/>
-      <c r="AF4" s="24"/>
-      <c r="AG4" s="24"/>
-      <c r="AH4" s="13" t="s">
+      <c r="M4" s="26"/>
+      <c r="N4" s="26"/>
+      <c r="O4" s="26"/>
+      <c r="P4" s="26"/>
+      <c r="Q4" s="26"/>
+      <c r="R4" s="26"/>
+      <c r="S4" s="26"/>
+      <c r="T4" s="26"/>
+      <c r="U4" s="26"/>
+      <c r="V4" s="26"/>
+      <c r="W4" s="26"/>
+      <c r="X4" s="26"/>
+      <c r="Y4" s="26"/>
+      <c r="Z4" s="26"/>
+      <c r="AA4" s="26"/>
+      <c r="AB4" s="26"/>
+      <c r="AC4" s="26"/>
+      <c r="AD4" s="26"/>
+      <c r="AE4" s="26"/>
+      <c r="AF4" s="26"/>
+      <c r="AG4" s="26"/>
+      <c r="AH4" s="15" t="s">
         <v>1</v>
       </c>
-      <c r="AI4" s="14"/>
-      <c r="AJ4" s="14"/>
-      <c r="AK4" s="14"/>
-      <c r="AL4" s="14"/>
-      <c r="AM4" s="14"/>
-      <c r="AN4" s="15"/>
+      <c r="AI4" s="16"/>
+      <c r="AJ4" s="16"/>
+      <c r="AK4" s="16"/>
+      <c r="AL4" s="16"/>
+      <c r="AM4" s="16"/>
+      <c r="AN4" s="17"/>
       <c r="AO4" s="2"/>
       <c r="AP4" s="2"/>
       <c r="AQ4" s="2"/>
@@ -3837,34 +3973,34 @@
       <c r="G5" s="2"/>
       <c r="H5" s="2"/>
       <c r="I5" s="2"/>
-      <c r="M5" s="24"/>
-      <c r="N5" s="24"/>
-      <c r="O5" s="24"/>
-      <c r="P5" s="24"/>
-      <c r="Q5" s="24"/>
-      <c r="R5" s="24"/>
-      <c r="S5" s="24"/>
-      <c r="T5" s="24"/>
-      <c r="U5" s="24"/>
-      <c r="V5" s="24"/>
-      <c r="W5" s="24"/>
-      <c r="X5" s="24"/>
-      <c r="Y5" s="24"/>
-      <c r="Z5" s="24"/>
-      <c r="AA5" s="24"/>
-      <c r="AB5" s="24"/>
-      <c r="AC5" s="24"/>
-      <c r="AD5" s="24"/>
-      <c r="AE5" s="24"/>
-      <c r="AF5" s="24"/>
-      <c r="AG5" s="24"/>
-      <c r="AH5" s="16"/>
-      <c r="AI5" s="17"/>
-      <c r="AJ5" s="17"/>
-      <c r="AK5" s="17"/>
-      <c r="AL5" s="17"/>
-      <c r="AM5" s="17"/>
-      <c r="AN5" s="18"/>
+      <c r="M5" s="26"/>
+      <c r="N5" s="26"/>
+      <c r="O5" s="26"/>
+      <c r="P5" s="26"/>
+      <c r="Q5" s="26"/>
+      <c r="R5" s="26"/>
+      <c r="S5" s="26"/>
+      <c r="T5" s="26"/>
+      <c r="U5" s="26"/>
+      <c r="V5" s="26"/>
+      <c r="W5" s="26"/>
+      <c r="X5" s="26"/>
+      <c r="Y5" s="26"/>
+      <c r="Z5" s="26"/>
+      <c r="AA5" s="26"/>
+      <c r="AB5" s="26"/>
+      <c r="AC5" s="26"/>
+      <c r="AD5" s="26"/>
+      <c r="AE5" s="26"/>
+      <c r="AF5" s="26"/>
+      <c r="AG5" s="26"/>
+      <c r="AH5" s="18"/>
+      <c r="AI5" s="19"/>
+      <c r="AJ5" s="19"/>
+      <c r="AK5" s="19"/>
+      <c r="AL5" s="19"/>
+      <c r="AM5" s="19"/>
+      <c r="AN5" s="20"/>
       <c r="AO5" s="2"/>
       <c r="AP5" s="2"/>
       <c r="AQ5" s="2"/>
@@ -3880,85 +4016,85 @@
       <c r="G6" s="2"/>
       <c r="H6" s="2"/>
       <c r="I6" s="2"/>
-      <c r="M6" s="24"/>
-      <c r="N6" s="24"/>
-      <c r="O6" s="24"/>
-      <c r="P6" s="24"/>
-      <c r="Q6" s="24"/>
-      <c r="R6" s="24"/>
-      <c r="S6" s="24"/>
-      <c r="T6" s="24"/>
-      <c r="U6" s="24"/>
-      <c r="V6" s="24"/>
-      <c r="W6" s="24"/>
-      <c r="X6" s="24"/>
-      <c r="Y6" s="24"/>
-      <c r="Z6" s="24"/>
-      <c r="AA6" s="24"/>
-      <c r="AB6" s="24"/>
-      <c r="AC6" s="24"/>
-      <c r="AD6" s="24"/>
-      <c r="AE6" s="24"/>
-      <c r="AF6" s="24"/>
-      <c r="AG6" s="24"/>
-      <c r="AH6" s="19"/>
-      <c r="AI6" s="20"/>
-      <c r="AJ6" s="20"/>
-      <c r="AK6" s="20"/>
-      <c r="AL6" s="20"/>
-      <c r="AM6" s="20"/>
-      <c r="AN6" s="21"/>
+      <c r="M6" s="26"/>
+      <c r="N6" s="26"/>
+      <c r="O6" s="26"/>
+      <c r="P6" s="26"/>
+      <c r="Q6" s="26"/>
+      <c r="R6" s="26"/>
+      <c r="S6" s="26"/>
+      <c r="T6" s="26"/>
+      <c r="U6" s="26"/>
+      <c r="V6" s="26"/>
+      <c r="W6" s="26"/>
+      <c r="X6" s="26"/>
+      <c r="Y6" s="26"/>
+      <c r="Z6" s="26"/>
+      <c r="AA6" s="26"/>
+      <c r="AB6" s="26"/>
+      <c r="AC6" s="26"/>
+      <c r="AD6" s="26"/>
+      <c r="AE6" s="26"/>
+      <c r="AF6" s="26"/>
+      <c r="AG6" s="26"/>
+      <c r="AH6" s="21"/>
+      <c r="AI6" s="22"/>
+      <c r="AJ6" s="22"/>
+      <c r="AK6" s="22"/>
+      <c r="AL6" s="22"/>
+      <c r="AM6" s="22"/>
+      <c r="AN6" s="23"/>
       <c r="AO6" s="2"/>
       <c r="AP6" s="2"/>
       <c r="AQ6" s="2"/>
       <c r="AR6" s="2"/>
     </row>
     <row r="7" spans="1:50" ht="15" customHeight="1">
-      <c r="M7" s="24"/>
-      <c r="N7" s="24"/>
-      <c r="O7" s="24"/>
-      <c r="P7" s="24"/>
-      <c r="Q7" s="24"/>
-      <c r="R7" s="24"/>
-      <c r="S7" s="24"/>
-      <c r="T7" s="24"/>
-      <c r="U7" s="24"/>
-      <c r="V7" s="24"/>
-      <c r="W7" s="24"/>
-      <c r="X7" s="24"/>
-      <c r="Y7" s="24"/>
-      <c r="Z7" s="24"/>
-      <c r="AA7" s="24"/>
-      <c r="AB7" s="24"/>
-      <c r="AC7" s="24"/>
-      <c r="AD7" s="24"/>
-      <c r="AE7" s="24"/>
-      <c r="AF7" s="24"/>
-      <c r="AG7" s="24"/>
+      <c r="M7" s="26"/>
+      <c r="N7" s="26"/>
+      <c r="O7" s="26"/>
+      <c r="P7" s="26"/>
+      <c r="Q7" s="26"/>
+      <c r="R7" s="26"/>
+      <c r="S7" s="26"/>
+      <c r="T7" s="26"/>
+      <c r="U7" s="26"/>
+      <c r="V7" s="26"/>
+      <c r="W7" s="26"/>
+      <c r="X7" s="26"/>
+      <c r="Y7" s="26"/>
+      <c r="Z7" s="26"/>
+      <c r="AA7" s="26"/>
+      <c r="AB7" s="26"/>
+      <c r="AC7" s="26"/>
+      <c r="AD7" s="26"/>
+      <c r="AE7" s="26"/>
+      <c r="AF7" s="26"/>
+      <c r="AG7" s="26"/>
     </row>
     <row r="8" spans="1:50" ht="9" customHeight="1">
       <c r="D8" s="5"/>
-      <c r="M8" s="24"/>
-      <c r="N8" s="24"/>
-      <c r="O8" s="24"/>
-      <c r="P8" s="24"/>
-      <c r="Q8" s="24"/>
-      <c r="R8" s="24"/>
-      <c r="S8" s="24"/>
-      <c r="T8" s="24"/>
-      <c r="U8" s="24"/>
-      <c r="V8" s="24"/>
-      <c r="W8" s="24"/>
-      <c r="X8" s="24"/>
-      <c r="Y8" s="24"/>
-      <c r="Z8" s="24"/>
-      <c r="AA8" s="24"/>
-      <c r="AB8" s="24"/>
-      <c r="AC8" s="24"/>
-      <c r="AD8" s="24"/>
-      <c r="AE8" s="24"/>
-      <c r="AF8" s="24"/>
-      <c r="AG8" s="24"/>
+      <c r="M8" s="26"/>
+      <c r="N8" s="26"/>
+      <c r="O8" s="26"/>
+      <c r="P8" s="26"/>
+      <c r="Q8" s="26"/>
+      <c r="R8" s="26"/>
+      <c r="S8" s="26"/>
+      <c r="T8" s="26"/>
+      <c r="U8" s="26"/>
+      <c r="V8" s="26"/>
+      <c r="W8" s="26"/>
+      <c r="X8" s="26"/>
+      <c r="Y8" s="26"/>
+      <c r="Z8" s="26"/>
+      <c r="AA8" s="26"/>
+      <c r="AB8" s="26"/>
+      <c r="AC8" s="26"/>
+      <c r="AD8" s="26"/>
+      <c r="AE8" s="26"/>
+      <c r="AF8" s="26"/>
+      <c r="AG8" s="26"/>
     </row>
     <row r="9" spans="1:50" ht="24" customHeight="1"/>
     <row r="10" spans="1:50" ht="24" customHeight="1"/>
@@ -3982,21 +4118,21 @@
       <c r="M24" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="O24" s="22" t="s">
-        <v>109</v>
-      </c>
-      <c r="P24" s="22"/>
-      <c r="Q24" s="22"/>
-      <c r="R24" s="22"/>
-      <c r="S24" s="22"/>
-      <c r="T24" s="22"/>
-      <c r="U24" s="22"/>
-      <c r="V24" s="22"/>
-      <c r="W24" s="22"/>
-      <c r="X24" s="22"/>
-      <c r="Y24" s="22"/>
-      <c r="Z24" s="22"/>
-      <c r="AA24" s="22"/>
+      <c r="O24" s="24" t="s">
+        <v>106</v>
+      </c>
+      <c r="P24" s="24"/>
+      <c r="Q24" s="24"/>
+      <c r="R24" s="24"/>
+      <c r="S24" s="24"/>
+      <c r="T24" s="24"/>
+      <c r="U24" s="24"/>
+      <c r="V24" s="24"/>
+      <c r="W24" s="24"/>
+      <c r="X24" s="24"/>
+      <c r="Y24" s="24"/>
+      <c r="Z24" s="24"/>
+      <c r="AA24" s="24"/>
     </row>
     <row r="25" spans="6:36" s="1" customFormat="1" ht="19.5" customHeight="1">
       <c r="F25" s="1" t="s">
@@ -4005,21 +4141,21 @@
       <c r="M25" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="O25" s="22" t="s">
-        <v>114</v>
-      </c>
-      <c r="P25" s="22"/>
-      <c r="Q25" s="22"/>
-      <c r="R25" s="22"/>
-      <c r="S25" s="22"/>
-      <c r="T25" s="22"/>
-      <c r="U25" s="22"/>
-      <c r="V25" s="22"/>
-      <c r="W25" s="22"/>
-      <c r="X25" s="22"/>
-      <c r="Y25" s="22"/>
-      <c r="Z25" s="22"/>
-      <c r="AA25" s="22"/>
+      <c r="O25" s="24" t="s">
+        <v>111</v>
+      </c>
+      <c r="P25" s="24"/>
+      <c r="Q25" s="24"/>
+      <c r="R25" s="24"/>
+      <c r="S25" s="24"/>
+      <c r="T25" s="24"/>
+      <c r="U25" s="24"/>
+      <c r="V25" s="24"/>
+      <c r="W25" s="24"/>
+      <c r="X25" s="24"/>
+      <c r="Y25" s="24"/>
+      <c r="Z25" s="24"/>
+      <c r="AA25" s="24"/>
     </row>
     <row r="26" spans="6:36" s="1" customFormat="1" ht="19.5" customHeight="1">
       <c r="F26" s="1" t="s">
@@ -4028,21 +4164,21 @@
       <c r="M26" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="O26" s="22" t="s">
+      <c r="O26" s="24" t="s">
         <v>6</v>
       </c>
-      <c r="P26" s="22"/>
-      <c r="Q26" s="22"/>
-      <c r="R26" s="22"/>
-      <c r="S26" s="22"/>
-      <c r="T26" s="22"/>
-      <c r="U26" s="22"/>
-      <c r="V26" s="22"/>
-      <c r="W26" s="22"/>
-      <c r="X26" s="22"/>
-      <c r="Y26" s="22"/>
-      <c r="Z26" s="22"/>
-      <c r="AA26" s="22"/>
+      <c r="P26" s="24"/>
+      <c r="Q26" s="24"/>
+      <c r="R26" s="24"/>
+      <c r="S26" s="24"/>
+      <c r="T26" s="24"/>
+      <c r="U26" s="24"/>
+      <c r="V26" s="24"/>
+      <c r="W26" s="24"/>
+      <c r="X26" s="24"/>
+      <c r="Y26" s="24"/>
+      <c r="Z26" s="24"/>
+      <c r="AA26" s="24"/>
     </row>
     <row r="27" spans="6:36" s="1" customFormat="1" ht="19.5" customHeight="1">
       <c r="F27" s="1" t="s">
@@ -4051,16 +4187,16 @@
       <c r="M27" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="O27" s="22" t="s">
+      <c r="O27" s="24" t="s">
         <v>8</v>
       </c>
-      <c r="P27" s="22"/>
-      <c r="Q27" s="22"/>
-      <c r="R27" s="22"/>
-      <c r="S27" s="22"/>
-      <c r="T27" s="22"/>
-      <c r="U27" s="22"/>
-      <c r="V27" s="22"/>
+      <c r="P27" s="24"/>
+      <c r="Q27" s="24"/>
+      <c r="R27" s="24"/>
+      <c r="S27" s="24"/>
+      <c r="T27" s="24"/>
+      <c r="U27" s="24"/>
+      <c r="V27" s="24"/>
     </row>
     <row r="28" spans="6:36" s="1" customFormat="1" ht="15" customHeight="1"/>
     <row r="29" spans="6:36" s="1" customFormat="1" ht="7.5" customHeight="1"/>
@@ -4070,40 +4206,40 @@
       </c>
     </row>
     <row r="31" spans="6:36" s="1" customFormat="1" ht="19.5" customHeight="1">
-      <c r="G31" s="22" t="s">
-        <v>40</v>
-      </c>
-      <c r="H31" s="22"/>
-      <c r="I31" s="22"/>
-      <c r="J31" s="22"/>
-      <c r="K31" s="22"/>
-      <c r="L31" s="22"/>
-      <c r="M31" s="22"/>
-      <c r="N31" s="22"/>
-      <c r="O31" s="22"/>
-      <c r="P31" s="22" t="s">
-        <v>110</v>
-      </c>
-      <c r="Q31" s="22"/>
-      <c r="R31" s="22"/>
-      <c r="S31" s="22"/>
-      <c r="T31" s="22"/>
-      <c r="U31" s="22"/>
-      <c r="V31" s="22"/>
-      <c r="W31" s="22"/>
-      <c r="X31" s="22"/>
-      <c r="Y31" s="22"/>
-      <c r="Z31" s="22"/>
-      <c r="AA31" s="22"/>
-      <c r="AB31" s="22"/>
-      <c r="AC31" s="22"/>
-      <c r="AD31" s="22"/>
-      <c r="AE31" s="22"/>
-      <c r="AF31" s="22"/>
-      <c r="AG31" s="22"/>
-      <c r="AH31" s="22"/>
-      <c r="AI31" s="22"/>
-      <c r="AJ31" s="22"/>
+      <c r="G31" s="24" t="s">
+        <v>39</v>
+      </c>
+      <c r="H31" s="24"/>
+      <c r="I31" s="24"/>
+      <c r="J31" s="24"/>
+      <c r="K31" s="24"/>
+      <c r="L31" s="24"/>
+      <c r="M31" s="24"/>
+      <c r="N31" s="24"/>
+      <c r="O31" s="24"/>
+      <c r="P31" s="24" t="s">
+        <v>107</v>
+      </c>
+      <c r="Q31" s="24"/>
+      <c r="R31" s="24"/>
+      <c r="S31" s="24"/>
+      <c r="T31" s="24"/>
+      <c r="U31" s="24"/>
+      <c r="V31" s="24"/>
+      <c r="W31" s="24"/>
+      <c r="X31" s="24"/>
+      <c r="Y31" s="24"/>
+      <c r="Z31" s="24"/>
+      <c r="AA31" s="24"/>
+      <c r="AB31" s="24"/>
+      <c r="AC31" s="24"/>
+      <c r="AD31" s="24"/>
+      <c r="AE31" s="24"/>
+      <c r="AF31" s="24"/>
+      <c r="AG31" s="24"/>
+      <c r="AH31" s="24"/>
+      <c r="AI31" s="24"/>
+      <c r="AJ31" s="24"/>
     </row>
     <row r="32" spans="6:36" s="1" customFormat="1" ht="14.25" customHeight="1"/>
     <row r="33" spans="3:40" s="1" customFormat="1" ht="7.5" customHeight="1"/>
@@ -4139,162 +4275,164 @@
       <c r="AJ34" s="4"/>
     </row>
     <row r="35" spans="3:40" s="1" customFormat="1" ht="60.75" customHeight="1">
-      <c r="G35" s="23"/>
-      <c r="H35" s="23"/>
-      <c r="I35" s="23"/>
-      <c r="J35" s="23"/>
-      <c r="K35" s="23"/>
-      <c r="L35" s="23"/>
-      <c r="M35" s="23"/>
-      <c r="N35" s="23"/>
-      <c r="O35" s="23"/>
-      <c r="P35" s="23"/>
-      <c r="Q35" s="23"/>
-      <c r="R35" s="23"/>
-      <c r="S35" s="23"/>
-      <c r="T35" s="23"/>
-      <c r="U35" s="23"/>
-      <c r="V35" s="23"/>
-      <c r="W35" s="23"/>
-      <c r="X35" s="23"/>
-      <c r="Y35" s="23"/>
-      <c r="Z35" s="23"/>
-      <c r="AA35" s="23"/>
-      <c r="AB35" s="23"/>
-      <c r="AC35" s="23"/>
-      <c r="AD35" s="23"/>
-      <c r="AE35" s="23"/>
-      <c r="AF35" s="23"/>
-      <c r="AG35" s="23"/>
-      <c r="AH35" s="23"/>
-      <c r="AI35" s="23"/>
-      <c r="AJ35" s="23"/>
+      <c r="G35" s="25" t="s">
+        <v>112</v>
+      </c>
+      <c r="H35" s="25"/>
+      <c r="I35" s="25"/>
+      <c r="J35" s="25"/>
+      <c r="K35" s="25"/>
+      <c r="L35" s="25"/>
+      <c r="M35" s="25"/>
+      <c r="N35" s="25"/>
+      <c r="O35" s="25"/>
+      <c r="P35" s="25"/>
+      <c r="Q35" s="25"/>
+      <c r="R35" s="25"/>
+      <c r="S35" s="25"/>
+      <c r="T35" s="25"/>
+      <c r="U35" s="25"/>
+      <c r="V35" s="25"/>
+      <c r="W35" s="25"/>
+      <c r="X35" s="25"/>
+      <c r="Y35" s="25"/>
+      <c r="Z35" s="25"/>
+      <c r="AA35" s="25"/>
+      <c r="AB35" s="25"/>
+      <c r="AC35" s="25"/>
+      <c r="AD35" s="25"/>
+      <c r="AE35" s="25"/>
+      <c r="AF35" s="25"/>
+      <c r="AG35" s="25"/>
+      <c r="AH35" s="25"/>
+      <c r="AI35" s="25"/>
+      <c r="AJ35" s="25"/>
     </row>
     <row r="36" spans="3:40" ht="12.75" customHeight="1"/>
     <row r="37" spans="3:40" ht="7.5" customHeight="1"/>
     <row r="38" spans="3:40" ht="24" customHeight="1"/>
     <row r="39" spans="3:40" ht="24" customHeight="1"/>
     <row r="43" spans="3:40" ht="11.25" customHeight="1">
-      <c r="C43" s="25" t="s">
+      <c r="C43" s="12" t="s">
         <v>13</v>
       </c>
-      <c r="D43" s="25"/>
-      <c r="E43" s="25"/>
-      <c r="F43" s="25"/>
-      <c r="G43" s="25"/>
-      <c r="H43" s="25"/>
-      <c r="I43" s="25"/>
-      <c r="J43" s="25"/>
-      <c r="K43" s="25"/>
-      <c r="L43" s="25"/>
-      <c r="M43" s="25"/>
-      <c r="N43" s="25"/>
-      <c r="O43" s="25"/>
-      <c r="P43" s="25"/>
-      <c r="Q43" s="25"/>
-      <c r="R43" s="25"/>
-      <c r="S43" s="25"/>
-      <c r="T43" s="25"/>
-      <c r="U43" s="25"/>
-      <c r="V43" s="25"/>
-      <c r="W43" s="25"/>
-      <c r="X43" s="25"/>
-      <c r="Y43" s="25"/>
-      <c r="Z43" s="25"/>
-      <c r="AA43" s="25"/>
-      <c r="AB43" s="25"/>
-      <c r="AC43" s="25"/>
-      <c r="AD43" s="25"/>
-      <c r="AE43" s="25"/>
-      <c r="AF43" s="25"/>
-      <c r="AG43" s="25"/>
-      <c r="AH43" s="25"/>
-      <c r="AI43" s="25"/>
-      <c r="AJ43" s="25"/>
-      <c r="AK43" s="25"/>
-      <c r="AL43" s="25"/>
-      <c r="AM43" s="25"/>
-      <c r="AN43" s="25"/>
+      <c r="D43" s="12"/>
+      <c r="E43" s="12"/>
+      <c r="F43" s="12"/>
+      <c r="G43" s="12"/>
+      <c r="H43" s="12"/>
+      <c r="I43" s="12"/>
+      <c r="J43" s="12"/>
+      <c r="K43" s="12"/>
+      <c r="L43" s="12"/>
+      <c r="M43" s="12"/>
+      <c r="N43" s="12"/>
+      <c r="O43" s="12"/>
+      <c r="P43" s="12"/>
+      <c r="Q43" s="12"/>
+      <c r="R43" s="12"/>
+      <c r="S43" s="12"/>
+      <c r="T43" s="12"/>
+      <c r="U43" s="12"/>
+      <c r="V43" s="12"/>
+      <c r="W43" s="12"/>
+      <c r="X43" s="12"/>
+      <c r="Y43" s="12"/>
+      <c r="Z43" s="12"/>
+      <c r="AA43" s="12"/>
+      <c r="AB43" s="12"/>
+      <c r="AC43" s="12"/>
+      <c r="AD43" s="12"/>
+      <c r="AE43" s="12"/>
+      <c r="AF43" s="12"/>
+      <c r="AG43" s="12"/>
+      <c r="AH43" s="12"/>
+      <c r="AI43" s="12"/>
+      <c r="AJ43" s="12"/>
+      <c r="AK43" s="12"/>
+      <c r="AL43" s="12"/>
+      <c r="AM43" s="12"/>
+      <c r="AN43" s="12"/>
     </row>
     <row r="44" spans="3:40" ht="11.25" customHeight="1">
-      <c r="C44" s="25"/>
-      <c r="D44" s="25"/>
-      <c r="E44" s="25"/>
-      <c r="F44" s="25"/>
-      <c r="G44" s="25"/>
-      <c r="H44" s="25"/>
-      <c r="I44" s="25"/>
-      <c r="J44" s="25"/>
-      <c r="K44" s="25"/>
-      <c r="L44" s="25"/>
-      <c r="M44" s="25"/>
-      <c r="N44" s="25"/>
-      <c r="O44" s="25"/>
-      <c r="P44" s="25"/>
-      <c r="Q44" s="25"/>
-      <c r="R44" s="25"/>
-      <c r="S44" s="25"/>
-      <c r="T44" s="25"/>
-      <c r="U44" s="25"/>
-      <c r="V44" s="25"/>
-      <c r="W44" s="25"/>
-      <c r="X44" s="25"/>
-      <c r="Y44" s="25"/>
-      <c r="Z44" s="25"/>
-      <c r="AA44" s="25"/>
-      <c r="AB44" s="25"/>
-      <c r="AC44" s="25"/>
-      <c r="AD44" s="25"/>
-      <c r="AE44" s="25"/>
-      <c r="AF44" s="25"/>
-      <c r="AG44" s="25"/>
-      <c r="AH44" s="25"/>
-      <c r="AI44" s="25"/>
-      <c r="AJ44" s="25"/>
-      <c r="AK44" s="25"/>
-      <c r="AL44" s="25"/>
-      <c r="AM44" s="25"/>
-      <c r="AN44" s="25"/>
+      <c r="C44" s="12"/>
+      <c r="D44" s="12"/>
+      <c r="E44" s="12"/>
+      <c r="F44" s="12"/>
+      <c r="G44" s="12"/>
+      <c r="H44" s="12"/>
+      <c r="I44" s="12"/>
+      <c r="J44" s="12"/>
+      <c r="K44" s="12"/>
+      <c r="L44" s="12"/>
+      <c r="M44" s="12"/>
+      <c r="N44" s="12"/>
+      <c r="O44" s="12"/>
+      <c r="P44" s="12"/>
+      <c r="Q44" s="12"/>
+      <c r="R44" s="12"/>
+      <c r="S44" s="12"/>
+      <c r="T44" s="12"/>
+      <c r="U44" s="12"/>
+      <c r="V44" s="12"/>
+      <c r="W44" s="12"/>
+      <c r="X44" s="12"/>
+      <c r="Y44" s="12"/>
+      <c r="Z44" s="12"/>
+      <c r="AA44" s="12"/>
+      <c r="AB44" s="12"/>
+      <c r="AC44" s="12"/>
+      <c r="AD44" s="12"/>
+      <c r="AE44" s="12"/>
+      <c r="AF44" s="12"/>
+      <c r="AG44" s="12"/>
+      <c r="AH44" s="12"/>
+      <c r="AI44" s="12"/>
+      <c r="AJ44" s="12"/>
+      <c r="AK44" s="12"/>
+      <c r="AL44" s="12"/>
+      <c r="AM44" s="12"/>
+      <c r="AN44" s="12"/>
     </row>
     <row r="45" spans="3:40" ht="11.25" customHeight="1">
-      <c r="C45" s="25"/>
-      <c r="D45" s="25"/>
-      <c r="E45" s="25"/>
-      <c r="F45" s="25"/>
-      <c r="G45" s="25"/>
-      <c r="H45" s="25"/>
-      <c r="I45" s="25"/>
-      <c r="J45" s="25"/>
-      <c r="K45" s="25"/>
-      <c r="L45" s="25"/>
-      <c r="M45" s="25"/>
-      <c r="N45" s="25"/>
-      <c r="O45" s="25"/>
-      <c r="P45" s="25"/>
-      <c r="Q45" s="25"/>
-      <c r="R45" s="25"/>
-      <c r="S45" s="25"/>
-      <c r="T45" s="25"/>
-      <c r="U45" s="25"/>
-      <c r="V45" s="25"/>
-      <c r="W45" s="25"/>
-      <c r="X45" s="25"/>
-      <c r="Y45" s="25"/>
-      <c r="Z45" s="25"/>
-      <c r="AA45" s="25"/>
-      <c r="AB45" s="25"/>
-      <c r="AC45" s="25"/>
-      <c r="AD45" s="25"/>
-      <c r="AE45" s="25"/>
-      <c r="AF45" s="25"/>
-      <c r="AG45" s="25"/>
-      <c r="AH45" s="25"/>
-      <c r="AI45" s="25"/>
-      <c r="AJ45" s="25"/>
-      <c r="AK45" s="25"/>
-      <c r="AL45" s="25"/>
-      <c r="AM45" s="25"/>
-      <c r="AN45" s="25"/>
+      <c r="C45" s="12"/>
+      <c r="D45" s="12"/>
+      <c r="E45" s="12"/>
+      <c r="F45" s="12"/>
+      <c r="G45" s="12"/>
+      <c r="H45" s="12"/>
+      <c r="I45" s="12"/>
+      <c r="J45" s="12"/>
+      <c r="K45" s="12"/>
+      <c r="L45" s="12"/>
+      <c r="M45" s="12"/>
+      <c r="N45" s="12"/>
+      <c r="O45" s="12"/>
+      <c r="P45" s="12"/>
+      <c r="Q45" s="12"/>
+      <c r="R45" s="12"/>
+      <c r="S45" s="12"/>
+      <c r="T45" s="12"/>
+      <c r="U45" s="12"/>
+      <c r="V45" s="12"/>
+      <c r="W45" s="12"/>
+      <c r="X45" s="12"/>
+      <c r="Y45" s="12"/>
+      <c r="Z45" s="12"/>
+      <c r="AA45" s="12"/>
+      <c r="AB45" s="12"/>
+      <c r="AC45" s="12"/>
+      <c r="AD45" s="12"/>
+      <c r="AE45" s="12"/>
+      <c r="AF45" s="12"/>
+      <c r="AG45" s="12"/>
+      <c r="AH45" s="12"/>
+      <c r="AI45" s="12"/>
+      <c r="AJ45" s="12"/>
+      <c r="AK45" s="12"/>
+      <c r="AL45" s="12"/>
+      <c r="AM45" s="12"/>
+      <c r="AN45" s="12"/>
     </row>
     <row r="46" spans="3:40" ht="11.25" customHeight="1">
       <c r="D46" s="9"/>
@@ -4373,1064 +4511,1100 @@
       <c r="AM47" s="9"/>
     </row>
     <row r="48" spans="3:40" ht="28.5" customHeight="1">
-      <c r="D48" s="26" t="s">
+      <c r="D48" s="13" t="s">
         <v>5</v>
       </c>
-      <c r="E48" s="26"/>
-      <c r="F48" s="26"/>
-      <c r="G48" s="26"/>
-      <c r="H48" s="26"/>
-      <c r="I48" s="26"/>
-      <c r="J48" s="26" t="s">
+      <c r="E48" s="13"/>
+      <c r="F48" s="13"/>
+      <c r="G48" s="13"/>
+      <c r="H48" s="13"/>
+      <c r="I48" s="13"/>
+      <c r="J48" s="13" t="s">
         <v>14</v>
       </c>
-      <c r="K48" s="26"/>
-      <c r="L48" s="26"/>
-      <c r="M48" s="26"/>
-      <c r="N48" s="26"/>
-      <c r="O48" s="26"/>
-      <c r="P48" s="26"/>
-      <c r="Q48" s="26"/>
-      <c r="R48" s="26"/>
-      <c r="S48" s="26"/>
-      <c r="T48" s="26"/>
-      <c r="U48" s="26" t="s">
+      <c r="K48" s="13"/>
+      <c r="L48" s="13"/>
+      <c r="M48" s="13"/>
+      <c r="N48" s="13"/>
+      <c r="O48" s="13"/>
+      <c r="P48" s="13"/>
+      <c r="Q48" s="13"/>
+      <c r="R48" s="13"/>
+      <c r="S48" s="13"/>
+      <c r="T48" s="13"/>
+      <c r="U48" s="13" t="s">
         <v>12</v>
       </c>
-      <c r="V48" s="26"/>
-      <c r="W48" s="26"/>
-      <c r="X48" s="26"/>
-      <c r="Y48" s="26"/>
-      <c r="Z48" s="26"/>
-      <c r="AA48" s="26"/>
-      <c r="AB48" s="26"/>
-      <c r="AC48" s="26"/>
-      <c r="AD48" s="26"/>
-      <c r="AE48" s="26"/>
-      <c r="AF48" s="26"/>
-      <c r="AG48" s="26"/>
-      <c r="AH48" s="26"/>
-      <c r="AI48" s="26"/>
-      <c r="AJ48" s="26"/>
-      <c r="AK48" s="26"/>
-      <c r="AL48" s="26"/>
-      <c r="AM48" s="26"/>
+      <c r="V48" s="13"/>
+      <c r="W48" s="13"/>
+      <c r="X48" s="13"/>
+      <c r="Y48" s="13"/>
+      <c r="Z48" s="13"/>
+      <c r="AA48" s="13"/>
+      <c r="AB48" s="13"/>
+      <c r="AC48" s="13"/>
+      <c r="AD48" s="13"/>
+      <c r="AE48" s="13"/>
+      <c r="AF48" s="13"/>
+      <c r="AG48" s="13"/>
+      <c r="AH48" s="13"/>
+      <c r="AI48" s="13"/>
+      <c r="AJ48" s="13"/>
+      <c r="AK48" s="13"/>
+      <c r="AL48" s="13"/>
+      <c r="AM48" s="13"/>
     </row>
     <row r="49" spans="4:39" ht="27.75" customHeight="1">
-      <c r="D49" s="12" t="s">
+      <c r="D49" s="14" t="s">
         <v>15</v>
       </c>
-      <c r="E49" s="12"/>
-      <c r="F49" s="12"/>
-      <c r="G49" s="12"/>
-      <c r="H49" s="12"/>
-      <c r="I49" s="12"/>
-      <c r="J49" s="12" t="s">
+      <c r="E49" s="14"/>
+      <c r="F49" s="14"/>
+      <c r="G49" s="14"/>
+      <c r="H49" s="14"/>
+      <c r="I49" s="14"/>
+      <c r="J49" s="14" t="s">
         <v>8</v>
       </c>
-      <c r="K49" s="12"/>
-      <c r="L49" s="12"/>
-      <c r="M49" s="12"/>
-      <c r="N49" s="12"/>
-      <c r="O49" s="12"/>
-      <c r="P49" s="12"/>
-      <c r="Q49" s="12"/>
-      <c r="R49" s="12"/>
-      <c r="S49" s="12"/>
-      <c r="T49" s="12"/>
-      <c r="U49" s="12"/>
-      <c r="V49" s="12"/>
-      <c r="W49" s="12"/>
-      <c r="X49" s="12"/>
-      <c r="Y49" s="12"/>
-      <c r="Z49" s="12"/>
-      <c r="AA49" s="12"/>
-      <c r="AB49" s="12"/>
-      <c r="AC49" s="12"/>
-      <c r="AD49" s="12"/>
-      <c r="AE49" s="12"/>
-      <c r="AF49" s="12"/>
-      <c r="AG49" s="12"/>
-      <c r="AH49" s="12"/>
-      <c r="AI49" s="12"/>
-      <c r="AJ49" s="12"/>
-      <c r="AK49" s="12"/>
-      <c r="AL49" s="12"/>
-      <c r="AM49" s="12"/>
+      <c r="K49" s="14"/>
+      <c r="L49" s="14"/>
+      <c r="M49" s="14"/>
+      <c r="N49" s="14"/>
+      <c r="O49" s="14"/>
+      <c r="P49" s="14"/>
+      <c r="Q49" s="14"/>
+      <c r="R49" s="14"/>
+      <c r="S49" s="14"/>
+      <c r="T49" s="14"/>
+      <c r="U49" s="14"/>
+      <c r="V49" s="14"/>
+      <c r="W49" s="14"/>
+      <c r="X49" s="14"/>
+      <c r="Y49" s="14"/>
+      <c r="Z49" s="14"/>
+      <c r="AA49" s="14"/>
+      <c r="AB49" s="14"/>
+      <c r="AC49" s="14"/>
+      <c r="AD49" s="14"/>
+      <c r="AE49" s="14"/>
+      <c r="AF49" s="14"/>
+      <c r="AG49" s="14"/>
+      <c r="AH49" s="14"/>
+      <c r="AI49" s="14"/>
+      <c r="AJ49" s="14"/>
+      <c r="AK49" s="14"/>
+      <c r="AL49" s="14"/>
+      <c r="AM49" s="14"/>
     </row>
     <row r="50" spans="4:39" ht="27.75" customHeight="1">
-      <c r="D50" s="12" t="s">
+      <c r="D50" s="14" t="s">
         <v>16</v>
       </c>
-      <c r="E50" s="12"/>
-      <c r="F50" s="12"/>
-      <c r="G50" s="12"/>
-      <c r="H50" s="12"/>
-      <c r="I50" s="12"/>
-      <c r="J50" s="12" t="s">
+      <c r="E50" s="14"/>
+      <c r="F50" s="14"/>
+      <c r="G50" s="14"/>
+      <c r="H50" s="14"/>
+      <c r="I50" s="14"/>
+      <c r="J50" s="14" t="s">
         <v>17</v>
       </c>
-      <c r="K50" s="12"/>
-      <c r="L50" s="12"/>
-      <c r="M50" s="12"/>
-      <c r="N50" s="12"/>
-      <c r="O50" s="12"/>
-      <c r="P50" s="12"/>
-      <c r="Q50" s="12"/>
-      <c r="R50" s="12"/>
-      <c r="S50" s="12"/>
-      <c r="T50" s="12"/>
-      <c r="U50" s="12"/>
-      <c r="V50" s="12"/>
-      <c r="W50" s="12"/>
-      <c r="X50" s="12"/>
-      <c r="Y50" s="12"/>
-      <c r="Z50" s="12"/>
-      <c r="AA50" s="12"/>
-      <c r="AB50" s="12"/>
-      <c r="AC50" s="12"/>
-      <c r="AD50" s="12"/>
-      <c r="AE50" s="12"/>
-      <c r="AF50" s="12"/>
-      <c r="AG50" s="12"/>
-      <c r="AH50" s="12"/>
-      <c r="AI50" s="12"/>
-      <c r="AJ50" s="12"/>
-      <c r="AK50" s="12"/>
-      <c r="AL50" s="12"/>
-      <c r="AM50" s="12"/>
+      <c r="K50" s="14"/>
+      <c r="L50" s="14"/>
+      <c r="M50" s="14"/>
+      <c r="N50" s="14"/>
+      <c r="O50" s="14"/>
+      <c r="P50" s="14"/>
+      <c r="Q50" s="14"/>
+      <c r="R50" s="14"/>
+      <c r="S50" s="14"/>
+      <c r="T50" s="14"/>
+      <c r="U50" s="14"/>
+      <c r="V50" s="14"/>
+      <c r="W50" s="14"/>
+      <c r="X50" s="14"/>
+      <c r="Y50" s="14"/>
+      <c r="Z50" s="14"/>
+      <c r="AA50" s="14"/>
+      <c r="AB50" s="14"/>
+      <c r="AC50" s="14"/>
+      <c r="AD50" s="14"/>
+      <c r="AE50" s="14"/>
+      <c r="AF50" s="14"/>
+      <c r="AG50" s="14"/>
+      <c r="AH50" s="14"/>
+      <c r="AI50" s="14"/>
+      <c r="AJ50" s="14"/>
+      <c r="AK50" s="14"/>
+      <c r="AL50" s="14"/>
+      <c r="AM50" s="14"/>
     </row>
     <row r="51" spans="4:39" ht="27.75" customHeight="1">
-      <c r="D51" s="12" t="s">
+      <c r="D51" s="14" t="s">
         <v>18</v>
       </c>
-      <c r="E51" s="12"/>
-      <c r="F51" s="12"/>
-      <c r="G51" s="12"/>
-      <c r="H51" s="12"/>
-      <c r="I51" s="12"/>
-      <c r="J51" s="12" t="s">
+      <c r="E51" s="14"/>
+      <c r="F51" s="14"/>
+      <c r="G51" s="14"/>
+      <c r="H51" s="14"/>
+      <c r="I51" s="14"/>
+      <c r="J51" s="14" t="s">
         <v>19</v>
       </c>
-      <c r="K51" s="12"/>
-      <c r="L51" s="12"/>
-      <c r="M51" s="12"/>
-      <c r="N51" s="12"/>
-      <c r="O51" s="12"/>
-      <c r="P51" s="12"/>
-      <c r="Q51" s="12"/>
-      <c r="R51" s="12"/>
-      <c r="S51" s="12"/>
-      <c r="T51" s="12"/>
-      <c r="U51" s="12"/>
-      <c r="V51" s="12"/>
-      <c r="W51" s="12"/>
-      <c r="X51" s="12"/>
-      <c r="Y51" s="12"/>
-      <c r="Z51" s="12"/>
-      <c r="AA51" s="12"/>
-      <c r="AB51" s="12"/>
-      <c r="AC51" s="12"/>
-      <c r="AD51" s="12"/>
-      <c r="AE51" s="12"/>
-      <c r="AF51" s="12"/>
-      <c r="AG51" s="12"/>
-      <c r="AH51" s="12"/>
-      <c r="AI51" s="12"/>
-      <c r="AJ51" s="12"/>
-      <c r="AK51" s="12"/>
-      <c r="AL51" s="12"/>
-      <c r="AM51" s="12"/>
+      <c r="K51" s="14"/>
+      <c r="L51" s="14"/>
+      <c r="M51" s="14"/>
+      <c r="N51" s="14"/>
+      <c r="O51" s="14"/>
+      <c r="P51" s="14"/>
+      <c r="Q51" s="14"/>
+      <c r="R51" s="14"/>
+      <c r="S51" s="14"/>
+      <c r="T51" s="14"/>
+      <c r="U51" s="14"/>
+      <c r="V51" s="14"/>
+      <c r="W51" s="14"/>
+      <c r="X51" s="14"/>
+      <c r="Y51" s="14"/>
+      <c r="Z51" s="14"/>
+      <c r="AA51" s="14"/>
+      <c r="AB51" s="14"/>
+      <c r="AC51" s="14"/>
+      <c r="AD51" s="14"/>
+      <c r="AE51" s="14"/>
+      <c r="AF51" s="14"/>
+      <c r="AG51" s="14"/>
+      <c r="AH51" s="14"/>
+      <c r="AI51" s="14"/>
+      <c r="AJ51" s="14"/>
+      <c r="AK51" s="14"/>
+      <c r="AL51" s="14"/>
+      <c r="AM51" s="14"/>
     </row>
     <row r="52" spans="4:39" ht="27.75" customHeight="1">
-      <c r="D52" s="12" t="s">
+      <c r="D52" s="14" t="s">
+        <v>18</v>
+      </c>
+      <c r="E52" s="14"/>
+      <c r="F52" s="14"/>
+      <c r="G52" s="14"/>
+      <c r="H52" s="14"/>
+      <c r="I52" s="14"/>
+      <c r="J52" s="14" t="s">
+        <v>114</v>
+      </c>
+      <c r="K52" s="14"/>
+      <c r="L52" s="14"/>
+      <c r="M52" s="14"/>
+      <c r="N52" s="14"/>
+      <c r="O52" s="14"/>
+      <c r="P52" s="14"/>
+      <c r="Q52" s="14"/>
+      <c r="R52" s="14"/>
+      <c r="S52" s="14"/>
+      <c r="T52" s="14"/>
+      <c r="U52" s="27" t="s">
+        <v>131</v>
+      </c>
+      <c r="V52" s="27"/>
+      <c r="W52" s="27"/>
+      <c r="X52" s="27"/>
+      <c r="Y52" s="27"/>
+      <c r="Z52" s="27"/>
+      <c r="AA52" s="27"/>
+      <c r="AB52" s="27"/>
+      <c r="AC52" s="27"/>
+      <c r="AD52" s="27"/>
+      <c r="AE52" s="27"/>
+      <c r="AF52" s="27"/>
+      <c r="AG52" s="27"/>
+      <c r="AH52" s="27"/>
+      <c r="AI52" s="27"/>
+      <c r="AJ52" s="27"/>
+      <c r="AK52" s="27"/>
+      <c r="AL52" s="27"/>
+      <c r="AM52" s="27"/>
+    </row>
+    <row r="53" spans="4:39" ht="27.75" customHeight="1">
+      <c r="D53" s="14" t="s">
         <v>20</v>
       </c>
-      <c r="E52" s="12"/>
-      <c r="F52" s="12"/>
-      <c r="G52" s="12"/>
-      <c r="H52" s="12"/>
-      <c r="I52" s="12"/>
-      <c r="J52" s="12" t="s">
+      <c r="E53" s="14"/>
+      <c r="F53" s="14"/>
+      <c r="G53" s="14"/>
+      <c r="H53" s="14"/>
+      <c r="I53" s="14"/>
+      <c r="J53" s="14" t="s">
+        <v>110</v>
+      </c>
+      <c r="K53" s="14"/>
+      <c r="L53" s="14"/>
+      <c r="M53" s="14"/>
+      <c r="N53" s="14"/>
+      <c r="O53" s="14"/>
+      <c r="P53" s="14"/>
+      <c r="Q53" s="14"/>
+      <c r="R53" s="14"/>
+      <c r="S53" s="14"/>
+      <c r="T53" s="14"/>
+      <c r="U53" s="27" t="s">
+        <v>113</v>
+      </c>
+      <c r="V53" s="27"/>
+      <c r="W53" s="27"/>
+      <c r="X53" s="27"/>
+      <c r="Y53" s="27"/>
+      <c r="Z53" s="27"/>
+      <c r="AA53" s="27"/>
+      <c r="AB53" s="27"/>
+      <c r="AC53" s="27"/>
+      <c r="AD53" s="27"/>
+      <c r="AE53" s="27"/>
+      <c r="AF53" s="27"/>
+      <c r="AG53" s="27"/>
+      <c r="AH53" s="27"/>
+      <c r="AI53" s="27"/>
+      <c r="AJ53" s="27"/>
+      <c r="AK53" s="27"/>
+      <c r="AL53" s="27"/>
+      <c r="AM53" s="27"/>
+    </row>
+    <row r="54" spans="4:39" ht="27.75" customHeight="1">
+      <c r="D54" s="14" t="s">
+        <v>20</v>
+      </c>
+      <c r="E54" s="14"/>
+      <c r="F54" s="14"/>
+      <c r="G54" s="14"/>
+      <c r="H54" s="14"/>
+      <c r="I54" s="14"/>
+      <c r="J54" s="14" t="s">
         <v>21</v>
       </c>
-      <c r="K52" s="12"/>
-      <c r="L52" s="12"/>
-      <c r="M52" s="12"/>
-      <c r="N52" s="12"/>
-      <c r="O52" s="12"/>
-      <c r="P52" s="12"/>
-      <c r="Q52" s="12"/>
-      <c r="R52" s="12"/>
-      <c r="S52" s="12"/>
-      <c r="T52" s="12"/>
-      <c r="U52" s="12"/>
-      <c r="V52" s="12"/>
-      <c r="W52" s="12"/>
-      <c r="X52" s="12"/>
-      <c r="Y52" s="12"/>
-      <c r="Z52" s="12"/>
-      <c r="AA52" s="12"/>
-      <c r="AB52" s="12"/>
-      <c r="AC52" s="12"/>
-      <c r="AD52" s="12"/>
-      <c r="AE52" s="12"/>
-      <c r="AF52" s="12"/>
-      <c r="AG52" s="12"/>
-      <c r="AH52" s="12"/>
-      <c r="AI52" s="12"/>
-      <c r="AJ52" s="12"/>
-      <c r="AK52" s="12"/>
-      <c r="AL52" s="12"/>
-      <c r="AM52" s="12"/>
-    </row>
-    <row r="53" spans="4:39" ht="27.75" customHeight="1">
-      <c r="D53" s="12" t="s">
-        <v>20</v>
-      </c>
-      <c r="E53" s="12"/>
-      <c r="F53" s="12"/>
-      <c r="G53" s="12"/>
-      <c r="H53" s="12"/>
-      <c r="I53" s="12"/>
-      <c r="J53" s="12" t="s">
-        <v>113</v>
-      </c>
-      <c r="K53" s="12"/>
-      <c r="L53" s="12"/>
-      <c r="M53" s="12"/>
-      <c r="N53" s="12"/>
-      <c r="O53" s="12"/>
-      <c r="P53" s="12"/>
-      <c r="Q53" s="12"/>
-      <c r="R53" s="12"/>
-      <c r="S53" s="12"/>
-      <c r="T53" s="12"/>
-      <c r="U53" s="12"/>
-      <c r="V53" s="12"/>
-      <c r="W53" s="12"/>
-      <c r="X53" s="12"/>
-      <c r="Y53" s="12"/>
-      <c r="Z53" s="12"/>
-      <c r="AA53" s="12"/>
-      <c r="AB53" s="12"/>
-      <c r="AC53" s="12"/>
-      <c r="AD53" s="12"/>
-      <c r="AE53" s="12"/>
-      <c r="AF53" s="12"/>
-      <c r="AG53" s="12"/>
-      <c r="AH53" s="12"/>
-      <c r="AI53" s="12"/>
-      <c r="AJ53" s="12"/>
-      <c r="AK53" s="12"/>
-      <c r="AL53" s="12"/>
-      <c r="AM53" s="12"/>
-    </row>
-    <row r="54" spans="4:39" ht="27.75" customHeight="1">
-      <c r="D54" s="12" t="s">
-        <v>20</v>
-      </c>
-      <c r="E54" s="12"/>
-      <c r="F54" s="12"/>
-      <c r="G54" s="12"/>
-      <c r="H54" s="12"/>
-      <c r="I54" s="12"/>
-      <c r="J54" s="12" t="s">
+      <c r="K54" s="14"/>
+      <c r="L54" s="14"/>
+      <c r="M54" s="14"/>
+      <c r="N54" s="14"/>
+      <c r="O54" s="14"/>
+      <c r="P54" s="14"/>
+      <c r="Q54" s="14"/>
+      <c r="R54" s="14"/>
+      <c r="S54" s="14"/>
+      <c r="T54" s="14"/>
+      <c r="U54" s="14"/>
+      <c r="V54" s="14"/>
+      <c r="W54" s="14"/>
+      <c r="X54" s="14"/>
+      <c r="Y54" s="14"/>
+      <c r="Z54" s="14"/>
+      <c r="AA54" s="14"/>
+      <c r="AB54" s="14"/>
+      <c r="AC54" s="14"/>
+      <c r="AD54" s="14"/>
+      <c r="AE54" s="14"/>
+      <c r="AF54" s="14"/>
+      <c r="AG54" s="14"/>
+      <c r="AH54" s="14"/>
+      <c r="AI54" s="14"/>
+      <c r="AJ54" s="14"/>
+      <c r="AK54" s="14"/>
+      <c r="AL54" s="14"/>
+      <c r="AM54" s="14"/>
+    </row>
+    <row r="55" spans="4:39" ht="27.75" customHeight="1">
+      <c r="D55" s="14" t="s">
         <v>22</v>
       </c>
-      <c r="K54" s="12"/>
-      <c r="L54" s="12"/>
-      <c r="M54" s="12"/>
-      <c r="N54" s="12"/>
-      <c r="O54" s="12"/>
-      <c r="P54" s="12"/>
-      <c r="Q54" s="12"/>
-      <c r="R54" s="12"/>
-      <c r="S54" s="12"/>
-      <c r="T54" s="12"/>
-      <c r="U54" s="12"/>
-      <c r="V54" s="12"/>
-      <c r="W54" s="12"/>
-      <c r="X54" s="12"/>
-      <c r="Y54" s="12"/>
-      <c r="Z54" s="12"/>
-      <c r="AA54" s="12"/>
-      <c r="AB54" s="12"/>
-      <c r="AC54" s="12"/>
-      <c r="AD54" s="12"/>
-      <c r="AE54" s="12"/>
-      <c r="AF54" s="12"/>
-      <c r="AG54" s="12"/>
-      <c r="AH54" s="12"/>
-      <c r="AI54" s="12"/>
-      <c r="AJ54" s="12"/>
-      <c r="AK54" s="12"/>
-      <c r="AL54" s="12"/>
-      <c r="AM54" s="12"/>
-    </row>
-    <row r="55" spans="4:39" ht="27.75" customHeight="1">
-      <c r="D55" s="12" t="s">
-        <v>23</v>
-      </c>
-      <c r="E55" s="12"/>
-      <c r="F55" s="12"/>
-      <c r="G55" s="12"/>
-      <c r="H55" s="12"/>
-      <c r="I55" s="12"/>
-      <c r="J55" s="12" t="s">
-        <v>111</v>
-      </c>
-      <c r="K55" s="12"/>
-      <c r="L55" s="12"/>
-      <c r="M55" s="12"/>
-      <c r="N55" s="12"/>
-      <c r="O55" s="12"/>
-      <c r="P55" s="12"/>
-      <c r="Q55" s="12"/>
-      <c r="R55" s="12"/>
-      <c r="S55" s="12"/>
-      <c r="T55" s="12"/>
-      <c r="U55" s="12"/>
-      <c r="V55" s="12"/>
-      <c r="W55" s="12"/>
-      <c r="X55" s="12"/>
-      <c r="Y55" s="12"/>
-      <c r="Z55" s="12"/>
-      <c r="AA55" s="12"/>
-      <c r="AB55" s="12"/>
-      <c r="AC55" s="12"/>
-      <c r="AD55" s="12"/>
-      <c r="AE55" s="12"/>
-      <c r="AF55" s="12"/>
-      <c r="AG55" s="12"/>
-      <c r="AH55" s="12"/>
-      <c r="AI55" s="12"/>
-      <c r="AJ55" s="12"/>
-      <c r="AK55" s="12"/>
-      <c r="AL55" s="12"/>
-      <c r="AM55" s="12"/>
+      <c r="E55" s="14"/>
+      <c r="F55" s="14"/>
+      <c r="G55" s="14"/>
+      <c r="H55" s="14"/>
+      <c r="I55" s="14"/>
+      <c r="J55" s="14" t="s">
+        <v>108</v>
+      </c>
+      <c r="K55" s="14"/>
+      <c r="L55" s="14"/>
+      <c r="M55" s="14"/>
+      <c r="N55" s="14"/>
+      <c r="O55" s="14"/>
+      <c r="P55" s="14"/>
+      <c r="Q55" s="14"/>
+      <c r="R55" s="14"/>
+      <c r="S55" s="14"/>
+      <c r="T55" s="14"/>
+      <c r="U55" s="14"/>
+      <c r="V55" s="14"/>
+      <c r="W55" s="14"/>
+      <c r="X55" s="14"/>
+      <c r="Y55" s="14"/>
+      <c r="Z55" s="14"/>
+      <c r="AA55" s="14"/>
+      <c r="AB55" s="14"/>
+      <c r="AC55" s="14"/>
+      <c r="AD55" s="14"/>
+      <c r="AE55" s="14"/>
+      <c r="AF55" s="14"/>
+      <c r="AG55" s="14"/>
+      <c r="AH55" s="14"/>
+      <c r="AI55" s="14"/>
+      <c r="AJ55" s="14"/>
+      <c r="AK55" s="14"/>
+      <c r="AL55" s="14"/>
+      <c r="AM55" s="14"/>
     </row>
     <row r="56" spans="4:39" ht="27.75" customHeight="1">
-      <c r="D56" s="12"/>
-      <c r="E56" s="12"/>
-      <c r="F56" s="12"/>
-      <c r="G56" s="12"/>
-      <c r="H56" s="12"/>
-      <c r="I56" s="12"/>
-      <c r="J56" s="12"/>
-      <c r="K56" s="12"/>
-      <c r="L56" s="12"/>
-      <c r="M56" s="12"/>
-      <c r="N56" s="12"/>
-      <c r="O56" s="12"/>
-      <c r="P56" s="12"/>
-      <c r="Q56" s="12"/>
-      <c r="R56" s="12"/>
-      <c r="S56" s="12"/>
-      <c r="T56" s="12"/>
-      <c r="U56" s="12"/>
-      <c r="V56" s="12"/>
-      <c r="W56" s="12"/>
-      <c r="X56" s="12"/>
-      <c r="Y56" s="12"/>
-      <c r="Z56" s="12"/>
-      <c r="AA56" s="12"/>
-      <c r="AB56" s="12"/>
-      <c r="AC56" s="12"/>
-      <c r="AD56" s="12"/>
-      <c r="AE56" s="12"/>
-      <c r="AF56" s="12"/>
-      <c r="AG56" s="12"/>
-      <c r="AH56" s="12"/>
-      <c r="AI56" s="12"/>
-      <c r="AJ56" s="12"/>
-      <c r="AK56" s="12"/>
-      <c r="AL56" s="12"/>
-      <c r="AM56" s="12"/>
+      <c r="D56" s="14" t="s">
+        <v>116</v>
+      </c>
+      <c r="E56" s="14"/>
+      <c r="F56" s="14"/>
+      <c r="G56" s="14"/>
+      <c r="H56" s="14"/>
+      <c r="I56" s="14"/>
+      <c r="J56" s="14" t="s">
+        <v>117</v>
+      </c>
+      <c r="K56" s="14"/>
+      <c r="L56" s="14"/>
+      <c r="M56" s="14"/>
+      <c r="N56" s="14"/>
+      <c r="O56" s="14"/>
+      <c r="P56" s="14"/>
+      <c r="Q56" s="14"/>
+      <c r="R56" s="14"/>
+      <c r="S56" s="14"/>
+      <c r="T56" s="14"/>
+      <c r="U56" s="14"/>
+      <c r="V56" s="14"/>
+      <c r="W56" s="14"/>
+      <c r="X56" s="14"/>
+      <c r="Y56" s="14"/>
+      <c r="Z56" s="14"/>
+      <c r="AA56" s="14"/>
+      <c r="AB56" s="14"/>
+      <c r="AC56" s="14"/>
+      <c r="AD56" s="14"/>
+      <c r="AE56" s="14"/>
+      <c r="AF56" s="14"/>
+      <c r="AG56" s="14"/>
+      <c r="AH56" s="14"/>
+      <c r="AI56" s="14"/>
+      <c r="AJ56" s="14"/>
+      <c r="AK56" s="14"/>
+      <c r="AL56" s="14"/>
+      <c r="AM56" s="14"/>
     </row>
     <row r="57" spans="4:39" ht="27.75" customHeight="1">
-      <c r="D57" s="12"/>
-      <c r="E57" s="12"/>
-      <c r="F57" s="12"/>
-      <c r="G57" s="12"/>
-      <c r="H57" s="12"/>
-      <c r="I57" s="12"/>
-      <c r="J57" s="12"/>
-      <c r="K57" s="12"/>
-      <c r="L57" s="12"/>
-      <c r="M57" s="12"/>
-      <c r="N57" s="12"/>
-      <c r="O57" s="12"/>
-      <c r="P57" s="12"/>
-      <c r="Q57" s="12"/>
-      <c r="R57" s="12"/>
-      <c r="S57" s="12"/>
-      <c r="T57" s="12"/>
-      <c r="U57" s="12"/>
-      <c r="V57" s="12"/>
-      <c r="W57" s="12"/>
-      <c r="X57" s="12"/>
-      <c r="Y57" s="12"/>
-      <c r="Z57" s="12"/>
-      <c r="AA57" s="12"/>
-      <c r="AB57" s="12"/>
-      <c r="AC57" s="12"/>
-      <c r="AD57" s="12"/>
-      <c r="AE57" s="12"/>
-      <c r="AF57" s="12"/>
-      <c r="AG57" s="12"/>
-      <c r="AH57" s="12"/>
-      <c r="AI57" s="12"/>
-      <c r="AJ57" s="12"/>
-      <c r="AK57" s="12"/>
-      <c r="AL57" s="12"/>
-      <c r="AM57" s="12"/>
+      <c r="D57" s="14" t="s">
+        <v>115</v>
+      </c>
+      <c r="E57" s="14"/>
+      <c r="F57" s="14"/>
+      <c r="G57" s="14"/>
+      <c r="H57" s="14"/>
+      <c r="I57" s="14"/>
+      <c r="J57" s="14" t="s">
+        <v>119</v>
+      </c>
+      <c r="K57" s="14"/>
+      <c r="L57" s="14"/>
+      <c r="M57" s="14"/>
+      <c r="N57" s="14"/>
+      <c r="O57" s="14"/>
+      <c r="P57" s="14"/>
+      <c r="Q57" s="14"/>
+      <c r="R57" s="14"/>
+      <c r="S57" s="14"/>
+      <c r="T57" s="14"/>
+      <c r="U57" s="27" t="s">
+        <v>118</v>
+      </c>
+      <c r="V57" s="27"/>
+      <c r="W57" s="27"/>
+      <c r="X57" s="27"/>
+      <c r="Y57" s="27"/>
+      <c r="Z57" s="27"/>
+      <c r="AA57" s="27"/>
+      <c r="AB57" s="27"/>
+      <c r="AC57" s="27"/>
+      <c r="AD57" s="27"/>
+      <c r="AE57" s="27"/>
+      <c r="AF57" s="27"/>
+      <c r="AG57" s="27"/>
+      <c r="AH57" s="27"/>
+      <c r="AI57" s="27"/>
+      <c r="AJ57" s="27"/>
+      <c r="AK57" s="27"/>
+      <c r="AL57" s="27"/>
+      <c r="AM57" s="27"/>
     </row>
     <row r="58" spans="4:39" ht="27.75" customHeight="1">
-      <c r="D58" s="12"/>
-      <c r="E58" s="12"/>
-      <c r="F58" s="12"/>
-      <c r="G58" s="12"/>
-      <c r="H58" s="12"/>
-      <c r="I58" s="12"/>
-      <c r="J58" s="12"/>
-      <c r="K58" s="12"/>
-      <c r="L58" s="12"/>
-      <c r="M58" s="12"/>
-      <c r="N58" s="12"/>
-      <c r="O58" s="12"/>
-      <c r="P58" s="12"/>
-      <c r="Q58" s="12"/>
-      <c r="R58" s="12"/>
-      <c r="S58" s="12"/>
-      <c r="T58" s="12"/>
-      <c r="U58" s="12"/>
-      <c r="V58" s="12"/>
-      <c r="W58" s="12"/>
-      <c r="X58" s="12"/>
-      <c r="Y58" s="12"/>
-      <c r="Z58" s="12"/>
-      <c r="AA58" s="12"/>
-      <c r="AB58" s="12"/>
-      <c r="AC58" s="12"/>
-      <c r="AD58" s="12"/>
-      <c r="AE58" s="12"/>
-      <c r="AF58" s="12"/>
-      <c r="AG58" s="12"/>
-      <c r="AH58" s="12"/>
-      <c r="AI58" s="12"/>
-      <c r="AJ58" s="12"/>
-      <c r="AK58" s="12"/>
-      <c r="AL58" s="12"/>
-      <c r="AM58" s="12"/>
+      <c r="D58" s="14" t="s">
+        <v>115</v>
+      </c>
+      <c r="E58" s="14"/>
+      <c r="F58" s="14"/>
+      <c r="G58" s="14"/>
+      <c r="H58" s="14"/>
+      <c r="I58" s="14"/>
+      <c r="J58" s="14" t="s">
+        <v>121</v>
+      </c>
+      <c r="K58" s="14"/>
+      <c r="L58" s="14"/>
+      <c r="M58" s="14"/>
+      <c r="N58" s="14"/>
+      <c r="O58" s="14"/>
+      <c r="P58" s="14"/>
+      <c r="Q58" s="14"/>
+      <c r="R58" s="14"/>
+      <c r="S58" s="14"/>
+      <c r="T58" s="14"/>
+      <c r="U58" s="14" t="s">
+        <v>122</v>
+      </c>
+      <c r="V58" s="14"/>
+      <c r="W58" s="14"/>
+      <c r="X58" s="14"/>
+      <c r="Y58" s="14"/>
+      <c r="Z58" s="14"/>
+      <c r="AA58" s="14"/>
+      <c r="AB58" s="14"/>
+      <c r="AC58" s="14"/>
+      <c r="AD58" s="14"/>
+      <c r="AE58" s="14"/>
+      <c r="AF58" s="14"/>
+      <c r="AG58" s="14"/>
+      <c r="AH58" s="14"/>
+      <c r="AI58" s="14"/>
+      <c r="AJ58" s="14"/>
+      <c r="AK58" s="14"/>
+      <c r="AL58" s="14"/>
+      <c r="AM58" s="14"/>
     </row>
     <row r="59" spans="4:39" ht="27.75" customHeight="1">
-      <c r="D59" s="12"/>
-      <c r="E59" s="12"/>
-      <c r="F59" s="12"/>
-      <c r="G59" s="12"/>
-      <c r="H59" s="12"/>
-      <c r="I59" s="12"/>
-      <c r="J59" s="12"/>
-      <c r="K59" s="12"/>
-      <c r="L59" s="12"/>
-      <c r="M59" s="12"/>
-      <c r="N59" s="12"/>
-      <c r="O59" s="12"/>
-      <c r="P59" s="12"/>
-      <c r="Q59" s="12"/>
-      <c r="R59" s="12"/>
-      <c r="S59" s="12"/>
-      <c r="T59" s="12"/>
-      <c r="U59" s="12"/>
-      <c r="V59" s="12"/>
-      <c r="W59" s="12"/>
-      <c r="X59" s="12"/>
-      <c r="Y59" s="12"/>
-      <c r="Z59" s="12"/>
-      <c r="AA59" s="12"/>
-      <c r="AB59" s="12"/>
-      <c r="AC59" s="12"/>
-      <c r="AD59" s="12"/>
-      <c r="AE59" s="12"/>
-      <c r="AF59" s="12"/>
-      <c r="AG59" s="12"/>
-      <c r="AH59" s="12"/>
-      <c r="AI59" s="12"/>
-      <c r="AJ59" s="12"/>
-      <c r="AK59" s="12"/>
-      <c r="AL59" s="12"/>
-      <c r="AM59" s="12"/>
+      <c r="D59" s="14" t="s">
+        <v>115</v>
+      </c>
+      <c r="E59" s="14"/>
+      <c r="F59" s="14"/>
+      <c r="G59" s="14"/>
+      <c r="H59" s="14"/>
+      <c r="I59" s="14"/>
+      <c r="J59" s="14" t="s">
+        <v>125</v>
+      </c>
+      <c r="K59" s="14"/>
+      <c r="L59" s="14"/>
+      <c r="M59" s="14"/>
+      <c r="N59" s="14"/>
+      <c r="O59" s="14"/>
+      <c r="P59" s="14"/>
+      <c r="Q59" s="14"/>
+      <c r="R59" s="14"/>
+      <c r="S59" s="14"/>
+      <c r="T59" s="14"/>
+      <c r="U59" s="14" t="s">
+        <v>127</v>
+      </c>
+      <c r="V59" s="14"/>
+      <c r="W59" s="14"/>
+      <c r="X59" s="14"/>
+      <c r="Y59" s="14"/>
+      <c r="Z59" s="14"/>
+      <c r="AA59" s="14"/>
+      <c r="AB59" s="14"/>
+      <c r="AC59" s="14"/>
+      <c r="AD59" s="14"/>
+      <c r="AE59" s="14"/>
+      <c r="AF59" s="14"/>
+      <c r="AG59" s="14"/>
+      <c r="AH59" s="14"/>
+      <c r="AI59" s="14"/>
+      <c r="AJ59" s="14"/>
+      <c r="AK59" s="14"/>
+      <c r="AL59" s="14"/>
+      <c r="AM59" s="14"/>
     </row>
     <row r="60" spans="4:39" ht="27.75" customHeight="1">
-      <c r="D60" s="12"/>
-      <c r="E60" s="12"/>
-      <c r="F60" s="12"/>
-      <c r="G60" s="12"/>
-      <c r="H60" s="12"/>
-      <c r="I60" s="12"/>
-      <c r="J60" s="12"/>
-      <c r="K60" s="12"/>
-      <c r="L60" s="12"/>
-      <c r="M60" s="12"/>
-      <c r="N60" s="12"/>
-      <c r="O60" s="12"/>
-      <c r="P60" s="12"/>
-      <c r="Q60" s="12"/>
-      <c r="R60" s="12"/>
-      <c r="S60" s="12"/>
-      <c r="T60" s="12"/>
-      <c r="U60" s="12"/>
-      <c r="V60" s="12"/>
-      <c r="W60" s="12"/>
-      <c r="X60" s="12"/>
-      <c r="Y60" s="12"/>
-      <c r="Z60" s="12"/>
-      <c r="AA60" s="12"/>
-      <c r="AB60" s="12"/>
-      <c r="AC60" s="12"/>
-      <c r="AD60" s="12"/>
-      <c r="AE60" s="12"/>
-      <c r="AF60" s="12"/>
-      <c r="AG60" s="12"/>
-      <c r="AH60" s="12"/>
-      <c r="AI60" s="12"/>
-      <c r="AJ60" s="12"/>
-      <c r="AK60" s="12"/>
-      <c r="AL60" s="12"/>
-      <c r="AM60" s="12"/>
+      <c r="D60" s="14" t="s">
+        <v>115</v>
+      </c>
+      <c r="E60" s="14"/>
+      <c r="F60" s="14"/>
+      <c r="G60" s="14"/>
+      <c r="H60" s="14"/>
+      <c r="I60" s="14"/>
+      <c r="J60" s="14" t="s">
+        <v>128</v>
+      </c>
+      <c r="K60" s="14"/>
+      <c r="L60" s="14"/>
+      <c r="M60" s="14"/>
+      <c r="N60" s="14"/>
+      <c r="O60" s="14"/>
+      <c r="P60" s="14"/>
+      <c r="Q60" s="14"/>
+      <c r="R60" s="14"/>
+      <c r="S60" s="14"/>
+      <c r="T60" s="14"/>
+      <c r="U60" s="14" t="s">
+        <v>130</v>
+      </c>
+      <c r="V60" s="14"/>
+      <c r="W60" s="14"/>
+      <c r="X60" s="14"/>
+      <c r="Y60" s="14"/>
+      <c r="Z60" s="14"/>
+      <c r="AA60" s="14"/>
+      <c r="AB60" s="14"/>
+      <c r="AC60" s="14"/>
+      <c r="AD60" s="14"/>
+      <c r="AE60" s="14"/>
+      <c r="AF60" s="14"/>
+      <c r="AG60" s="14"/>
+      <c r="AH60" s="14"/>
+      <c r="AI60" s="14"/>
+      <c r="AJ60" s="14"/>
+      <c r="AK60" s="14"/>
+      <c r="AL60" s="14"/>
+      <c r="AM60" s="14"/>
     </row>
     <row r="61" spans="4:39" ht="27.75" customHeight="1">
-      <c r="D61" s="12"/>
-      <c r="E61" s="12"/>
-      <c r="F61" s="12"/>
-      <c r="G61" s="12"/>
-      <c r="H61" s="12"/>
-      <c r="I61" s="12"/>
-      <c r="J61" s="12"/>
-      <c r="K61" s="12"/>
-      <c r="L61" s="12"/>
-      <c r="M61" s="12"/>
-      <c r="N61" s="12"/>
-      <c r="O61" s="12"/>
-      <c r="P61" s="12"/>
-      <c r="Q61" s="12"/>
-      <c r="R61" s="12"/>
-      <c r="S61" s="12"/>
-      <c r="T61" s="12"/>
-      <c r="U61" s="12"/>
-      <c r="V61" s="12"/>
-      <c r="W61" s="12"/>
-      <c r="X61" s="12"/>
-      <c r="Y61" s="12"/>
-      <c r="Z61" s="12"/>
-      <c r="AA61" s="12"/>
-      <c r="AB61" s="12"/>
-      <c r="AC61" s="12"/>
-      <c r="AD61" s="12"/>
-      <c r="AE61" s="12"/>
-      <c r="AF61" s="12"/>
-      <c r="AG61" s="12"/>
-      <c r="AH61" s="12"/>
-      <c r="AI61" s="12"/>
-      <c r="AJ61" s="12"/>
-      <c r="AK61" s="12"/>
-      <c r="AL61" s="12"/>
-      <c r="AM61" s="12"/>
+      <c r="D61" s="14" t="s">
+        <v>123</v>
+      </c>
+      <c r="E61" s="14"/>
+      <c r="F61" s="14"/>
+      <c r="G61" s="14"/>
+      <c r="H61" s="14"/>
+      <c r="I61" s="14"/>
+      <c r="J61" s="14" t="s">
+        <v>124</v>
+      </c>
+      <c r="K61" s="14"/>
+      <c r="L61" s="14"/>
+      <c r="M61" s="14"/>
+      <c r="N61" s="14"/>
+      <c r="O61" s="14"/>
+      <c r="P61" s="14"/>
+      <c r="Q61" s="14"/>
+      <c r="R61" s="14"/>
+      <c r="S61" s="14"/>
+      <c r="T61" s="14"/>
+      <c r="U61" s="14"/>
+      <c r="V61" s="14"/>
+      <c r="W61" s="14"/>
+      <c r="X61" s="14"/>
+      <c r="Y61" s="14"/>
+      <c r="Z61" s="14"/>
+      <c r="AA61" s="14"/>
+      <c r="AB61" s="14"/>
+      <c r="AC61" s="14"/>
+      <c r="AD61" s="14"/>
+      <c r="AE61" s="14"/>
+      <c r="AF61" s="14"/>
+      <c r="AG61" s="14"/>
+      <c r="AH61" s="14"/>
+      <c r="AI61" s="14"/>
+      <c r="AJ61" s="14"/>
+      <c r="AK61" s="14"/>
+      <c r="AL61" s="14"/>
+      <c r="AM61" s="14"/>
     </row>
     <row r="62" spans="4:39" ht="27.75" customHeight="1">
-      <c r="D62" s="12"/>
-      <c r="E62" s="12"/>
-      <c r="F62" s="12"/>
-      <c r="G62" s="12"/>
-      <c r="H62" s="12"/>
-      <c r="I62" s="12"/>
-      <c r="J62" s="12"/>
-      <c r="K62" s="12"/>
-      <c r="L62" s="12"/>
-      <c r="M62" s="12"/>
-      <c r="N62" s="12"/>
-      <c r="O62" s="12"/>
-      <c r="P62" s="12"/>
-      <c r="Q62" s="12"/>
-      <c r="R62" s="12"/>
-      <c r="S62" s="12"/>
-      <c r="T62" s="12"/>
-      <c r="U62" s="12"/>
-      <c r="V62" s="12"/>
-      <c r="W62" s="12"/>
-      <c r="X62" s="12"/>
-      <c r="Y62" s="12"/>
-      <c r="Z62" s="12"/>
-      <c r="AA62" s="12"/>
-      <c r="AB62" s="12"/>
-      <c r="AC62" s="12"/>
-      <c r="AD62" s="12"/>
-      <c r="AE62" s="12"/>
-      <c r="AF62" s="12"/>
-      <c r="AG62" s="12"/>
-      <c r="AH62" s="12"/>
-      <c r="AI62" s="12"/>
-      <c r="AJ62" s="12"/>
-      <c r="AK62" s="12"/>
-      <c r="AL62" s="12"/>
-      <c r="AM62" s="12"/>
+      <c r="D62" s="14"/>
+      <c r="E62" s="14"/>
+      <c r="F62" s="14"/>
+      <c r="G62" s="14"/>
+      <c r="H62" s="14"/>
+      <c r="I62" s="14"/>
+      <c r="J62" s="14"/>
+      <c r="K62" s="14"/>
+      <c r="L62" s="14"/>
+      <c r="M62" s="14"/>
+      <c r="N62" s="14"/>
+      <c r="O62" s="14"/>
+      <c r="P62" s="14"/>
+      <c r="Q62" s="14"/>
+      <c r="R62" s="14"/>
+      <c r="S62" s="14"/>
+      <c r="T62" s="14"/>
+      <c r="U62" s="14"/>
+      <c r="V62" s="14"/>
+      <c r="W62" s="14"/>
+      <c r="X62" s="14"/>
+      <c r="Y62" s="14"/>
+      <c r="Z62" s="14"/>
+      <c r="AA62" s="14"/>
+      <c r="AB62" s="14"/>
+      <c r="AC62" s="14"/>
+      <c r="AD62" s="14"/>
+      <c r="AE62" s="14"/>
+      <c r="AF62" s="14"/>
+      <c r="AG62" s="14"/>
+      <c r="AH62" s="14"/>
+      <c r="AI62" s="14"/>
+      <c r="AJ62" s="14"/>
+      <c r="AK62" s="14"/>
+      <c r="AL62" s="14"/>
+      <c r="AM62" s="14"/>
     </row>
     <row r="63" spans="4:39" ht="27.75" customHeight="1">
-      <c r="D63" s="12"/>
-      <c r="E63" s="12"/>
-      <c r="F63" s="12"/>
-      <c r="G63" s="12"/>
-      <c r="H63" s="12"/>
-      <c r="I63" s="12"/>
-      <c r="J63" s="12"/>
-      <c r="K63" s="12"/>
-      <c r="L63" s="12"/>
-      <c r="M63" s="12"/>
-      <c r="N63" s="12"/>
-      <c r="O63" s="12"/>
-      <c r="P63" s="12"/>
-      <c r="Q63" s="12"/>
-      <c r="R63" s="12"/>
-      <c r="S63" s="12"/>
-      <c r="T63" s="12"/>
-      <c r="U63" s="12"/>
-      <c r="V63" s="12"/>
-      <c r="W63" s="12"/>
-      <c r="X63" s="12"/>
-      <c r="Y63" s="12"/>
-      <c r="Z63" s="12"/>
-      <c r="AA63" s="12"/>
-      <c r="AB63" s="12"/>
-      <c r="AC63" s="12"/>
-      <c r="AD63" s="12"/>
-      <c r="AE63" s="12"/>
-      <c r="AF63" s="12"/>
-      <c r="AG63" s="12"/>
-      <c r="AH63" s="12"/>
-      <c r="AI63" s="12"/>
-      <c r="AJ63" s="12"/>
-      <c r="AK63" s="12"/>
-      <c r="AL63" s="12"/>
-      <c r="AM63" s="12"/>
+      <c r="D63" s="14"/>
+      <c r="E63" s="14"/>
+      <c r="F63" s="14"/>
+      <c r="G63" s="14"/>
+      <c r="H63" s="14"/>
+      <c r="I63" s="14"/>
+      <c r="J63" s="14"/>
+      <c r="K63" s="14"/>
+      <c r="L63" s="14"/>
+      <c r="M63" s="14"/>
+      <c r="N63" s="14"/>
+      <c r="O63" s="14"/>
+      <c r="P63" s="14"/>
+      <c r="Q63" s="14"/>
+      <c r="R63" s="14"/>
+      <c r="S63" s="14"/>
+      <c r="T63" s="14"/>
+      <c r="U63" s="14"/>
+      <c r="V63" s="14"/>
+      <c r="W63" s="14"/>
+      <c r="X63" s="14"/>
+      <c r="Y63" s="14"/>
+      <c r="Z63" s="14"/>
+      <c r="AA63" s="14"/>
+      <c r="AB63" s="14"/>
+      <c r="AC63" s="14"/>
+      <c r="AD63" s="14"/>
+      <c r="AE63" s="14"/>
+      <c r="AF63" s="14"/>
+      <c r="AG63" s="14"/>
+      <c r="AH63" s="14"/>
+      <c r="AI63" s="14"/>
+      <c r="AJ63" s="14"/>
+      <c r="AK63" s="14"/>
+      <c r="AL63" s="14"/>
+      <c r="AM63" s="14"/>
     </row>
     <row r="64" spans="4:39" ht="27.75" customHeight="1">
-      <c r="D64" s="12"/>
-      <c r="E64" s="12"/>
-      <c r="F64" s="12"/>
-      <c r="G64" s="12"/>
-      <c r="H64" s="12"/>
-      <c r="I64" s="12"/>
-      <c r="J64" s="12"/>
-      <c r="K64" s="12"/>
-      <c r="L64" s="12"/>
-      <c r="M64" s="12"/>
-      <c r="N64" s="12"/>
-      <c r="O64" s="12"/>
-      <c r="P64" s="12"/>
-      <c r="Q64" s="12"/>
-      <c r="R64" s="12"/>
-      <c r="S64" s="12"/>
-      <c r="T64" s="12"/>
-      <c r="U64" s="12"/>
-      <c r="V64" s="12"/>
-      <c r="W64" s="12"/>
-      <c r="X64" s="12"/>
-      <c r="Y64" s="12"/>
-      <c r="Z64" s="12"/>
-      <c r="AA64" s="12"/>
-      <c r="AB64" s="12"/>
-      <c r="AC64" s="12"/>
-      <c r="AD64" s="12"/>
-      <c r="AE64" s="12"/>
-      <c r="AF64" s="12"/>
-      <c r="AG64" s="12"/>
-      <c r="AH64" s="12"/>
-      <c r="AI64" s="12"/>
-      <c r="AJ64" s="12"/>
-      <c r="AK64" s="12"/>
-      <c r="AL64" s="12"/>
-      <c r="AM64" s="12"/>
+      <c r="D64" s="14"/>
+      <c r="E64" s="14"/>
+      <c r="F64" s="14"/>
+      <c r="G64" s="14"/>
+      <c r="H64" s="14"/>
+      <c r="I64" s="14"/>
+      <c r="J64" s="14"/>
+      <c r="K64" s="14"/>
+      <c r="L64" s="14"/>
+      <c r="M64" s="14"/>
+      <c r="N64" s="14"/>
+      <c r="O64" s="14"/>
+      <c r="P64" s="14"/>
+      <c r="Q64" s="14"/>
+      <c r="R64" s="14"/>
+      <c r="S64" s="14"/>
+      <c r="T64" s="14"/>
+      <c r="U64" s="14"/>
+      <c r="V64" s="14"/>
+      <c r="W64" s="14"/>
+      <c r="X64" s="14"/>
+      <c r="Y64" s="14"/>
+      <c r="Z64" s="14"/>
+      <c r="AA64" s="14"/>
+      <c r="AB64" s="14"/>
+      <c r="AC64" s="14"/>
+      <c r="AD64" s="14"/>
+      <c r="AE64" s="14"/>
+      <c r="AF64" s="14"/>
+      <c r="AG64" s="14"/>
+      <c r="AH64" s="14"/>
+      <c r="AI64" s="14"/>
+      <c r="AJ64" s="14"/>
+      <c r="AK64" s="14"/>
+      <c r="AL64" s="14"/>
+      <c r="AM64" s="14"/>
     </row>
     <row r="65" spans="4:39" ht="27.75" customHeight="1">
-      <c r="D65" s="12"/>
-      <c r="E65" s="12"/>
-      <c r="F65" s="12"/>
-      <c r="G65" s="12"/>
-      <c r="H65" s="12"/>
-      <c r="I65" s="12"/>
-      <c r="J65" s="12"/>
-      <c r="K65" s="12"/>
-      <c r="L65" s="12"/>
-      <c r="M65" s="12"/>
-      <c r="N65" s="12"/>
-      <c r="O65" s="12"/>
-      <c r="P65" s="12"/>
-      <c r="Q65" s="12"/>
-      <c r="R65" s="12"/>
-      <c r="S65" s="12"/>
-      <c r="T65" s="12"/>
-      <c r="U65" s="12"/>
-      <c r="V65" s="12"/>
-      <c r="W65" s="12"/>
-      <c r="X65" s="12"/>
-      <c r="Y65" s="12"/>
-      <c r="Z65" s="12"/>
-      <c r="AA65" s="12"/>
-      <c r="AB65" s="12"/>
-      <c r="AC65" s="12"/>
-      <c r="AD65" s="12"/>
-      <c r="AE65" s="12"/>
-      <c r="AF65" s="12"/>
-      <c r="AG65" s="12"/>
-      <c r="AH65" s="12"/>
-      <c r="AI65" s="12"/>
-      <c r="AJ65" s="12"/>
-      <c r="AK65" s="12"/>
-      <c r="AL65" s="12"/>
-      <c r="AM65" s="12"/>
+      <c r="D65" s="14"/>
+      <c r="E65" s="14"/>
+      <c r="F65" s="14"/>
+      <c r="G65" s="14"/>
+      <c r="H65" s="14"/>
+      <c r="I65" s="14"/>
+      <c r="J65" s="14"/>
+      <c r="K65" s="14"/>
+      <c r="L65" s="14"/>
+      <c r="M65" s="14"/>
+      <c r="N65" s="14"/>
+      <c r="O65" s="14"/>
+      <c r="P65" s="14"/>
+      <c r="Q65" s="14"/>
+      <c r="R65" s="14"/>
+      <c r="S65" s="14"/>
+      <c r="T65" s="14"/>
+      <c r="U65" s="14"/>
+      <c r="V65" s="14"/>
+      <c r="W65" s="14"/>
+      <c r="X65" s="14"/>
+      <c r="Y65" s="14"/>
+      <c r="Z65" s="14"/>
+      <c r="AA65" s="14"/>
+      <c r="AB65" s="14"/>
+      <c r="AC65" s="14"/>
+      <c r="AD65" s="14"/>
+      <c r="AE65" s="14"/>
+      <c r="AF65" s="14"/>
+      <c r="AG65" s="14"/>
+      <c r="AH65" s="14"/>
+      <c r="AI65" s="14"/>
+      <c r="AJ65" s="14"/>
+      <c r="AK65" s="14"/>
+      <c r="AL65" s="14"/>
+      <c r="AM65" s="14"/>
     </row>
     <row r="66" spans="4:39" ht="27.75" customHeight="1">
-      <c r="D66" s="12"/>
-      <c r="E66" s="12"/>
-      <c r="F66" s="12"/>
-      <c r="G66" s="12"/>
-      <c r="H66" s="12"/>
-      <c r="I66" s="12"/>
-      <c r="J66" s="12"/>
-      <c r="K66" s="12"/>
-      <c r="L66" s="12"/>
-      <c r="M66" s="12"/>
-      <c r="N66" s="12"/>
-      <c r="O66" s="12"/>
-      <c r="P66" s="12"/>
-      <c r="Q66" s="12"/>
-      <c r="R66" s="12"/>
-      <c r="S66" s="12"/>
-      <c r="T66" s="12"/>
-      <c r="U66" s="12"/>
-      <c r="V66" s="12"/>
-      <c r="W66" s="12"/>
-      <c r="X66" s="12"/>
-      <c r="Y66" s="12"/>
-      <c r="Z66" s="12"/>
-      <c r="AA66" s="12"/>
-      <c r="AB66" s="12"/>
-      <c r="AC66" s="12"/>
-      <c r="AD66" s="12"/>
-      <c r="AE66" s="12"/>
-      <c r="AF66" s="12"/>
-      <c r="AG66" s="12"/>
-      <c r="AH66" s="12"/>
-      <c r="AI66" s="12"/>
-      <c r="AJ66" s="12"/>
-      <c r="AK66" s="12"/>
-      <c r="AL66" s="12"/>
-      <c r="AM66" s="12"/>
+      <c r="D66" s="14"/>
+      <c r="E66" s="14"/>
+      <c r="F66" s="14"/>
+      <c r="G66" s="14"/>
+      <c r="H66" s="14"/>
+      <c r="I66" s="14"/>
+      <c r="J66" s="14"/>
+      <c r="K66" s="14"/>
+      <c r="L66" s="14"/>
+      <c r="M66" s="14"/>
+      <c r="N66" s="14"/>
+      <c r="O66" s="14"/>
+      <c r="P66" s="14"/>
+      <c r="Q66" s="14"/>
+      <c r="R66" s="14"/>
+      <c r="S66" s="14"/>
+      <c r="T66" s="14"/>
+      <c r="U66" s="14"/>
+      <c r="V66" s="14"/>
+      <c r="W66" s="14"/>
+      <c r="X66" s="14"/>
+      <c r="Y66" s="14"/>
+      <c r="Z66" s="14"/>
+      <c r="AA66" s="14"/>
+      <c r="AB66" s="14"/>
+      <c r="AC66" s="14"/>
+      <c r="AD66" s="14"/>
+      <c r="AE66" s="14"/>
+      <c r="AF66" s="14"/>
+      <c r="AG66" s="14"/>
+      <c r="AH66" s="14"/>
+      <c r="AI66" s="14"/>
+      <c r="AJ66" s="14"/>
+      <c r="AK66" s="14"/>
+      <c r="AL66" s="14"/>
+      <c r="AM66" s="14"/>
     </row>
     <row r="67" spans="4:39" ht="27.75" customHeight="1">
-      <c r="D67" s="12"/>
-      <c r="E67" s="12"/>
-      <c r="F67" s="12"/>
-      <c r="G67" s="12"/>
-      <c r="H67" s="12"/>
-      <c r="I67" s="12"/>
-      <c r="J67" s="12"/>
-      <c r="K67" s="12"/>
-      <c r="L67" s="12"/>
-      <c r="M67" s="12"/>
-      <c r="N67" s="12"/>
-      <c r="O67" s="12"/>
-      <c r="P67" s="12"/>
-      <c r="Q67" s="12"/>
-      <c r="R67" s="12"/>
-      <c r="S67" s="12"/>
-      <c r="T67" s="12"/>
-      <c r="U67" s="12"/>
-      <c r="V67" s="12"/>
-      <c r="W67" s="12"/>
-      <c r="X67" s="12"/>
-      <c r="Y67" s="12"/>
-      <c r="Z67" s="12"/>
-      <c r="AA67" s="12"/>
-      <c r="AB67" s="12"/>
-      <c r="AC67" s="12"/>
-      <c r="AD67" s="12"/>
-      <c r="AE67" s="12"/>
-      <c r="AF67" s="12"/>
-      <c r="AG67" s="12"/>
-      <c r="AH67" s="12"/>
-      <c r="AI67" s="12"/>
-      <c r="AJ67" s="12"/>
-      <c r="AK67" s="12"/>
-      <c r="AL67" s="12"/>
-      <c r="AM67" s="12"/>
+      <c r="D67" s="14"/>
+      <c r="E67" s="14"/>
+      <c r="F67" s="14"/>
+      <c r="G67" s="14"/>
+      <c r="H67" s="14"/>
+      <c r="I67" s="14"/>
+      <c r="J67" s="14"/>
+      <c r="K67" s="14"/>
+      <c r="L67" s="14"/>
+      <c r="M67" s="14"/>
+      <c r="N67" s="14"/>
+      <c r="O67" s="14"/>
+      <c r="P67" s="14"/>
+      <c r="Q67" s="14"/>
+      <c r="R67" s="14"/>
+      <c r="S67" s="14"/>
+      <c r="T67" s="14"/>
+      <c r="U67" s="14"/>
+      <c r="V67" s="14"/>
+      <c r="W67" s="14"/>
+      <c r="X67" s="14"/>
+      <c r="Y67" s="14"/>
+      <c r="Z67" s="14"/>
+      <c r="AA67" s="14"/>
+      <c r="AB67" s="14"/>
+      <c r="AC67" s="14"/>
+      <c r="AD67" s="14"/>
+      <c r="AE67" s="14"/>
+      <c r="AF67" s="14"/>
+      <c r="AG67" s="14"/>
+      <c r="AH67" s="14"/>
+      <c r="AI67" s="14"/>
+      <c r="AJ67" s="14"/>
+      <c r="AK67" s="14"/>
+      <c r="AL67" s="14"/>
+      <c r="AM67" s="14"/>
     </row>
     <row r="68" spans="4:39" ht="27.75" customHeight="1">
-      <c r="D68" s="12"/>
-      <c r="E68" s="12"/>
-      <c r="F68" s="12"/>
-      <c r="G68" s="12"/>
-      <c r="H68" s="12"/>
-      <c r="I68" s="12"/>
-      <c r="J68" s="12"/>
-      <c r="K68" s="12"/>
-      <c r="L68" s="12"/>
-      <c r="M68" s="12"/>
-      <c r="N68" s="12"/>
-      <c r="O68" s="12"/>
-      <c r="P68" s="12"/>
-      <c r="Q68" s="12"/>
-      <c r="R68" s="12"/>
-      <c r="S68" s="12"/>
-      <c r="T68" s="12"/>
-      <c r="U68" s="12"/>
-      <c r="V68" s="12"/>
-      <c r="W68" s="12"/>
-      <c r="X68" s="12"/>
-      <c r="Y68" s="12"/>
-      <c r="Z68" s="12"/>
-      <c r="AA68" s="12"/>
-      <c r="AB68" s="12"/>
-      <c r="AC68" s="12"/>
-      <c r="AD68" s="12"/>
-      <c r="AE68" s="12"/>
-      <c r="AF68" s="12"/>
-      <c r="AG68" s="12"/>
-      <c r="AH68" s="12"/>
-      <c r="AI68" s="12"/>
-      <c r="AJ68" s="12"/>
-      <c r="AK68" s="12"/>
-      <c r="AL68" s="12"/>
-      <c r="AM68" s="12"/>
+      <c r="D68" s="14"/>
+      <c r="E68" s="14"/>
+      <c r="F68" s="14"/>
+      <c r="G68" s="14"/>
+      <c r="H68" s="14"/>
+      <c r="I68" s="14"/>
+      <c r="J68" s="14"/>
+      <c r="K68" s="14"/>
+      <c r="L68" s="14"/>
+      <c r="M68" s="14"/>
+      <c r="N68" s="14"/>
+      <c r="O68" s="14"/>
+      <c r="P68" s="14"/>
+      <c r="Q68" s="14"/>
+      <c r="R68" s="14"/>
+      <c r="S68" s="14"/>
+      <c r="T68" s="14"/>
+      <c r="U68" s="14"/>
+      <c r="V68" s="14"/>
+      <c r="W68" s="14"/>
+      <c r="X68" s="14"/>
+      <c r="Y68" s="14"/>
+      <c r="Z68" s="14"/>
+      <c r="AA68" s="14"/>
+      <c r="AB68" s="14"/>
+      <c r="AC68" s="14"/>
+      <c r="AD68" s="14"/>
+      <c r="AE68" s="14"/>
+      <c r="AF68" s="14"/>
+      <c r="AG68" s="14"/>
+      <c r="AH68" s="14"/>
+      <c r="AI68" s="14"/>
+      <c r="AJ68" s="14"/>
+      <c r="AK68" s="14"/>
+      <c r="AL68" s="14"/>
+      <c r="AM68" s="14"/>
     </row>
     <row r="69" spans="4:39" ht="27.75" customHeight="1">
-      <c r="D69" s="12"/>
-      <c r="E69" s="12"/>
-      <c r="F69" s="12"/>
-      <c r="G69" s="12"/>
-      <c r="H69" s="12"/>
-      <c r="I69" s="12"/>
-      <c r="J69" s="12"/>
-      <c r="K69" s="12"/>
-      <c r="L69" s="12"/>
-      <c r="M69" s="12"/>
-      <c r="N69" s="12"/>
-      <c r="O69" s="12"/>
-      <c r="P69" s="12"/>
-      <c r="Q69" s="12"/>
-      <c r="R69" s="12"/>
-      <c r="S69" s="12"/>
-      <c r="T69" s="12"/>
-      <c r="U69" s="12"/>
-      <c r="V69" s="12"/>
-      <c r="W69" s="12"/>
-      <c r="X69" s="12"/>
-      <c r="Y69" s="12"/>
-      <c r="Z69" s="12"/>
-      <c r="AA69" s="12"/>
-      <c r="AB69" s="12"/>
-      <c r="AC69" s="12"/>
-      <c r="AD69" s="12"/>
-      <c r="AE69" s="12"/>
-      <c r="AF69" s="12"/>
-      <c r="AG69" s="12"/>
-      <c r="AH69" s="12"/>
-      <c r="AI69" s="12"/>
-      <c r="AJ69" s="12"/>
-      <c r="AK69" s="12"/>
-      <c r="AL69" s="12"/>
-      <c r="AM69" s="12"/>
+      <c r="D69" s="14"/>
+      <c r="E69" s="14"/>
+      <c r="F69" s="14"/>
+      <c r="G69" s="14"/>
+      <c r="H69" s="14"/>
+      <c r="I69" s="14"/>
+      <c r="J69" s="14"/>
+      <c r="K69" s="14"/>
+      <c r="L69" s="14"/>
+      <c r="M69" s="14"/>
+      <c r="N69" s="14"/>
+      <c r="O69" s="14"/>
+      <c r="P69" s="14"/>
+      <c r="Q69" s="14"/>
+      <c r="R69" s="14"/>
+      <c r="S69" s="14"/>
+      <c r="T69" s="14"/>
+      <c r="U69" s="14"/>
+      <c r="V69" s="14"/>
+      <c r="W69" s="14"/>
+      <c r="X69" s="14"/>
+      <c r="Y69" s="14"/>
+      <c r="Z69" s="14"/>
+      <c r="AA69" s="14"/>
+      <c r="AB69" s="14"/>
+      <c r="AC69" s="14"/>
+      <c r="AD69" s="14"/>
+      <c r="AE69" s="14"/>
+      <c r="AF69" s="14"/>
+      <c r="AG69" s="14"/>
+      <c r="AH69" s="14"/>
+      <c r="AI69" s="14"/>
+      <c r="AJ69" s="14"/>
+      <c r="AK69" s="14"/>
+      <c r="AL69" s="14"/>
+      <c r="AM69" s="14"/>
     </row>
     <row r="70" spans="4:39" ht="27.75" customHeight="1">
-      <c r="D70" s="12"/>
-      <c r="E70" s="12"/>
-      <c r="F70" s="12"/>
-      <c r="G70" s="12"/>
-      <c r="H70" s="12"/>
-      <c r="I70" s="12"/>
-      <c r="J70" s="12"/>
-      <c r="K70" s="12"/>
-      <c r="L70" s="12"/>
-      <c r="M70" s="12"/>
-      <c r="N70" s="12"/>
-      <c r="O70" s="12"/>
-      <c r="P70" s="12"/>
-      <c r="Q70" s="12"/>
-      <c r="R70" s="12"/>
-      <c r="S70" s="12"/>
-      <c r="T70" s="12"/>
-      <c r="U70" s="12"/>
-      <c r="V70" s="12"/>
-      <c r="W70" s="12"/>
-      <c r="X70" s="12"/>
-      <c r="Y70" s="12"/>
-      <c r="Z70" s="12"/>
-      <c r="AA70" s="12"/>
-      <c r="AB70" s="12"/>
-      <c r="AC70" s="12"/>
-      <c r="AD70" s="12"/>
-      <c r="AE70" s="12"/>
-      <c r="AF70" s="12"/>
-      <c r="AG70" s="12"/>
-      <c r="AH70" s="12"/>
-      <c r="AI70" s="12"/>
-      <c r="AJ70" s="12"/>
-      <c r="AK70" s="12"/>
-      <c r="AL70" s="12"/>
-      <c r="AM70" s="12"/>
+      <c r="D70" s="14"/>
+      <c r="E70" s="14"/>
+      <c r="F70" s="14"/>
+      <c r="G70" s="14"/>
+      <c r="H70" s="14"/>
+      <c r="I70" s="14"/>
+      <c r="J70" s="14"/>
+      <c r="K70" s="14"/>
+      <c r="L70" s="14"/>
+      <c r="M70" s="14"/>
+      <c r="N70" s="14"/>
+      <c r="O70" s="14"/>
+      <c r="P70" s="14"/>
+      <c r="Q70" s="14"/>
+      <c r="R70" s="14"/>
+      <c r="S70" s="14"/>
+      <c r="T70" s="14"/>
+      <c r="U70" s="14"/>
+      <c r="V70" s="14"/>
+      <c r="W70" s="14"/>
+      <c r="X70" s="14"/>
+      <c r="Y70" s="14"/>
+      <c r="Z70" s="14"/>
+      <c r="AA70" s="14"/>
+      <c r="AB70" s="14"/>
+      <c r="AC70" s="14"/>
+      <c r="AD70" s="14"/>
+      <c r="AE70" s="14"/>
+      <c r="AF70" s="14"/>
+      <c r="AG70" s="14"/>
+      <c r="AH70" s="14"/>
+      <c r="AI70" s="14"/>
+      <c r="AJ70" s="14"/>
+      <c r="AK70" s="14"/>
+      <c r="AL70" s="14"/>
+      <c r="AM70" s="14"/>
     </row>
     <row r="71" spans="4:39" ht="27.75" customHeight="1">
-      <c r="D71" s="12"/>
-      <c r="E71" s="12"/>
-      <c r="F71" s="12"/>
-      <c r="G71" s="12"/>
-      <c r="H71" s="12"/>
-      <c r="I71" s="12"/>
-      <c r="J71" s="12"/>
-      <c r="K71" s="12"/>
-      <c r="L71" s="12"/>
-      <c r="M71" s="12"/>
-      <c r="N71" s="12"/>
-      <c r="O71" s="12"/>
-      <c r="P71" s="12"/>
-      <c r="Q71" s="12"/>
-      <c r="R71" s="12"/>
-      <c r="S71" s="12"/>
-      <c r="T71" s="12"/>
-      <c r="U71" s="12"/>
-      <c r="V71" s="12"/>
-      <c r="W71" s="12"/>
-      <c r="X71" s="12"/>
-      <c r="Y71" s="12"/>
-      <c r="Z71" s="12"/>
-      <c r="AA71" s="12"/>
-      <c r="AB71" s="12"/>
-      <c r="AC71" s="12"/>
-      <c r="AD71" s="12"/>
-      <c r="AE71" s="12"/>
-      <c r="AF71" s="12"/>
-      <c r="AG71" s="12"/>
-      <c r="AH71" s="12"/>
-      <c r="AI71" s="12"/>
-      <c r="AJ71" s="12"/>
-      <c r="AK71" s="12"/>
-      <c r="AL71" s="12"/>
-      <c r="AM71" s="12"/>
+      <c r="D71" s="14"/>
+      <c r="E71" s="14"/>
+      <c r="F71" s="14"/>
+      <c r="G71" s="14"/>
+      <c r="H71" s="14"/>
+      <c r="I71" s="14"/>
+      <c r="J71" s="14"/>
+      <c r="K71" s="14"/>
+      <c r="L71" s="14"/>
+      <c r="M71" s="14"/>
+      <c r="N71" s="14"/>
+      <c r="O71" s="14"/>
+      <c r="P71" s="14"/>
+      <c r="Q71" s="14"/>
+      <c r="R71" s="14"/>
+      <c r="S71" s="14"/>
+      <c r="T71" s="14"/>
+      <c r="U71" s="14"/>
+      <c r="V71" s="14"/>
+      <c r="W71" s="14"/>
+      <c r="X71" s="14"/>
+      <c r="Y71" s="14"/>
+      <c r="Z71" s="14"/>
+      <c r="AA71" s="14"/>
+      <c r="AB71" s="14"/>
+      <c r="AC71" s="14"/>
+      <c r="AD71" s="14"/>
+      <c r="AE71" s="14"/>
+      <c r="AF71" s="14"/>
+      <c r="AG71" s="14"/>
+      <c r="AH71" s="14"/>
+      <c r="AI71" s="14"/>
+      <c r="AJ71" s="14"/>
+      <c r="AK71" s="14"/>
+      <c r="AL71" s="14"/>
+      <c r="AM71" s="14"/>
     </row>
     <row r="72" spans="4:39" ht="27.75" customHeight="1">
-      <c r="D72" s="12"/>
-      <c r="E72" s="12"/>
-      <c r="F72" s="12"/>
-      <c r="G72" s="12"/>
-      <c r="H72" s="12"/>
-      <c r="I72" s="12"/>
-      <c r="J72" s="12"/>
-      <c r="K72" s="12"/>
-      <c r="L72" s="12"/>
-      <c r="M72" s="12"/>
-      <c r="N72" s="12"/>
-      <c r="O72" s="12"/>
-      <c r="P72" s="12"/>
-      <c r="Q72" s="12"/>
-      <c r="R72" s="12"/>
-      <c r="S72" s="12"/>
-      <c r="T72" s="12"/>
-      <c r="U72" s="12"/>
-      <c r="V72" s="12"/>
-      <c r="W72" s="12"/>
-      <c r="X72" s="12"/>
-      <c r="Y72" s="12"/>
-      <c r="Z72" s="12"/>
-      <c r="AA72" s="12"/>
-      <c r="AB72" s="12"/>
-      <c r="AC72" s="12"/>
-      <c r="AD72" s="12"/>
-      <c r="AE72" s="12"/>
-      <c r="AF72" s="12"/>
-      <c r="AG72" s="12"/>
-      <c r="AH72" s="12"/>
-      <c r="AI72" s="12"/>
-      <c r="AJ72" s="12"/>
-      <c r="AK72" s="12"/>
-      <c r="AL72" s="12"/>
-      <c r="AM72" s="12"/>
+      <c r="D72" s="14"/>
+      <c r="E72" s="14"/>
+      <c r="F72" s="14"/>
+      <c r="G72" s="14"/>
+      <c r="H72" s="14"/>
+      <c r="I72" s="14"/>
+      <c r="J72" s="14"/>
+      <c r="K72" s="14"/>
+      <c r="L72" s="14"/>
+      <c r="M72" s="14"/>
+      <c r="N72" s="14"/>
+      <c r="O72" s="14"/>
+      <c r="P72" s="14"/>
+      <c r="Q72" s="14"/>
+      <c r="R72" s="14"/>
+      <c r="S72" s="14"/>
+      <c r="T72" s="14"/>
+      <c r="U72" s="14"/>
+      <c r="V72" s="14"/>
+      <c r="W72" s="14"/>
+      <c r="X72" s="14"/>
+      <c r="Y72" s="14"/>
+      <c r="Z72" s="14"/>
+      <c r="AA72" s="14"/>
+      <c r="AB72" s="14"/>
+      <c r="AC72" s="14"/>
+      <c r="AD72" s="14"/>
+      <c r="AE72" s="14"/>
+      <c r="AF72" s="14"/>
+      <c r="AG72" s="14"/>
+      <c r="AH72" s="14"/>
+      <c r="AI72" s="14"/>
+      <c r="AJ72" s="14"/>
+      <c r="AK72" s="14"/>
+      <c r="AL72" s="14"/>
+      <c r="AM72" s="14"/>
     </row>
     <row r="73" spans="4:39" ht="27.75" customHeight="1">
-      <c r="D73" s="12"/>
-      <c r="E73" s="12"/>
-      <c r="F73" s="12"/>
-      <c r="G73" s="12"/>
-      <c r="H73" s="12"/>
-      <c r="I73" s="12"/>
-      <c r="J73" s="12"/>
-      <c r="K73" s="12"/>
-      <c r="L73" s="12"/>
-      <c r="M73" s="12"/>
-      <c r="N73" s="12"/>
-      <c r="O73" s="12"/>
-      <c r="P73" s="12"/>
-      <c r="Q73" s="12"/>
-      <c r="R73" s="12"/>
-      <c r="S73" s="12"/>
-      <c r="T73" s="12"/>
-      <c r="U73" s="12"/>
-      <c r="V73" s="12"/>
-      <c r="W73" s="12"/>
-      <c r="X73" s="12"/>
-      <c r="Y73" s="12"/>
-      <c r="Z73" s="12"/>
-      <c r="AA73" s="12"/>
-      <c r="AB73" s="12"/>
-      <c r="AC73" s="12"/>
-      <c r="AD73" s="12"/>
-      <c r="AE73" s="12"/>
-      <c r="AF73" s="12"/>
-      <c r="AG73" s="12"/>
-      <c r="AH73" s="12"/>
-      <c r="AI73" s="12"/>
-      <c r="AJ73" s="12"/>
-      <c r="AK73" s="12"/>
-      <c r="AL73" s="12"/>
-      <c r="AM73" s="12"/>
+      <c r="D73" s="14"/>
+      <c r="E73" s="14"/>
+      <c r="F73" s="14"/>
+      <c r="G73" s="14"/>
+      <c r="H73" s="14"/>
+      <c r="I73" s="14"/>
+      <c r="J73" s="14"/>
+      <c r="K73" s="14"/>
+      <c r="L73" s="14"/>
+      <c r="M73" s="14"/>
+      <c r="N73" s="14"/>
+      <c r="O73" s="14"/>
+      <c r="P73" s="14"/>
+      <c r="Q73" s="14"/>
+      <c r="R73" s="14"/>
+      <c r="S73" s="14"/>
+      <c r="T73" s="14"/>
+      <c r="U73" s="14"/>
+      <c r="V73" s="14"/>
+      <c r="W73" s="14"/>
+      <c r="X73" s="14"/>
+      <c r="Y73" s="14"/>
+      <c r="Z73" s="14"/>
+      <c r="AA73" s="14"/>
+      <c r="AB73" s="14"/>
+      <c r="AC73" s="14"/>
+      <c r="AD73" s="14"/>
+      <c r="AE73" s="14"/>
+      <c r="AF73" s="14"/>
+      <c r="AG73" s="14"/>
+      <c r="AH73" s="14"/>
+      <c r="AI73" s="14"/>
+      <c r="AJ73" s="14"/>
+      <c r="AK73" s="14"/>
+      <c r="AL73" s="14"/>
+      <c r="AM73" s="14"/>
     </row>
     <row r="74" spans="4:39" ht="27.75" customHeight="1">
-      <c r="D74" s="12"/>
-      <c r="E74" s="12"/>
-      <c r="F74" s="12"/>
-      <c r="G74" s="12"/>
-      <c r="H74" s="12"/>
-      <c r="I74" s="12"/>
-      <c r="J74" s="12"/>
-      <c r="K74" s="12"/>
-      <c r="L74" s="12"/>
-      <c r="M74" s="12"/>
-      <c r="N74" s="12"/>
-      <c r="O74" s="12"/>
-      <c r="P74" s="12"/>
-      <c r="Q74" s="12"/>
-      <c r="R74" s="12"/>
-      <c r="S74" s="12"/>
-      <c r="T74" s="12"/>
-      <c r="U74" s="12"/>
-      <c r="V74" s="12"/>
-      <c r="W74" s="12"/>
-      <c r="X74" s="12"/>
-      <c r="Y74" s="12"/>
-      <c r="Z74" s="12"/>
-      <c r="AA74" s="12"/>
-      <c r="AB74" s="12"/>
-      <c r="AC74" s="12"/>
-      <c r="AD74" s="12"/>
-      <c r="AE74" s="12"/>
-      <c r="AF74" s="12"/>
-      <c r="AG74" s="12"/>
-      <c r="AH74" s="12"/>
-      <c r="AI74" s="12"/>
-      <c r="AJ74" s="12"/>
-      <c r="AK74" s="12"/>
-      <c r="AL74" s="12"/>
-      <c r="AM74" s="12"/>
+      <c r="D74" s="14"/>
+      <c r="E74" s="14"/>
+      <c r="F74" s="14"/>
+      <c r="G74" s="14"/>
+      <c r="H74" s="14"/>
+      <c r="I74" s="14"/>
+      <c r="J74" s="14"/>
+      <c r="K74" s="14"/>
+      <c r="L74" s="14"/>
+      <c r="M74" s="14"/>
+      <c r="N74" s="14"/>
+      <c r="O74" s="14"/>
+      <c r="P74" s="14"/>
+      <c r="Q74" s="14"/>
+      <c r="R74" s="14"/>
+      <c r="S74" s="14"/>
+      <c r="T74" s="14"/>
+      <c r="U74" s="14"/>
+      <c r="V74" s="14"/>
+      <c r="W74" s="14"/>
+      <c r="X74" s="14"/>
+      <c r="Y74" s="14"/>
+      <c r="Z74" s="14"/>
+      <c r="AA74" s="14"/>
+      <c r="AB74" s="14"/>
+      <c r="AC74" s="14"/>
+      <c r="AD74" s="14"/>
+      <c r="AE74" s="14"/>
+      <c r="AF74" s="14"/>
+      <c r="AG74" s="14"/>
+      <c r="AH74" s="14"/>
+      <c r="AI74" s="14"/>
+      <c r="AJ74" s="14"/>
+      <c r="AK74" s="14"/>
+      <c r="AL74" s="14"/>
+      <c r="AM74" s="14"/>
     </row>
     <row r="75" spans="4:39" ht="11.25" customHeight="1">
       <c r="D75" s="9"/>
@@ -5627,6 +5801,81 @@
     <protectedRange sqref="O24:O27 G35 G31 P31" name="入力項目"/>
   </protectedRanges>
   <mergeCells count="91">
+    <mergeCell ref="D71:I71"/>
+    <mergeCell ref="J71:T71"/>
+    <mergeCell ref="U71:AM71"/>
+    <mergeCell ref="D74:I74"/>
+    <mergeCell ref="J74:T74"/>
+    <mergeCell ref="U74:AM74"/>
+    <mergeCell ref="D72:I72"/>
+    <mergeCell ref="J72:T72"/>
+    <mergeCell ref="U72:AM72"/>
+    <mergeCell ref="D73:I73"/>
+    <mergeCell ref="J73:T73"/>
+    <mergeCell ref="U73:AM73"/>
+    <mergeCell ref="D69:I69"/>
+    <mergeCell ref="J69:T69"/>
+    <mergeCell ref="U69:AM69"/>
+    <mergeCell ref="D70:I70"/>
+    <mergeCell ref="J70:T70"/>
+    <mergeCell ref="U70:AM70"/>
+    <mergeCell ref="D67:I67"/>
+    <mergeCell ref="J67:T67"/>
+    <mergeCell ref="U67:AM67"/>
+    <mergeCell ref="D68:I68"/>
+    <mergeCell ref="J68:T68"/>
+    <mergeCell ref="U68:AM68"/>
+    <mergeCell ref="D65:I65"/>
+    <mergeCell ref="J65:T65"/>
+    <mergeCell ref="U65:AM65"/>
+    <mergeCell ref="D66:I66"/>
+    <mergeCell ref="J66:T66"/>
+    <mergeCell ref="U66:AM66"/>
+    <mergeCell ref="D63:I63"/>
+    <mergeCell ref="J63:T63"/>
+    <mergeCell ref="U63:AM63"/>
+    <mergeCell ref="D64:I64"/>
+    <mergeCell ref="J64:T64"/>
+    <mergeCell ref="U64:AM64"/>
+    <mergeCell ref="D61:I61"/>
+    <mergeCell ref="J61:T61"/>
+    <mergeCell ref="U61:AM61"/>
+    <mergeCell ref="D62:I62"/>
+    <mergeCell ref="J62:T62"/>
+    <mergeCell ref="U62:AM62"/>
+    <mergeCell ref="D59:I59"/>
+    <mergeCell ref="J59:T59"/>
+    <mergeCell ref="U59:AM59"/>
+    <mergeCell ref="D60:I60"/>
+    <mergeCell ref="J60:T60"/>
+    <mergeCell ref="U60:AM60"/>
+    <mergeCell ref="D57:I57"/>
+    <mergeCell ref="J57:T57"/>
+    <mergeCell ref="U57:AM57"/>
+    <mergeCell ref="D58:I58"/>
+    <mergeCell ref="J58:T58"/>
+    <mergeCell ref="U58:AM58"/>
+    <mergeCell ref="D55:I55"/>
+    <mergeCell ref="J55:T55"/>
+    <mergeCell ref="U55:AM55"/>
+    <mergeCell ref="D56:I56"/>
+    <mergeCell ref="J56:T56"/>
+    <mergeCell ref="U56:AM56"/>
+    <mergeCell ref="U49:AM49"/>
+    <mergeCell ref="J50:T50"/>
+    <mergeCell ref="U50:AM50"/>
+    <mergeCell ref="D54:I54"/>
+    <mergeCell ref="J54:T54"/>
+    <mergeCell ref="U54:AM54"/>
+    <mergeCell ref="AH4:AN6"/>
+    <mergeCell ref="P31:AJ31"/>
+    <mergeCell ref="G35:AJ35"/>
+    <mergeCell ref="G31:O31"/>
+    <mergeCell ref="O27:V27"/>
+    <mergeCell ref="O24:AA24"/>
+    <mergeCell ref="O25:AA25"/>
+    <mergeCell ref="O26:AA26"/>
+    <mergeCell ref="M3:AG8"/>
     <mergeCell ref="C43:AN45"/>
     <mergeCell ref="D48:I48"/>
     <mergeCell ref="D49:I49"/>
@@ -5643,88 +5892,13 @@
     <mergeCell ref="J48:T48"/>
     <mergeCell ref="J49:T49"/>
     <mergeCell ref="U48:AM48"/>
-    <mergeCell ref="AH4:AN6"/>
-    <mergeCell ref="P31:AJ31"/>
-    <mergeCell ref="G35:AJ35"/>
-    <mergeCell ref="G31:O31"/>
-    <mergeCell ref="O27:V27"/>
-    <mergeCell ref="O24:AA24"/>
-    <mergeCell ref="O25:AA25"/>
-    <mergeCell ref="O26:AA26"/>
-    <mergeCell ref="M3:AG8"/>
-    <mergeCell ref="U49:AM49"/>
-    <mergeCell ref="J50:T50"/>
-    <mergeCell ref="U50:AM50"/>
-    <mergeCell ref="D54:I54"/>
-    <mergeCell ref="J54:T54"/>
-    <mergeCell ref="U54:AM54"/>
-    <mergeCell ref="D55:I55"/>
-    <mergeCell ref="J55:T55"/>
-    <mergeCell ref="U55:AM55"/>
-    <mergeCell ref="D56:I56"/>
-    <mergeCell ref="J56:T56"/>
-    <mergeCell ref="U56:AM56"/>
-    <mergeCell ref="D57:I57"/>
-    <mergeCell ref="J57:T57"/>
-    <mergeCell ref="U57:AM57"/>
-    <mergeCell ref="D58:I58"/>
-    <mergeCell ref="J58:T58"/>
-    <mergeCell ref="U58:AM58"/>
-    <mergeCell ref="D59:I59"/>
-    <mergeCell ref="J59:T59"/>
-    <mergeCell ref="U59:AM59"/>
-    <mergeCell ref="D60:I60"/>
-    <mergeCell ref="J60:T60"/>
-    <mergeCell ref="U60:AM60"/>
-    <mergeCell ref="D61:I61"/>
-    <mergeCell ref="J61:T61"/>
-    <mergeCell ref="U61:AM61"/>
-    <mergeCell ref="D62:I62"/>
-    <mergeCell ref="J62:T62"/>
-    <mergeCell ref="U62:AM62"/>
-    <mergeCell ref="D63:I63"/>
-    <mergeCell ref="J63:T63"/>
-    <mergeCell ref="U63:AM63"/>
-    <mergeCell ref="D64:I64"/>
-    <mergeCell ref="J64:T64"/>
-    <mergeCell ref="U64:AM64"/>
-    <mergeCell ref="D65:I65"/>
-    <mergeCell ref="J65:T65"/>
-    <mergeCell ref="U65:AM65"/>
-    <mergeCell ref="D66:I66"/>
-    <mergeCell ref="J66:T66"/>
-    <mergeCell ref="U66:AM66"/>
-    <mergeCell ref="D67:I67"/>
-    <mergeCell ref="J67:T67"/>
-    <mergeCell ref="U67:AM67"/>
-    <mergeCell ref="D68:I68"/>
-    <mergeCell ref="J68:T68"/>
-    <mergeCell ref="U68:AM68"/>
-    <mergeCell ref="D69:I69"/>
-    <mergeCell ref="J69:T69"/>
-    <mergeCell ref="U69:AM69"/>
-    <mergeCell ref="D70:I70"/>
-    <mergeCell ref="J70:T70"/>
-    <mergeCell ref="U70:AM70"/>
-    <mergeCell ref="D71:I71"/>
-    <mergeCell ref="J71:T71"/>
-    <mergeCell ref="U71:AM71"/>
-    <mergeCell ref="D74:I74"/>
-    <mergeCell ref="J74:T74"/>
-    <mergeCell ref="U74:AM74"/>
-    <mergeCell ref="D72:I72"/>
-    <mergeCell ref="J72:T72"/>
-    <mergeCell ref="U72:AM72"/>
-    <mergeCell ref="D73:I73"/>
-    <mergeCell ref="J73:T73"/>
-    <mergeCell ref="U73:AM73"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <dataValidations count="2">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D49:I71" xr:uid="{00000000-0002-0000-0000-000000000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D49:I71">
       <formula1>ジャンル</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="J49:S71" xr:uid="{00000000-0002-0000-0000-000001000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="J49:S71">
       <formula1>INDIRECT(D49)</formula1>
     </dataValidation>
   </dataValidations>
@@ -5797,19 +5971,19 @@
     </ext>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
       <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="3">
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0000-000002000000}">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
           <x14:formula1>
             <xm:f>選択!$D$3:$D$9</xm:f>
           </x14:formula1>
           <xm:sqref>O27</xm:sqref>
         </x14:dataValidation>
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0000-000003000000}">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
           <x14:formula1>
             <xm:f>選択!$F$3:$F$6</xm:f>
           </x14:formula1>
           <xm:sqref>AH4</xm:sqref>
         </x14:dataValidation>
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0000-000004000000}">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
           <x14:formula1>
             <xm:f>選択!$B$3:$B$10</xm:f>
           </x14:formula1>
@@ -5822,12 +5996,12 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet3"/>
-  <dimension ref="B2:H77"/>
+  <dimension ref="B2:H79"/>
   <sheetViews>
-    <sheetView topLeftCell="A46" workbookViewId="0">
-      <selection activeCell="F62" sqref="F62"/>
+    <sheetView topLeftCell="A40" workbookViewId="0">
+      <selection activeCell="D65" sqref="D65"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="2.375" defaultRowHeight="18.75"/>
@@ -5840,25 +6014,25 @@
   <sheetData>
     <row r="2" spans="2:8">
       <c r="B2" s="10" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D2" s="10" t="s">
         <v>7</v>
       </c>
       <c r="F2" s="10" t="s">
+        <v>24</v>
+      </c>
+      <c r="H2" s="10" t="s">
         <v>25</v>
-      </c>
-      <c r="H2" s="10" t="s">
-        <v>26</v>
       </c>
     </row>
     <row r="3" spans="2:8">
       <c r="B3" s="3"/>
       <c r="D3" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="F3" s="3" t="s">
         <v>27</v>
-      </c>
-      <c r="F3" s="3" t="s">
-        <v>28</v>
       </c>
       <c r="H3" s="3"/>
     </row>
@@ -5867,43 +6041,43 @@
         <v>10</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="F4" s="3" t="s">
         <v>1</v>
       </c>
       <c r="H4" s="3" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="5" spans="2:8">
       <c r="B5" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="D5" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="D5" s="3" t="s">
+      <c r="F5" s="3" t="s">
         <v>32</v>
-      </c>
-      <c r="F5" s="3" t="s">
-        <v>33</v>
       </c>
     </row>
     <row r="6" spans="2:8">
       <c r="B6" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="D6" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="D6" s="3" t="s">
+      <c r="F6" s="3" t="s">
         <v>35</v>
-      </c>
-      <c r="F6" s="3" t="s">
-        <v>36</v>
       </c>
     </row>
     <row r="7" spans="2:8">
       <c r="B7" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="D7" s="3" t="s">
         <v>37</v>
-      </c>
-      <c r="D7" s="3" t="s">
-        <v>38</v>
       </c>
     </row>
     <row r="8" spans="2:8">
@@ -5911,20 +6085,20 @@
         <v>11</v>
       </c>
       <c r="D8" s="3" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="9" spans="2:8">
       <c r="B9" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="D9" s="3" t="s">
         <v>40</v>
-      </c>
-      <c r="D9" s="3" t="s">
-        <v>41</v>
       </c>
     </row>
     <row r="10" spans="2:8">
       <c r="B10" s="3" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="13" spans="2:8">
@@ -5950,7 +6124,7 @@
       </c>
       <c r="C15" s="7"/>
       <c r="D15" s="8" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="F15" s="7" t="s">
         <v>15</v>
@@ -5962,10 +6136,10 @@
       </c>
       <c r="C16" s="7"/>
       <c r="D16" s="8" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="17" spans="2:6" ht="19.5" customHeight="1">
@@ -5974,10 +6148,10 @@
       </c>
       <c r="C17" s="7"/>
       <c r="D17" s="8" t="s">
+        <v>43</v>
+      </c>
+      <c r="F17" s="7" t="s">
         <v>44</v>
-      </c>
-      <c r="F17" s="7" t="s">
-        <v>45</v>
       </c>
     </row>
     <row r="18" spans="2:6">
@@ -5986,10 +6160,10 @@
       </c>
       <c r="C18" s="7"/>
       <c r="D18" s="8" t="s">
+        <v>45</v>
+      </c>
+      <c r="F18" s="7" t="s">
         <v>46</v>
-      </c>
-      <c r="F18" s="7" t="s">
-        <v>47</v>
       </c>
     </row>
     <row r="19" spans="2:6" ht="18.75" customHeight="1">
@@ -5998,7 +6172,7 @@
       </c>
       <c r="C19" s="7"/>
       <c r="D19" s="8" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="F19" s="7" t="s">
         <v>20</v>
@@ -6010,10 +6184,10 @@
       </c>
       <c r="C20" s="7"/>
       <c r="D20" s="8" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="21" spans="2:6" ht="19.5" customHeight="1">
@@ -6022,10 +6196,10 @@
       </c>
       <c r="C21" s="7"/>
       <c r="D21" s="8" t="s">
+        <v>48</v>
+      </c>
+      <c r="F21" s="7" t="s">
         <v>49</v>
-      </c>
-      <c r="F21" s="7" t="s">
-        <v>50</v>
       </c>
     </row>
     <row r="22" spans="2:6" ht="18.75" customHeight="1">
@@ -6034,166 +6208,166 @@
       </c>
       <c r="C22" s="7"/>
       <c r="D22" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="F22" s="7" t="s">
         <v>51</v>
-      </c>
-      <c r="F22" s="7" t="s">
-        <v>52</v>
       </c>
     </row>
     <row r="23" spans="2:6" ht="18.75" customHeight="1">
       <c r="B23" s="7" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C23" s="7"/>
       <c r="D23" s="7" t="s">
+        <v>53</v>
+      </c>
+      <c r="F23" s="7" t="s">
         <v>54</v>
-      </c>
-      <c r="F23" s="7" t="s">
-        <v>55</v>
       </c>
     </row>
     <row r="24" spans="2:6" ht="19.5" customHeight="1">
       <c r="B24" s="7" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C24" s="7"/>
       <c r="D24" s="7" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="25" spans="2:6" ht="18.75" customHeight="1">
       <c r="B25" s="7" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C25" s="7"/>
       <c r="D25" s="7" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="26" spans="2:6" ht="18.75" customHeight="1">
       <c r="B26" s="7" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C26" s="7"/>
       <c r="D26" s="7" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="27" spans="2:6" ht="19.5" customHeight="1">
       <c r="B27" s="7" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C27" s="7"/>
       <c r="D27" s="7" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="28" spans="2:6" ht="18.75" customHeight="1">
       <c r="B28" s="7" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C28" s="7"/>
       <c r="D28" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="29" spans="2:6" ht="18.75" customHeight="1">
       <c r="B29" s="7" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C29" s="7"/>
       <c r="D29" s="7" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="30" spans="2:6" ht="19.5" customHeight="1">
       <c r="B30" s="7" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C30" s="7"/>
       <c r="D30" s="7" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
     <row r="31" spans="2:6" ht="18.75" customHeight="1">
       <c r="B31" s="7" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C31" s="7"/>
       <c r="D31" s="7" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="32" spans="2:6" ht="18.75" customHeight="1">
       <c r="B32" s="7" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C32" s="7"/>
       <c r="D32" s="7" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="33" spans="2:4" ht="19.5" customHeight="1">
       <c r="B33" s="7" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C33" s="7"/>
       <c r="D33" s="7" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="34" spans="2:4" ht="18.75" customHeight="1">
       <c r="B34" s="7" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C34" s="7"/>
       <c r="D34" s="7" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="35" spans="2:4" ht="18.75" customHeight="1">
       <c r="B35" s="7" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C35" s="7"/>
       <c r="D35" s="7" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="36" spans="2:4" ht="19.5" customHeight="1">
       <c r="B36" s="7" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C36" s="7"/>
       <c r="D36" s="7" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="37" spans="2:4" ht="18.75" customHeight="1">
       <c r="B37" s="7" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C37" s="7"/>
       <c r="D37" s="7" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="38" spans="2:4" ht="18.75" customHeight="1">
       <c r="B38" s="7" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C38" s="7"/>
       <c r="D38" s="7" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="39" spans="2:4" ht="19.5" customHeight="1">
       <c r="B39" s="7" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C39" s="7"/>
       <c r="D39" s="7" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
     <row r="40" spans="2:4" ht="18.75" customHeight="1">
@@ -6202,7 +6376,7 @@
       </c>
       <c r="C40" s="7"/>
       <c r="D40" s="7" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
     </row>
     <row r="41" spans="2:4" ht="18.75" customHeight="1">
@@ -6211,7 +6385,7 @@
       </c>
       <c r="C41" s="7"/>
       <c r="D41" s="7" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="42" spans="2:4" ht="19.5" customHeight="1">
@@ -6220,7 +6394,7 @@
       </c>
       <c r="C42" s="7"/>
       <c r="D42" s="7" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="43" spans="2:4" ht="18.75" customHeight="1">
@@ -6229,7 +6403,7 @@
       </c>
       <c r="C43" s="7"/>
       <c r="D43" s="7" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="44" spans="2:4" ht="18.75" customHeight="1">
@@ -6238,7 +6412,7 @@
       </c>
       <c r="C44" s="7"/>
       <c r="D44" s="7" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="45" spans="2:4" ht="19.5" customHeight="1">
@@ -6247,295 +6421,313 @@
       </c>
       <c r="C45" s="7"/>
       <c r="D45" s="7" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
     <row r="46" spans="2:4" ht="18.75" customHeight="1">
       <c r="B46" s="7" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C46" s="7"/>
       <c r="D46" s="7" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
     <row r="47" spans="2:4" ht="18.75" customHeight="1">
       <c r="B47" s="7" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C47" s="7"/>
       <c r="D47" s="7" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
     <row r="48" spans="2:4" ht="19.5" customHeight="1">
       <c r="B48" s="7" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C48" s="7"/>
       <c r="D48" s="7" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="49" spans="2:4" ht="18.75" customHeight="1">
       <c r="B49" s="7" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C49" s="7"/>
       <c r="D49" s="7" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
     </row>
     <row r="50" spans="2:4" ht="18.75" customHeight="1">
       <c r="B50" s="7" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C50" s="7"/>
       <c r="D50" s="7" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
     </row>
     <row r="51" spans="2:4" ht="18.75" customHeight="1">
       <c r="B51" s="7" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C51" s="7"/>
       <c r="D51" s="7" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
     </row>
     <row r="52" spans="2:4" ht="18.75" customHeight="1">
       <c r="B52" s="7" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C52" s="7"/>
       <c r="D52" s="7" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
     </row>
     <row r="53" spans="2:4" ht="19.5" customHeight="1">
       <c r="B53" s="7" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C53" s="7"/>
       <c r="D53" s="7" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
     </row>
     <row r="54" spans="2:4" ht="18.75" customHeight="1">
       <c r="B54" s="7" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C54" s="7"/>
       <c r="D54" s="7" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="55" spans="2:4" ht="18.75" customHeight="1">
       <c r="B55" s="7" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C55" s="7"/>
       <c r="D55" s="7" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="56" spans="2:4" ht="18.75" customHeight="1">
       <c r="B56" s="7" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C56" s="7"/>
       <c r="D56" s="7" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
     </row>
     <row r="57" spans="2:4" ht="18.75" customHeight="1">
       <c r="B57" s="7" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C57" s="7"/>
       <c r="D57" s="7" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
     </row>
     <row r="58" spans="2:4" ht="18.75" customHeight="1">
       <c r="B58" s="7" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C58" s="7"/>
       <c r="D58" s="7" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
     </row>
     <row r="59" spans="2:4" ht="18.75" customHeight="1">
       <c r="B59" s="7" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C59" s="7"/>
       <c r="D59" s="7" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="60" spans="2:4" ht="18.75" customHeight="1">
       <c r="B60" s="7" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C60" s="7"/>
       <c r="D60" s="7" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
     <row r="61" spans="2:4" ht="18.75" customHeight="1">
       <c r="B61" s="7" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C61" s="7"/>
       <c r="D61" s="7" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="62" spans="2:4" ht="19.5" customHeight="1">
       <c r="B62" s="7" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C62" s="7"/>
       <c r="D62" s="7" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
     <row r="63" spans="2:4">
       <c r="B63" s="7" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C63" s="7"/>
       <c r="D63" s="7" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
     </row>
     <row r="64" spans="2:4">
       <c r="B64" s="7" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C64" s="7"/>
       <c r="D64" s="7" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
     </row>
     <row r="65" spans="2:4">
       <c r="B65" s="7" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C65" s="7"/>
       <c r="D65" s="7" t="s">
-        <v>96</v>
+        <v>129</v>
       </c>
     </row>
     <row r="66" spans="2:4">
       <c r="B66" s="7" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C66" s="7"/>
       <c r="D66" s="7" t="s">
-        <v>97</v>
+        <v>121</v>
       </c>
     </row>
     <row r="67" spans="2:4">
       <c r="B67" s="7" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C67" s="7"/>
       <c r="D67" s="7" t="s">
-        <v>98</v>
+        <v>120</v>
       </c>
     </row>
     <row r="68" spans="2:4">
       <c r="B68" s="7" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="C68" s="7"/>
       <c r="D68" s="7" t="s">
-        <v>99</v>
+        <v>126</v>
       </c>
     </row>
     <row r="69" spans="2:4">
       <c r="B69" s="7" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="C69" s="7"/>
       <c r="D69" s="7" t="s">
-        <v>100</v>
+        <v>95</v>
       </c>
     </row>
     <row r="70" spans="2:4">
       <c r="B70" s="7" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C70" s="7"/>
       <c r="D70" s="7" t="s">
-        <v>101</v>
+        <v>96</v>
       </c>
     </row>
     <row r="71" spans="2:4">
       <c r="B71" s="7" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C71" s="7"/>
       <c r="D71" s="7" t="s">
-        <v>102</v>
+        <v>97</v>
       </c>
     </row>
     <row r="72" spans="2:4">
       <c r="B72" s="7" t="s">
-        <v>47</v>
+        <v>54</v>
       </c>
       <c r="C72" s="7"/>
       <c r="D72" s="7" t="s">
-        <v>103</v>
+        <v>98</v>
       </c>
     </row>
     <row r="73" spans="2:4">
       <c r="B73" s="7" t="s">
-        <v>47</v>
+        <v>54</v>
       </c>
       <c r="C73" s="7"/>
       <c r="D73" s="7" t="s">
-        <v>104</v>
+        <v>99</v>
       </c>
     </row>
     <row r="74" spans="2:4">
       <c r="B74" s="7" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C74" s="7"/>
       <c r="D74" s="7" t="s">
-        <v>105</v>
+        <v>100</v>
       </c>
     </row>
     <row r="75" spans="2:4">
       <c r="B75" s="7" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C75" s="7"/>
       <c r="D75" s="7" t="s">
-        <v>106</v>
+        <v>101</v>
       </c>
     </row>
     <row r="76" spans="2:4">
       <c r="B76" s="7" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C76" s="7"/>
       <c r="D76" s="7" t="s">
-        <v>107</v>
+        <v>102</v>
       </c>
     </row>
     <row r="77" spans="2:4">
       <c r="B77" s="7" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C77" s="7"/>
       <c r="D77" s="7" t="s">
-        <v>108</v>
+        <v>103</v>
+      </c>
+    </row>
+    <row r="78" spans="2:4">
+      <c r="B78" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="C78" s="7"/>
+      <c r="D78" s="7" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="79" spans="2:4">
+      <c r="B79" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="C79" s="7"/>
+      <c r="D79" s="7" t="s">
+        <v>105</v>
       </c>
     </row>
   </sheetData>
@@ -6546,26 +6738,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="02709b60-37ec-424b-b681-c6612ac7fe32">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-    <TaxCatchAll xmlns="f9048785-d070-4c78-8f2f-ed2b48eb345c" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="ドキュメント" ma:contentTypeID="0x010100C2961D859B1A8B4697EC07BF3C3DAD3B" ma:contentTypeVersion="15" ma:contentTypeDescription="新しいドキュメントを作成します。" ma:contentTypeScope="" ma:versionID="61fb881009e02d846dde605853ec8855">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="02709b60-37ec-424b-b681-c6612ac7fe32" xmlns:ns3="f9048785-d070-4c78-8f2f-ed2b48eb345c" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="ee8e5857d1e7c61daa458c0ee5ad5d78" ns2:_="" ns3:_="">
     <xsd:import namespace="02709b60-37ec-424b-b681-c6612ac7fe32"/>
@@ -6800,10 +6972,41 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="02709b60-37ec-424b-b681-c6612ac7fe32">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+    <TaxCatchAll xmlns="f9048785-d070-4c78-8f2f-ed2b48eb345c" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{2137EFEA-05C5-4541-B472-718FEE202DA3}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{8B673FAB-ED83-4048-83DC-E118FF73CE8D}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="02709b60-37ec-424b-b681-c6612ac7fe32"/>
+    <ds:schemaRef ds:uri="f9048785-d070-4c78-8f2f-ed2b48eb345c"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -6826,20 +7029,9 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{8B673FAB-ED83-4048-83DC-E118FF73CE8D}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{2137EFEA-05C5-4541-B472-718FEE202DA3}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="02709b60-37ec-424b-b681-c6612ac7fe32"/>
-    <ds:schemaRef ds:uri="f9048785-d070-4c78-8f2f-ed2b48eb345c"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
--- a/概要/AGS作品概要.xlsx
+++ b/概要/AGS作品概要.xlsx
@@ -1,32 +1,33 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="29029"/>
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Users\2316032\Desktop\Over Poured\概要\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kakik\Desktop\Over Poured\概要\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C07B64B9-6BA2-45AC-91A0-2477E938E269}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="7935" yWindow="825" windowWidth="19665" windowHeight="13770"/>
+    <workbookView xWindow="675" yWindow="525" windowWidth="22965" windowHeight="14715" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="配布用" sheetId="3" r:id="rId1"/>
     <sheet name="選択" sheetId="2" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="ＮＰＣ">選択!$D$52:$D$61</definedName>
+    <definedName name="ＮＰＣ">選択!$D$53:$D$62</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="0">配布用!$A$1:$AO$130</definedName>
     <definedName name="グラフィック">選択!$D$25:$D$39</definedName>
-    <definedName name="サウンド">選択!$D$70:$D$73</definedName>
+    <definedName name="サウンド">選択!$D$71:$D$74</definedName>
     <definedName name="ジャンル">選択!$F$15:$F$23</definedName>
-    <definedName name="ネットワーク">選択!$D$46:$D$51</definedName>
-    <definedName name="演出">選択!$D$62:$D$69</definedName>
+    <definedName name="ネットワーク">選択!$D$47:$D$52</definedName>
+    <definedName name="演出">選択!$D$63:$D$70</definedName>
     <definedName name="開発環境">選択!$D$15:$D$22</definedName>
     <definedName name="開発言語">選択!$D$23:$D$24</definedName>
-    <definedName name="基本機能">選択!$D$40:$D$45</definedName>
-    <definedName name="設計">選択!$D$74:$D$79</definedName>
+    <definedName name="基本機能">選択!$D$40:$D$46</definedName>
+    <definedName name="設計">選択!$D$75:$D$80</definedName>
   </definedNames>
   <calcPr calcId="162913"/>
   <extLst>
@@ -38,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="221" uniqueCount="132">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="227" uniqueCount="134">
   <si>
     <t>ASO GAME SHOW
 作品概要</t>
@@ -623,16 +624,6 @@
     </rPh>
     <rPh sb="40" eb="42">
       <t>セイサク</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>ステージオブジェクトのパラメータをJSONで読み込み</t>
-    <rPh sb="22" eb="23">
-      <t>ヨ</t>
-    </rPh>
-    <rPh sb="24" eb="25">
-      <t>コ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -698,9 +689,6 @@
     <t>設計</t>
   </si>
   <si>
-    <t>シングルトン</t>
-  </si>
-  <si>
     <t>イージング</t>
   </si>
   <si>
@@ -753,11 +741,25 @@
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
+  <si>
+    <t>ステージオブジェクトのパラメータとスコア</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>チュートリアル</t>
+  </si>
+  <si>
+    <t>ポーズ</t>
+  </si>
+  <si>
+    <t>ポーズ</t>
+    <phoneticPr fontId="1"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="8">
     <font>
       <sz val="11"/>
@@ -972,13 +974,10 @@
     <xf numFmtId="0" fontId="7" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1017,7 +1016,10 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -3366,14 +3368,6 @@
             </a:rPr>
             <a:t>＆</a:t>
           </a:r>
-          <a:r>
-            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1200" b="1">
-              <a:solidFill>
-                <a:srgbClr val="00B050"/>
-              </a:solidFill>
-            </a:rPr>
-            <a:t/>
-          </a:r>
           <a:br>
             <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1200" b="1">
               <a:solidFill>
@@ -3442,6 +3436,517 @@
         </a:prstGeom>
       </xdr:spPr>
     </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>84893</xdr:colOff>
+      <xdr:row>117</xdr:row>
+      <xdr:rowOff>131379</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>22</xdr:col>
+      <xdr:colOff>183931</xdr:colOff>
+      <xdr:row>119</xdr:row>
+      <xdr:rowOff>126821</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="12" name="楕円 11">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{38331299-1F74-93BC-F947-FBD1B29BE665}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3829203" y="27491120"/>
+          <a:ext cx="282969" cy="284477"/>
+        </a:xfrm>
+        <a:prstGeom prst="ellipse">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="38100" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:round/>
+          <a:headEnd type="none" w="med" len="med"/>
+          <a:tailEnd type="none" w="med" len="med"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="accent2"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1600" b="1">
+            <a:solidFill>
+              <a:srgbClr val="FF0000"/>
+            </a:solidFill>
+            <a:latin typeface="Kゴシック" panose="02000609000000000000" pitchFamily="1" charset="-128"/>
+            <a:ea typeface="Kゴシック" panose="02000609000000000000" pitchFamily="1" charset="-128"/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>27</xdr:col>
+      <xdr:colOff>87281</xdr:colOff>
+      <xdr:row>99</xdr:row>
+      <xdr:rowOff>77564</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>29</xdr:col>
+      <xdr:colOff>43726</xdr:colOff>
+      <xdr:row>101</xdr:row>
+      <xdr:rowOff>127177</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="17" name="角丸四角形 62">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7C31A627-0F95-183B-C09D-B34C507ED0E7}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4935178" y="24835995"/>
+          <a:ext cx="324307" cy="338648"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="38100" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:round/>
+          <a:headEnd type="none" w="med" len="med"/>
+          <a:tailEnd type="none" w="med" len="med"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="accent2"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1600" b="1">
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:latin typeface="Kゴシック" panose="02000609000000000000" pitchFamily="1" charset="-128"/>
+            <a:ea typeface="Kゴシック" panose="02000609000000000000" pitchFamily="1" charset="-128"/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>34</xdr:col>
+      <xdr:colOff>59120</xdr:colOff>
+      <xdr:row>117</xdr:row>
+      <xdr:rowOff>40294</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>40</xdr:col>
+      <xdr:colOff>131378</xdr:colOff>
+      <xdr:row>120</xdr:row>
+      <xdr:rowOff>83097</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="18" name="テキスト ボックス 17">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8687E285-6EE4-5B7A-4205-0A582BC336A6}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6194534" y="27400035"/>
+          <a:ext cx="1182413" cy="476355"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr lvl="0" algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="2400" b="1">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>ポーズ</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100" b="1">
+            <a:solidFill>
+              <a:srgbClr val="FF0000"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>29</xdr:col>
+      <xdr:colOff>43726</xdr:colOff>
+      <xdr:row>100</xdr:row>
+      <xdr:rowOff>102371</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>37</xdr:col>
+      <xdr:colOff>85396</xdr:colOff>
+      <xdr:row>100</xdr:row>
+      <xdr:rowOff>111673</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="19" name="直線コネクタ 18">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3625ED04-09CD-0F06-0224-A2CD40F7FE9E}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="17" idx="3"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5259485" y="25005319"/>
+          <a:ext cx="1513118" cy="9302"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="38100">
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent2"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent2"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent2"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>37</xdr:col>
+      <xdr:colOff>78827</xdr:colOff>
+      <xdr:row>100</xdr:row>
+      <xdr:rowOff>78828</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>37</xdr:col>
+      <xdr:colOff>98534</xdr:colOff>
+      <xdr:row>117</xdr:row>
+      <xdr:rowOff>40294</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="25" name="直線コネクタ 24">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4BAE490E-9765-B5BE-934D-1BBD55924216}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="18" idx="0"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1" flipV="1">
+          <a:off x="6766034" y="24981776"/>
+          <a:ext cx="19707" cy="2418259"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="38100">
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent2"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent2"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent2"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>22</xdr:col>
+      <xdr:colOff>39414</xdr:colOff>
+      <xdr:row>119</xdr:row>
+      <xdr:rowOff>126821</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>22</xdr:col>
+      <xdr:colOff>42447</xdr:colOff>
+      <xdr:row>121</xdr:row>
+      <xdr:rowOff>98535</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="33" name="直線コネクタ 32">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7D5FABE6-A8B3-427E-0F65-5BEDEBB35F54}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:endCxn id="12" idx="4"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="3967655" y="27775597"/>
+          <a:ext cx="3033" cy="260748"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="38100">
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent2"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent2"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent2"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>22</xdr:col>
+      <xdr:colOff>38473</xdr:colOff>
+      <xdr:row>121</xdr:row>
+      <xdr:rowOff>70839</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>37</xdr:col>
+      <xdr:colOff>105103</xdr:colOff>
+      <xdr:row>121</xdr:row>
+      <xdr:rowOff>98535</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="41" name="直線コネクタ 40">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DE07206B-81B3-2F79-6BCD-9CFAB2B8689A}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3966714" y="28008649"/>
+          <a:ext cx="2825596" cy="27696"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="38100">
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent2"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent2"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent2"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>37</xdr:col>
+      <xdr:colOff>98534</xdr:colOff>
+      <xdr:row>120</xdr:row>
+      <xdr:rowOff>83097</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>37</xdr:col>
+      <xdr:colOff>105103</xdr:colOff>
+      <xdr:row>121</xdr:row>
+      <xdr:rowOff>98535</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="45" name="直線コネクタ 44">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{98555190-04A4-7D7D-609D-85FE4066C648}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:endCxn id="18" idx="2"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1" flipV="1">
+          <a:off x="6785741" y="27876390"/>
+          <a:ext cx="6569" cy="159955"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="38100">
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent2"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent2"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent2"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
@@ -3755,12 +4260,12 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:AX79"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="A48" zoomScale="85" zoomScaleNormal="85" zoomScaleSheetLayoutView="85" workbookViewId="0">
-      <selection activeCell="AG75" sqref="AG75"/>
+    <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="A55" zoomScale="115" zoomScaleNormal="85" zoomScaleSheetLayoutView="115" workbookViewId="0">
+      <selection activeCell="J63" sqref="J63:T63"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="2.375" defaultRowHeight="11.25" customHeight="1"/>
@@ -3885,29 +4390,29 @@
       <c r="G3" s="2"/>
       <c r="H3" s="2"/>
       <c r="I3" s="2"/>
-      <c r="M3" s="26" t="s">
+      <c r="M3" s="25" t="s">
         <v>0</v>
       </c>
-      <c r="N3" s="26"/>
-      <c r="O3" s="26"/>
-      <c r="P3" s="26"/>
-      <c r="Q3" s="26"/>
-      <c r="R3" s="26"/>
-      <c r="S3" s="26"/>
-      <c r="T3" s="26"/>
-      <c r="U3" s="26"/>
-      <c r="V3" s="26"/>
-      <c r="W3" s="26"/>
-      <c r="X3" s="26"/>
-      <c r="Y3" s="26"/>
-      <c r="Z3" s="26"/>
-      <c r="AA3" s="26"/>
-      <c r="AB3" s="26"/>
-      <c r="AC3" s="26"/>
-      <c r="AD3" s="26"/>
-      <c r="AE3" s="26"/>
-      <c r="AF3" s="26"/>
-      <c r="AG3" s="26"/>
+      <c r="N3" s="25"/>
+      <c r="O3" s="25"/>
+      <c r="P3" s="25"/>
+      <c r="Q3" s="25"/>
+      <c r="R3" s="25"/>
+      <c r="S3" s="25"/>
+      <c r="T3" s="25"/>
+      <c r="U3" s="25"/>
+      <c r="V3" s="25"/>
+      <c r="W3" s="25"/>
+      <c r="X3" s="25"/>
+      <c r="Y3" s="25"/>
+      <c r="Z3" s="25"/>
+      <c r="AA3" s="25"/>
+      <c r="AB3" s="25"/>
+      <c r="AC3" s="25"/>
+      <c r="AD3" s="25"/>
+      <c r="AE3" s="25"/>
+      <c r="AF3" s="25"/>
+      <c r="AG3" s="25"/>
       <c r="AO3" s="2"/>
       <c r="AP3" s="2"/>
       <c r="AQ3" s="2"/>
@@ -3928,36 +4433,36 @@
       <c r="G4" s="2"/>
       <c r="H4" s="2"/>
       <c r="I4" s="2"/>
-      <c r="M4" s="26"/>
-      <c r="N4" s="26"/>
-      <c r="O4" s="26"/>
-      <c r="P4" s="26"/>
-      <c r="Q4" s="26"/>
-      <c r="R4" s="26"/>
-      <c r="S4" s="26"/>
-      <c r="T4" s="26"/>
-      <c r="U4" s="26"/>
-      <c r="V4" s="26"/>
-      <c r="W4" s="26"/>
-      <c r="X4" s="26"/>
-      <c r="Y4" s="26"/>
-      <c r="Z4" s="26"/>
-      <c r="AA4" s="26"/>
-      <c r="AB4" s="26"/>
-      <c r="AC4" s="26"/>
-      <c r="AD4" s="26"/>
-      <c r="AE4" s="26"/>
-      <c r="AF4" s="26"/>
-      <c r="AG4" s="26"/>
-      <c r="AH4" s="15" t="s">
+      <c r="M4" s="25"/>
+      <c r="N4" s="25"/>
+      <c r="O4" s="25"/>
+      <c r="P4" s="25"/>
+      <c r="Q4" s="25"/>
+      <c r="R4" s="25"/>
+      <c r="S4" s="25"/>
+      <c r="T4" s="25"/>
+      <c r="U4" s="25"/>
+      <c r="V4" s="25"/>
+      <c r="W4" s="25"/>
+      <c r="X4" s="25"/>
+      <c r="Y4" s="25"/>
+      <c r="Z4" s="25"/>
+      <c r="AA4" s="25"/>
+      <c r="AB4" s="25"/>
+      <c r="AC4" s="25"/>
+      <c r="AD4" s="25"/>
+      <c r="AE4" s="25"/>
+      <c r="AF4" s="25"/>
+      <c r="AG4" s="25"/>
+      <c r="AH4" s="14" t="s">
         <v>1</v>
       </c>
-      <c r="AI4" s="16"/>
-      <c r="AJ4" s="16"/>
-      <c r="AK4" s="16"/>
-      <c r="AL4" s="16"/>
-      <c r="AM4" s="16"/>
-      <c r="AN4" s="17"/>
+      <c r="AI4" s="15"/>
+      <c r="AJ4" s="15"/>
+      <c r="AK4" s="15"/>
+      <c r="AL4" s="15"/>
+      <c r="AM4" s="15"/>
+      <c r="AN4" s="16"/>
       <c r="AO4" s="2"/>
       <c r="AP4" s="2"/>
       <c r="AQ4" s="2"/>
@@ -3973,34 +4478,34 @@
       <c r="G5" s="2"/>
       <c r="H5" s="2"/>
       <c r="I5" s="2"/>
-      <c r="M5" s="26"/>
-      <c r="N5" s="26"/>
-      <c r="O5" s="26"/>
-      <c r="P5" s="26"/>
-      <c r="Q5" s="26"/>
-      <c r="R5" s="26"/>
-      <c r="S5" s="26"/>
-      <c r="T5" s="26"/>
-      <c r="U5" s="26"/>
-      <c r="V5" s="26"/>
-      <c r="W5" s="26"/>
-      <c r="X5" s="26"/>
-      <c r="Y5" s="26"/>
-      <c r="Z5" s="26"/>
-      <c r="AA5" s="26"/>
-      <c r="AB5" s="26"/>
-      <c r="AC5" s="26"/>
-      <c r="AD5" s="26"/>
-      <c r="AE5" s="26"/>
-      <c r="AF5" s="26"/>
-      <c r="AG5" s="26"/>
-      <c r="AH5" s="18"/>
-      <c r="AI5" s="19"/>
-      <c r="AJ5" s="19"/>
-      <c r="AK5" s="19"/>
-      <c r="AL5" s="19"/>
-      <c r="AM5" s="19"/>
-      <c r="AN5" s="20"/>
+      <c r="M5" s="25"/>
+      <c r="N5" s="25"/>
+      <c r="O5" s="25"/>
+      <c r="P5" s="25"/>
+      <c r="Q5" s="25"/>
+      <c r="R5" s="25"/>
+      <c r="S5" s="25"/>
+      <c r="T5" s="25"/>
+      <c r="U5" s="25"/>
+      <c r="V5" s="25"/>
+      <c r="W5" s="25"/>
+      <c r="X5" s="25"/>
+      <c r="Y5" s="25"/>
+      <c r="Z5" s="25"/>
+      <c r="AA5" s="25"/>
+      <c r="AB5" s="25"/>
+      <c r="AC5" s="25"/>
+      <c r="AD5" s="25"/>
+      <c r="AE5" s="25"/>
+      <c r="AF5" s="25"/>
+      <c r="AG5" s="25"/>
+      <c r="AH5" s="17"/>
+      <c r="AI5" s="18"/>
+      <c r="AJ5" s="18"/>
+      <c r="AK5" s="18"/>
+      <c r="AL5" s="18"/>
+      <c r="AM5" s="18"/>
+      <c r="AN5" s="19"/>
       <c r="AO5" s="2"/>
       <c r="AP5" s="2"/>
       <c r="AQ5" s="2"/>
@@ -4016,85 +4521,85 @@
       <c r="G6" s="2"/>
       <c r="H6" s="2"/>
       <c r="I6" s="2"/>
-      <c r="M6" s="26"/>
-      <c r="N6" s="26"/>
-      <c r="O6" s="26"/>
-      <c r="P6" s="26"/>
-      <c r="Q6" s="26"/>
-      <c r="R6" s="26"/>
-      <c r="S6" s="26"/>
-      <c r="T6" s="26"/>
-      <c r="U6" s="26"/>
-      <c r="V6" s="26"/>
-      <c r="W6" s="26"/>
-      <c r="X6" s="26"/>
-      <c r="Y6" s="26"/>
-      <c r="Z6" s="26"/>
-      <c r="AA6" s="26"/>
-      <c r="AB6" s="26"/>
-      <c r="AC6" s="26"/>
-      <c r="AD6" s="26"/>
-      <c r="AE6" s="26"/>
-      <c r="AF6" s="26"/>
-      <c r="AG6" s="26"/>
-      <c r="AH6" s="21"/>
-      <c r="AI6" s="22"/>
-      <c r="AJ6" s="22"/>
-      <c r="AK6" s="22"/>
-      <c r="AL6" s="22"/>
-      <c r="AM6" s="22"/>
-      <c r="AN6" s="23"/>
+      <c r="M6" s="25"/>
+      <c r="N6" s="25"/>
+      <c r="O6" s="25"/>
+      <c r="P6" s="25"/>
+      <c r="Q6" s="25"/>
+      <c r="R6" s="25"/>
+      <c r="S6" s="25"/>
+      <c r="T6" s="25"/>
+      <c r="U6" s="25"/>
+      <c r="V6" s="25"/>
+      <c r="W6" s="25"/>
+      <c r="X6" s="25"/>
+      <c r="Y6" s="25"/>
+      <c r="Z6" s="25"/>
+      <c r="AA6" s="25"/>
+      <c r="AB6" s="25"/>
+      <c r="AC6" s="25"/>
+      <c r="AD6" s="25"/>
+      <c r="AE6" s="25"/>
+      <c r="AF6" s="25"/>
+      <c r="AG6" s="25"/>
+      <c r="AH6" s="20"/>
+      <c r="AI6" s="21"/>
+      <c r="AJ6" s="21"/>
+      <c r="AK6" s="21"/>
+      <c r="AL6" s="21"/>
+      <c r="AM6" s="21"/>
+      <c r="AN6" s="22"/>
       <c r="AO6" s="2"/>
       <c r="AP6" s="2"/>
       <c r="AQ6" s="2"/>
       <c r="AR6" s="2"/>
     </row>
     <row r="7" spans="1:50" ht="15" customHeight="1">
-      <c r="M7" s="26"/>
-      <c r="N7" s="26"/>
-      <c r="O7" s="26"/>
-      <c r="P7" s="26"/>
-      <c r="Q7" s="26"/>
-      <c r="R7" s="26"/>
-      <c r="S7" s="26"/>
-      <c r="T7" s="26"/>
-      <c r="U7" s="26"/>
-      <c r="V7" s="26"/>
-      <c r="W7" s="26"/>
-      <c r="X7" s="26"/>
-      <c r="Y7" s="26"/>
-      <c r="Z7" s="26"/>
-      <c r="AA7" s="26"/>
-      <c r="AB7" s="26"/>
-      <c r="AC7" s="26"/>
-      <c r="AD7" s="26"/>
-      <c r="AE7" s="26"/>
-      <c r="AF7" s="26"/>
-      <c r="AG7" s="26"/>
+      <c r="M7" s="25"/>
+      <c r="N7" s="25"/>
+      <c r="O7" s="25"/>
+      <c r="P7" s="25"/>
+      <c r="Q7" s="25"/>
+      <c r="R7" s="25"/>
+      <c r="S7" s="25"/>
+      <c r="T7" s="25"/>
+      <c r="U7" s="25"/>
+      <c r="V7" s="25"/>
+      <c r="W7" s="25"/>
+      <c r="X7" s="25"/>
+      <c r="Y7" s="25"/>
+      <c r="Z7" s="25"/>
+      <c r="AA7" s="25"/>
+      <c r="AB7" s="25"/>
+      <c r="AC7" s="25"/>
+      <c r="AD7" s="25"/>
+      <c r="AE7" s="25"/>
+      <c r="AF7" s="25"/>
+      <c r="AG7" s="25"/>
     </row>
     <row r="8" spans="1:50" ht="9" customHeight="1">
       <c r="D8" s="5"/>
-      <c r="M8" s="26"/>
-      <c r="N8" s="26"/>
-      <c r="O8" s="26"/>
-      <c r="P8" s="26"/>
-      <c r="Q8" s="26"/>
-      <c r="R8" s="26"/>
-      <c r="S8" s="26"/>
-      <c r="T8" s="26"/>
-      <c r="U8" s="26"/>
-      <c r="V8" s="26"/>
-      <c r="W8" s="26"/>
-      <c r="X8" s="26"/>
-      <c r="Y8" s="26"/>
-      <c r="Z8" s="26"/>
-      <c r="AA8" s="26"/>
-      <c r="AB8" s="26"/>
-      <c r="AC8" s="26"/>
-      <c r="AD8" s="26"/>
-      <c r="AE8" s="26"/>
-      <c r="AF8" s="26"/>
-      <c r="AG8" s="26"/>
+      <c r="M8" s="25"/>
+      <c r="N8" s="25"/>
+      <c r="O8" s="25"/>
+      <c r="P8" s="25"/>
+      <c r="Q8" s="25"/>
+      <c r="R8" s="25"/>
+      <c r="S8" s="25"/>
+      <c r="T8" s="25"/>
+      <c r="U8" s="25"/>
+      <c r="V8" s="25"/>
+      <c r="W8" s="25"/>
+      <c r="X8" s="25"/>
+      <c r="Y8" s="25"/>
+      <c r="Z8" s="25"/>
+      <c r="AA8" s="25"/>
+      <c r="AB8" s="25"/>
+      <c r="AC8" s="25"/>
+      <c r="AD8" s="25"/>
+      <c r="AE8" s="25"/>
+      <c r="AF8" s="25"/>
+      <c r="AG8" s="25"/>
     </row>
     <row r="9" spans="1:50" ht="24" customHeight="1"/>
     <row r="10" spans="1:50" ht="24" customHeight="1"/>
@@ -4118,21 +4623,21 @@
       <c r="M24" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="O24" s="24" t="s">
+      <c r="O24" s="23" t="s">
         <v>106</v>
       </c>
-      <c r="P24" s="24"/>
-      <c r="Q24" s="24"/>
-      <c r="R24" s="24"/>
-      <c r="S24" s="24"/>
-      <c r="T24" s="24"/>
-      <c r="U24" s="24"/>
-      <c r="V24" s="24"/>
-      <c r="W24" s="24"/>
-      <c r="X24" s="24"/>
-      <c r="Y24" s="24"/>
-      <c r="Z24" s="24"/>
-      <c r="AA24" s="24"/>
+      <c r="P24" s="23"/>
+      <c r="Q24" s="23"/>
+      <c r="R24" s="23"/>
+      <c r="S24" s="23"/>
+      <c r="T24" s="23"/>
+      <c r="U24" s="23"/>
+      <c r="V24" s="23"/>
+      <c r="W24" s="23"/>
+      <c r="X24" s="23"/>
+      <c r="Y24" s="23"/>
+      <c r="Z24" s="23"/>
+      <c r="AA24" s="23"/>
     </row>
     <row r="25" spans="6:36" s="1" customFormat="1" ht="19.5" customHeight="1">
       <c r="F25" s="1" t="s">
@@ -4141,21 +4646,21 @@
       <c r="M25" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="O25" s="24" t="s">
+      <c r="O25" s="23" t="s">
         <v>111</v>
       </c>
-      <c r="P25" s="24"/>
-      <c r="Q25" s="24"/>
-      <c r="R25" s="24"/>
-      <c r="S25" s="24"/>
-      <c r="T25" s="24"/>
-      <c r="U25" s="24"/>
-      <c r="V25" s="24"/>
-      <c r="W25" s="24"/>
-      <c r="X25" s="24"/>
-      <c r="Y25" s="24"/>
-      <c r="Z25" s="24"/>
-      <c r="AA25" s="24"/>
+      <c r="P25" s="23"/>
+      <c r="Q25" s="23"/>
+      <c r="R25" s="23"/>
+      <c r="S25" s="23"/>
+      <c r="T25" s="23"/>
+      <c r="U25" s="23"/>
+      <c r="V25" s="23"/>
+      <c r="W25" s="23"/>
+      <c r="X25" s="23"/>
+      <c r="Y25" s="23"/>
+      <c r="Z25" s="23"/>
+      <c r="AA25" s="23"/>
     </row>
     <row r="26" spans="6:36" s="1" customFormat="1" ht="19.5" customHeight="1">
       <c r="F26" s="1" t="s">
@@ -4164,21 +4669,21 @@
       <c r="M26" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="O26" s="24" t="s">
+      <c r="O26" s="23" t="s">
         <v>6</v>
       </c>
-      <c r="P26" s="24"/>
-      <c r="Q26" s="24"/>
-      <c r="R26" s="24"/>
-      <c r="S26" s="24"/>
-      <c r="T26" s="24"/>
-      <c r="U26" s="24"/>
-      <c r="V26" s="24"/>
-      <c r="W26" s="24"/>
-      <c r="X26" s="24"/>
-      <c r="Y26" s="24"/>
-      <c r="Z26" s="24"/>
-      <c r="AA26" s="24"/>
+      <c r="P26" s="23"/>
+      <c r="Q26" s="23"/>
+      <c r="R26" s="23"/>
+      <c r="S26" s="23"/>
+      <c r="T26" s="23"/>
+      <c r="U26" s="23"/>
+      <c r="V26" s="23"/>
+      <c r="W26" s="23"/>
+      <c r="X26" s="23"/>
+      <c r="Y26" s="23"/>
+      <c r="Z26" s="23"/>
+      <c r="AA26" s="23"/>
     </row>
     <row r="27" spans="6:36" s="1" customFormat="1" ht="19.5" customHeight="1">
       <c r="F27" s="1" t="s">
@@ -4187,16 +4692,16 @@
       <c r="M27" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="O27" s="24" t="s">
+      <c r="O27" s="23" t="s">
         <v>8</v>
       </c>
-      <c r="P27" s="24"/>
-      <c r="Q27" s="24"/>
-      <c r="R27" s="24"/>
-      <c r="S27" s="24"/>
-      <c r="T27" s="24"/>
-      <c r="U27" s="24"/>
-      <c r="V27" s="24"/>
+      <c r="P27" s="23"/>
+      <c r="Q27" s="23"/>
+      <c r="R27" s="23"/>
+      <c r="S27" s="23"/>
+      <c r="T27" s="23"/>
+      <c r="U27" s="23"/>
+      <c r="V27" s="23"/>
     </row>
     <row r="28" spans="6:36" s="1" customFormat="1" ht="15" customHeight="1"/>
     <row r="29" spans="6:36" s="1" customFormat="1" ht="7.5" customHeight="1"/>
@@ -4206,40 +4711,40 @@
       </c>
     </row>
     <row r="31" spans="6:36" s="1" customFormat="1" ht="19.5" customHeight="1">
-      <c r="G31" s="24" t="s">
+      <c r="G31" s="23" t="s">
         <v>39</v>
       </c>
-      <c r="H31" s="24"/>
-      <c r="I31" s="24"/>
-      <c r="J31" s="24"/>
-      <c r="K31" s="24"/>
-      <c r="L31" s="24"/>
-      <c r="M31" s="24"/>
-      <c r="N31" s="24"/>
-      <c r="O31" s="24"/>
-      <c r="P31" s="24" t="s">
+      <c r="H31" s="23"/>
+      <c r="I31" s="23"/>
+      <c r="J31" s="23"/>
+      <c r="K31" s="23"/>
+      <c r="L31" s="23"/>
+      <c r="M31" s="23"/>
+      <c r="N31" s="23"/>
+      <c r="O31" s="23"/>
+      <c r="P31" s="23" t="s">
         <v>107</v>
       </c>
-      <c r="Q31" s="24"/>
-      <c r="R31" s="24"/>
-      <c r="S31" s="24"/>
-      <c r="T31" s="24"/>
-      <c r="U31" s="24"/>
-      <c r="V31" s="24"/>
-      <c r="W31" s="24"/>
-      <c r="X31" s="24"/>
-      <c r="Y31" s="24"/>
-      <c r="Z31" s="24"/>
-      <c r="AA31" s="24"/>
-      <c r="AB31" s="24"/>
-      <c r="AC31" s="24"/>
-      <c r="AD31" s="24"/>
-      <c r="AE31" s="24"/>
-      <c r="AF31" s="24"/>
-      <c r="AG31" s="24"/>
-      <c r="AH31" s="24"/>
-      <c r="AI31" s="24"/>
-      <c r="AJ31" s="24"/>
+      <c r="Q31" s="23"/>
+      <c r="R31" s="23"/>
+      <c r="S31" s="23"/>
+      <c r="T31" s="23"/>
+      <c r="U31" s="23"/>
+      <c r="V31" s="23"/>
+      <c r="W31" s="23"/>
+      <c r="X31" s="23"/>
+      <c r="Y31" s="23"/>
+      <c r="Z31" s="23"/>
+      <c r="AA31" s="23"/>
+      <c r="AB31" s="23"/>
+      <c r="AC31" s="23"/>
+      <c r="AD31" s="23"/>
+      <c r="AE31" s="23"/>
+      <c r="AF31" s="23"/>
+      <c r="AG31" s="23"/>
+      <c r="AH31" s="23"/>
+      <c r="AI31" s="23"/>
+      <c r="AJ31" s="23"/>
     </row>
     <row r="32" spans="6:36" s="1" customFormat="1" ht="14.25" customHeight="1"/>
     <row r="33" spans="3:40" s="1" customFormat="1" ht="7.5" customHeight="1"/>
@@ -4275,164 +4780,164 @@
       <c r="AJ34" s="4"/>
     </row>
     <row r="35" spans="3:40" s="1" customFormat="1" ht="60.75" customHeight="1">
-      <c r="G35" s="25" t="s">
+      <c r="G35" s="24" t="s">
         <v>112</v>
       </c>
-      <c r="H35" s="25"/>
-      <c r="I35" s="25"/>
-      <c r="J35" s="25"/>
-      <c r="K35" s="25"/>
-      <c r="L35" s="25"/>
-      <c r="M35" s="25"/>
-      <c r="N35" s="25"/>
-      <c r="O35" s="25"/>
-      <c r="P35" s="25"/>
-      <c r="Q35" s="25"/>
-      <c r="R35" s="25"/>
-      <c r="S35" s="25"/>
-      <c r="T35" s="25"/>
-      <c r="U35" s="25"/>
-      <c r="V35" s="25"/>
-      <c r="W35" s="25"/>
-      <c r="X35" s="25"/>
-      <c r="Y35" s="25"/>
-      <c r="Z35" s="25"/>
-      <c r="AA35" s="25"/>
-      <c r="AB35" s="25"/>
-      <c r="AC35" s="25"/>
-      <c r="AD35" s="25"/>
-      <c r="AE35" s="25"/>
-      <c r="AF35" s="25"/>
-      <c r="AG35" s="25"/>
-      <c r="AH35" s="25"/>
-      <c r="AI35" s="25"/>
-      <c r="AJ35" s="25"/>
+      <c r="H35" s="24"/>
+      <c r="I35" s="24"/>
+      <c r="J35" s="24"/>
+      <c r="K35" s="24"/>
+      <c r="L35" s="24"/>
+      <c r="M35" s="24"/>
+      <c r="N35" s="24"/>
+      <c r="O35" s="24"/>
+      <c r="P35" s="24"/>
+      <c r="Q35" s="24"/>
+      <c r="R35" s="24"/>
+      <c r="S35" s="24"/>
+      <c r="T35" s="24"/>
+      <c r="U35" s="24"/>
+      <c r="V35" s="24"/>
+      <c r="W35" s="24"/>
+      <c r="X35" s="24"/>
+      <c r="Y35" s="24"/>
+      <c r="Z35" s="24"/>
+      <c r="AA35" s="24"/>
+      <c r="AB35" s="24"/>
+      <c r="AC35" s="24"/>
+      <c r="AD35" s="24"/>
+      <c r="AE35" s="24"/>
+      <c r="AF35" s="24"/>
+      <c r="AG35" s="24"/>
+      <c r="AH35" s="24"/>
+      <c r="AI35" s="24"/>
+      <c r="AJ35" s="24"/>
     </row>
     <row r="36" spans="3:40" ht="12.75" customHeight="1"/>
     <row r="37" spans="3:40" ht="7.5" customHeight="1"/>
     <row r="38" spans="3:40" ht="24" customHeight="1"/>
     <row r="39" spans="3:40" ht="24" customHeight="1"/>
     <row r="43" spans="3:40" ht="11.25" customHeight="1">
-      <c r="C43" s="12" t="s">
+      <c r="C43" s="26" t="s">
         <v>13</v>
       </c>
-      <c r="D43" s="12"/>
-      <c r="E43" s="12"/>
-      <c r="F43" s="12"/>
-      <c r="G43" s="12"/>
-      <c r="H43" s="12"/>
-      <c r="I43" s="12"/>
-      <c r="J43" s="12"/>
-      <c r="K43" s="12"/>
-      <c r="L43" s="12"/>
-      <c r="M43" s="12"/>
-      <c r="N43" s="12"/>
-      <c r="O43" s="12"/>
-      <c r="P43" s="12"/>
-      <c r="Q43" s="12"/>
-      <c r="R43" s="12"/>
-      <c r="S43" s="12"/>
-      <c r="T43" s="12"/>
-      <c r="U43" s="12"/>
-      <c r="V43" s="12"/>
-      <c r="W43" s="12"/>
-      <c r="X43" s="12"/>
-      <c r="Y43" s="12"/>
-      <c r="Z43" s="12"/>
-      <c r="AA43" s="12"/>
-      <c r="AB43" s="12"/>
-      <c r="AC43" s="12"/>
-      <c r="AD43" s="12"/>
-      <c r="AE43" s="12"/>
-      <c r="AF43" s="12"/>
-      <c r="AG43" s="12"/>
-      <c r="AH43" s="12"/>
-      <c r="AI43" s="12"/>
-      <c r="AJ43" s="12"/>
-      <c r="AK43" s="12"/>
-      <c r="AL43" s="12"/>
-      <c r="AM43" s="12"/>
-      <c r="AN43" s="12"/>
+      <c r="D43" s="26"/>
+      <c r="E43" s="26"/>
+      <c r="F43" s="26"/>
+      <c r="G43" s="26"/>
+      <c r="H43" s="26"/>
+      <c r="I43" s="26"/>
+      <c r="J43" s="26"/>
+      <c r="K43" s="26"/>
+      <c r="L43" s="26"/>
+      <c r="M43" s="26"/>
+      <c r="N43" s="26"/>
+      <c r="O43" s="26"/>
+      <c r="P43" s="26"/>
+      <c r="Q43" s="26"/>
+      <c r="R43" s="26"/>
+      <c r="S43" s="26"/>
+      <c r="T43" s="26"/>
+      <c r="U43" s="26"/>
+      <c r="V43" s="26"/>
+      <c r="W43" s="26"/>
+      <c r="X43" s="26"/>
+      <c r="Y43" s="26"/>
+      <c r="Z43" s="26"/>
+      <c r="AA43" s="26"/>
+      <c r="AB43" s="26"/>
+      <c r="AC43" s="26"/>
+      <c r="AD43" s="26"/>
+      <c r="AE43" s="26"/>
+      <c r="AF43" s="26"/>
+      <c r="AG43" s="26"/>
+      <c r="AH43" s="26"/>
+      <c r="AI43" s="26"/>
+      <c r="AJ43" s="26"/>
+      <c r="AK43" s="26"/>
+      <c r="AL43" s="26"/>
+      <c r="AM43" s="26"/>
+      <c r="AN43" s="26"/>
     </row>
     <row r="44" spans="3:40" ht="11.25" customHeight="1">
-      <c r="C44" s="12"/>
-      <c r="D44" s="12"/>
-      <c r="E44" s="12"/>
-      <c r="F44" s="12"/>
-      <c r="G44" s="12"/>
-      <c r="H44" s="12"/>
-      <c r="I44" s="12"/>
-      <c r="J44" s="12"/>
-      <c r="K44" s="12"/>
-      <c r="L44" s="12"/>
-      <c r="M44" s="12"/>
-      <c r="N44" s="12"/>
-      <c r="O44" s="12"/>
-      <c r="P44" s="12"/>
-      <c r="Q44" s="12"/>
-      <c r="R44" s="12"/>
-      <c r="S44" s="12"/>
-      <c r="T44" s="12"/>
-      <c r="U44" s="12"/>
-      <c r="V44" s="12"/>
-      <c r="W44" s="12"/>
-      <c r="X44" s="12"/>
-      <c r="Y44" s="12"/>
-      <c r="Z44" s="12"/>
-      <c r="AA44" s="12"/>
-      <c r="AB44" s="12"/>
-      <c r="AC44" s="12"/>
-      <c r="AD44" s="12"/>
-      <c r="AE44" s="12"/>
-      <c r="AF44" s="12"/>
-      <c r="AG44" s="12"/>
-      <c r="AH44" s="12"/>
-      <c r="AI44" s="12"/>
-      <c r="AJ44" s="12"/>
-      <c r="AK44" s="12"/>
-      <c r="AL44" s="12"/>
-      <c r="AM44" s="12"/>
-      <c r="AN44" s="12"/>
+      <c r="C44" s="26"/>
+      <c r="D44" s="26"/>
+      <c r="E44" s="26"/>
+      <c r="F44" s="26"/>
+      <c r="G44" s="26"/>
+      <c r="H44" s="26"/>
+      <c r="I44" s="26"/>
+      <c r="J44" s="26"/>
+      <c r="K44" s="26"/>
+      <c r="L44" s="26"/>
+      <c r="M44" s="26"/>
+      <c r="N44" s="26"/>
+      <c r="O44" s="26"/>
+      <c r="P44" s="26"/>
+      <c r="Q44" s="26"/>
+      <c r="R44" s="26"/>
+      <c r="S44" s="26"/>
+      <c r="T44" s="26"/>
+      <c r="U44" s="26"/>
+      <c r="V44" s="26"/>
+      <c r="W44" s="26"/>
+      <c r="X44" s="26"/>
+      <c r="Y44" s="26"/>
+      <c r="Z44" s="26"/>
+      <c r="AA44" s="26"/>
+      <c r="AB44" s="26"/>
+      <c r="AC44" s="26"/>
+      <c r="AD44" s="26"/>
+      <c r="AE44" s="26"/>
+      <c r="AF44" s="26"/>
+      <c r="AG44" s="26"/>
+      <c r="AH44" s="26"/>
+      <c r="AI44" s="26"/>
+      <c r="AJ44" s="26"/>
+      <c r="AK44" s="26"/>
+      <c r="AL44" s="26"/>
+      <c r="AM44" s="26"/>
+      <c r="AN44" s="26"/>
     </row>
     <row r="45" spans="3:40" ht="11.25" customHeight="1">
-      <c r="C45" s="12"/>
-      <c r="D45" s="12"/>
-      <c r="E45" s="12"/>
-      <c r="F45" s="12"/>
-      <c r="G45" s="12"/>
-      <c r="H45" s="12"/>
-      <c r="I45" s="12"/>
-      <c r="J45" s="12"/>
-      <c r="K45" s="12"/>
-      <c r="L45" s="12"/>
-      <c r="M45" s="12"/>
-      <c r="N45" s="12"/>
-      <c r="O45" s="12"/>
-      <c r="P45" s="12"/>
-      <c r="Q45" s="12"/>
-      <c r="R45" s="12"/>
-      <c r="S45" s="12"/>
-      <c r="T45" s="12"/>
-      <c r="U45" s="12"/>
-      <c r="V45" s="12"/>
-      <c r="W45" s="12"/>
-      <c r="X45" s="12"/>
-      <c r="Y45" s="12"/>
-      <c r="Z45" s="12"/>
-      <c r="AA45" s="12"/>
-      <c r="AB45" s="12"/>
-      <c r="AC45" s="12"/>
-      <c r="AD45" s="12"/>
-      <c r="AE45" s="12"/>
-      <c r="AF45" s="12"/>
-      <c r="AG45" s="12"/>
-      <c r="AH45" s="12"/>
-      <c r="AI45" s="12"/>
-      <c r="AJ45" s="12"/>
-      <c r="AK45" s="12"/>
-      <c r="AL45" s="12"/>
-      <c r="AM45" s="12"/>
-      <c r="AN45" s="12"/>
+      <c r="C45" s="26"/>
+      <c r="D45" s="26"/>
+      <c r="E45" s="26"/>
+      <c r="F45" s="26"/>
+      <c r="G45" s="26"/>
+      <c r="H45" s="26"/>
+      <c r="I45" s="26"/>
+      <c r="J45" s="26"/>
+      <c r="K45" s="26"/>
+      <c r="L45" s="26"/>
+      <c r="M45" s="26"/>
+      <c r="N45" s="26"/>
+      <c r="O45" s="26"/>
+      <c r="P45" s="26"/>
+      <c r="Q45" s="26"/>
+      <c r="R45" s="26"/>
+      <c r="S45" s="26"/>
+      <c r="T45" s="26"/>
+      <c r="U45" s="26"/>
+      <c r="V45" s="26"/>
+      <c r="W45" s="26"/>
+      <c r="X45" s="26"/>
+      <c r="Y45" s="26"/>
+      <c r="Z45" s="26"/>
+      <c r="AA45" s="26"/>
+      <c r="AB45" s="26"/>
+      <c r="AC45" s="26"/>
+      <c r="AD45" s="26"/>
+      <c r="AE45" s="26"/>
+      <c r="AF45" s="26"/>
+      <c r="AG45" s="26"/>
+      <c r="AH45" s="26"/>
+      <c r="AI45" s="26"/>
+      <c r="AJ45" s="26"/>
+      <c r="AK45" s="26"/>
+      <c r="AL45" s="26"/>
+      <c r="AM45" s="26"/>
+      <c r="AN45" s="26"/>
     </row>
     <row r="46" spans="3:40" ht="11.25" customHeight="1">
       <c r="D46" s="9"/>
@@ -4511,1100 +5016,1108 @@
       <c r="AM47" s="9"/>
     </row>
     <row r="48" spans="3:40" ht="28.5" customHeight="1">
-      <c r="D48" s="13" t="s">
+      <c r="D48" s="27" t="s">
         <v>5</v>
       </c>
-      <c r="E48" s="13"/>
-      <c r="F48" s="13"/>
-      <c r="G48" s="13"/>
-      <c r="H48" s="13"/>
-      <c r="I48" s="13"/>
-      <c r="J48" s="13" t="s">
+      <c r="E48" s="27"/>
+      <c r="F48" s="27"/>
+      <c r="G48" s="27"/>
+      <c r="H48" s="27"/>
+      <c r="I48" s="27"/>
+      <c r="J48" s="27" t="s">
         <v>14</v>
       </c>
-      <c r="K48" s="13"/>
-      <c r="L48" s="13"/>
-      <c r="M48" s="13"/>
-      <c r="N48" s="13"/>
-      <c r="O48" s="13"/>
-      <c r="P48" s="13"/>
-      <c r="Q48" s="13"/>
-      <c r="R48" s="13"/>
-      <c r="S48" s="13"/>
-      <c r="T48" s="13"/>
-      <c r="U48" s="13" t="s">
+      <c r="K48" s="27"/>
+      <c r="L48" s="27"/>
+      <c r="M48" s="27"/>
+      <c r="N48" s="27"/>
+      <c r="O48" s="27"/>
+      <c r="P48" s="27"/>
+      <c r="Q48" s="27"/>
+      <c r="R48" s="27"/>
+      <c r="S48" s="27"/>
+      <c r="T48" s="27"/>
+      <c r="U48" s="27" t="s">
         <v>12</v>
       </c>
-      <c r="V48" s="13"/>
-      <c r="W48" s="13"/>
-      <c r="X48" s="13"/>
-      <c r="Y48" s="13"/>
-      <c r="Z48" s="13"/>
-      <c r="AA48" s="13"/>
-      <c r="AB48" s="13"/>
-      <c r="AC48" s="13"/>
-      <c r="AD48" s="13"/>
-      <c r="AE48" s="13"/>
-      <c r="AF48" s="13"/>
-      <c r="AG48" s="13"/>
-      <c r="AH48" s="13"/>
-      <c r="AI48" s="13"/>
-      <c r="AJ48" s="13"/>
-      <c r="AK48" s="13"/>
-      <c r="AL48" s="13"/>
-      <c r="AM48" s="13"/>
+      <c r="V48" s="27"/>
+      <c r="W48" s="27"/>
+      <c r="X48" s="27"/>
+      <c r="Y48" s="27"/>
+      <c r="Z48" s="27"/>
+      <c r="AA48" s="27"/>
+      <c r="AB48" s="27"/>
+      <c r="AC48" s="27"/>
+      <c r="AD48" s="27"/>
+      <c r="AE48" s="27"/>
+      <c r="AF48" s="27"/>
+      <c r="AG48" s="27"/>
+      <c r="AH48" s="27"/>
+      <c r="AI48" s="27"/>
+      <c r="AJ48" s="27"/>
+      <c r="AK48" s="27"/>
+      <c r="AL48" s="27"/>
+      <c r="AM48" s="27"/>
     </row>
     <row r="49" spans="4:39" ht="27.75" customHeight="1">
-      <c r="D49" s="14" t="s">
+      <c r="D49" s="12" t="s">
         <v>15</v>
       </c>
-      <c r="E49" s="14"/>
-      <c r="F49" s="14"/>
-      <c r="G49" s="14"/>
-      <c r="H49" s="14"/>
-      <c r="I49" s="14"/>
-      <c r="J49" s="14" t="s">
+      <c r="E49" s="12"/>
+      <c r="F49" s="12"/>
+      <c r="G49" s="12"/>
+      <c r="H49" s="12"/>
+      <c r="I49" s="12"/>
+      <c r="J49" s="12" t="s">
         <v>8</v>
       </c>
-      <c r="K49" s="14"/>
-      <c r="L49" s="14"/>
-      <c r="M49" s="14"/>
-      <c r="N49" s="14"/>
-      <c r="O49" s="14"/>
-      <c r="P49" s="14"/>
-      <c r="Q49" s="14"/>
-      <c r="R49" s="14"/>
-      <c r="S49" s="14"/>
-      <c r="T49" s="14"/>
-      <c r="U49" s="14"/>
-      <c r="V49" s="14"/>
-      <c r="W49" s="14"/>
-      <c r="X49" s="14"/>
-      <c r="Y49" s="14"/>
-      <c r="Z49" s="14"/>
-      <c r="AA49" s="14"/>
-      <c r="AB49" s="14"/>
-      <c r="AC49" s="14"/>
-      <c r="AD49" s="14"/>
-      <c r="AE49" s="14"/>
-      <c r="AF49" s="14"/>
-      <c r="AG49" s="14"/>
-      <c r="AH49" s="14"/>
-      <c r="AI49" s="14"/>
-      <c r="AJ49" s="14"/>
-      <c r="AK49" s="14"/>
-      <c r="AL49" s="14"/>
-      <c r="AM49" s="14"/>
+      <c r="K49" s="12"/>
+      <c r="L49" s="12"/>
+      <c r="M49" s="12"/>
+      <c r="N49" s="12"/>
+      <c r="O49" s="12"/>
+      <c r="P49" s="12"/>
+      <c r="Q49" s="12"/>
+      <c r="R49" s="12"/>
+      <c r="S49" s="12"/>
+      <c r="T49" s="12"/>
+      <c r="U49" s="12"/>
+      <c r="V49" s="12"/>
+      <c r="W49" s="12"/>
+      <c r="X49" s="12"/>
+      <c r="Y49" s="12"/>
+      <c r="Z49" s="12"/>
+      <c r="AA49" s="12"/>
+      <c r="AB49" s="12"/>
+      <c r="AC49" s="12"/>
+      <c r="AD49" s="12"/>
+      <c r="AE49" s="12"/>
+      <c r="AF49" s="12"/>
+      <c r="AG49" s="12"/>
+      <c r="AH49" s="12"/>
+      <c r="AI49" s="12"/>
+      <c r="AJ49" s="12"/>
+      <c r="AK49" s="12"/>
+      <c r="AL49" s="12"/>
+      <c r="AM49" s="12"/>
     </row>
     <row r="50" spans="4:39" ht="27.75" customHeight="1">
-      <c r="D50" s="14" t="s">
+      <c r="D50" s="12" t="s">
         <v>16</v>
       </c>
-      <c r="E50" s="14"/>
-      <c r="F50" s="14"/>
-      <c r="G50" s="14"/>
-      <c r="H50" s="14"/>
-      <c r="I50" s="14"/>
-      <c r="J50" s="14" t="s">
+      <c r="E50" s="12"/>
+      <c r="F50" s="12"/>
+      <c r="G50" s="12"/>
+      <c r="H50" s="12"/>
+      <c r="I50" s="12"/>
+      <c r="J50" s="12" t="s">
         <v>17</v>
       </c>
-      <c r="K50" s="14"/>
-      <c r="L50" s="14"/>
-      <c r="M50" s="14"/>
-      <c r="N50" s="14"/>
-      <c r="O50" s="14"/>
-      <c r="P50" s="14"/>
-      <c r="Q50" s="14"/>
-      <c r="R50" s="14"/>
-      <c r="S50" s="14"/>
-      <c r="T50" s="14"/>
-      <c r="U50" s="14"/>
-      <c r="V50" s="14"/>
-      <c r="W50" s="14"/>
-      <c r="X50" s="14"/>
-      <c r="Y50" s="14"/>
-      <c r="Z50" s="14"/>
-      <c r="AA50" s="14"/>
-      <c r="AB50" s="14"/>
-      <c r="AC50" s="14"/>
-      <c r="AD50" s="14"/>
-      <c r="AE50" s="14"/>
-      <c r="AF50" s="14"/>
-      <c r="AG50" s="14"/>
-      <c r="AH50" s="14"/>
-      <c r="AI50" s="14"/>
-      <c r="AJ50" s="14"/>
-      <c r="AK50" s="14"/>
-      <c r="AL50" s="14"/>
-      <c r="AM50" s="14"/>
+      <c r="K50" s="12"/>
+      <c r="L50" s="12"/>
+      <c r="M50" s="12"/>
+      <c r="N50" s="12"/>
+      <c r="O50" s="12"/>
+      <c r="P50" s="12"/>
+      <c r="Q50" s="12"/>
+      <c r="R50" s="12"/>
+      <c r="S50" s="12"/>
+      <c r="T50" s="12"/>
+      <c r="U50" s="12"/>
+      <c r="V50" s="12"/>
+      <c r="W50" s="12"/>
+      <c r="X50" s="12"/>
+      <c r="Y50" s="12"/>
+      <c r="Z50" s="12"/>
+      <c r="AA50" s="12"/>
+      <c r="AB50" s="12"/>
+      <c r="AC50" s="12"/>
+      <c r="AD50" s="12"/>
+      <c r="AE50" s="12"/>
+      <c r="AF50" s="12"/>
+      <c r="AG50" s="12"/>
+      <c r="AH50" s="12"/>
+      <c r="AI50" s="12"/>
+      <c r="AJ50" s="12"/>
+      <c r="AK50" s="12"/>
+      <c r="AL50" s="12"/>
+      <c r="AM50" s="12"/>
     </row>
     <row r="51" spans="4:39" ht="27.75" customHeight="1">
-      <c r="D51" s="14" t="s">
+      <c r="D51" s="12" t="s">
         <v>18</v>
       </c>
-      <c r="E51" s="14"/>
-      <c r="F51" s="14"/>
-      <c r="G51" s="14"/>
-      <c r="H51" s="14"/>
-      <c r="I51" s="14"/>
-      <c r="J51" s="14" t="s">
+      <c r="E51" s="12"/>
+      <c r="F51" s="12"/>
+      <c r="G51" s="12"/>
+      <c r="H51" s="12"/>
+      <c r="I51" s="12"/>
+      <c r="J51" s="12" t="s">
         <v>19</v>
       </c>
-      <c r="K51" s="14"/>
-      <c r="L51" s="14"/>
-      <c r="M51" s="14"/>
-      <c r="N51" s="14"/>
-      <c r="O51" s="14"/>
-      <c r="P51" s="14"/>
-      <c r="Q51" s="14"/>
-      <c r="R51" s="14"/>
-      <c r="S51" s="14"/>
-      <c r="T51" s="14"/>
-      <c r="U51" s="14"/>
-      <c r="V51" s="14"/>
-      <c r="W51" s="14"/>
-      <c r="X51" s="14"/>
-      <c r="Y51" s="14"/>
-      <c r="Z51" s="14"/>
-      <c r="AA51" s="14"/>
-      <c r="AB51" s="14"/>
-      <c r="AC51" s="14"/>
-      <c r="AD51" s="14"/>
-      <c r="AE51" s="14"/>
-      <c r="AF51" s="14"/>
-      <c r="AG51" s="14"/>
-      <c r="AH51" s="14"/>
-      <c r="AI51" s="14"/>
-      <c r="AJ51" s="14"/>
-      <c r="AK51" s="14"/>
-      <c r="AL51" s="14"/>
-      <c r="AM51" s="14"/>
+      <c r="K51" s="12"/>
+      <c r="L51" s="12"/>
+      <c r="M51" s="12"/>
+      <c r="N51" s="12"/>
+      <c r="O51" s="12"/>
+      <c r="P51" s="12"/>
+      <c r="Q51" s="12"/>
+      <c r="R51" s="12"/>
+      <c r="S51" s="12"/>
+      <c r="T51" s="12"/>
+      <c r="U51" s="12"/>
+      <c r="V51" s="12"/>
+      <c r="W51" s="12"/>
+      <c r="X51" s="12"/>
+      <c r="Y51" s="12"/>
+      <c r="Z51" s="12"/>
+      <c r="AA51" s="12"/>
+      <c r="AB51" s="12"/>
+      <c r="AC51" s="12"/>
+      <c r="AD51" s="12"/>
+      <c r="AE51" s="12"/>
+      <c r="AF51" s="12"/>
+      <c r="AG51" s="12"/>
+      <c r="AH51" s="12"/>
+      <c r="AI51" s="12"/>
+      <c r="AJ51" s="12"/>
+      <c r="AK51" s="12"/>
+      <c r="AL51" s="12"/>
+      <c r="AM51" s="12"/>
     </row>
     <row r="52" spans="4:39" ht="27.75" customHeight="1">
-      <c r="D52" s="14" t="s">
+      <c r="D52" s="12" t="s">
         <v>18</v>
       </c>
-      <c r="E52" s="14"/>
-      <c r="F52" s="14"/>
-      <c r="G52" s="14"/>
-      <c r="H52" s="14"/>
-      <c r="I52" s="14"/>
-      <c r="J52" s="14" t="s">
+      <c r="E52" s="12"/>
+      <c r="F52" s="12"/>
+      <c r="G52" s="12"/>
+      <c r="H52" s="12"/>
+      <c r="I52" s="12"/>
+      <c r="J52" s="12" t="s">
+        <v>113</v>
+      </c>
+      <c r="K52" s="12"/>
+      <c r="L52" s="12"/>
+      <c r="M52" s="12"/>
+      <c r="N52" s="12"/>
+      <c r="O52" s="12"/>
+      <c r="P52" s="12"/>
+      <c r="Q52" s="12"/>
+      <c r="R52" s="12"/>
+      <c r="S52" s="12"/>
+      <c r="T52" s="12"/>
+      <c r="U52" s="13" t="s">
+        <v>129</v>
+      </c>
+      <c r="V52" s="13"/>
+      <c r="W52" s="13"/>
+      <c r="X52" s="13"/>
+      <c r="Y52" s="13"/>
+      <c r="Z52" s="13"/>
+      <c r="AA52" s="13"/>
+      <c r="AB52" s="13"/>
+      <c r="AC52" s="13"/>
+      <c r="AD52" s="13"/>
+      <c r="AE52" s="13"/>
+      <c r="AF52" s="13"/>
+      <c r="AG52" s="13"/>
+      <c r="AH52" s="13"/>
+      <c r="AI52" s="13"/>
+      <c r="AJ52" s="13"/>
+      <c r="AK52" s="13"/>
+      <c r="AL52" s="13"/>
+      <c r="AM52" s="13"/>
+    </row>
+    <row r="53" spans="4:39" ht="27.75" customHeight="1">
+      <c r="D53" s="12" t="s">
+        <v>20</v>
+      </c>
+      <c r="E53" s="12"/>
+      <c r="F53" s="12"/>
+      <c r="G53" s="12"/>
+      <c r="H53" s="12"/>
+      <c r="I53" s="12"/>
+      <c r="J53" s="12" t="s">
+        <v>110</v>
+      </c>
+      <c r="K53" s="12"/>
+      <c r="L53" s="12"/>
+      <c r="M53" s="12"/>
+      <c r="N53" s="12"/>
+      <c r="O53" s="12"/>
+      <c r="P53" s="12"/>
+      <c r="Q53" s="12"/>
+      <c r="R53" s="12"/>
+      <c r="S53" s="12"/>
+      <c r="T53" s="12"/>
+      <c r="U53" s="13" t="s">
+        <v>130</v>
+      </c>
+      <c r="V53" s="13"/>
+      <c r="W53" s="13"/>
+      <c r="X53" s="13"/>
+      <c r="Y53" s="13"/>
+      <c r="Z53" s="13"/>
+      <c r="AA53" s="13"/>
+      <c r="AB53" s="13"/>
+      <c r="AC53" s="13"/>
+      <c r="AD53" s="13"/>
+      <c r="AE53" s="13"/>
+      <c r="AF53" s="13"/>
+      <c r="AG53" s="13"/>
+      <c r="AH53" s="13"/>
+      <c r="AI53" s="13"/>
+      <c r="AJ53" s="13"/>
+      <c r="AK53" s="13"/>
+      <c r="AL53" s="13"/>
+      <c r="AM53" s="13"/>
+    </row>
+    <row r="54" spans="4:39" ht="27.75" customHeight="1">
+      <c r="D54" s="12" t="s">
+        <v>20</v>
+      </c>
+      <c r="E54" s="12"/>
+      <c r="F54" s="12"/>
+      <c r="G54" s="12"/>
+      <c r="H54" s="12"/>
+      <c r="I54" s="12"/>
+      <c r="J54" s="12" t="s">
+        <v>21</v>
+      </c>
+      <c r="K54" s="12"/>
+      <c r="L54" s="12"/>
+      <c r="M54" s="12"/>
+      <c r="N54" s="12"/>
+      <c r="O54" s="12"/>
+      <c r="P54" s="12"/>
+      <c r="Q54" s="12"/>
+      <c r="R54" s="12"/>
+      <c r="S54" s="12"/>
+      <c r="T54" s="12"/>
+      <c r="U54" s="12"/>
+      <c r="V54" s="12"/>
+      <c r="W54" s="12"/>
+      <c r="X54" s="12"/>
+      <c r="Y54" s="12"/>
+      <c r="Z54" s="12"/>
+      <c r="AA54" s="12"/>
+      <c r="AB54" s="12"/>
+      <c r="AC54" s="12"/>
+      <c r="AD54" s="12"/>
+      <c r="AE54" s="12"/>
+      <c r="AF54" s="12"/>
+      <c r="AG54" s="12"/>
+      <c r="AH54" s="12"/>
+      <c r="AI54" s="12"/>
+      <c r="AJ54" s="12"/>
+      <c r="AK54" s="12"/>
+      <c r="AL54" s="12"/>
+      <c r="AM54" s="12"/>
+    </row>
+    <row r="55" spans="4:39" ht="27.75" customHeight="1">
+      <c r="D55" s="12" t="s">
+        <v>22</v>
+      </c>
+      <c r="E55" s="12"/>
+      <c r="F55" s="12"/>
+      <c r="G55" s="12"/>
+      <c r="H55" s="12"/>
+      <c r="I55" s="12"/>
+      <c r="J55" s="12" t="s">
+        <v>108</v>
+      </c>
+      <c r="K55" s="12"/>
+      <c r="L55" s="12"/>
+      <c r="M55" s="12"/>
+      <c r="N55" s="12"/>
+      <c r="O55" s="12"/>
+      <c r="P55" s="12"/>
+      <c r="Q55" s="12"/>
+      <c r="R55" s="12"/>
+      <c r="S55" s="12"/>
+      <c r="T55" s="12"/>
+      <c r="U55" s="12"/>
+      <c r="V55" s="12"/>
+      <c r="W55" s="12"/>
+      <c r="X55" s="12"/>
+      <c r="Y55" s="12"/>
+      <c r="Z55" s="12"/>
+      <c r="AA55" s="12"/>
+      <c r="AB55" s="12"/>
+      <c r="AC55" s="12"/>
+      <c r="AD55" s="12"/>
+      <c r="AE55" s="12"/>
+      <c r="AF55" s="12"/>
+      <c r="AG55" s="12"/>
+      <c r="AH55" s="12"/>
+      <c r="AI55" s="12"/>
+      <c r="AJ55" s="12"/>
+      <c r="AK55" s="12"/>
+      <c r="AL55" s="12"/>
+      <c r="AM55" s="12"/>
+    </row>
+    <row r="56" spans="4:39" ht="27.75" customHeight="1">
+      <c r="D56" s="12" t="s">
+        <v>115</v>
+      </c>
+      <c r="E56" s="12"/>
+      <c r="F56" s="12"/>
+      <c r="G56" s="12"/>
+      <c r="H56" s="12"/>
+      <c r="I56" s="12"/>
+      <c r="J56" s="12" t="s">
+        <v>116</v>
+      </c>
+      <c r="K56" s="12"/>
+      <c r="L56" s="12"/>
+      <c r="M56" s="12"/>
+      <c r="N56" s="12"/>
+      <c r="O56" s="12"/>
+      <c r="P56" s="12"/>
+      <c r="Q56" s="12"/>
+      <c r="R56" s="12"/>
+      <c r="S56" s="12"/>
+      <c r="T56" s="12"/>
+      <c r="U56" s="12"/>
+      <c r="V56" s="12"/>
+      <c r="W56" s="12"/>
+      <c r="X56" s="12"/>
+      <c r="Y56" s="12"/>
+      <c r="Z56" s="12"/>
+      <c r="AA56" s="12"/>
+      <c r="AB56" s="12"/>
+      <c r="AC56" s="12"/>
+      <c r="AD56" s="12"/>
+      <c r="AE56" s="12"/>
+      <c r="AF56" s="12"/>
+      <c r="AG56" s="12"/>
+      <c r="AH56" s="12"/>
+      <c r="AI56" s="12"/>
+      <c r="AJ56" s="12"/>
+      <c r="AK56" s="12"/>
+      <c r="AL56" s="12"/>
+      <c r="AM56" s="12"/>
+    </row>
+    <row r="57" spans="4:39" ht="27.75" customHeight="1">
+      <c r="D57" s="12" t="s">
         <v>114</v>
       </c>
-      <c r="K52" s="14"/>
-      <c r="L52" s="14"/>
-      <c r="M52" s="14"/>
-      <c r="N52" s="14"/>
-      <c r="O52" s="14"/>
-      <c r="P52" s="14"/>
-      <c r="Q52" s="14"/>
-      <c r="R52" s="14"/>
-      <c r="S52" s="14"/>
-      <c r="T52" s="14"/>
-      <c r="U52" s="27" t="s">
+      <c r="E57" s="12"/>
+      <c r="F57" s="12"/>
+      <c r="G57" s="12"/>
+      <c r="H57" s="12"/>
+      <c r="I57" s="12"/>
+      <c r="J57" s="12" t="s">
+        <v>118</v>
+      </c>
+      <c r="K57" s="12"/>
+      <c r="L57" s="12"/>
+      <c r="M57" s="12"/>
+      <c r="N57" s="12"/>
+      <c r="O57" s="12"/>
+      <c r="P57" s="12"/>
+      <c r="Q57" s="12"/>
+      <c r="R57" s="12"/>
+      <c r="S57" s="12"/>
+      <c r="T57" s="12"/>
+      <c r="U57" s="13" t="s">
+        <v>117</v>
+      </c>
+      <c r="V57" s="13"/>
+      <c r="W57" s="13"/>
+      <c r="X57" s="13"/>
+      <c r="Y57" s="13"/>
+      <c r="Z57" s="13"/>
+      <c r="AA57" s="13"/>
+      <c r="AB57" s="13"/>
+      <c r="AC57" s="13"/>
+      <c r="AD57" s="13"/>
+      <c r="AE57" s="13"/>
+      <c r="AF57" s="13"/>
+      <c r="AG57" s="13"/>
+      <c r="AH57" s="13"/>
+      <c r="AI57" s="13"/>
+      <c r="AJ57" s="13"/>
+      <c r="AK57" s="13"/>
+      <c r="AL57" s="13"/>
+      <c r="AM57" s="13"/>
+    </row>
+    <row r="58" spans="4:39" ht="27.75" customHeight="1">
+      <c r="D58" s="12" t="s">
+        <v>114</v>
+      </c>
+      <c r="E58" s="12"/>
+      <c r="F58" s="12"/>
+      <c r="G58" s="12"/>
+      <c r="H58" s="12"/>
+      <c r="I58" s="12"/>
+      <c r="J58" s="12" t="s">
+        <v>120</v>
+      </c>
+      <c r="K58" s="12"/>
+      <c r="L58" s="12"/>
+      <c r="M58" s="12"/>
+      <c r="N58" s="12"/>
+      <c r="O58" s="12"/>
+      <c r="P58" s="12"/>
+      <c r="Q58" s="12"/>
+      <c r="R58" s="12"/>
+      <c r="S58" s="12"/>
+      <c r="T58" s="12"/>
+      <c r="U58" s="12" t="s">
+        <v>121</v>
+      </c>
+      <c r="V58" s="12"/>
+      <c r="W58" s="12"/>
+      <c r="X58" s="12"/>
+      <c r="Y58" s="12"/>
+      <c r="Z58" s="12"/>
+      <c r="AA58" s="12"/>
+      <c r="AB58" s="12"/>
+      <c r="AC58" s="12"/>
+      <c r="AD58" s="12"/>
+      <c r="AE58" s="12"/>
+      <c r="AF58" s="12"/>
+      <c r="AG58" s="12"/>
+      <c r="AH58" s="12"/>
+      <c r="AI58" s="12"/>
+      <c r="AJ58" s="12"/>
+      <c r="AK58" s="12"/>
+      <c r="AL58" s="12"/>
+      <c r="AM58" s="12"/>
+    </row>
+    <row r="59" spans="4:39" ht="27.75" customHeight="1">
+      <c r="D59" s="12" t="s">
+        <v>114</v>
+      </c>
+      <c r="E59" s="12"/>
+      <c r="F59" s="12"/>
+      <c r="G59" s="12"/>
+      <c r="H59" s="12"/>
+      <c r="I59" s="12"/>
+      <c r="J59" s="12" t="s">
+        <v>123</v>
+      </c>
+      <c r="K59" s="12"/>
+      <c r="L59" s="12"/>
+      <c r="M59" s="12"/>
+      <c r="N59" s="12"/>
+      <c r="O59" s="12"/>
+      <c r="P59" s="12"/>
+      <c r="Q59" s="12"/>
+      <c r="R59" s="12"/>
+      <c r="S59" s="12"/>
+      <c r="T59" s="12"/>
+      <c r="U59" s="12" t="s">
+        <v>125</v>
+      </c>
+      <c r="V59" s="12"/>
+      <c r="W59" s="12"/>
+      <c r="X59" s="12"/>
+      <c r="Y59" s="12"/>
+      <c r="Z59" s="12"/>
+      <c r="AA59" s="12"/>
+      <c r="AB59" s="12"/>
+      <c r="AC59" s="12"/>
+      <c r="AD59" s="12"/>
+      <c r="AE59" s="12"/>
+      <c r="AF59" s="12"/>
+      <c r="AG59" s="12"/>
+      <c r="AH59" s="12"/>
+      <c r="AI59" s="12"/>
+      <c r="AJ59" s="12"/>
+      <c r="AK59" s="12"/>
+      <c r="AL59" s="12"/>
+      <c r="AM59" s="12"/>
+    </row>
+    <row r="60" spans="4:39" ht="27.75" customHeight="1">
+      <c r="D60" s="12" t="s">
+        <v>114</v>
+      </c>
+      <c r="E60" s="12"/>
+      <c r="F60" s="12"/>
+      <c r="G60" s="12"/>
+      <c r="H60" s="12"/>
+      <c r="I60" s="12"/>
+      <c r="J60" s="12" t="s">
+        <v>126</v>
+      </c>
+      <c r="K60" s="12"/>
+      <c r="L60" s="12"/>
+      <c r="M60" s="12"/>
+      <c r="N60" s="12"/>
+      <c r="O60" s="12"/>
+      <c r="P60" s="12"/>
+      <c r="Q60" s="12"/>
+      <c r="R60" s="12"/>
+      <c r="S60" s="12"/>
+      <c r="T60" s="12"/>
+      <c r="U60" s="12" t="s">
+        <v>128</v>
+      </c>
+      <c r="V60" s="12"/>
+      <c r="W60" s="12"/>
+      <c r="X60" s="12"/>
+      <c r="Y60" s="12"/>
+      <c r="Z60" s="12"/>
+      <c r="AA60" s="12"/>
+      <c r="AB60" s="12"/>
+      <c r="AC60" s="12"/>
+      <c r="AD60" s="12"/>
+      <c r="AE60" s="12"/>
+      <c r="AF60" s="12"/>
+      <c r="AG60" s="12"/>
+      <c r="AH60" s="12"/>
+      <c r="AI60" s="12"/>
+      <c r="AJ60" s="12"/>
+      <c r="AK60" s="12"/>
+      <c r="AL60" s="12"/>
+      <c r="AM60" s="12"/>
+    </row>
+    <row r="61" spans="4:39" ht="27.75" customHeight="1">
+      <c r="D61" s="12" t="s">
+        <v>122</v>
+      </c>
+      <c r="E61" s="12"/>
+      <c r="F61" s="12"/>
+      <c r="G61" s="12"/>
+      <c r="H61" s="12"/>
+      <c r="I61" s="12"/>
+      <c r="J61" s="12" t="s">
+        <v>101</v>
+      </c>
+      <c r="K61" s="12"/>
+      <c r="L61" s="12"/>
+      <c r="M61" s="12"/>
+      <c r="N61" s="12"/>
+      <c r="O61" s="12"/>
+      <c r="P61" s="12"/>
+      <c r="Q61" s="12"/>
+      <c r="R61" s="12"/>
+      <c r="S61" s="12"/>
+      <c r="T61" s="12"/>
+      <c r="U61" s="12"/>
+      <c r="V61" s="12"/>
+      <c r="W61" s="12"/>
+      <c r="X61" s="12"/>
+      <c r="Y61" s="12"/>
+      <c r="Z61" s="12"/>
+      <c r="AA61" s="12"/>
+      <c r="AB61" s="12"/>
+      <c r="AC61" s="12"/>
+      <c r="AD61" s="12"/>
+      <c r="AE61" s="12"/>
+      <c r="AF61" s="12"/>
+      <c r="AG61" s="12"/>
+      <c r="AH61" s="12"/>
+      <c r="AI61" s="12"/>
+      <c r="AJ61" s="12"/>
+      <c r="AK61" s="12"/>
+      <c r="AL61" s="12"/>
+      <c r="AM61" s="12"/>
+    </row>
+    <row r="62" spans="4:39" ht="27.75" customHeight="1">
+      <c r="D62" s="12" t="s">
+        <v>20</v>
+      </c>
+      <c r="E62" s="12"/>
+      <c r="F62" s="12"/>
+      <c r="G62" s="12"/>
+      <c r="H62" s="12"/>
+      <c r="I62" s="12"/>
+      <c r="J62" s="12" t="s">
         <v>131</v>
       </c>
-      <c r="V52" s="27"/>
-      <c r="W52" s="27"/>
-      <c r="X52" s="27"/>
-      <c r="Y52" s="27"/>
-      <c r="Z52" s="27"/>
-      <c r="AA52" s="27"/>
-      <c r="AB52" s="27"/>
-      <c r="AC52" s="27"/>
-      <c r="AD52" s="27"/>
-      <c r="AE52" s="27"/>
-      <c r="AF52" s="27"/>
-      <c r="AG52" s="27"/>
-      <c r="AH52" s="27"/>
-      <c r="AI52" s="27"/>
-      <c r="AJ52" s="27"/>
-      <c r="AK52" s="27"/>
-      <c r="AL52" s="27"/>
-      <c r="AM52" s="27"/>
-    </row>
-    <row r="53" spans="4:39" ht="27.75" customHeight="1">
-      <c r="D53" s="14" t="s">
+      <c r="K62" s="12"/>
+      <c r="L62" s="12"/>
+      <c r="M62" s="12"/>
+      <c r="N62" s="12"/>
+      <c r="O62" s="12"/>
+      <c r="P62" s="12"/>
+      <c r="Q62" s="12"/>
+      <c r="R62" s="12"/>
+      <c r="S62" s="12"/>
+      <c r="T62" s="12"/>
+      <c r="U62" s="12"/>
+      <c r="V62" s="12"/>
+      <c r="W62" s="12"/>
+      <c r="X62" s="12"/>
+      <c r="Y62" s="12"/>
+      <c r="Z62" s="12"/>
+      <c r="AA62" s="12"/>
+      <c r="AB62" s="12"/>
+      <c r="AC62" s="12"/>
+      <c r="AD62" s="12"/>
+      <c r="AE62" s="12"/>
+      <c r="AF62" s="12"/>
+      <c r="AG62" s="12"/>
+      <c r="AH62" s="12"/>
+      <c r="AI62" s="12"/>
+      <c r="AJ62" s="12"/>
+      <c r="AK62" s="12"/>
+      <c r="AL62" s="12"/>
+      <c r="AM62" s="12"/>
+    </row>
+    <row r="63" spans="4:39" ht="27.75" customHeight="1">
+      <c r="D63" s="12" t="s">
         <v>20</v>
       </c>
-      <c r="E53" s="14"/>
-      <c r="F53" s="14"/>
-      <c r="G53" s="14"/>
-      <c r="H53" s="14"/>
-      <c r="I53" s="14"/>
-      <c r="J53" s="14" t="s">
-        <v>110</v>
-      </c>
-      <c r="K53" s="14"/>
-      <c r="L53" s="14"/>
-      <c r="M53" s="14"/>
-      <c r="N53" s="14"/>
-      <c r="O53" s="14"/>
-      <c r="P53" s="14"/>
-      <c r="Q53" s="14"/>
-      <c r="R53" s="14"/>
-      <c r="S53" s="14"/>
-      <c r="T53" s="14"/>
-      <c r="U53" s="27" t="s">
-        <v>113</v>
-      </c>
-      <c r="V53" s="27"/>
-      <c r="W53" s="27"/>
-      <c r="X53" s="27"/>
-      <c r="Y53" s="27"/>
-      <c r="Z53" s="27"/>
-      <c r="AA53" s="27"/>
-      <c r="AB53" s="27"/>
-      <c r="AC53" s="27"/>
-      <c r="AD53" s="27"/>
-      <c r="AE53" s="27"/>
-      <c r="AF53" s="27"/>
-      <c r="AG53" s="27"/>
-      <c r="AH53" s="27"/>
-      <c r="AI53" s="27"/>
-      <c r="AJ53" s="27"/>
-      <c r="AK53" s="27"/>
-      <c r="AL53" s="27"/>
-      <c r="AM53" s="27"/>
-    </row>
-    <row r="54" spans="4:39" ht="27.75" customHeight="1">
-      <c r="D54" s="14" t="s">
-        <v>20</v>
-      </c>
-      <c r="E54" s="14"/>
-      <c r="F54" s="14"/>
-      <c r="G54" s="14"/>
-      <c r="H54" s="14"/>
-      <c r="I54" s="14"/>
-      <c r="J54" s="14" t="s">
-        <v>21</v>
-      </c>
-      <c r="K54" s="14"/>
-      <c r="L54" s="14"/>
-      <c r="M54" s="14"/>
-      <c r="N54" s="14"/>
-      <c r="O54" s="14"/>
-      <c r="P54" s="14"/>
-      <c r="Q54" s="14"/>
-      <c r="R54" s="14"/>
-      <c r="S54" s="14"/>
-      <c r="T54" s="14"/>
-      <c r="U54" s="14"/>
-      <c r="V54" s="14"/>
-      <c r="W54" s="14"/>
-      <c r="X54" s="14"/>
-      <c r="Y54" s="14"/>
-      <c r="Z54" s="14"/>
-      <c r="AA54" s="14"/>
-      <c r="AB54" s="14"/>
-      <c r="AC54" s="14"/>
-      <c r="AD54" s="14"/>
-      <c r="AE54" s="14"/>
-      <c r="AF54" s="14"/>
-      <c r="AG54" s="14"/>
-      <c r="AH54" s="14"/>
-      <c r="AI54" s="14"/>
-      <c r="AJ54" s="14"/>
-      <c r="AK54" s="14"/>
-      <c r="AL54" s="14"/>
-      <c r="AM54" s="14"/>
-    </row>
-    <row r="55" spans="4:39" ht="27.75" customHeight="1">
-      <c r="D55" s="14" t="s">
-        <v>22</v>
-      </c>
-      <c r="E55" s="14"/>
-      <c r="F55" s="14"/>
-      <c r="G55" s="14"/>
-      <c r="H55" s="14"/>
-      <c r="I55" s="14"/>
-      <c r="J55" s="14" t="s">
-        <v>108</v>
-      </c>
-      <c r="K55" s="14"/>
-      <c r="L55" s="14"/>
-      <c r="M55" s="14"/>
-      <c r="N55" s="14"/>
-      <c r="O55" s="14"/>
-      <c r="P55" s="14"/>
-      <c r="Q55" s="14"/>
-      <c r="R55" s="14"/>
-      <c r="S55" s="14"/>
-      <c r="T55" s="14"/>
-      <c r="U55" s="14"/>
-      <c r="V55" s="14"/>
-      <c r="W55" s="14"/>
-      <c r="X55" s="14"/>
-      <c r="Y55" s="14"/>
-      <c r="Z55" s="14"/>
-      <c r="AA55" s="14"/>
-      <c r="AB55" s="14"/>
-      <c r="AC55" s="14"/>
-      <c r="AD55" s="14"/>
-      <c r="AE55" s="14"/>
-      <c r="AF55" s="14"/>
-      <c r="AG55" s="14"/>
-      <c r="AH55" s="14"/>
-      <c r="AI55" s="14"/>
-      <c r="AJ55" s="14"/>
-      <c r="AK55" s="14"/>
-      <c r="AL55" s="14"/>
-      <c r="AM55" s="14"/>
-    </row>
-    <row r="56" spans="4:39" ht="27.75" customHeight="1">
-      <c r="D56" s="14" t="s">
-        <v>116</v>
-      </c>
-      <c r="E56" s="14"/>
-      <c r="F56" s="14"/>
-      <c r="G56" s="14"/>
-      <c r="H56" s="14"/>
-      <c r="I56" s="14"/>
-      <c r="J56" s="14" t="s">
-        <v>117</v>
-      </c>
-      <c r="K56" s="14"/>
-      <c r="L56" s="14"/>
-      <c r="M56" s="14"/>
-      <c r="N56" s="14"/>
-      <c r="O56" s="14"/>
-      <c r="P56" s="14"/>
-      <c r="Q56" s="14"/>
-      <c r="R56" s="14"/>
-      <c r="S56" s="14"/>
-      <c r="T56" s="14"/>
-      <c r="U56" s="14"/>
-      <c r="V56" s="14"/>
-      <c r="W56" s="14"/>
-      <c r="X56" s="14"/>
-      <c r="Y56" s="14"/>
-      <c r="Z56" s="14"/>
-      <c r="AA56" s="14"/>
-      <c r="AB56" s="14"/>
-      <c r="AC56" s="14"/>
-      <c r="AD56" s="14"/>
-      <c r="AE56" s="14"/>
-      <c r="AF56" s="14"/>
-      <c r="AG56" s="14"/>
-      <c r="AH56" s="14"/>
-      <c r="AI56" s="14"/>
-      <c r="AJ56" s="14"/>
-      <c r="AK56" s="14"/>
-      <c r="AL56" s="14"/>
-      <c r="AM56" s="14"/>
-    </row>
-    <row r="57" spans="4:39" ht="27.75" customHeight="1">
-      <c r="D57" s="14" t="s">
-        <v>115</v>
-      </c>
-      <c r="E57" s="14"/>
-      <c r="F57" s="14"/>
-      <c r="G57" s="14"/>
-      <c r="H57" s="14"/>
-      <c r="I57" s="14"/>
-      <c r="J57" s="14" t="s">
-        <v>119</v>
-      </c>
-      <c r="K57" s="14"/>
-      <c r="L57" s="14"/>
-      <c r="M57" s="14"/>
-      <c r="N57" s="14"/>
-      <c r="O57" s="14"/>
-      <c r="P57" s="14"/>
-      <c r="Q57" s="14"/>
-      <c r="R57" s="14"/>
-      <c r="S57" s="14"/>
-      <c r="T57" s="14"/>
-      <c r="U57" s="27" t="s">
-        <v>118</v>
-      </c>
-      <c r="V57" s="27"/>
-      <c r="W57" s="27"/>
-      <c r="X57" s="27"/>
-      <c r="Y57" s="27"/>
-      <c r="Z57" s="27"/>
-      <c r="AA57" s="27"/>
-      <c r="AB57" s="27"/>
-      <c r="AC57" s="27"/>
-      <c r="AD57" s="27"/>
-      <c r="AE57" s="27"/>
-      <c r="AF57" s="27"/>
-      <c r="AG57" s="27"/>
-      <c r="AH57" s="27"/>
-      <c r="AI57" s="27"/>
-      <c r="AJ57" s="27"/>
-      <c r="AK57" s="27"/>
-      <c r="AL57" s="27"/>
-      <c r="AM57" s="27"/>
-    </row>
-    <row r="58" spans="4:39" ht="27.75" customHeight="1">
-      <c r="D58" s="14" t="s">
-        <v>115</v>
-      </c>
-      <c r="E58" s="14"/>
-      <c r="F58" s="14"/>
-      <c r="G58" s="14"/>
-      <c r="H58" s="14"/>
-      <c r="I58" s="14"/>
-      <c r="J58" s="14" t="s">
-        <v>121</v>
-      </c>
-      <c r="K58" s="14"/>
-      <c r="L58" s="14"/>
-      <c r="M58" s="14"/>
-      <c r="N58" s="14"/>
-      <c r="O58" s="14"/>
-      <c r="P58" s="14"/>
-      <c r="Q58" s="14"/>
-      <c r="R58" s="14"/>
-      <c r="S58" s="14"/>
-      <c r="T58" s="14"/>
-      <c r="U58" s="14" t="s">
-        <v>122</v>
-      </c>
-      <c r="V58" s="14"/>
-      <c r="W58" s="14"/>
-      <c r="X58" s="14"/>
-      <c r="Y58" s="14"/>
-      <c r="Z58" s="14"/>
-      <c r="AA58" s="14"/>
-      <c r="AB58" s="14"/>
-      <c r="AC58" s="14"/>
-      <c r="AD58" s="14"/>
-      <c r="AE58" s="14"/>
-      <c r="AF58" s="14"/>
-      <c r="AG58" s="14"/>
-      <c r="AH58" s="14"/>
-      <c r="AI58" s="14"/>
-      <c r="AJ58" s="14"/>
-      <c r="AK58" s="14"/>
-      <c r="AL58" s="14"/>
-      <c r="AM58" s="14"/>
-    </row>
-    <row r="59" spans="4:39" ht="27.75" customHeight="1">
-      <c r="D59" s="14" t="s">
-        <v>115</v>
-      </c>
-      <c r="E59" s="14"/>
-      <c r="F59" s="14"/>
-      <c r="G59" s="14"/>
-      <c r="H59" s="14"/>
-      <c r="I59" s="14"/>
-      <c r="J59" s="14" t="s">
-        <v>125</v>
-      </c>
-      <c r="K59" s="14"/>
-      <c r="L59" s="14"/>
-      <c r="M59" s="14"/>
-      <c r="N59" s="14"/>
-      <c r="O59" s="14"/>
-      <c r="P59" s="14"/>
-      <c r="Q59" s="14"/>
-      <c r="R59" s="14"/>
-      <c r="S59" s="14"/>
-      <c r="T59" s="14"/>
-      <c r="U59" s="14" t="s">
-        <v>127</v>
-      </c>
-      <c r="V59" s="14"/>
-      <c r="W59" s="14"/>
-      <c r="X59" s="14"/>
-      <c r="Y59" s="14"/>
-      <c r="Z59" s="14"/>
-      <c r="AA59" s="14"/>
-      <c r="AB59" s="14"/>
-      <c r="AC59" s="14"/>
-      <c r="AD59" s="14"/>
-      <c r="AE59" s="14"/>
-      <c r="AF59" s="14"/>
-      <c r="AG59" s="14"/>
-      <c r="AH59" s="14"/>
-      <c r="AI59" s="14"/>
-      <c r="AJ59" s="14"/>
-      <c r="AK59" s="14"/>
-      <c r="AL59" s="14"/>
-      <c r="AM59" s="14"/>
-    </row>
-    <row r="60" spans="4:39" ht="27.75" customHeight="1">
-      <c r="D60" s="14" t="s">
-        <v>115</v>
-      </c>
-      <c r="E60" s="14"/>
-      <c r="F60" s="14"/>
-      <c r="G60" s="14"/>
-      <c r="H60" s="14"/>
-      <c r="I60" s="14"/>
-      <c r="J60" s="14" t="s">
-        <v>128</v>
-      </c>
-      <c r="K60" s="14"/>
-      <c r="L60" s="14"/>
-      <c r="M60" s="14"/>
-      <c r="N60" s="14"/>
-      <c r="O60" s="14"/>
-      <c r="P60" s="14"/>
-      <c r="Q60" s="14"/>
-      <c r="R60" s="14"/>
-      <c r="S60" s="14"/>
-      <c r="T60" s="14"/>
-      <c r="U60" s="14" t="s">
-        <v>130</v>
-      </c>
-      <c r="V60" s="14"/>
-      <c r="W60" s="14"/>
-      <c r="X60" s="14"/>
-      <c r="Y60" s="14"/>
-      <c r="Z60" s="14"/>
-      <c r="AA60" s="14"/>
-      <c r="AB60" s="14"/>
-      <c r="AC60" s="14"/>
-      <c r="AD60" s="14"/>
-      <c r="AE60" s="14"/>
-      <c r="AF60" s="14"/>
-      <c r="AG60" s="14"/>
-      <c r="AH60" s="14"/>
-      <c r="AI60" s="14"/>
-      <c r="AJ60" s="14"/>
-      <c r="AK60" s="14"/>
-      <c r="AL60" s="14"/>
-      <c r="AM60" s="14"/>
-    </row>
-    <row r="61" spans="4:39" ht="27.75" customHeight="1">
-      <c r="D61" s="14" t="s">
-        <v>123</v>
-      </c>
-      <c r="E61" s="14"/>
-      <c r="F61" s="14"/>
-      <c r="G61" s="14"/>
-      <c r="H61" s="14"/>
-      <c r="I61" s="14"/>
-      <c r="J61" s="14" t="s">
-        <v>124</v>
-      </c>
-      <c r="K61" s="14"/>
-      <c r="L61" s="14"/>
-      <c r="M61" s="14"/>
-      <c r="N61" s="14"/>
-      <c r="O61" s="14"/>
-      <c r="P61" s="14"/>
-      <c r="Q61" s="14"/>
-      <c r="R61" s="14"/>
-      <c r="S61" s="14"/>
-      <c r="T61" s="14"/>
-      <c r="U61" s="14"/>
-      <c r="V61" s="14"/>
-      <c r="W61" s="14"/>
-      <c r="X61" s="14"/>
-      <c r="Y61" s="14"/>
-      <c r="Z61" s="14"/>
-      <c r="AA61" s="14"/>
-      <c r="AB61" s="14"/>
-      <c r="AC61" s="14"/>
-      <c r="AD61" s="14"/>
-      <c r="AE61" s="14"/>
-      <c r="AF61" s="14"/>
-      <c r="AG61" s="14"/>
-      <c r="AH61" s="14"/>
-      <c r="AI61" s="14"/>
-      <c r="AJ61" s="14"/>
-      <c r="AK61" s="14"/>
-      <c r="AL61" s="14"/>
-      <c r="AM61" s="14"/>
-    </row>
-    <row r="62" spans="4:39" ht="27.75" customHeight="1">
-      <c r="D62" s="14"/>
-      <c r="E62" s="14"/>
-      <c r="F62" s="14"/>
-      <c r="G62" s="14"/>
-      <c r="H62" s="14"/>
-      <c r="I62" s="14"/>
-      <c r="J62" s="14"/>
-      <c r="K62" s="14"/>
-      <c r="L62" s="14"/>
-      <c r="M62" s="14"/>
-      <c r="N62" s="14"/>
-      <c r="O62" s="14"/>
-      <c r="P62" s="14"/>
-      <c r="Q62" s="14"/>
-      <c r="R62" s="14"/>
-      <c r="S62" s="14"/>
-      <c r="T62" s="14"/>
-      <c r="U62" s="14"/>
-      <c r="V62" s="14"/>
-      <c r="W62" s="14"/>
-      <c r="X62" s="14"/>
-      <c r="Y62" s="14"/>
-      <c r="Z62" s="14"/>
-      <c r="AA62" s="14"/>
-      <c r="AB62" s="14"/>
-      <c r="AC62" s="14"/>
-      <c r="AD62" s="14"/>
-      <c r="AE62" s="14"/>
-      <c r="AF62" s="14"/>
-      <c r="AG62" s="14"/>
-      <c r="AH62" s="14"/>
-      <c r="AI62" s="14"/>
-      <c r="AJ62" s="14"/>
-      <c r="AK62" s="14"/>
-      <c r="AL62" s="14"/>
-      <c r="AM62" s="14"/>
-    </row>
-    <row r="63" spans="4:39" ht="27.75" customHeight="1">
-      <c r="D63" s="14"/>
-      <c r="E63" s="14"/>
-      <c r="F63" s="14"/>
-      <c r="G63" s="14"/>
-      <c r="H63" s="14"/>
-      <c r="I63" s="14"/>
-      <c r="J63" s="14"/>
-      <c r="K63" s="14"/>
-      <c r="L63" s="14"/>
-      <c r="M63" s="14"/>
-      <c r="N63" s="14"/>
-      <c r="O63" s="14"/>
-      <c r="P63" s="14"/>
-      <c r="Q63" s="14"/>
-      <c r="R63" s="14"/>
-      <c r="S63" s="14"/>
-      <c r="T63" s="14"/>
-      <c r="U63" s="14"/>
-      <c r="V63" s="14"/>
-      <c r="W63" s="14"/>
-      <c r="X63" s="14"/>
-      <c r="Y63" s="14"/>
-      <c r="Z63" s="14"/>
-      <c r="AA63" s="14"/>
-      <c r="AB63" s="14"/>
-      <c r="AC63" s="14"/>
-      <c r="AD63" s="14"/>
-      <c r="AE63" s="14"/>
-      <c r="AF63" s="14"/>
-      <c r="AG63" s="14"/>
-      <c r="AH63" s="14"/>
-      <c r="AI63" s="14"/>
-      <c r="AJ63" s="14"/>
-      <c r="AK63" s="14"/>
-      <c r="AL63" s="14"/>
-      <c r="AM63" s="14"/>
+      <c r="E63" s="12"/>
+      <c r="F63" s="12"/>
+      <c r="G63" s="12"/>
+      <c r="H63" s="12"/>
+      <c r="I63" s="12"/>
+      <c r="J63" s="12" t="s">
+        <v>132</v>
+      </c>
+      <c r="K63" s="12"/>
+      <c r="L63" s="12"/>
+      <c r="M63" s="12"/>
+      <c r="N63" s="12"/>
+      <c r="O63" s="12"/>
+      <c r="P63" s="12"/>
+      <c r="Q63" s="12"/>
+      <c r="R63" s="12"/>
+      <c r="S63" s="12"/>
+      <c r="T63" s="12"/>
+      <c r="U63" s="12"/>
+      <c r="V63" s="12"/>
+      <c r="W63" s="12"/>
+      <c r="X63" s="12"/>
+      <c r="Y63" s="12"/>
+      <c r="Z63" s="12"/>
+      <c r="AA63" s="12"/>
+      <c r="AB63" s="12"/>
+      <c r="AC63" s="12"/>
+      <c r="AD63" s="12"/>
+      <c r="AE63" s="12"/>
+      <c r="AF63" s="12"/>
+      <c r="AG63" s="12"/>
+      <c r="AH63" s="12"/>
+      <c r="AI63" s="12"/>
+      <c r="AJ63" s="12"/>
+      <c r="AK63" s="12"/>
+      <c r="AL63" s="12"/>
+      <c r="AM63" s="12"/>
     </row>
     <row r="64" spans="4:39" ht="27.75" customHeight="1">
-      <c r="D64" s="14"/>
-      <c r="E64" s="14"/>
-      <c r="F64" s="14"/>
-      <c r="G64" s="14"/>
-      <c r="H64" s="14"/>
-      <c r="I64" s="14"/>
-      <c r="J64" s="14"/>
-      <c r="K64" s="14"/>
-      <c r="L64" s="14"/>
-      <c r="M64" s="14"/>
-      <c r="N64" s="14"/>
-      <c r="O64" s="14"/>
-      <c r="P64" s="14"/>
-      <c r="Q64" s="14"/>
-      <c r="R64" s="14"/>
-      <c r="S64" s="14"/>
-      <c r="T64" s="14"/>
-      <c r="U64" s="14"/>
-      <c r="V64" s="14"/>
-      <c r="W64" s="14"/>
-      <c r="X64" s="14"/>
-      <c r="Y64" s="14"/>
-      <c r="Z64" s="14"/>
-      <c r="AA64" s="14"/>
-      <c r="AB64" s="14"/>
-      <c r="AC64" s="14"/>
-      <c r="AD64" s="14"/>
-      <c r="AE64" s="14"/>
-      <c r="AF64" s="14"/>
-      <c r="AG64" s="14"/>
-      <c r="AH64" s="14"/>
-      <c r="AI64" s="14"/>
-      <c r="AJ64" s="14"/>
-      <c r="AK64" s="14"/>
-      <c r="AL64" s="14"/>
-      <c r="AM64" s="14"/>
+      <c r="D64" s="12"/>
+      <c r="E64" s="12"/>
+      <c r="F64" s="12"/>
+      <c r="G64" s="12"/>
+      <c r="H64" s="12"/>
+      <c r="I64" s="12"/>
+      <c r="J64" s="12"/>
+      <c r="K64" s="12"/>
+      <c r="L64" s="12"/>
+      <c r="M64" s="12"/>
+      <c r="N64" s="12"/>
+      <c r="O64" s="12"/>
+      <c r="P64" s="12"/>
+      <c r="Q64" s="12"/>
+      <c r="R64" s="12"/>
+      <c r="S64" s="12"/>
+      <c r="T64" s="12"/>
+      <c r="U64" s="12"/>
+      <c r="V64" s="12"/>
+      <c r="W64" s="12"/>
+      <c r="X64" s="12"/>
+      <c r="Y64" s="12"/>
+      <c r="Z64" s="12"/>
+      <c r="AA64" s="12"/>
+      <c r="AB64" s="12"/>
+      <c r="AC64" s="12"/>
+      <c r="AD64" s="12"/>
+      <c r="AE64" s="12"/>
+      <c r="AF64" s="12"/>
+      <c r="AG64" s="12"/>
+      <c r="AH64" s="12"/>
+      <c r="AI64" s="12"/>
+      <c r="AJ64" s="12"/>
+      <c r="AK64" s="12"/>
+      <c r="AL64" s="12"/>
+      <c r="AM64" s="12"/>
     </row>
     <row r="65" spans="4:39" ht="27.75" customHeight="1">
-      <c r="D65" s="14"/>
-      <c r="E65" s="14"/>
-      <c r="F65" s="14"/>
-      <c r="G65" s="14"/>
-      <c r="H65" s="14"/>
-      <c r="I65" s="14"/>
-      <c r="J65" s="14"/>
-      <c r="K65" s="14"/>
-      <c r="L65" s="14"/>
-      <c r="M65" s="14"/>
-      <c r="N65" s="14"/>
-      <c r="O65" s="14"/>
-      <c r="P65" s="14"/>
-      <c r="Q65" s="14"/>
-      <c r="R65" s="14"/>
-      <c r="S65" s="14"/>
-      <c r="T65" s="14"/>
-      <c r="U65" s="14"/>
-      <c r="V65" s="14"/>
-      <c r="W65" s="14"/>
-      <c r="X65" s="14"/>
-      <c r="Y65" s="14"/>
-      <c r="Z65" s="14"/>
-      <c r="AA65" s="14"/>
-      <c r="AB65" s="14"/>
-      <c r="AC65" s="14"/>
-      <c r="AD65" s="14"/>
-      <c r="AE65" s="14"/>
-      <c r="AF65" s="14"/>
-      <c r="AG65" s="14"/>
-      <c r="AH65" s="14"/>
-      <c r="AI65" s="14"/>
-      <c r="AJ65" s="14"/>
-      <c r="AK65" s="14"/>
-      <c r="AL65" s="14"/>
-      <c r="AM65" s="14"/>
+      <c r="D65" s="12"/>
+      <c r="E65" s="12"/>
+      <c r="F65" s="12"/>
+      <c r="G65" s="12"/>
+      <c r="H65" s="12"/>
+      <c r="I65" s="12"/>
+      <c r="J65" s="12"/>
+      <c r="K65" s="12"/>
+      <c r="L65" s="12"/>
+      <c r="M65" s="12"/>
+      <c r="N65" s="12"/>
+      <c r="O65" s="12"/>
+      <c r="P65" s="12"/>
+      <c r="Q65" s="12"/>
+      <c r="R65" s="12"/>
+      <c r="S65" s="12"/>
+      <c r="T65" s="12"/>
+      <c r="U65" s="12"/>
+      <c r="V65" s="12"/>
+      <c r="W65" s="12"/>
+      <c r="X65" s="12"/>
+      <c r="Y65" s="12"/>
+      <c r="Z65" s="12"/>
+      <c r="AA65" s="12"/>
+      <c r="AB65" s="12"/>
+      <c r="AC65" s="12"/>
+      <c r="AD65" s="12"/>
+      <c r="AE65" s="12"/>
+      <c r="AF65" s="12"/>
+      <c r="AG65" s="12"/>
+      <c r="AH65" s="12"/>
+      <c r="AI65" s="12"/>
+      <c r="AJ65" s="12"/>
+      <c r="AK65" s="12"/>
+      <c r="AL65" s="12"/>
+      <c r="AM65" s="12"/>
     </row>
     <row r="66" spans="4:39" ht="27.75" customHeight="1">
-      <c r="D66" s="14"/>
-      <c r="E66" s="14"/>
-      <c r="F66" s="14"/>
-      <c r="G66" s="14"/>
-      <c r="H66" s="14"/>
-      <c r="I66" s="14"/>
-      <c r="J66" s="14"/>
-      <c r="K66" s="14"/>
-      <c r="L66" s="14"/>
-      <c r="M66" s="14"/>
-      <c r="N66" s="14"/>
-      <c r="O66" s="14"/>
-      <c r="P66" s="14"/>
-      <c r="Q66" s="14"/>
-      <c r="R66" s="14"/>
-      <c r="S66" s="14"/>
-      <c r="T66" s="14"/>
-      <c r="U66" s="14"/>
-      <c r="V66" s="14"/>
-      <c r="W66" s="14"/>
-      <c r="X66" s="14"/>
-      <c r="Y66" s="14"/>
-      <c r="Z66" s="14"/>
-      <c r="AA66" s="14"/>
-      <c r="AB66" s="14"/>
-      <c r="AC66" s="14"/>
-      <c r="AD66" s="14"/>
-      <c r="AE66" s="14"/>
-      <c r="AF66" s="14"/>
-      <c r="AG66" s="14"/>
-      <c r="AH66" s="14"/>
-      <c r="AI66" s="14"/>
-      <c r="AJ66" s="14"/>
-      <c r="AK66" s="14"/>
-      <c r="AL66" s="14"/>
-      <c r="AM66" s="14"/>
+      <c r="D66" s="12"/>
+      <c r="E66" s="12"/>
+      <c r="F66" s="12"/>
+      <c r="G66" s="12"/>
+      <c r="H66" s="12"/>
+      <c r="I66" s="12"/>
+      <c r="J66" s="12"/>
+      <c r="K66" s="12"/>
+      <c r="L66" s="12"/>
+      <c r="M66" s="12"/>
+      <c r="N66" s="12"/>
+      <c r="O66" s="12"/>
+      <c r="P66" s="12"/>
+      <c r="Q66" s="12"/>
+      <c r="R66" s="12"/>
+      <c r="S66" s="12"/>
+      <c r="T66" s="12"/>
+      <c r="U66" s="12"/>
+      <c r="V66" s="12"/>
+      <c r="W66" s="12"/>
+      <c r="X66" s="12"/>
+      <c r="Y66" s="12"/>
+      <c r="Z66" s="12"/>
+      <c r="AA66" s="12"/>
+      <c r="AB66" s="12"/>
+      <c r="AC66" s="12"/>
+      <c r="AD66" s="12"/>
+      <c r="AE66" s="12"/>
+      <c r="AF66" s="12"/>
+      <c r="AG66" s="12"/>
+      <c r="AH66" s="12"/>
+      <c r="AI66" s="12"/>
+      <c r="AJ66" s="12"/>
+      <c r="AK66" s="12"/>
+      <c r="AL66" s="12"/>
+      <c r="AM66" s="12"/>
     </row>
     <row r="67" spans="4:39" ht="27.75" customHeight="1">
-      <c r="D67" s="14"/>
-      <c r="E67" s="14"/>
-      <c r="F67" s="14"/>
-      <c r="G67" s="14"/>
-      <c r="H67" s="14"/>
-      <c r="I67" s="14"/>
-      <c r="J67" s="14"/>
-      <c r="K67" s="14"/>
-      <c r="L67" s="14"/>
-      <c r="M67" s="14"/>
-      <c r="N67" s="14"/>
-      <c r="O67" s="14"/>
-      <c r="P67" s="14"/>
-      <c r="Q67" s="14"/>
-      <c r="R67" s="14"/>
-      <c r="S67" s="14"/>
-      <c r="T67" s="14"/>
-      <c r="U67" s="14"/>
-      <c r="V67" s="14"/>
-      <c r="W67" s="14"/>
-      <c r="X67" s="14"/>
-      <c r="Y67" s="14"/>
-      <c r="Z67" s="14"/>
-      <c r="AA67" s="14"/>
-      <c r="AB67" s="14"/>
-      <c r="AC67" s="14"/>
-      <c r="AD67" s="14"/>
-      <c r="AE67" s="14"/>
-      <c r="AF67" s="14"/>
-      <c r="AG67" s="14"/>
-      <c r="AH67" s="14"/>
-      <c r="AI67" s="14"/>
-      <c r="AJ67" s="14"/>
-      <c r="AK67" s="14"/>
-      <c r="AL67" s="14"/>
-      <c r="AM67" s="14"/>
+      <c r="D67" s="12"/>
+      <c r="E67" s="12"/>
+      <c r="F67" s="12"/>
+      <c r="G67" s="12"/>
+      <c r="H67" s="12"/>
+      <c r="I67" s="12"/>
+      <c r="J67" s="12"/>
+      <c r="K67" s="12"/>
+      <c r="L67" s="12"/>
+      <c r="M67" s="12"/>
+      <c r="N67" s="12"/>
+      <c r="O67" s="12"/>
+      <c r="P67" s="12"/>
+      <c r="Q67" s="12"/>
+      <c r="R67" s="12"/>
+      <c r="S67" s="12"/>
+      <c r="T67" s="12"/>
+      <c r="U67" s="12"/>
+      <c r="V67" s="12"/>
+      <c r="W67" s="12"/>
+      <c r="X67" s="12"/>
+      <c r="Y67" s="12"/>
+      <c r="Z67" s="12"/>
+      <c r="AA67" s="12"/>
+      <c r="AB67" s="12"/>
+      <c r="AC67" s="12"/>
+      <c r="AD67" s="12"/>
+      <c r="AE67" s="12"/>
+      <c r="AF67" s="12"/>
+      <c r="AG67" s="12"/>
+      <c r="AH67" s="12"/>
+      <c r="AI67" s="12"/>
+      <c r="AJ67" s="12"/>
+      <c r="AK67" s="12"/>
+      <c r="AL67" s="12"/>
+      <c r="AM67" s="12"/>
     </row>
     <row r="68" spans="4:39" ht="27.75" customHeight="1">
-      <c r="D68" s="14"/>
-      <c r="E68" s="14"/>
-      <c r="F68" s="14"/>
-      <c r="G68" s="14"/>
-      <c r="H68" s="14"/>
-      <c r="I68" s="14"/>
-      <c r="J68" s="14"/>
-      <c r="K68" s="14"/>
-      <c r="L68" s="14"/>
-      <c r="M68" s="14"/>
-      <c r="N68" s="14"/>
-      <c r="O68" s="14"/>
-      <c r="P68" s="14"/>
-      <c r="Q68" s="14"/>
-      <c r="R68" s="14"/>
-      <c r="S68" s="14"/>
-      <c r="T68" s="14"/>
-      <c r="U68" s="14"/>
-      <c r="V68" s="14"/>
-      <c r="W68" s="14"/>
-      <c r="X68" s="14"/>
-      <c r="Y68" s="14"/>
-      <c r="Z68" s="14"/>
-      <c r="AA68" s="14"/>
-      <c r="AB68" s="14"/>
-      <c r="AC68" s="14"/>
-      <c r="AD68" s="14"/>
-      <c r="AE68" s="14"/>
-      <c r="AF68" s="14"/>
-      <c r="AG68" s="14"/>
-      <c r="AH68" s="14"/>
-      <c r="AI68" s="14"/>
-      <c r="AJ68" s="14"/>
-      <c r="AK68" s="14"/>
-      <c r="AL68" s="14"/>
-      <c r="AM68" s="14"/>
+      <c r="D68" s="12"/>
+      <c r="E68" s="12"/>
+      <c r="F68" s="12"/>
+      <c r="G68" s="12"/>
+      <c r="H68" s="12"/>
+      <c r="I68" s="12"/>
+      <c r="J68" s="12"/>
+      <c r="K68" s="12"/>
+      <c r="L68" s="12"/>
+      <c r="M68" s="12"/>
+      <c r="N68" s="12"/>
+      <c r="O68" s="12"/>
+      <c r="P68" s="12"/>
+      <c r="Q68" s="12"/>
+      <c r="R68" s="12"/>
+      <c r="S68" s="12"/>
+      <c r="T68" s="12"/>
+      <c r="U68" s="12"/>
+      <c r="V68" s="12"/>
+      <c r="W68" s="12"/>
+      <c r="X68" s="12"/>
+      <c r="Y68" s="12"/>
+      <c r="Z68" s="12"/>
+      <c r="AA68" s="12"/>
+      <c r="AB68" s="12"/>
+      <c r="AC68" s="12"/>
+      <c r="AD68" s="12"/>
+      <c r="AE68" s="12"/>
+      <c r="AF68" s="12"/>
+      <c r="AG68" s="12"/>
+      <c r="AH68" s="12"/>
+      <c r="AI68" s="12"/>
+      <c r="AJ68" s="12"/>
+      <c r="AK68" s="12"/>
+      <c r="AL68" s="12"/>
+      <c r="AM68" s="12"/>
     </row>
     <row r="69" spans="4:39" ht="27.75" customHeight="1">
-      <c r="D69" s="14"/>
-      <c r="E69" s="14"/>
-      <c r="F69" s="14"/>
-      <c r="G69" s="14"/>
-      <c r="H69" s="14"/>
-      <c r="I69" s="14"/>
-      <c r="J69" s="14"/>
-      <c r="K69" s="14"/>
-      <c r="L69" s="14"/>
-      <c r="M69" s="14"/>
-      <c r="N69" s="14"/>
-      <c r="O69" s="14"/>
-      <c r="P69" s="14"/>
-      <c r="Q69" s="14"/>
-      <c r="R69" s="14"/>
-      <c r="S69" s="14"/>
-      <c r="T69" s="14"/>
-      <c r="U69" s="14"/>
-      <c r="V69" s="14"/>
-      <c r="W69" s="14"/>
-      <c r="X69" s="14"/>
-      <c r="Y69" s="14"/>
-      <c r="Z69" s="14"/>
-      <c r="AA69" s="14"/>
-      <c r="AB69" s="14"/>
-      <c r="AC69" s="14"/>
-      <c r="AD69" s="14"/>
-      <c r="AE69" s="14"/>
-      <c r="AF69" s="14"/>
-      <c r="AG69" s="14"/>
-      <c r="AH69" s="14"/>
-      <c r="AI69" s="14"/>
-      <c r="AJ69" s="14"/>
-      <c r="AK69" s="14"/>
-      <c r="AL69" s="14"/>
-      <c r="AM69" s="14"/>
+      <c r="D69" s="12"/>
+      <c r="E69" s="12"/>
+      <c r="F69" s="12"/>
+      <c r="G69" s="12"/>
+      <c r="H69" s="12"/>
+      <c r="I69" s="12"/>
+      <c r="J69" s="12"/>
+      <c r="K69" s="12"/>
+      <c r="L69" s="12"/>
+      <c r="M69" s="12"/>
+      <c r="N69" s="12"/>
+      <c r="O69" s="12"/>
+      <c r="P69" s="12"/>
+      <c r="Q69" s="12"/>
+      <c r="R69" s="12"/>
+      <c r="S69" s="12"/>
+      <c r="T69" s="12"/>
+      <c r="U69" s="12"/>
+      <c r="V69" s="12"/>
+      <c r="W69" s="12"/>
+      <c r="X69" s="12"/>
+      <c r="Y69" s="12"/>
+      <c r="Z69" s="12"/>
+      <c r="AA69" s="12"/>
+      <c r="AB69" s="12"/>
+      <c r="AC69" s="12"/>
+      <c r="AD69" s="12"/>
+      <c r="AE69" s="12"/>
+      <c r="AF69" s="12"/>
+      <c r="AG69" s="12"/>
+      <c r="AH69" s="12"/>
+      <c r="AI69" s="12"/>
+      <c r="AJ69" s="12"/>
+      <c r="AK69" s="12"/>
+      <c r="AL69" s="12"/>
+      <c r="AM69" s="12"/>
     </row>
     <row r="70" spans="4:39" ht="27.75" customHeight="1">
-      <c r="D70" s="14"/>
-      <c r="E70" s="14"/>
-      <c r="F70" s="14"/>
-      <c r="G70" s="14"/>
-      <c r="H70" s="14"/>
-      <c r="I70" s="14"/>
-      <c r="J70" s="14"/>
-      <c r="K70" s="14"/>
-      <c r="L70" s="14"/>
-      <c r="M70" s="14"/>
-      <c r="N70" s="14"/>
-      <c r="O70" s="14"/>
-      <c r="P70" s="14"/>
-      <c r="Q70" s="14"/>
-      <c r="R70" s="14"/>
-      <c r="S70" s="14"/>
-      <c r="T70" s="14"/>
-      <c r="U70" s="14"/>
-      <c r="V70" s="14"/>
-      <c r="W70" s="14"/>
-      <c r="X70" s="14"/>
-      <c r="Y70" s="14"/>
-      <c r="Z70" s="14"/>
-      <c r="AA70" s="14"/>
-      <c r="AB70" s="14"/>
-      <c r="AC70" s="14"/>
-      <c r="AD70" s="14"/>
-      <c r="AE70" s="14"/>
-      <c r="AF70" s="14"/>
-      <c r="AG70" s="14"/>
-      <c r="AH70" s="14"/>
-      <c r="AI70" s="14"/>
-      <c r="AJ70" s="14"/>
-      <c r="AK70" s="14"/>
-      <c r="AL70" s="14"/>
-      <c r="AM70" s="14"/>
+      <c r="D70" s="12"/>
+      <c r="E70" s="12"/>
+      <c r="F70" s="12"/>
+      <c r="G70" s="12"/>
+      <c r="H70" s="12"/>
+      <c r="I70" s="12"/>
+      <c r="J70" s="12"/>
+      <c r="K70" s="12"/>
+      <c r="L70" s="12"/>
+      <c r="M70" s="12"/>
+      <c r="N70" s="12"/>
+      <c r="O70" s="12"/>
+      <c r="P70" s="12"/>
+      <c r="Q70" s="12"/>
+      <c r="R70" s="12"/>
+      <c r="S70" s="12"/>
+      <c r="T70" s="12"/>
+      <c r="U70" s="12"/>
+      <c r="V70" s="12"/>
+      <c r="W70" s="12"/>
+      <c r="X70" s="12"/>
+      <c r="Y70" s="12"/>
+      <c r="Z70" s="12"/>
+      <c r="AA70" s="12"/>
+      <c r="AB70" s="12"/>
+      <c r="AC70" s="12"/>
+      <c r="AD70" s="12"/>
+      <c r="AE70" s="12"/>
+      <c r="AF70" s="12"/>
+      <c r="AG70" s="12"/>
+      <c r="AH70" s="12"/>
+      <c r="AI70" s="12"/>
+      <c r="AJ70" s="12"/>
+      <c r="AK70" s="12"/>
+      <c r="AL70" s="12"/>
+      <c r="AM70" s="12"/>
     </row>
     <row r="71" spans="4:39" ht="27.75" customHeight="1">
-      <c r="D71" s="14"/>
-      <c r="E71" s="14"/>
-      <c r="F71" s="14"/>
-      <c r="G71" s="14"/>
-      <c r="H71" s="14"/>
-      <c r="I71" s="14"/>
-      <c r="J71" s="14"/>
-      <c r="K71" s="14"/>
-      <c r="L71" s="14"/>
-      <c r="M71" s="14"/>
-      <c r="N71" s="14"/>
-      <c r="O71" s="14"/>
-      <c r="P71" s="14"/>
-      <c r="Q71" s="14"/>
-      <c r="R71" s="14"/>
-      <c r="S71" s="14"/>
-      <c r="T71" s="14"/>
-      <c r="U71" s="14"/>
-      <c r="V71" s="14"/>
-      <c r="W71" s="14"/>
-      <c r="X71" s="14"/>
-      <c r="Y71" s="14"/>
-      <c r="Z71" s="14"/>
-      <c r="AA71" s="14"/>
-      <c r="AB71" s="14"/>
-      <c r="AC71" s="14"/>
-      <c r="AD71" s="14"/>
-      <c r="AE71" s="14"/>
-      <c r="AF71" s="14"/>
-      <c r="AG71" s="14"/>
-      <c r="AH71" s="14"/>
-      <c r="AI71" s="14"/>
-      <c r="AJ71" s="14"/>
-      <c r="AK71" s="14"/>
-      <c r="AL71" s="14"/>
-      <c r="AM71" s="14"/>
+      <c r="D71" s="12"/>
+      <c r="E71" s="12"/>
+      <c r="F71" s="12"/>
+      <c r="G71" s="12"/>
+      <c r="H71" s="12"/>
+      <c r="I71" s="12"/>
+      <c r="J71" s="12"/>
+      <c r="K71" s="12"/>
+      <c r="L71" s="12"/>
+      <c r="M71" s="12"/>
+      <c r="N71" s="12"/>
+      <c r="O71" s="12"/>
+      <c r="P71" s="12"/>
+      <c r="Q71" s="12"/>
+      <c r="R71" s="12"/>
+      <c r="S71" s="12"/>
+      <c r="T71" s="12"/>
+      <c r="U71" s="12"/>
+      <c r="V71" s="12"/>
+      <c r="W71" s="12"/>
+      <c r="X71" s="12"/>
+      <c r="Y71" s="12"/>
+      <c r="Z71" s="12"/>
+      <c r="AA71" s="12"/>
+      <c r="AB71" s="12"/>
+      <c r="AC71" s="12"/>
+      <c r="AD71" s="12"/>
+      <c r="AE71" s="12"/>
+      <c r="AF71" s="12"/>
+      <c r="AG71" s="12"/>
+      <c r="AH71" s="12"/>
+      <c r="AI71" s="12"/>
+      <c r="AJ71" s="12"/>
+      <c r="AK71" s="12"/>
+      <c r="AL71" s="12"/>
+      <c r="AM71" s="12"/>
     </row>
     <row r="72" spans="4:39" ht="27.75" customHeight="1">
-      <c r="D72" s="14"/>
-      <c r="E72" s="14"/>
-      <c r="F72" s="14"/>
-      <c r="G72" s="14"/>
-      <c r="H72" s="14"/>
-      <c r="I72" s="14"/>
-      <c r="J72" s="14"/>
-      <c r="K72" s="14"/>
-      <c r="L72" s="14"/>
-      <c r="M72" s="14"/>
-      <c r="N72" s="14"/>
-      <c r="O72" s="14"/>
-      <c r="P72" s="14"/>
-      <c r="Q72" s="14"/>
-      <c r="R72" s="14"/>
-      <c r="S72" s="14"/>
-      <c r="T72" s="14"/>
-      <c r="U72" s="14"/>
-      <c r="V72" s="14"/>
-      <c r="W72" s="14"/>
-      <c r="X72" s="14"/>
-      <c r="Y72" s="14"/>
-      <c r="Z72" s="14"/>
-      <c r="AA72" s="14"/>
-      <c r="AB72" s="14"/>
-      <c r="AC72" s="14"/>
-      <c r="AD72" s="14"/>
-      <c r="AE72" s="14"/>
-      <c r="AF72" s="14"/>
-      <c r="AG72" s="14"/>
-      <c r="AH72" s="14"/>
-      <c r="AI72" s="14"/>
-      <c r="AJ72" s="14"/>
-      <c r="AK72" s="14"/>
-      <c r="AL72" s="14"/>
-      <c r="AM72" s="14"/>
+      <c r="D72" s="12"/>
+      <c r="E72" s="12"/>
+      <c r="F72" s="12"/>
+      <c r="G72" s="12"/>
+      <c r="H72" s="12"/>
+      <c r="I72" s="12"/>
+      <c r="J72" s="12"/>
+      <c r="K72" s="12"/>
+      <c r="L72" s="12"/>
+      <c r="M72" s="12"/>
+      <c r="N72" s="12"/>
+      <c r="O72" s="12"/>
+      <c r="P72" s="12"/>
+      <c r="Q72" s="12"/>
+      <c r="R72" s="12"/>
+      <c r="S72" s="12"/>
+      <c r="T72" s="12"/>
+      <c r="U72" s="12"/>
+      <c r="V72" s="12"/>
+      <c r="W72" s="12"/>
+      <c r="X72" s="12"/>
+      <c r="Y72" s="12"/>
+      <c r="Z72" s="12"/>
+      <c r="AA72" s="12"/>
+      <c r="AB72" s="12"/>
+      <c r="AC72" s="12"/>
+      <c r="AD72" s="12"/>
+      <c r="AE72" s="12"/>
+      <c r="AF72" s="12"/>
+      <c r="AG72" s="12"/>
+      <c r="AH72" s="12"/>
+      <c r="AI72" s="12"/>
+      <c r="AJ72" s="12"/>
+      <c r="AK72" s="12"/>
+      <c r="AL72" s="12"/>
+      <c r="AM72" s="12"/>
     </row>
     <row r="73" spans="4:39" ht="27.75" customHeight="1">
-      <c r="D73" s="14"/>
-      <c r="E73" s="14"/>
-      <c r="F73" s="14"/>
-      <c r="G73" s="14"/>
-      <c r="H73" s="14"/>
-      <c r="I73" s="14"/>
-      <c r="J73" s="14"/>
-      <c r="K73" s="14"/>
-      <c r="L73" s="14"/>
-      <c r="M73" s="14"/>
-      <c r="N73" s="14"/>
-      <c r="O73" s="14"/>
-      <c r="P73" s="14"/>
-      <c r="Q73" s="14"/>
-      <c r="R73" s="14"/>
-      <c r="S73" s="14"/>
-      <c r="T73" s="14"/>
-      <c r="U73" s="14"/>
-      <c r="V73" s="14"/>
-      <c r="W73" s="14"/>
-      <c r="X73" s="14"/>
-      <c r="Y73" s="14"/>
-      <c r="Z73" s="14"/>
-      <c r="AA73" s="14"/>
-      <c r="AB73" s="14"/>
-      <c r="AC73" s="14"/>
-      <c r="AD73" s="14"/>
-      <c r="AE73" s="14"/>
-      <c r="AF73" s="14"/>
-      <c r="AG73" s="14"/>
-      <c r="AH73" s="14"/>
-      <c r="AI73" s="14"/>
-      <c r="AJ73" s="14"/>
-      <c r="AK73" s="14"/>
-      <c r="AL73" s="14"/>
-      <c r="AM73" s="14"/>
+      <c r="D73" s="12"/>
+      <c r="E73" s="12"/>
+      <c r="F73" s="12"/>
+      <c r="G73" s="12"/>
+      <c r="H73" s="12"/>
+      <c r="I73" s="12"/>
+      <c r="J73" s="12"/>
+      <c r="K73" s="12"/>
+      <c r="L73" s="12"/>
+      <c r="M73" s="12"/>
+      <c r="N73" s="12"/>
+      <c r="O73" s="12"/>
+      <c r="P73" s="12"/>
+      <c r="Q73" s="12"/>
+      <c r="R73" s="12"/>
+      <c r="S73" s="12"/>
+      <c r="T73" s="12"/>
+      <c r="U73" s="12"/>
+      <c r="V73" s="12"/>
+      <c r="W73" s="12"/>
+      <c r="X73" s="12"/>
+      <c r="Y73" s="12"/>
+      <c r="Z73" s="12"/>
+      <c r="AA73" s="12"/>
+      <c r="AB73" s="12"/>
+      <c r="AC73" s="12"/>
+      <c r="AD73" s="12"/>
+      <c r="AE73" s="12"/>
+      <c r="AF73" s="12"/>
+      <c r="AG73" s="12"/>
+      <c r="AH73" s="12"/>
+      <c r="AI73" s="12"/>
+      <c r="AJ73" s="12"/>
+      <c r="AK73" s="12"/>
+      <c r="AL73" s="12"/>
+      <c r="AM73" s="12"/>
     </row>
     <row r="74" spans="4:39" ht="27.75" customHeight="1">
-      <c r="D74" s="14"/>
-      <c r="E74" s="14"/>
-      <c r="F74" s="14"/>
-      <c r="G74" s="14"/>
-      <c r="H74" s="14"/>
-      <c r="I74" s="14"/>
-      <c r="J74" s="14"/>
-      <c r="K74" s="14"/>
-      <c r="L74" s="14"/>
-      <c r="M74" s="14"/>
-      <c r="N74" s="14"/>
-      <c r="O74" s="14"/>
-      <c r="P74" s="14"/>
-      <c r="Q74" s="14"/>
-      <c r="R74" s="14"/>
-      <c r="S74" s="14"/>
-      <c r="T74" s="14"/>
-      <c r="U74" s="14"/>
-      <c r="V74" s="14"/>
-      <c r="W74" s="14"/>
-      <c r="X74" s="14"/>
-      <c r="Y74" s="14"/>
-      <c r="Z74" s="14"/>
-      <c r="AA74" s="14"/>
-      <c r="AB74" s="14"/>
-      <c r="AC74" s="14"/>
-      <c r="AD74" s="14"/>
-      <c r="AE74" s="14"/>
-      <c r="AF74" s="14"/>
-      <c r="AG74" s="14"/>
-      <c r="AH74" s="14"/>
-      <c r="AI74" s="14"/>
-      <c r="AJ74" s="14"/>
-      <c r="AK74" s="14"/>
-      <c r="AL74" s="14"/>
-      <c r="AM74" s="14"/>
+      <c r="D74" s="12"/>
+      <c r="E74" s="12"/>
+      <c r="F74" s="12"/>
+      <c r="G74" s="12"/>
+      <c r="H74" s="12"/>
+      <c r="I74" s="12"/>
+      <c r="J74" s="12"/>
+      <c r="K74" s="12"/>
+      <c r="L74" s="12"/>
+      <c r="M74" s="12"/>
+      <c r="N74" s="12"/>
+      <c r="O74" s="12"/>
+      <c r="P74" s="12"/>
+      <c r="Q74" s="12"/>
+      <c r="R74" s="12"/>
+      <c r="S74" s="12"/>
+      <c r="T74" s="12"/>
+      <c r="U74" s="12"/>
+      <c r="V74" s="12"/>
+      <c r="W74" s="12"/>
+      <c r="X74" s="12"/>
+      <c r="Y74" s="12"/>
+      <c r="Z74" s="12"/>
+      <c r="AA74" s="12"/>
+      <c r="AB74" s="12"/>
+      <c r="AC74" s="12"/>
+      <c r="AD74" s="12"/>
+      <c r="AE74" s="12"/>
+      <c r="AF74" s="12"/>
+      <c r="AG74" s="12"/>
+      <c r="AH74" s="12"/>
+      <c r="AI74" s="12"/>
+      <c r="AJ74" s="12"/>
+      <c r="AK74" s="12"/>
+      <c r="AL74" s="12"/>
+      <c r="AM74" s="12"/>
     </row>
     <row r="75" spans="4:39" ht="11.25" customHeight="1">
       <c r="D75" s="9"/>
@@ -5801,81 +6314,6 @@
     <protectedRange sqref="O24:O27 G35 G31 P31" name="入力項目"/>
   </protectedRanges>
   <mergeCells count="91">
-    <mergeCell ref="D71:I71"/>
-    <mergeCell ref="J71:T71"/>
-    <mergeCell ref="U71:AM71"/>
-    <mergeCell ref="D74:I74"/>
-    <mergeCell ref="J74:T74"/>
-    <mergeCell ref="U74:AM74"/>
-    <mergeCell ref="D72:I72"/>
-    <mergeCell ref="J72:T72"/>
-    <mergeCell ref="U72:AM72"/>
-    <mergeCell ref="D73:I73"/>
-    <mergeCell ref="J73:T73"/>
-    <mergeCell ref="U73:AM73"/>
-    <mergeCell ref="D69:I69"/>
-    <mergeCell ref="J69:T69"/>
-    <mergeCell ref="U69:AM69"/>
-    <mergeCell ref="D70:I70"/>
-    <mergeCell ref="J70:T70"/>
-    <mergeCell ref="U70:AM70"/>
-    <mergeCell ref="D67:I67"/>
-    <mergeCell ref="J67:T67"/>
-    <mergeCell ref="U67:AM67"/>
-    <mergeCell ref="D68:I68"/>
-    <mergeCell ref="J68:T68"/>
-    <mergeCell ref="U68:AM68"/>
-    <mergeCell ref="D65:I65"/>
-    <mergeCell ref="J65:T65"/>
-    <mergeCell ref="U65:AM65"/>
-    <mergeCell ref="D66:I66"/>
-    <mergeCell ref="J66:T66"/>
-    <mergeCell ref="U66:AM66"/>
-    <mergeCell ref="D63:I63"/>
-    <mergeCell ref="J63:T63"/>
-    <mergeCell ref="U63:AM63"/>
-    <mergeCell ref="D64:I64"/>
-    <mergeCell ref="J64:T64"/>
-    <mergeCell ref="U64:AM64"/>
-    <mergeCell ref="D61:I61"/>
-    <mergeCell ref="J61:T61"/>
-    <mergeCell ref="U61:AM61"/>
-    <mergeCell ref="D62:I62"/>
-    <mergeCell ref="J62:T62"/>
-    <mergeCell ref="U62:AM62"/>
-    <mergeCell ref="D59:I59"/>
-    <mergeCell ref="J59:T59"/>
-    <mergeCell ref="U59:AM59"/>
-    <mergeCell ref="D60:I60"/>
-    <mergeCell ref="J60:T60"/>
-    <mergeCell ref="U60:AM60"/>
-    <mergeCell ref="D57:I57"/>
-    <mergeCell ref="J57:T57"/>
-    <mergeCell ref="U57:AM57"/>
-    <mergeCell ref="D58:I58"/>
-    <mergeCell ref="J58:T58"/>
-    <mergeCell ref="U58:AM58"/>
-    <mergeCell ref="D55:I55"/>
-    <mergeCell ref="J55:T55"/>
-    <mergeCell ref="U55:AM55"/>
-    <mergeCell ref="D56:I56"/>
-    <mergeCell ref="J56:T56"/>
-    <mergeCell ref="U56:AM56"/>
-    <mergeCell ref="U49:AM49"/>
-    <mergeCell ref="J50:T50"/>
-    <mergeCell ref="U50:AM50"/>
-    <mergeCell ref="D54:I54"/>
-    <mergeCell ref="J54:T54"/>
-    <mergeCell ref="U54:AM54"/>
-    <mergeCell ref="AH4:AN6"/>
-    <mergeCell ref="P31:AJ31"/>
-    <mergeCell ref="G35:AJ35"/>
-    <mergeCell ref="G31:O31"/>
-    <mergeCell ref="O27:V27"/>
-    <mergeCell ref="O24:AA24"/>
-    <mergeCell ref="O25:AA25"/>
-    <mergeCell ref="O26:AA26"/>
-    <mergeCell ref="M3:AG8"/>
     <mergeCell ref="C43:AN45"/>
     <mergeCell ref="D48:I48"/>
     <mergeCell ref="D49:I49"/>
@@ -5892,13 +6330,88 @@
     <mergeCell ref="J48:T48"/>
     <mergeCell ref="J49:T49"/>
     <mergeCell ref="U48:AM48"/>
+    <mergeCell ref="AH4:AN6"/>
+    <mergeCell ref="P31:AJ31"/>
+    <mergeCell ref="G35:AJ35"/>
+    <mergeCell ref="G31:O31"/>
+    <mergeCell ref="O27:V27"/>
+    <mergeCell ref="O24:AA24"/>
+    <mergeCell ref="O25:AA25"/>
+    <mergeCell ref="O26:AA26"/>
+    <mergeCell ref="M3:AG8"/>
+    <mergeCell ref="U49:AM49"/>
+    <mergeCell ref="J50:T50"/>
+    <mergeCell ref="U50:AM50"/>
+    <mergeCell ref="D54:I54"/>
+    <mergeCell ref="J54:T54"/>
+    <mergeCell ref="U54:AM54"/>
+    <mergeCell ref="D55:I55"/>
+    <mergeCell ref="J55:T55"/>
+    <mergeCell ref="U55:AM55"/>
+    <mergeCell ref="D56:I56"/>
+    <mergeCell ref="J56:T56"/>
+    <mergeCell ref="U56:AM56"/>
+    <mergeCell ref="D57:I57"/>
+    <mergeCell ref="J57:T57"/>
+    <mergeCell ref="U57:AM57"/>
+    <mergeCell ref="D58:I58"/>
+    <mergeCell ref="J58:T58"/>
+    <mergeCell ref="U58:AM58"/>
+    <mergeCell ref="D59:I59"/>
+    <mergeCell ref="J59:T59"/>
+    <mergeCell ref="U59:AM59"/>
+    <mergeCell ref="D60:I60"/>
+    <mergeCell ref="J60:T60"/>
+    <mergeCell ref="U60:AM60"/>
+    <mergeCell ref="D61:I61"/>
+    <mergeCell ref="J61:T61"/>
+    <mergeCell ref="U61:AM61"/>
+    <mergeCell ref="D62:I62"/>
+    <mergeCell ref="J62:T62"/>
+    <mergeCell ref="U62:AM62"/>
+    <mergeCell ref="D63:I63"/>
+    <mergeCell ref="J63:T63"/>
+    <mergeCell ref="U63:AM63"/>
+    <mergeCell ref="D64:I64"/>
+    <mergeCell ref="J64:T64"/>
+    <mergeCell ref="U64:AM64"/>
+    <mergeCell ref="D65:I65"/>
+    <mergeCell ref="J65:T65"/>
+    <mergeCell ref="U65:AM65"/>
+    <mergeCell ref="D66:I66"/>
+    <mergeCell ref="J66:T66"/>
+    <mergeCell ref="U66:AM66"/>
+    <mergeCell ref="D67:I67"/>
+    <mergeCell ref="J67:T67"/>
+    <mergeCell ref="U67:AM67"/>
+    <mergeCell ref="D68:I68"/>
+    <mergeCell ref="J68:T68"/>
+    <mergeCell ref="U68:AM68"/>
+    <mergeCell ref="D69:I69"/>
+    <mergeCell ref="J69:T69"/>
+    <mergeCell ref="U69:AM69"/>
+    <mergeCell ref="D70:I70"/>
+    <mergeCell ref="J70:T70"/>
+    <mergeCell ref="U70:AM70"/>
+    <mergeCell ref="D71:I71"/>
+    <mergeCell ref="J71:T71"/>
+    <mergeCell ref="U71:AM71"/>
+    <mergeCell ref="D74:I74"/>
+    <mergeCell ref="J74:T74"/>
+    <mergeCell ref="U74:AM74"/>
+    <mergeCell ref="D72:I72"/>
+    <mergeCell ref="J72:T72"/>
+    <mergeCell ref="U72:AM72"/>
+    <mergeCell ref="D73:I73"/>
+    <mergeCell ref="J73:T73"/>
+    <mergeCell ref="U73:AM73"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <dataValidations count="2">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D49:I71">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D49:I71" xr:uid="{00000000-0002-0000-0000-000000000000}">
       <formula1>ジャンル</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="J49:S71">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="J49:S71" xr:uid="{00000000-0002-0000-0000-000001000000}">
       <formula1>INDIRECT(D49)</formula1>
     </dataValidation>
   </dataValidations>
@@ -5971,19 +6484,19 @@
     </ext>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
       <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="3">
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0000-000002000000}">
           <x14:formula1>
             <xm:f>選択!$D$3:$D$9</xm:f>
           </x14:formula1>
           <xm:sqref>O27</xm:sqref>
         </x14:dataValidation>
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0000-000003000000}">
           <x14:formula1>
             <xm:f>選択!$F$3:$F$6</xm:f>
           </x14:formula1>
           <xm:sqref>AH4</xm:sqref>
         </x14:dataValidation>
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0000-000004000000}">
           <x14:formula1>
             <xm:f>選択!$B$3:$B$10</xm:f>
           </x14:formula1>
@@ -5996,12 +6509,12 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <sheetPr codeName="Sheet3"/>
-  <dimension ref="B2:H79"/>
+  <dimension ref="B2:H80"/>
   <sheetViews>
-    <sheetView topLeftCell="A40" workbookViewId="0">
-      <selection activeCell="D65" sqref="D65"/>
+    <sheetView topLeftCell="A34" workbookViewId="0">
+      <selection activeCell="D44" sqref="D44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="2.375" defaultRowHeight="18.75"/>
@@ -6412,7 +6925,7 @@
       </c>
       <c r="C44" s="7"/>
       <c r="D44" s="7" t="s">
-        <v>75</v>
+        <v>133</v>
       </c>
     </row>
     <row r="45" spans="2:4" ht="19.5" customHeight="1">
@@ -6421,16 +6934,16 @@
       </c>
       <c r="C45" s="7"/>
       <c r="D45" s="7" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="46" spans="2:4" ht="18.75" customHeight="1">
       <c r="B46" s="7" t="s">
-        <v>47</v>
+        <v>20</v>
       </c>
       <c r="C46" s="7"/>
       <c r="D46" s="7" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
     <row r="47" spans="2:4" ht="18.75" customHeight="1">
@@ -6439,7 +6952,7 @@
       </c>
       <c r="C47" s="7"/>
       <c r="D47" s="7" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
     <row r="48" spans="2:4" ht="19.5" customHeight="1">
@@ -6448,7 +6961,7 @@
       </c>
       <c r="C48" s="7"/>
       <c r="D48" s="7" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
     <row r="49" spans="2:4" ht="18.75" customHeight="1">
@@ -6457,7 +6970,7 @@
       </c>
       <c r="C49" s="7"/>
       <c r="D49" s="7" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="50" spans="2:4" ht="18.75" customHeight="1">
@@ -6466,7 +6979,7 @@
       </c>
       <c r="C50" s="7"/>
       <c r="D50" s="7" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
     </row>
     <row r="51" spans="2:4" ht="18.75" customHeight="1">
@@ -6475,16 +6988,16 @@
       </c>
       <c r="C51" s="7"/>
       <c r="D51" s="7" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
     </row>
     <row r="52" spans="2:4" ht="18.75" customHeight="1">
       <c r="B52" s="7" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="C52" s="7"/>
       <c r="D52" s="7" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
     </row>
     <row r="53" spans="2:4" ht="19.5" customHeight="1">
@@ -6493,7 +7006,7 @@
       </c>
       <c r="C53" s="7"/>
       <c r="D53" s="7" t="s">
-        <v>109</v>
+        <v>83</v>
       </c>
     </row>
     <row r="54" spans="2:4" ht="18.75" customHeight="1">
@@ -6502,7 +7015,7 @@
       </c>
       <c r="C54" s="7"/>
       <c r="D54" s="7" t="s">
-        <v>84</v>
+        <v>109</v>
       </c>
     </row>
     <row r="55" spans="2:4" ht="18.75" customHeight="1">
@@ -6511,7 +7024,7 @@
       </c>
       <c r="C55" s="7"/>
       <c r="D55" s="7" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="56" spans="2:4" ht="18.75" customHeight="1">
@@ -6520,7 +7033,7 @@
       </c>
       <c r="C56" s="7"/>
       <c r="D56" s="7" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="57" spans="2:4" ht="18.75" customHeight="1">
@@ -6529,7 +7042,7 @@
       </c>
       <c r="C57" s="7"/>
       <c r="D57" s="7" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
     </row>
     <row r="58" spans="2:4" ht="18.75" customHeight="1">
@@ -6538,7 +7051,7 @@
       </c>
       <c r="C58" s="7"/>
       <c r="D58" s="7" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
     </row>
     <row r="59" spans="2:4" ht="18.75" customHeight="1">
@@ -6547,7 +7060,7 @@
       </c>
       <c r="C59" s="7"/>
       <c r="D59" s="7" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
     </row>
     <row r="60" spans="2:4" ht="18.75" customHeight="1">
@@ -6556,7 +7069,7 @@
       </c>
       <c r="C60" s="7"/>
       <c r="D60" s="7" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="61" spans="2:4" ht="18.75" customHeight="1">
@@ -6565,16 +7078,16 @@
       </c>
       <c r="C61" s="7"/>
       <c r="D61" s="7" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
     <row r="62" spans="2:4" ht="19.5" customHeight="1">
       <c r="B62" s="7" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="C62" s="7"/>
       <c r="D62" s="7" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="63" spans="2:4">
@@ -6583,7 +7096,7 @@
       </c>
       <c r="C63" s="7"/>
       <c r="D63" s="7" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
     <row r="64" spans="2:4">
@@ -6592,7 +7105,7 @@
       </c>
       <c r="C64" s="7"/>
       <c r="D64" s="7" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
     </row>
     <row r="65" spans="2:4">
@@ -6601,7 +7114,7 @@
       </c>
       <c r="C65" s="7"/>
       <c r="D65" s="7" t="s">
-        <v>129</v>
+        <v>94</v>
       </c>
     </row>
     <row r="66" spans="2:4">
@@ -6610,7 +7123,7 @@
       </c>
       <c r="C66" s="7"/>
       <c r="D66" s="7" t="s">
-        <v>121</v>
+        <v>127</v>
       </c>
     </row>
     <row r="67" spans="2:4">
@@ -6628,7 +7141,7 @@
       </c>
       <c r="C68" s="7"/>
       <c r="D68" s="7" t="s">
-        <v>126</v>
+        <v>119</v>
       </c>
     </row>
     <row r="69" spans="2:4">
@@ -6637,16 +7150,16 @@
       </c>
       <c r="C69" s="7"/>
       <c r="D69" s="7" t="s">
-        <v>95</v>
+        <v>124</v>
       </c>
     </row>
     <row r="70" spans="2:4">
       <c r="B70" s="7" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="C70" s="7"/>
       <c r="D70" s="7" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
     </row>
     <row r="71" spans="2:4">
@@ -6655,7 +7168,7 @@
       </c>
       <c r="C71" s="7"/>
       <c r="D71" s="7" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
     </row>
     <row r="72" spans="2:4">
@@ -6664,7 +7177,7 @@
       </c>
       <c r="C72" s="7"/>
       <c r="D72" s="7" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
     </row>
     <row r="73" spans="2:4">
@@ -6673,16 +7186,16 @@
       </c>
       <c r="C73" s="7"/>
       <c r="D73" s="7" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
     </row>
     <row r="74" spans="2:4">
       <c r="B74" s="7" t="s">
-        <v>46</v>
+        <v>54</v>
       </c>
       <c r="C74" s="7"/>
       <c r="D74" s="7" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
     <row r="75" spans="2:4">
@@ -6691,7 +7204,7 @@
       </c>
       <c r="C75" s="7"/>
       <c r="D75" s="7" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
     </row>
     <row r="76" spans="2:4">
@@ -6700,7 +7213,7 @@
       </c>
       <c r="C76" s="7"/>
       <c r="D76" s="7" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
     </row>
     <row r="77" spans="2:4">
@@ -6709,7 +7222,7 @@
       </c>
       <c r="C77" s="7"/>
       <c r="D77" s="7" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="78" spans="2:4">
@@ -6718,7 +7231,7 @@
       </c>
       <c r="C78" s="7"/>
       <c r="D78" s="7" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
     </row>
     <row r="79" spans="2:4">
@@ -6727,6 +7240,14 @@
       </c>
       <c r="C79" s="7"/>
       <c r="D79" s="7" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="80" spans="2:4">
+      <c r="B80" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="D80" s="7" t="s">
         <v>105</v>
       </c>
     </row>
@@ -6738,6 +7259,17 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="02709b60-37ec-424b-b681-c6612ac7fe32">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+    <TaxCatchAll xmlns="f9048785-d070-4c78-8f2f-ed2b48eb345c" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="ドキュメント" ma:contentTypeID="0x010100C2961D859B1A8B4697EC07BF3C3DAD3B" ma:contentTypeVersion="15" ma:contentTypeDescription="新しいドキュメントを作成します。" ma:contentTypeScope="" ma:versionID="61fb881009e02d846dde605853ec8855">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="02709b60-37ec-424b-b681-c6612ac7fe32" xmlns:ns3="f9048785-d070-4c78-8f2f-ed2b48eb345c" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="ee8e5857d1e7c61daa458c0ee5ad5d78" ns2:_="" ns3:_="">
     <xsd:import namespace="02709b60-37ec-424b-b681-c6612ac7fe32"/>
@@ -6972,17 +7504,6 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="02709b60-37ec-424b-b681-c6612ac7fe32">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-    <TaxCatchAll xmlns="f9048785-d070-4c78-8f2f-ed2b48eb345c" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
-</file>
-
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
 <FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
@@ -6993,6 +7514,23 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{99A05471-9381-45FA-B698-ECE997466ADA}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="02709b60-37ec-424b-b681-c6612ac7fe32"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="f9048785-d070-4c78-8f2f-ed2b48eb345c"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{8B673FAB-ED83-4048-83DC-E118FF73CE8D}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -7011,23 +7549,6 @@
 </ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{99A05471-9381-45FA-B698-ECE997466ADA}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="f9048785-d070-4c78-8f2f-ed2b48eb345c"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="02709b60-37ec-424b-b681-c6612ac7fe32"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{2137EFEA-05C5-4541-B472-718FEE202DA3}">
   <ds:schemaRefs>
